--- a/2024.2/Materiais enviados/Provas/Módulo 1/Notas.xlsx
+++ b/2024.2/Materiais enviados/Provas/Módulo 1/Notas.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="B:\GitHub\UFMG\DCC865-Projeto_e_Analise_de_Algoritmos\2024.2\Materiais enviados\Provas\Módulo 1\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{155C6766-28D4-4FF3-A20E-CFFE12609B98}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{55FAE87F-7034-4596-B0ED-0278C88EDB3D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="63" uniqueCount="13">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="64" uniqueCount="14">
   <si>
     <t>Turma</t>
   </si>
@@ -65,6 +65,9 @@
   <si>
     <t>João Vítor</t>
   </si>
+  <si>
+    <t>Paulo Alvarenga</t>
+  </si>
 </sst>
 </file>
 
@@ -73,7 +76,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="0.0"/>
   </numFmts>
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -87,13 +90,26 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="1" tint="0.44999542222357858"/>
+        <bgColor theme="1" tint="0.44999542222357858"/>
+      </patternFill>
     </fill>
   </fills>
   <borders count="1">
@@ -108,11 +124,12 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="164" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="49" fontId="2" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -516,14 +533,14 @@
   <dimension ref="A1:J54"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F17" sqref="F17"/>
+      <selection activeCell="G12" sqref="G12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="0" defaultRowHeight="14.4" zeroHeight="1" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="8.6640625" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="13.44140625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="9.33203125" customWidth="1"/>
+    <col min="3" max="3" width="14.109375" bestFit="1" customWidth="1"/>
     <col min="4" max="8" width="5.5546875" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="7.33203125" bestFit="1" customWidth="1"/>
     <col min="10" max="10" width="5" bestFit="1" customWidth="1"/>
@@ -531,6 +548,9 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A1" s="4"/>
+      <c r="B1" s="4"/>
+      <c r="C1" s="4"/>
       <c r="D1" s="3">
         <f t="shared" ref="D1:G1" si="0">SUM(D3:D53)</f>
         <v>173.5</v>
@@ -541,7 +561,7 @@
       </c>
       <c r="F1" s="3">
         <f t="shared" si="0"/>
-        <v>91.40000000000002</v>
+        <v>91.400000000000034</v>
       </c>
       <c r="G1" s="3">
         <f t="shared" si="0"/>
@@ -551,6 +571,7 @@
         <f>SUM(H3:H53)</f>
         <v>170.7999999999999</v>
       </c>
+      <c r="I1" s="4"/>
     </row>
     <row r="2" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
@@ -732,7 +753,9 @@
       <c r="B8" s="2">
         <v>2024701846</v>
       </c>
-      <c r="C8" s="2"/>
+      <c r="C8" s="2" t="s">
+        <v>13</v>
+      </c>
       <c r="D8" s="1">
         <v>5</v>
       </c>
@@ -814,7 +837,7 @@
         <v>9</v>
       </c>
       <c r="B11" s="2">
-        <v>2024709286</v>
+        <v>2024710039</v>
       </c>
       <c r="C11" s="2"/>
       <c r="D11" s="1">
@@ -824,10 +847,10 @@
         <v>4.5</v>
       </c>
       <c r="F11" s="1">
-        <v>1.7</v>
+        <v>2.5</v>
       </c>
       <c r="G11" s="1">
-        <v>5</v>
+        <v>4.2</v>
       </c>
       <c r="H11" s="1">
         <v>5</v>
@@ -842,7 +865,7 @@
         <v>9</v>
       </c>
       <c r="B12" s="2">
-        <v>2024710039</v>
+        <v>2024709286</v>
       </c>
       <c r="C12" s="2"/>
       <c r="D12" s="1">
@@ -852,10 +875,10 @@
         <v>4.5</v>
       </c>
       <c r="F12" s="1">
-        <v>2.5</v>
+        <v>1.7</v>
       </c>
       <c r="G12" s="1">
-        <v>4.2</v>
+        <v>5</v>
       </c>
       <c r="H12" s="1">
         <v>5</v>
@@ -951,26 +974,28 @@
     </row>
     <row r="16" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
-        <v>9</v>
+        <v>1</v>
       </c>
       <c r="B16" s="2">
-        <v>2024674016</v>
-      </c>
-      <c r="C16" s="2"/>
+        <v>2024711370</v>
+      </c>
+      <c r="C16" s="2" t="s">
+        <v>12</v>
+      </c>
       <c r="D16" s="1">
         <v>5</v>
       </c>
       <c r="E16" s="1">
-        <v>4.5</v>
+        <v>5</v>
       </c>
       <c r="F16" s="1">
-        <v>1.7</v>
+        <v>2.5</v>
       </c>
       <c r="G16" s="1">
         <v>4.2</v>
       </c>
       <c r="H16" s="1">
-        <v>5</v>
+        <v>3.7</v>
       </c>
       <c r="I16" s="1">
         <f>SUM(D16:H16)</f>
@@ -979,28 +1004,26 @@
     </row>
     <row r="17" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A17" t="s">
-        <v>1</v>
+        <v>9</v>
       </c>
       <c r="B17" s="2">
-        <v>2024711370</v>
-      </c>
-      <c r="C17" s="2" t="s">
-        <v>12</v>
-      </c>
+        <v>2024674016</v>
+      </c>
+      <c r="C17" s="2"/>
       <c r="D17" s="1">
         <v>5</v>
       </c>
       <c r="E17" s="1">
-        <v>5</v>
+        <v>4.5</v>
       </c>
       <c r="F17" s="1">
-        <v>2.5</v>
+        <v>1.7</v>
       </c>
       <c r="G17" s="1">
         <v>4.2</v>
       </c>
       <c r="H17" s="1">
-        <v>3.7</v>
+        <v>5</v>
       </c>
       <c r="I17" s="1">
         <f>SUM(D17:H17)</f>
@@ -1124,23 +1147,23 @@
         <v>1</v>
       </c>
       <c r="B22" s="2">
-        <v>2024712317</v>
+        <v>2024716169</v>
       </c>
       <c r="C22" s="2"/>
       <c r="D22" s="1">
         <v>5</v>
       </c>
       <c r="E22" s="1">
-        <v>4</v>
+        <v>3.5</v>
       </c>
       <c r="F22" s="1">
-        <v>1.7</v>
+        <v>2.5</v>
       </c>
       <c r="G22" s="1">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="H22" s="1">
-        <v>5</v>
+        <v>3.7</v>
       </c>
       <c r="I22" s="1">
         <f>SUM(D22:H22)</f>
@@ -1152,23 +1175,23 @@
         <v>1</v>
       </c>
       <c r="B23" s="2">
-        <v>2024716169</v>
+        <v>2024712317</v>
       </c>
       <c r="C23" s="2"/>
       <c r="D23" s="1">
         <v>5</v>
       </c>
       <c r="E23" s="1">
-        <v>3.5</v>
+        <v>4</v>
       </c>
       <c r="F23" s="1">
-        <v>2.5</v>
+        <v>1.7</v>
       </c>
       <c r="G23" s="1">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="H23" s="1">
-        <v>3.7</v>
+        <v>5</v>
       </c>
       <c r="I23" s="1">
         <f>SUM(D23:H23)</f>
@@ -1971,6 +1994,18 @@
   </conditionalFormatting>
   <conditionalFormatting sqref="D48:D53">
     <cfRule type="colorScale" priority="2">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D1:H1">
+    <cfRule type="colorScale" priority="1">
       <colorScale>
         <cfvo type="min"/>
         <cfvo type="percentile" val="50"/>
@@ -2041,18 +2076,6 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="D1:H1">
-    <cfRule type="colorScale" priority="1">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
-        <color rgb="FFF8696B"/>
-        <color rgb="FFFFEB84"/>
-        <color rgb="FF63BE7B"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <tableParts count="1">
     <tablePart r:id="rId1"/>

--- a/2024.2/Materiais enviados/Provas/Módulo 1/Notas.xlsx
+++ b/2024.2/Materiais enviados/Provas/Módulo 1/Notas.xlsx
@@ -8,13 +8,18 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="B:\GitHub\UFMG\DCC865-Projeto_e_Analise_de_Algoritmos\2024.2\Materiais enviados\Provas\Módulo 1\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{55FAE87F-7034-4596-B0ED-0278C88EDB3D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4B095E0C-4067-43BD-B96D-B51953F7E8FB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="P1" sheetId="1" r:id="rId1"/>
+    <sheet name="Todas as notas" sheetId="3" r:id="rId1"/>
+    <sheet name="P1" sheetId="1" r:id="rId2"/>
+    <sheet name="P2" sheetId="2" r:id="rId3"/>
   </sheets>
+  <definedNames>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">'Todas as notas'!#REF!</definedName>
+  </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
@@ -25,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="64" uniqueCount="14">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="199" uniqueCount="27">
   <si>
     <t>Turma</t>
   </si>
@@ -67,6 +72,45 @@
   </si>
   <si>
     <t>Paulo Alvarenga</t>
+  </si>
+  <si>
+    <t>P1 Q1</t>
+  </si>
+  <si>
+    <t>P1 Q2</t>
+  </si>
+  <si>
+    <t>P1 Q3</t>
+  </si>
+  <si>
+    <t>P1 Q4</t>
+  </si>
+  <si>
+    <t>P1 Q5</t>
+  </si>
+  <si>
+    <t>P2 Q1</t>
+  </si>
+  <si>
+    <t>P2 Q2</t>
+  </si>
+  <si>
+    <t>P2 Q3</t>
+  </si>
+  <si>
+    <t>P2 Q4</t>
+  </si>
+  <si>
+    <t>P2 Q5</t>
+  </si>
+  <si>
+    <t>Nota P2</t>
+  </si>
+  <si>
+    <t>Nota P1</t>
+  </si>
+  <si>
+    <t>Módulo 1 e 2</t>
   </si>
 </sst>
 </file>
@@ -134,7 +178,298 @@
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="8">
+  <dxfs count="29">
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color auto="1"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+      <numFmt numFmtId="164" formatCode="0.0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color auto="1"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+      <numFmt numFmtId="164" formatCode="0.0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color auto="1"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+      <numFmt numFmtId="164" formatCode="0.0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color auto="1"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+      <numFmt numFmtId="164" formatCode="0.0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color auto="1"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+      <numFmt numFmtId="164" formatCode="0.0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color auto="1"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+      <numFmt numFmtId="164" formatCode="0.0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color auto="1"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+      <numFmt numFmtId="164" formatCode="0.0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color auto="1"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+      <numFmt numFmtId="164" formatCode="0.0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color auto="1"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+      <numFmt numFmtId="164" formatCode="0.0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color auto="1"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+      <numFmt numFmtId="164" formatCode="0.0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color auto="1"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+      <numFmt numFmtId="164" formatCode="0.0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color auto="1"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+      <numFmt numFmtId="164" formatCode="0.0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color auto="1"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+      <numFmt numFmtId="164" formatCode="0.0"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="30" formatCode="@"/>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color auto="1"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+      <numFmt numFmtId="164" formatCode="0.0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color auto="1"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+      <numFmt numFmtId="164" formatCode="0.0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color auto="1"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+      <numFmt numFmtId="164" formatCode="0.0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color auto="1"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+      <numFmt numFmtId="164" formatCode="0.0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color auto="1"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+      <numFmt numFmtId="164" formatCode="0.0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color auto="1"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+      <numFmt numFmtId="164" formatCode="0.0"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="30" formatCode="@"/>
+    </dxf>
     <dxf>
       <font>
         <strike val="0"/>
@@ -245,6 +580,36 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="5" xr:uid="{D8F77952-2AC0-42C0-AC90-F82B3EC43569}" name="Tabela5" displayName="Tabela5" ref="A2:P53" totalsRowShown="0">
+  <autoFilter ref="A2:P53" xr:uid="{D8F77952-2AC0-42C0-AC90-F82B3EC43569}"/>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A3:P53">
+    <sortCondition descending="1" ref="P2:P53"/>
+  </sortState>
+  <tableColumns count="16">
+    <tableColumn id="1" xr3:uid="{A53A2C59-CFCF-4DCE-A539-E5C7C52B4323}" name="Turma"/>
+    <tableColumn id="2" xr3:uid="{D46261CA-D987-4B1E-AAA1-4814381AC974}" name="MATRICULA"/>
+    <tableColumn id="3" xr3:uid="{EA298C66-D77E-4E0C-BDE1-C7E2FF592509}" name="Nome"/>
+    <tableColumn id="4" xr3:uid="{9A116FAF-6A84-48A6-B7CA-698B497F4531}" name="P1 Q1" dataDxfId="12"/>
+    <tableColumn id="5" xr3:uid="{D12FCC22-0C24-43C5-B6BA-8CEDD28B1DBC}" name="P1 Q2" dataDxfId="11"/>
+    <tableColumn id="6" xr3:uid="{DD5FB362-D52B-4E2A-BF0F-67536B79BC88}" name="P1 Q3" dataDxfId="10"/>
+    <tableColumn id="7" xr3:uid="{525F3116-E758-4D18-9405-8A2F3AE88A1D}" name="P1 Q4" dataDxfId="9"/>
+    <tableColumn id="8" xr3:uid="{8C433621-7006-41E0-AAE1-6AD4077F9D26}" name="P1 Q5" dataDxfId="5"/>
+    <tableColumn id="9" xr3:uid="{2A64D5F4-A002-4AC1-88C6-6836E53406AE}" name="Nota P1" dataDxfId="3"/>
+    <tableColumn id="10" xr3:uid="{72E5D83D-FB26-48ED-8B84-25716D854F13}" name="P2 Q1" dataDxfId="4"/>
+    <tableColumn id="11" xr3:uid="{AFFCAA7F-4266-4CC7-8025-96260539743C}" name="P2 Q2" dataDxfId="8"/>
+    <tableColumn id="12" xr3:uid="{3C8DD629-298E-40DC-930C-1E191B680BDE}" name="P2 Q3" dataDxfId="7"/>
+    <tableColumn id="13" xr3:uid="{01F5A46F-FD30-4721-B00D-3719108A04E3}" name="P2 Q4" dataDxfId="6"/>
+    <tableColumn id="14" xr3:uid="{4DE10E09-DF17-4838-AD03-D3C31A02A6CB}" name="P2 Q5" dataDxfId="2"/>
+    <tableColumn id="15" xr3:uid="{37D7A5B3-7131-4112-A4C2-BA2609570788}" name="Nota P2" dataDxfId="1"/>
+    <tableColumn id="16" xr3:uid="{F3F2CD2E-A9C2-44E2-B2C9-4793C32B078F}" name="Módulo 1 e 2" dataDxfId="0">
+      <calculatedColumnFormula>SUM(Tabela5[[#This Row],[Nota P2]],Tabela5[[#This Row],[Nota P1]])</calculatedColumnFormula>
+    </tableColumn>
+  </tableColumns>
+  <tableStyleInfo name="TableStyleDark1" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+</table>
+</file>
+
+<file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
 <table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{CAAFA075-9E53-4E2B-9BD6-7625F23ECCB3}" name="Tabela1" displayName="Tabela1" ref="A2:I53" totalsRowShown="0">
   <autoFilter ref="A2:I53" xr:uid="{CAAFA075-9E53-4E2B-9BD6-7625F23ECCB3}"/>
   <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A3:I53">
@@ -252,14 +617,37 @@
   </sortState>
   <tableColumns count="9">
     <tableColumn id="1" xr3:uid="{BFC0ED60-759B-4BF8-88EE-08E8F81479B6}" name="Turma"/>
-    <tableColumn id="2" xr3:uid="{C0AA615E-562F-485C-8FBD-DED54E1F7ADE}" name="MATRICULA" dataDxfId="7"/>
-    <tableColumn id="9" xr3:uid="{1D4B4CB9-7BB1-43B1-B1DB-D0E028E91578}" name="Nome" dataDxfId="6"/>
-    <tableColumn id="3" xr3:uid="{B811706B-CA27-4CD6-A11D-5EDC50854FF1}" name="Q1" dataDxfId="5"/>
-    <tableColumn id="4" xr3:uid="{9E75F866-5E88-4AB7-862B-E6421E8DA98F}" name="Q2" dataDxfId="4"/>
-    <tableColumn id="5" xr3:uid="{7BCD41E6-B749-403C-B599-9EECC1C8F34C}" name="Q3" dataDxfId="3"/>
-    <tableColumn id="6" xr3:uid="{8A0DD61F-3932-4A92-8E41-45AAAB6C361A}" name="Q4" dataDxfId="2"/>
-    <tableColumn id="7" xr3:uid="{305F59C9-21DF-4808-B78F-695D9697BD49}" name="Q5" dataDxfId="1"/>
-    <tableColumn id="8" xr3:uid="{59A12193-9B24-4649-A9C7-A347CE3F942F}" name="Nota" dataDxfId="0">
+    <tableColumn id="2" xr3:uid="{C0AA615E-562F-485C-8FBD-DED54E1F7ADE}" name="MATRICULA" dataDxfId="28"/>
+    <tableColumn id="9" xr3:uid="{1D4B4CB9-7BB1-43B1-B1DB-D0E028E91578}" name="Nome" dataDxfId="27"/>
+    <tableColumn id="3" xr3:uid="{B811706B-CA27-4CD6-A11D-5EDC50854FF1}" name="Q1" dataDxfId="26"/>
+    <tableColumn id="4" xr3:uid="{9E75F866-5E88-4AB7-862B-E6421E8DA98F}" name="Q2" dataDxfId="25"/>
+    <tableColumn id="5" xr3:uid="{7BCD41E6-B749-403C-B599-9EECC1C8F34C}" name="Q3" dataDxfId="24"/>
+    <tableColumn id="6" xr3:uid="{8A0DD61F-3932-4A92-8E41-45AAAB6C361A}" name="Q4" dataDxfId="23"/>
+    <tableColumn id="7" xr3:uid="{305F59C9-21DF-4808-B78F-695D9697BD49}" name="Q5" dataDxfId="22"/>
+    <tableColumn id="8" xr3:uid="{59A12193-9B24-4649-A9C7-A347CE3F942F}" name="Nota" dataDxfId="21">
+      <calculatedColumnFormula>SUM(D3:H3)</calculatedColumnFormula>
+    </tableColumn>
+  </tableColumns>
+  <tableStyleInfo name="TableStyleDark1" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+</table>
+</file>
+
+<file path=xl/tables/table3.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{0ABBE0AB-4412-4737-90FE-61C3A43226CC}" name="Tabela13" displayName="Tabela13" ref="A2:I53" totalsRowShown="0">
+  <autoFilter ref="A2:I53" xr:uid="{CAAFA075-9E53-4E2B-9BD6-7625F23ECCB3}"/>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A3:I53">
+    <sortCondition descending="1" ref="B2:B53"/>
+  </sortState>
+  <tableColumns count="9">
+    <tableColumn id="1" xr3:uid="{9A597B2A-BCEE-4D3B-A0F0-8913F18EDBC4}" name="Turma"/>
+    <tableColumn id="2" xr3:uid="{B44EA045-0897-40BA-B5A8-7B35E81BA541}" name="MATRICULA" dataDxfId="20"/>
+    <tableColumn id="9" xr3:uid="{8ADF0CB9-B3EF-436C-9C96-DFA691839C79}" name="Nome" dataDxfId="13"/>
+    <tableColumn id="3" xr3:uid="{13E5564B-4516-426A-B08E-982059E2E5BC}" name="Q1" dataDxfId="19"/>
+    <tableColumn id="4" xr3:uid="{E60E864D-1AAC-45C0-A70B-13936B6F247F}" name="Q2" dataDxfId="18"/>
+    <tableColumn id="5" xr3:uid="{438DC79B-2286-42C6-8C30-1D0A25F9D8B5}" name="Q3" dataDxfId="17"/>
+    <tableColumn id="6" xr3:uid="{6423B7C0-A146-4ECC-BD49-E25FDE130238}" name="Q4" dataDxfId="16"/>
+    <tableColumn id="7" xr3:uid="{AD0E195E-E577-485E-9732-D5E7E6B29A64}" name="Q5" dataDxfId="15"/>
+    <tableColumn id="8" xr3:uid="{13DFAE64-2AD3-46AE-A775-18B3C9F736A1}" name="Nota" dataDxfId="14">
       <calculatedColumnFormula>SUM(D3:H3)</calculatedColumnFormula>
     </tableColumn>
   </tableColumns>
@@ -529,11 +917,2784 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{55D759BB-1155-4903-96BA-60B49B282B75}">
+  <dimension ref="A1:P53"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="H11" sqref="H11"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="0" defaultRowHeight="14.4" zeroHeight="1" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="8.6640625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="13.44140625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="14.109375" bestFit="1" customWidth="1"/>
+    <col min="4" max="8" width="8.109375" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="9.88671875" bestFit="1" customWidth="1"/>
+    <col min="10" max="14" width="8.109375" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="9.88671875" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="14.21875" bestFit="1" customWidth="1"/>
+    <col min="17" max="16384" width="8.88671875" hidden="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A1" s="4"/>
+      <c r="B1" s="4"/>
+      <c r="C1" s="4"/>
+      <c r="D1" s="3">
+        <f t="shared" ref="D1:G1" si="0">SUM(D3:D53)</f>
+        <v>173.5</v>
+      </c>
+      <c r="E1" s="3">
+        <f t="shared" si="0"/>
+        <v>171</v>
+      </c>
+      <c r="F1" s="3">
+        <f t="shared" si="0"/>
+        <v>91.400000000000034</v>
+      </c>
+      <c r="G1" s="3">
+        <f t="shared" si="0"/>
+        <v>172.19999999999993</v>
+      </c>
+      <c r="H1" s="3">
+        <f>SUM(H3:H53)</f>
+        <v>170.79999999999995</v>
+      </c>
+      <c r="I1" s="4"/>
+      <c r="J1" s="3">
+        <f t="shared" ref="J1:M1" si="1">SUM(J3:J53)</f>
+        <v>111</v>
+      </c>
+      <c r="K1" s="3">
+        <f t="shared" si="1"/>
+        <v>61.5</v>
+      </c>
+      <c r="L1" s="3">
+        <f t="shared" si="1"/>
+        <v>119</v>
+      </c>
+      <c r="M1" s="3">
+        <f t="shared" si="1"/>
+        <v>138</v>
+      </c>
+      <c r="N1" s="3">
+        <f>SUM(N3:N53)</f>
+        <v>74</v>
+      </c>
+      <c r="O1" s="4"/>
+      <c r="P1" s="4"/>
+    </row>
+    <row r="2" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A2" t="s">
+        <v>0</v>
+      </c>
+      <c r="B2" t="s">
+        <v>2</v>
+      </c>
+      <c r="C2" t="s">
+        <v>10</v>
+      </c>
+      <c r="D2" t="s">
+        <v>14</v>
+      </c>
+      <c r="E2" t="s">
+        <v>15</v>
+      </c>
+      <c r="F2" t="s">
+        <v>16</v>
+      </c>
+      <c r="G2" t="s">
+        <v>17</v>
+      </c>
+      <c r="H2" t="s">
+        <v>18</v>
+      </c>
+      <c r="I2" t="s">
+        <v>25</v>
+      </c>
+      <c r="J2" t="s">
+        <v>19</v>
+      </c>
+      <c r="K2" t="s">
+        <v>20</v>
+      </c>
+      <c r="L2" t="s">
+        <v>21</v>
+      </c>
+      <c r="M2" t="s">
+        <v>22</v>
+      </c>
+      <c r="N2" t="s">
+        <v>23</v>
+      </c>
+      <c r="O2" t="s">
+        <v>24</v>
+      </c>
+      <c r="P2" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="3" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A3" t="s">
+        <v>1</v>
+      </c>
+      <c r="B3">
+        <v>2024716606</v>
+      </c>
+      <c r="C3" t="s">
+        <v>11</v>
+      </c>
+      <c r="D3" s="1">
+        <v>5</v>
+      </c>
+      <c r="E3" s="1">
+        <v>5</v>
+      </c>
+      <c r="F3" s="1">
+        <v>5</v>
+      </c>
+      <c r="G3" s="1">
+        <v>5</v>
+      </c>
+      <c r="H3" s="1">
+        <v>5</v>
+      </c>
+      <c r="I3" s="1">
+        <f>SUM(Tabela5[[#This Row],[P1 Q1]:[P1 Q5]])</f>
+        <v>25</v>
+      </c>
+      <c r="J3" s="1">
+        <v>4</v>
+      </c>
+      <c r="K3" s="1">
+        <v>4</v>
+      </c>
+      <c r="L3" s="1">
+        <v>4</v>
+      </c>
+      <c r="M3" s="1">
+        <v>4</v>
+      </c>
+      <c r="N3" s="1">
+        <v>4</v>
+      </c>
+      <c r="O3" s="1">
+        <f>SUM(Tabela5[[#This Row],[P2 Q1]:[P2 Q5]])</f>
+        <v>20</v>
+      </c>
+      <c r="P3" s="1">
+        <f>SUM(Tabela5[[#This Row],[Nota P2]],Tabela5[[#This Row],[Nota P1]])</f>
+        <v>45</v>
+      </c>
+    </row>
+    <row r="4" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A4" t="s">
+        <v>1</v>
+      </c>
+      <c r="B4">
+        <v>2024711531</v>
+      </c>
+      <c r="D4" s="1">
+        <v>5</v>
+      </c>
+      <c r="E4" s="1">
+        <v>4</v>
+      </c>
+      <c r="F4" s="1">
+        <v>5</v>
+      </c>
+      <c r="G4" s="1">
+        <v>5</v>
+      </c>
+      <c r="H4" s="1">
+        <v>5</v>
+      </c>
+      <c r="I4" s="1">
+        <f>SUM(Tabela5[[#This Row],[P1 Q1]:[P1 Q5]])</f>
+        <v>24</v>
+      </c>
+      <c r="J4" s="1">
+        <v>4</v>
+      </c>
+      <c r="K4" s="1">
+        <v>4</v>
+      </c>
+      <c r="L4" s="1">
+        <v>3</v>
+      </c>
+      <c r="M4" s="1">
+        <v>4</v>
+      </c>
+      <c r="N4" s="1">
+        <v>4</v>
+      </c>
+      <c r="O4" s="1">
+        <f>SUM(Tabela5[[#This Row],[P2 Q1]:[P2 Q5]])</f>
+        <v>19</v>
+      </c>
+      <c r="P4" s="1">
+        <f>SUM(Tabela5[[#This Row],[Nota P2]],Tabela5[[#This Row],[Nota P1]])</f>
+        <v>43</v>
+      </c>
+    </row>
+    <row r="5" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A5" t="s">
+        <v>9</v>
+      </c>
+      <c r="B5">
+        <v>2023710949</v>
+      </c>
+      <c r="D5" s="1">
+        <v>5</v>
+      </c>
+      <c r="E5" s="1">
+        <v>4.5</v>
+      </c>
+      <c r="F5" s="1">
+        <v>5</v>
+      </c>
+      <c r="G5" s="1">
+        <v>4.2</v>
+      </c>
+      <c r="H5" s="1">
+        <v>5</v>
+      </c>
+      <c r="I5" s="1">
+        <f>SUM(Tabela5[[#This Row],[P1 Q1]:[P1 Q5]])</f>
+        <v>23.7</v>
+      </c>
+      <c r="J5" s="1">
+        <v>2.5</v>
+      </c>
+      <c r="K5" s="1">
+        <v>4</v>
+      </c>
+      <c r="L5" s="1">
+        <v>4</v>
+      </c>
+      <c r="M5" s="1">
+        <v>4</v>
+      </c>
+      <c r="N5" s="1">
+        <v>4</v>
+      </c>
+      <c r="O5" s="1">
+        <f>SUM(Tabela5[[#This Row],[P2 Q1]:[P2 Q5]])</f>
+        <v>18.5</v>
+      </c>
+      <c r="P5" s="1">
+        <f>SUM(Tabela5[[#This Row],[Nota P2]],Tabela5[[#This Row],[Nota P1]])</f>
+        <v>42.2</v>
+      </c>
+    </row>
+    <row r="6" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A6" t="s">
+        <v>9</v>
+      </c>
+      <c r="B6">
+        <v>2024709286</v>
+      </c>
+      <c r="D6" s="1">
+        <v>5</v>
+      </c>
+      <c r="E6" s="1">
+        <v>4.5</v>
+      </c>
+      <c r="F6" s="1">
+        <v>1.7</v>
+      </c>
+      <c r="G6" s="1">
+        <v>5</v>
+      </c>
+      <c r="H6" s="1">
+        <v>5</v>
+      </c>
+      <c r="I6" s="1">
+        <f>SUM(Tabela5[[#This Row],[P1 Q1]:[P1 Q5]])</f>
+        <v>21.2</v>
+      </c>
+      <c r="J6" s="1">
+        <v>3</v>
+      </c>
+      <c r="K6" s="1">
+        <v>4</v>
+      </c>
+      <c r="L6" s="1">
+        <v>4</v>
+      </c>
+      <c r="M6" s="1">
+        <v>4</v>
+      </c>
+      <c r="N6" s="1">
+        <v>4</v>
+      </c>
+      <c r="O6" s="1">
+        <f>SUM(Tabela5[[#This Row],[P2 Q1]:[P2 Q5]])</f>
+        <v>19</v>
+      </c>
+      <c r="P6" s="1">
+        <f>SUM(Tabela5[[#This Row],[Nota P2]],Tabela5[[#This Row],[Nota P1]])</f>
+        <v>40.200000000000003</v>
+      </c>
+    </row>
+    <row r="7" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A7" t="s">
+        <v>9</v>
+      </c>
+      <c r="B7">
+        <v>2024715936</v>
+      </c>
+      <c r="C7" t="s">
+        <v>11</v>
+      </c>
+      <c r="D7" s="1">
+        <v>5</v>
+      </c>
+      <c r="E7" s="1">
+        <v>5</v>
+      </c>
+      <c r="F7" s="1">
+        <v>5</v>
+      </c>
+      <c r="G7" s="1">
+        <v>5</v>
+      </c>
+      <c r="H7" s="1">
+        <v>5</v>
+      </c>
+      <c r="I7" s="1">
+        <f>SUM(Tabela5[[#This Row],[P1 Q1]:[P1 Q5]])</f>
+        <v>25</v>
+      </c>
+      <c r="J7" s="1">
+        <v>3</v>
+      </c>
+      <c r="K7" s="1">
+        <v>1</v>
+      </c>
+      <c r="L7" s="1">
+        <v>3</v>
+      </c>
+      <c r="M7" s="1">
+        <v>4</v>
+      </c>
+      <c r="N7" s="1">
+        <v>4</v>
+      </c>
+      <c r="O7" s="1">
+        <f>SUM(Tabela5[[#This Row],[P2 Q1]:[P2 Q5]])</f>
+        <v>15</v>
+      </c>
+      <c r="P7" s="1">
+        <f>SUM(Tabela5[[#This Row],[Nota P2]],Tabela5[[#This Row],[Nota P1]])</f>
+        <v>40</v>
+      </c>
+    </row>
+    <row r="8" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A8" t="s">
+        <v>9</v>
+      </c>
+      <c r="B8">
+        <v>2024700351</v>
+      </c>
+      <c r="D8" s="1">
+        <v>5</v>
+      </c>
+      <c r="E8" s="1">
+        <v>3.5</v>
+      </c>
+      <c r="F8" s="1">
+        <v>2.5</v>
+      </c>
+      <c r="G8" s="1">
+        <v>5</v>
+      </c>
+      <c r="H8" s="1">
+        <v>3.7</v>
+      </c>
+      <c r="I8" s="1">
+        <f>SUM(Tabela5[[#This Row],[P1 Q1]:[P1 Q5]])</f>
+        <v>19.7</v>
+      </c>
+      <c r="J8" s="1">
+        <v>4</v>
+      </c>
+      <c r="K8" s="1">
+        <v>4</v>
+      </c>
+      <c r="L8" s="1">
+        <v>4</v>
+      </c>
+      <c r="M8" s="1">
+        <v>4</v>
+      </c>
+      <c r="N8" s="1">
+        <v>4</v>
+      </c>
+      <c r="O8" s="1">
+        <f>SUM(Tabela5[[#This Row],[P2 Q1]:[P2 Q5]])</f>
+        <v>20</v>
+      </c>
+      <c r="P8" s="1">
+        <f>SUM(Tabela5[[#This Row],[Nota P2]],Tabela5[[#This Row],[Nota P1]])</f>
+        <v>39.700000000000003</v>
+      </c>
+    </row>
+    <row r="9" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A9" t="s">
+        <v>9</v>
+      </c>
+      <c r="B9">
+        <v>2024701846</v>
+      </c>
+      <c r="C9" t="s">
+        <v>13</v>
+      </c>
+      <c r="D9" s="1">
+        <v>5</v>
+      </c>
+      <c r="E9" s="1">
+        <v>4.5</v>
+      </c>
+      <c r="F9" s="1">
+        <v>2.5</v>
+      </c>
+      <c r="G9" s="1">
+        <v>5</v>
+      </c>
+      <c r="H9" s="1">
+        <v>5</v>
+      </c>
+      <c r="I9" s="1">
+        <f>SUM(Tabela5[[#This Row],[P1 Q1]:[P1 Q5]])</f>
+        <v>22</v>
+      </c>
+      <c r="J9" s="1">
+        <v>4</v>
+      </c>
+      <c r="K9" s="1">
+        <v>1</v>
+      </c>
+      <c r="L9" s="1">
+        <v>4</v>
+      </c>
+      <c r="M9" s="1">
+        <v>4</v>
+      </c>
+      <c r="N9" s="1">
+        <v>4</v>
+      </c>
+      <c r="O9" s="1">
+        <f>SUM(Tabela5[[#This Row],[P2 Q1]:[P2 Q5]])</f>
+        <v>17</v>
+      </c>
+      <c r="P9" s="1">
+        <f>SUM(Tabela5[[#This Row],[Nota P2]],Tabela5[[#This Row],[Nota P1]])</f>
+        <v>39</v>
+      </c>
+    </row>
+    <row r="10" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A10" t="s">
+        <v>9</v>
+      </c>
+      <c r="B10">
+        <v>2024715952</v>
+      </c>
+      <c r="D10" s="1">
+        <v>3.5</v>
+      </c>
+      <c r="E10" s="1">
+        <v>5</v>
+      </c>
+      <c r="F10" s="1">
+        <v>5</v>
+      </c>
+      <c r="G10" s="1">
+        <v>5</v>
+      </c>
+      <c r="H10" s="1">
+        <v>5</v>
+      </c>
+      <c r="I10" s="1">
+        <f>SUM(Tabela5[[#This Row],[P1 Q1]:[P1 Q5]])</f>
+        <v>23.5</v>
+      </c>
+      <c r="J10" s="1">
+        <v>4</v>
+      </c>
+      <c r="K10" s="1">
+        <v>4</v>
+      </c>
+      <c r="L10" s="1">
+        <v>2</v>
+      </c>
+      <c r="M10" s="1">
+        <v>4</v>
+      </c>
+      <c r="N10" s="1">
+        <v>0</v>
+      </c>
+      <c r="O10" s="1">
+        <f>SUM(Tabela5[[#This Row],[P2 Q1]:[P2 Q5]])</f>
+        <v>14</v>
+      </c>
+      <c r="P10" s="1">
+        <f>SUM(Tabela5[[#This Row],[Nota P2]],Tabela5[[#This Row],[Nota P1]])</f>
+        <v>37.5</v>
+      </c>
+    </row>
+    <row r="11" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A11" t="s">
+        <v>9</v>
+      </c>
+      <c r="B11">
+        <v>2024709278</v>
+      </c>
+      <c r="D11" s="1">
+        <v>5</v>
+      </c>
+      <c r="E11" s="1">
+        <v>5</v>
+      </c>
+      <c r="F11" s="1">
+        <v>1.7</v>
+      </c>
+      <c r="G11" s="1">
+        <v>5</v>
+      </c>
+      <c r="H11" s="1">
+        <v>5</v>
+      </c>
+      <c r="I11" s="1">
+        <f>SUM(Tabela5[[#This Row],[P1 Q1]:[P1 Q5]])</f>
+        <v>21.7</v>
+      </c>
+      <c r="J11" s="1">
+        <v>4</v>
+      </c>
+      <c r="K11" s="1">
+        <v>4</v>
+      </c>
+      <c r="L11" s="1">
+        <v>3</v>
+      </c>
+      <c r="M11" s="1">
+        <v>4</v>
+      </c>
+      <c r="N11" s="1">
+        <v>0</v>
+      </c>
+      <c r="O11" s="1">
+        <f>SUM(Tabela5[[#This Row],[P2 Q1]:[P2 Q5]])</f>
+        <v>15</v>
+      </c>
+      <c r="P11" s="1">
+        <f>SUM(Tabela5[[#This Row],[Nota P2]],Tabela5[[#This Row],[Nota P1]])</f>
+        <v>36.700000000000003</v>
+      </c>
+    </row>
+    <row r="12" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A12" t="s">
+        <v>9</v>
+      </c>
+      <c r="B12">
+        <v>2024710039</v>
+      </c>
+      <c r="D12" s="1">
+        <v>5</v>
+      </c>
+      <c r="E12" s="1">
+        <v>4.5</v>
+      </c>
+      <c r="F12" s="1">
+        <v>2.5</v>
+      </c>
+      <c r="G12" s="1">
+        <v>4.2</v>
+      </c>
+      <c r="H12" s="1">
+        <v>5</v>
+      </c>
+      <c r="I12" s="1">
+        <f>SUM(Tabela5[[#This Row],[P1 Q1]:[P1 Q5]])</f>
+        <v>21.2</v>
+      </c>
+      <c r="J12" s="1">
+        <v>4</v>
+      </c>
+      <c r="K12" s="1">
+        <v>4</v>
+      </c>
+      <c r="L12" s="1">
+        <v>3</v>
+      </c>
+      <c r="M12" s="1">
+        <v>4</v>
+      </c>
+      <c r="N12" s="1">
+        <v>0</v>
+      </c>
+      <c r="O12" s="1">
+        <f>SUM(Tabela5[[#This Row],[P2 Q1]:[P2 Q5]])</f>
+        <v>15</v>
+      </c>
+      <c r="P12" s="1">
+        <f>SUM(Tabela5[[#This Row],[Nota P2]],Tabela5[[#This Row],[Nota P1]])</f>
+        <v>36.200000000000003</v>
+      </c>
+    </row>
+    <row r="13" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A13" t="s">
+        <v>9</v>
+      </c>
+      <c r="B13">
+        <v>2024709316</v>
+      </c>
+      <c r="D13" s="1">
+        <v>5</v>
+      </c>
+      <c r="E13" s="1">
+        <v>4.5</v>
+      </c>
+      <c r="F13" s="1">
+        <v>2.5</v>
+      </c>
+      <c r="G13" s="1">
+        <v>4.5</v>
+      </c>
+      <c r="H13" s="1">
+        <v>5</v>
+      </c>
+      <c r="I13" s="1">
+        <f>SUM(Tabela5[[#This Row],[P1 Q1]:[P1 Q5]])</f>
+        <v>21.5</v>
+      </c>
+      <c r="J13" s="1">
+        <v>3</v>
+      </c>
+      <c r="K13" s="1">
+        <v>4</v>
+      </c>
+      <c r="L13" s="1">
+        <v>3</v>
+      </c>
+      <c r="M13" s="1">
+        <v>4</v>
+      </c>
+      <c r="N13" s="1">
+        <v>0</v>
+      </c>
+      <c r="O13" s="1">
+        <f>SUM(Tabela5[[#This Row],[P2 Q1]:[P2 Q5]])</f>
+        <v>14</v>
+      </c>
+      <c r="P13" s="1">
+        <f>SUM(Tabela5[[#This Row],[Nota P2]],Tabela5[[#This Row],[Nota P1]])</f>
+        <v>35.5</v>
+      </c>
+    </row>
+    <row r="14" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A14" t="s">
+        <v>1</v>
+      </c>
+      <c r="B14">
+        <v>2024711370</v>
+      </c>
+      <c r="C14" t="s">
+        <v>12</v>
+      </c>
+      <c r="D14" s="1">
+        <v>5</v>
+      </c>
+      <c r="E14" s="1">
+        <v>5</v>
+      </c>
+      <c r="F14" s="1">
+        <v>2.5</v>
+      </c>
+      <c r="G14" s="1">
+        <v>4.2</v>
+      </c>
+      <c r="H14" s="1">
+        <v>3.7</v>
+      </c>
+      <c r="I14" s="1">
+        <f>SUM(Tabela5[[#This Row],[P1 Q1]:[P1 Q5]])</f>
+        <v>20.399999999999999</v>
+      </c>
+      <c r="J14" s="1">
+        <v>3</v>
+      </c>
+      <c r="K14" s="1">
+        <v>0</v>
+      </c>
+      <c r="L14" s="1">
+        <v>4</v>
+      </c>
+      <c r="M14" s="1">
+        <v>4</v>
+      </c>
+      <c r="N14" s="1">
+        <v>4</v>
+      </c>
+      <c r="O14" s="1">
+        <f>SUM(Tabela5[[#This Row],[P2 Q1]:[P2 Q5]])</f>
+        <v>15</v>
+      </c>
+      <c r="P14" s="1">
+        <f>SUM(Tabela5[[#This Row],[Nota P2]],Tabela5[[#This Row],[Nota P1]])</f>
+        <v>35.4</v>
+      </c>
+    </row>
+    <row r="15" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A15" t="s">
+        <v>9</v>
+      </c>
+      <c r="B15">
+        <v>2024715979</v>
+      </c>
+      <c r="D15" s="1">
+        <v>5</v>
+      </c>
+      <c r="E15" s="1">
+        <v>3.5</v>
+      </c>
+      <c r="F15" s="1">
+        <v>1.7</v>
+      </c>
+      <c r="G15" s="1">
+        <v>5</v>
+      </c>
+      <c r="H15" s="1">
+        <v>5</v>
+      </c>
+      <c r="I15" s="1">
+        <f>SUM(Tabela5[[#This Row],[P1 Q1]:[P1 Q5]])</f>
+        <v>20.2</v>
+      </c>
+      <c r="J15" s="1">
+        <v>4</v>
+      </c>
+      <c r="K15" s="1">
+        <v>0</v>
+      </c>
+      <c r="L15" s="1">
+        <v>4</v>
+      </c>
+      <c r="M15" s="1">
+        <v>3.5</v>
+      </c>
+      <c r="N15" s="1">
+        <v>2</v>
+      </c>
+      <c r="O15" s="1">
+        <f>SUM(Tabela5[[#This Row],[P2 Q1]:[P2 Q5]])</f>
+        <v>13.5</v>
+      </c>
+      <c r="P15" s="1">
+        <f>SUM(Tabela5[[#This Row],[Nota P2]],Tabela5[[#This Row],[Nota P1]])</f>
+        <v>33.700000000000003</v>
+      </c>
+    </row>
+    <row r="16" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A16" t="s">
+        <v>9</v>
+      </c>
+      <c r="B16">
+        <v>2024709308</v>
+      </c>
+      <c r="D16" s="1">
+        <v>5</v>
+      </c>
+      <c r="E16" s="1">
+        <v>4.5</v>
+      </c>
+      <c r="F16" s="1">
+        <v>2.5</v>
+      </c>
+      <c r="G16" s="1">
+        <v>3.7</v>
+      </c>
+      <c r="H16" s="1">
+        <v>5</v>
+      </c>
+      <c r="I16" s="1">
+        <f>SUM(Tabela5[[#This Row],[P1 Q1]:[P1 Q5]])</f>
+        <v>20.7</v>
+      </c>
+      <c r="J16" s="1">
+        <v>3</v>
+      </c>
+      <c r="K16" s="1">
+        <v>4</v>
+      </c>
+      <c r="L16" s="1">
+        <v>2</v>
+      </c>
+      <c r="M16" s="1">
+        <v>4</v>
+      </c>
+      <c r="N16" s="1">
+        <v>0</v>
+      </c>
+      <c r="O16" s="1">
+        <f>SUM(Tabela5[[#This Row],[P2 Q1]:[P2 Q5]])</f>
+        <v>13</v>
+      </c>
+      <c r="P16" s="1">
+        <f>SUM(Tabela5[[#This Row],[Nota P2]],Tabela5[[#This Row],[Nota P1]])</f>
+        <v>33.700000000000003</v>
+      </c>
+    </row>
+    <row r="17" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A17" t="s">
+        <v>9</v>
+      </c>
+      <c r="B17">
+        <v>2024701382</v>
+      </c>
+      <c r="D17" s="1">
+        <v>5</v>
+      </c>
+      <c r="E17" s="1">
+        <v>4.5</v>
+      </c>
+      <c r="F17" s="1">
+        <v>2.5</v>
+      </c>
+      <c r="G17" s="1">
+        <v>5</v>
+      </c>
+      <c r="H17" s="1">
+        <v>3.8</v>
+      </c>
+      <c r="I17" s="1">
+        <f>SUM(Tabela5[[#This Row],[P1 Q1]:[P1 Q5]])</f>
+        <v>20.8</v>
+      </c>
+      <c r="J17" s="1">
+        <v>3</v>
+      </c>
+      <c r="K17" s="1">
+        <v>1</v>
+      </c>
+      <c r="L17" s="1">
+        <v>4</v>
+      </c>
+      <c r="M17" s="1">
+        <v>4</v>
+      </c>
+      <c r="N17" s="1">
+        <v>0</v>
+      </c>
+      <c r="O17" s="1">
+        <f>SUM(Tabela5[[#This Row],[P2 Q1]:[P2 Q5]])</f>
+        <v>12</v>
+      </c>
+      <c r="P17" s="1">
+        <f>SUM(Tabela5[[#This Row],[Nota P2]],Tabela5[[#This Row],[Nota P1]])</f>
+        <v>32.799999999999997</v>
+      </c>
+    </row>
+    <row r="18" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A18" t="s">
+        <v>9</v>
+      </c>
+      <c r="B18">
+        <v>2024691921</v>
+      </c>
+      <c r="D18" s="1">
+        <v>5</v>
+      </c>
+      <c r="E18" s="1">
+        <v>4</v>
+      </c>
+      <c r="F18" s="1">
+        <v>2.5</v>
+      </c>
+      <c r="G18" s="1">
+        <v>4.2</v>
+      </c>
+      <c r="H18" s="1">
+        <v>4</v>
+      </c>
+      <c r="I18" s="1">
+        <f>SUM(Tabela5[[#This Row],[P1 Q1]:[P1 Q5]])</f>
+        <v>19.7</v>
+      </c>
+      <c r="J18" s="1">
+        <v>1</v>
+      </c>
+      <c r="K18" s="1">
+        <v>3</v>
+      </c>
+      <c r="L18" s="1">
+        <v>2</v>
+      </c>
+      <c r="M18" s="1">
+        <v>3</v>
+      </c>
+      <c r="N18" s="1">
+        <v>4</v>
+      </c>
+      <c r="O18" s="1">
+        <f>SUM(Tabela5[[#This Row],[P2 Q1]:[P2 Q5]])</f>
+        <v>13</v>
+      </c>
+      <c r="P18" s="1">
+        <f>SUM(Tabela5[[#This Row],[Nota P2]],Tabela5[[#This Row],[Nota P1]])</f>
+        <v>32.700000000000003</v>
+      </c>
+    </row>
+    <row r="19" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A19" t="s">
+        <v>9</v>
+      </c>
+      <c r="B19">
+        <v>2023655557</v>
+      </c>
+      <c r="D19" s="1">
+        <v>5</v>
+      </c>
+      <c r="E19" s="1">
+        <v>5</v>
+      </c>
+      <c r="F19" s="1">
+        <v>0</v>
+      </c>
+      <c r="G19" s="1">
+        <v>4.2</v>
+      </c>
+      <c r="H19" s="1">
+        <v>3.7</v>
+      </c>
+      <c r="I19" s="1">
+        <f>SUM(Tabela5[[#This Row],[P1 Q1]:[P1 Q5]])</f>
+        <v>17.899999999999999</v>
+      </c>
+      <c r="J19" s="1">
+        <v>3</v>
+      </c>
+      <c r="K19" s="1">
+        <v>1</v>
+      </c>
+      <c r="L19" s="1">
+        <v>3</v>
+      </c>
+      <c r="M19" s="1">
+        <v>4</v>
+      </c>
+      <c r="N19" s="1">
+        <v>2</v>
+      </c>
+      <c r="O19" s="1">
+        <f>SUM(Tabela5[[#This Row],[P2 Q1]:[P2 Q5]])</f>
+        <v>13</v>
+      </c>
+      <c r="P19" s="1">
+        <f>SUM(Tabela5[[#This Row],[Nota P2]],Tabela5[[#This Row],[Nota P1]])</f>
+        <v>30.9</v>
+      </c>
+    </row>
+    <row r="20" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A20" t="s">
+        <v>1</v>
+      </c>
+      <c r="B20">
+        <v>2024712317</v>
+      </c>
+      <c r="D20" s="1">
+        <v>5</v>
+      </c>
+      <c r="E20" s="1">
+        <v>4</v>
+      </c>
+      <c r="F20" s="1">
+        <v>1.7</v>
+      </c>
+      <c r="G20" s="1">
+        <v>4</v>
+      </c>
+      <c r="H20" s="1">
+        <v>5</v>
+      </c>
+      <c r="I20" s="1">
+        <f>SUM(Tabela5[[#This Row],[P1 Q1]:[P1 Q5]])</f>
+        <v>19.7</v>
+      </c>
+      <c r="J20" s="1">
+        <v>0</v>
+      </c>
+      <c r="K20" s="1">
+        <v>2</v>
+      </c>
+      <c r="L20" s="1">
+        <v>3</v>
+      </c>
+      <c r="M20" s="1">
+        <v>4</v>
+      </c>
+      <c r="N20" s="1">
+        <v>2</v>
+      </c>
+      <c r="O20" s="1">
+        <f>SUM(Tabela5[[#This Row],[P2 Q1]:[P2 Q5]])</f>
+        <v>11</v>
+      </c>
+      <c r="P20" s="1">
+        <f>SUM(Tabela5[[#This Row],[Nota P2]],Tabela5[[#This Row],[Nota P1]])</f>
+        <v>30.7</v>
+      </c>
+    </row>
+    <row r="21" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A21" t="s">
+        <v>9</v>
+      </c>
+      <c r="B21">
+        <v>2024709294</v>
+      </c>
+      <c r="D21" s="1">
+        <v>5</v>
+      </c>
+      <c r="E21" s="1">
+        <v>4</v>
+      </c>
+      <c r="F21" s="1">
+        <v>2.5</v>
+      </c>
+      <c r="G21" s="1">
+        <v>4.2</v>
+      </c>
+      <c r="H21" s="1">
+        <v>4</v>
+      </c>
+      <c r="I21" s="1">
+        <f>SUM(Tabela5[[#This Row],[P1 Q1]:[P1 Q5]])</f>
+        <v>19.7</v>
+      </c>
+      <c r="J21" s="1">
+        <v>3.5</v>
+      </c>
+      <c r="K21" s="1">
+        <v>0</v>
+      </c>
+      <c r="L21" s="1">
+        <v>4</v>
+      </c>
+      <c r="M21" s="1">
+        <v>3</v>
+      </c>
+      <c r="N21" s="1">
+        <v>0</v>
+      </c>
+      <c r="O21" s="1">
+        <f>SUM(Tabela5[[#This Row],[P2 Q1]:[P2 Q5]])</f>
+        <v>10.5</v>
+      </c>
+      <c r="P21" s="1">
+        <f>SUM(Tabela5[[#This Row],[Nota P2]],Tabela5[[#This Row],[Nota P1]])</f>
+        <v>30.2</v>
+      </c>
+    </row>
+    <row r="22" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A22" t="s">
+        <v>9</v>
+      </c>
+      <c r="B22">
+        <v>2024709200</v>
+      </c>
+      <c r="D22" s="1">
+        <v>5</v>
+      </c>
+      <c r="E22" s="1">
+        <v>4</v>
+      </c>
+      <c r="F22" s="1">
+        <v>2.5</v>
+      </c>
+      <c r="G22" s="1">
+        <v>2.5</v>
+      </c>
+      <c r="H22" s="1">
+        <v>5</v>
+      </c>
+      <c r="I22" s="1">
+        <f>SUM(Tabela5[[#This Row],[P1 Q1]:[P1 Q5]])</f>
+        <v>19</v>
+      </c>
+      <c r="J22" s="1">
+        <v>2</v>
+      </c>
+      <c r="K22" s="1">
+        <v>0</v>
+      </c>
+      <c r="L22" s="1">
+        <v>3</v>
+      </c>
+      <c r="M22" s="1">
+        <v>4</v>
+      </c>
+      <c r="N22" s="1">
+        <v>2</v>
+      </c>
+      <c r="O22" s="1">
+        <f>SUM(Tabela5[[#This Row],[P2 Q1]:[P2 Q5]])</f>
+        <v>11</v>
+      </c>
+      <c r="P22" s="1">
+        <f>SUM(Tabela5[[#This Row],[Nota P2]],Tabela5[[#This Row],[Nota P1]])</f>
+        <v>30</v>
+      </c>
+    </row>
+    <row r="23" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A23" t="s">
+        <v>9</v>
+      </c>
+      <c r="B23">
+        <v>2024700386</v>
+      </c>
+      <c r="D23" s="1">
+        <v>5</v>
+      </c>
+      <c r="E23" s="1">
+        <v>3</v>
+      </c>
+      <c r="F23" s="1">
+        <v>2.5</v>
+      </c>
+      <c r="G23" s="1">
+        <v>5</v>
+      </c>
+      <c r="H23" s="1">
+        <v>5</v>
+      </c>
+      <c r="I23" s="1">
+        <f>SUM(Tabela5[[#This Row],[P1 Q1]:[P1 Q5]])</f>
+        <v>20.5</v>
+      </c>
+      <c r="J23" s="1">
+        <v>2</v>
+      </c>
+      <c r="K23" s="1">
+        <v>0</v>
+      </c>
+      <c r="L23" s="1">
+        <v>0</v>
+      </c>
+      <c r="M23" s="1">
+        <v>3</v>
+      </c>
+      <c r="N23" s="1">
+        <v>4</v>
+      </c>
+      <c r="O23" s="1">
+        <f>SUM(Tabela5[[#This Row],[P2 Q1]:[P2 Q5]])</f>
+        <v>9</v>
+      </c>
+      <c r="P23" s="1">
+        <f>SUM(Tabela5[[#This Row],[Nota P2]],Tabela5[[#This Row],[Nota P1]])</f>
+        <v>29.5</v>
+      </c>
+    </row>
+    <row r="24" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A24" t="s">
+        <v>1</v>
+      </c>
+      <c r="B24">
+        <v>2024711698</v>
+      </c>
+      <c r="D24" s="1">
+        <v>5</v>
+      </c>
+      <c r="E24" s="1">
+        <v>4.5</v>
+      </c>
+      <c r="F24" s="1">
+        <v>0</v>
+      </c>
+      <c r="G24" s="1">
+        <v>5</v>
+      </c>
+      <c r="H24" s="1">
+        <v>3.7</v>
+      </c>
+      <c r="I24" s="1">
+        <f>SUM(Tabela5[[#This Row],[P1 Q1]:[P1 Q5]])</f>
+        <v>18.2</v>
+      </c>
+      <c r="J24" s="1">
+        <v>3</v>
+      </c>
+      <c r="K24" s="1">
+        <v>0</v>
+      </c>
+      <c r="L24" s="1">
+        <v>4</v>
+      </c>
+      <c r="M24" s="1">
+        <v>4</v>
+      </c>
+      <c r="N24" s="1">
+        <v>0</v>
+      </c>
+      <c r="O24" s="1">
+        <f>SUM(Tabela5[[#This Row],[P2 Q1]:[P2 Q5]])</f>
+        <v>11</v>
+      </c>
+      <c r="P24" s="1">
+        <f>SUM(Tabela5[[#This Row],[Nota P2]],Tabela5[[#This Row],[Nota P1]])</f>
+        <v>29.2</v>
+      </c>
+    </row>
+    <row r="25" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A25" t="s">
+        <v>1</v>
+      </c>
+      <c r="B25">
+        <v>2024716169</v>
+      </c>
+      <c r="D25" s="1">
+        <v>5</v>
+      </c>
+      <c r="E25" s="1">
+        <v>3.5</v>
+      </c>
+      <c r="F25" s="1">
+        <v>2.5</v>
+      </c>
+      <c r="G25" s="1">
+        <v>5</v>
+      </c>
+      <c r="H25" s="1">
+        <v>3.7</v>
+      </c>
+      <c r="I25" s="1">
+        <f>SUM(Tabela5[[#This Row],[P1 Q1]:[P1 Q5]])</f>
+        <v>19.7</v>
+      </c>
+      <c r="J25" s="1">
+        <v>0</v>
+      </c>
+      <c r="K25" s="1">
+        <v>1</v>
+      </c>
+      <c r="L25" s="1">
+        <v>4</v>
+      </c>
+      <c r="M25" s="1">
+        <v>4</v>
+      </c>
+      <c r="N25" s="1">
+        <v>0</v>
+      </c>
+      <c r="O25" s="1">
+        <f>SUM(Tabela5[[#This Row],[P2 Q1]:[P2 Q5]])</f>
+        <v>9</v>
+      </c>
+      <c r="P25" s="1">
+        <f>SUM(Tabela5[[#This Row],[Nota P2]],Tabela5[[#This Row],[Nota P1]])</f>
+        <v>28.7</v>
+      </c>
+    </row>
+    <row r="26" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A26" t="s">
+        <v>9</v>
+      </c>
+      <c r="B26">
+        <v>2024709960</v>
+      </c>
+      <c r="D26" s="1">
+        <v>5</v>
+      </c>
+      <c r="E26" s="1">
+        <v>3</v>
+      </c>
+      <c r="F26" s="1">
+        <v>2.5</v>
+      </c>
+      <c r="G26" s="1">
+        <v>5</v>
+      </c>
+      <c r="H26" s="1">
+        <v>1.2</v>
+      </c>
+      <c r="I26" s="1">
+        <f>SUM(Tabela5[[#This Row],[P1 Q1]:[P1 Q5]])</f>
+        <v>16.7</v>
+      </c>
+      <c r="J26" s="1">
+        <v>3</v>
+      </c>
+      <c r="K26" s="1">
+        <v>2</v>
+      </c>
+      <c r="L26" s="1">
+        <v>3</v>
+      </c>
+      <c r="M26" s="1">
+        <v>4</v>
+      </c>
+      <c r="N26" s="1">
+        <v>0</v>
+      </c>
+      <c r="O26" s="1">
+        <f>SUM(Tabela5[[#This Row],[P2 Q1]:[P2 Q5]])</f>
+        <v>12</v>
+      </c>
+      <c r="P26" s="1">
+        <f>SUM(Tabela5[[#This Row],[Nota P2]],Tabela5[[#This Row],[Nota P1]])</f>
+        <v>28.7</v>
+      </c>
+    </row>
+    <row r="27" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A27" t="s">
+        <v>9</v>
+      </c>
+      <c r="B27">
+        <v>2024700378</v>
+      </c>
+      <c r="D27" s="1">
+        <v>5</v>
+      </c>
+      <c r="E27" s="1">
+        <v>3</v>
+      </c>
+      <c r="F27" s="1">
+        <v>1</v>
+      </c>
+      <c r="G27" s="1">
+        <v>2.5</v>
+      </c>
+      <c r="H27" s="1">
+        <v>2.5</v>
+      </c>
+      <c r="I27" s="1">
+        <f>SUM(Tabela5[[#This Row],[P1 Q1]:[P1 Q5]])</f>
+        <v>14</v>
+      </c>
+      <c r="J27" s="1">
+        <v>4</v>
+      </c>
+      <c r="K27" s="1">
+        <v>0</v>
+      </c>
+      <c r="L27" s="1">
+        <v>3</v>
+      </c>
+      <c r="M27" s="1">
+        <v>3</v>
+      </c>
+      <c r="N27" s="1">
+        <v>4</v>
+      </c>
+      <c r="O27" s="1">
+        <f>SUM(Tabela5[[#This Row],[P2 Q1]:[P2 Q5]])</f>
+        <v>14</v>
+      </c>
+      <c r="P27" s="1">
+        <f>SUM(Tabela5[[#This Row],[Nota P2]],Tabela5[[#This Row],[Nota P1]])</f>
+        <v>28</v>
+      </c>
+    </row>
+    <row r="28" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A28" t="s">
+        <v>9</v>
+      </c>
+      <c r="B28">
+        <v>2024691883</v>
+      </c>
+      <c r="D28" s="1">
+        <v>0</v>
+      </c>
+      <c r="E28" s="1">
+        <v>3.5</v>
+      </c>
+      <c r="F28" s="1">
+        <v>1.7</v>
+      </c>
+      <c r="G28" s="1">
+        <v>4.2</v>
+      </c>
+      <c r="H28" s="1">
+        <v>3</v>
+      </c>
+      <c r="I28" s="1">
+        <f>SUM(Tabela5[[#This Row],[P1 Q1]:[P1 Q5]])</f>
+        <v>12.4</v>
+      </c>
+      <c r="J28" s="1">
+        <v>4</v>
+      </c>
+      <c r="K28" s="1">
+        <v>0.5</v>
+      </c>
+      <c r="L28" s="1">
+        <v>3</v>
+      </c>
+      <c r="M28" s="1">
+        <v>4</v>
+      </c>
+      <c r="N28" s="1">
+        <v>4</v>
+      </c>
+      <c r="O28" s="1">
+        <f>SUM(Tabela5[[#This Row],[P2 Q1]:[P2 Q5]])</f>
+        <v>15.5</v>
+      </c>
+      <c r="P28" s="1">
+        <f>SUM(Tabela5[[#This Row],[Nota P2]],Tabela5[[#This Row],[Nota P1]])</f>
+        <v>27.9</v>
+      </c>
+    </row>
+    <row r="29" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A29" t="s">
+        <v>9</v>
+      </c>
+      <c r="B29">
+        <v>2024703369</v>
+      </c>
+      <c r="D29" s="1">
+        <v>5</v>
+      </c>
+      <c r="E29" s="1">
+        <v>3.5</v>
+      </c>
+      <c r="F29" s="1">
+        <v>1.7</v>
+      </c>
+      <c r="G29" s="1">
+        <v>2.5</v>
+      </c>
+      <c r="H29" s="1">
+        <v>3.7</v>
+      </c>
+      <c r="I29" s="1">
+        <f>SUM(Tabela5[[#This Row],[P1 Q1]:[P1 Q5]])</f>
+        <v>16.399999999999999</v>
+      </c>
+      <c r="J29" s="1">
+        <v>2</v>
+      </c>
+      <c r="K29" s="1">
+        <v>0</v>
+      </c>
+      <c r="L29" s="1">
+        <v>3</v>
+      </c>
+      <c r="M29" s="1">
+        <v>4</v>
+      </c>
+      <c r="N29" s="1">
+        <v>2</v>
+      </c>
+      <c r="O29" s="1">
+        <f>SUM(Tabela5[[#This Row],[P2 Q1]:[P2 Q5]])</f>
+        <v>11</v>
+      </c>
+      <c r="P29" s="1">
+        <f>SUM(Tabela5[[#This Row],[Nota P2]],Tabela5[[#This Row],[Nota P1]])</f>
+        <v>27.4</v>
+      </c>
+    </row>
+    <row r="30" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A30" t="s">
+        <v>9</v>
+      </c>
+      <c r="B30">
+        <v>2024699183</v>
+      </c>
+      <c r="D30" s="1">
+        <v>5</v>
+      </c>
+      <c r="E30" s="1">
+        <v>3.5</v>
+      </c>
+      <c r="F30" s="1">
+        <v>1.7</v>
+      </c>
+      <c r="G30" s="1">
+        <v>3</v>
+      </c>
+      <c r="H30" s="1">
+        <v>3.7</v>
+      </c>
+      <c r="I30" s="1">
+        <f>SUM(Tabela5[[#This Row],[P1 Q1]:[P1 Q5]])</f>
+        <v>16.899999999999999</v>
+      </c>
+      <c r="J30" s="1">
+        <v>3</v>
+      </c>
+      <c r="K30" s="1">
+        <v>0</v>
+      </c>
+      <c r="L30" s="1">
+        <v>4</v>
+      </c>
+      <c r="M30" s="1">
+        <v>3</v>
+      </c>
+      <c r="N30" s="1">
+        <v>0</v>
+      </c>
+      <c r="O30" s="1">
+        <f>SUM(Tabela5[[#This Row],[P2 Q1]:[P2 Q5]])</f>
+        <v>10</v>
+      </c>
+      <c r="P30" s="1">
+        <f>SUM(Tabela5[[#This Row],[Nota P2]],Tabela5[[#This Row],[Nota P1]])</f>
+        <v>26.9</v>
+      </c>
+    </row>
+    <row r="31" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A31" t="s">
+        <v>1</v>
+      </c>
+      <c r="B31">
+        <v>2024711655</v>
+      </c>
+      <c r="D31" s="1">
+        <v>2.5</v>
+      </c>
+      <c r="E31" s="1">
+        <v>4</v>
+      </c>
+      <c r="F31" s="1">
+        <v>1.7</v>
+      </c>
+      <c r="G31" s="1">
+        <v>4.2</v>
+      </c>
+      <c r="H31" s="1">
+        <v>5</v>
+      </c>
+      <c r="I31" s="1">
+        <f>SUM(Tabela5[[#This Row],[P1 Q1]:[P1 Q5]])</f>
+        <v>17.399999999999999</v>
+      </c>
+      <c r="J31" s="1">
+        <v>3</v>
+      </c>
+      <c r="K31" s="1">
+        <v>4</v>
+      </c>
+      <c r="L31" s="1">
+        <v>0</v>
+      </c>
+      <c r="M31" s="1">
+        <v>2</v>
+      </c>
+      <c r="N31" s="1">
+        <v>0</v>
+      </c>
+      <c r="O31" s="1">
+        <f>SUM(Tabela5[[#This Row],[P2 Q1]:[P2 Q5]])</f>
+        <v>9</v>
+      </c>
+      <c r="P31" s="1">
+        <f>SUM(Tabela5[[#This Row],[Nota P2]],Tabela5[[#This Row],[Nota P1]])</f>
+        <v>26.4</v>
+      </c>
+    </row>
+    <row r="32" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A32" t="s">
+        <v>9</v>
+      </c>
+      <c r="B32">
+        <v>2024700840</v>
+      </c>
+      <c r="D32" s="1">
+        <v>2.5</v>
+      </c>
+      <c r="E32" s="1">
+        <v>2.5</v>
+      </c>
+      <c r="F32" s="1">
+        <v>2.5</v>
+      </c>
+      <c r="G32" s="1">
+        <v>5</v>
+      </c>
+      <c r="H32" s="1">
+        <v>2.5</v>
+      </c>
+      <c r="I32" s="1">
+        <f>SUM(Tabela5[[#This Row],[P1 Q1]:[P1 Q5]])</f>
+        <v>15</v>
+      </c>
+      <c r="J32" s="1">
+        <v>3</v>
+      </c>
+      <c r="K32" s="1">
+        <v>1</v>
+      </c>
+      <c r="L32" s="1">
+        <v>3</v>
+      </c>
+      <c r="M32" s="1">
+        <v>4</v>
+      </c>
+      <c r="N32" s="1">
+        <v>0</v>
+      </c>
+      <c r="O32" s="1">
+        <f>SUM(Tabela5[[#This Row],[P2 Q1]:[P2 Q5]])</f>
+        <v>11</v>
+      </c>
+      <c r="P32" s="1">
+        <f>SUM(Tabela5[[#This Row],[Nota P2]],Tabela5[[#This Row],[Nota P1]])</f>
+        <v>26</v>
+      </c>
+    </row>
+    <row r="33" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A33" t="s">
+        <v>9</v>
+      </c>
+      <c r="B33">
+        <v>2024673630</v>
+      </c>
+      <c r="D33" s="1">
+        <v>5</v>
+      </c>
+      <c r="E33" s="1">
+        <v>3</v>
+      </c>
+      <c r="F33" s="1">
+        <v>1.7</v>
+      </c>
+      <c r="G33" s="1">
+        <v>2.5</v>
+      </c>
+      <c r="H33" s="1">
+        <v>3.7</v>
+      </c>
+      <c r="I33" s="1">
+        <f>SUM(Tabela5[[#This Row],[P1 Q1]:[P1 Q5]])</f>
+        <v>15.899999999999999</v>
+      </c>
+      <c r="J33" s="1">
+        <v>0</v>
+      </c>
+      <c r="K33" s="1">
+        <v>3</v>
+      </c>
+      <c r="L33" s="1">
+        <v>1</v>
+      </c>
+      <c r="M33" s="1">
+        <v>0</v>
+      </c>
+      <c r="N33" s="1">
+        <v>4</v>
+      </c>
+      <c r="O33" s="1">
+        <f>SUM(Tabela5[[#This Row],[P2 Q1]:[P2 Q5]])</f>
+        <v>8</v>
+      </c>
+      <c r="P33" s="1">
+        <f>SUM(Tabela5[[#This Row],[Nota P2]],Tabela5[[#This Row],[Nota P1]])</f>
+        <v>23.9</v>
+      </c>
+    </row>
+    <row r="34" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A34" t="s">
+        <v>9</v>
+      </c>
+      <c r="B34">
+        <v>2024674016</v>
+      </c>
+      <c r="D34" s="1">
+        <v>5</v>
+      </c>
+      <c r="E34" s="1">
+        <v>4.5</v>
+      </c>
+      <c r="F34" s="1">
+        <v>1.7</v>
+      </c>
+      <c r="G34" s="1">
+        <v>4.2</v>
+      </c>
+      <c r="H34" s="1">
+        <v>5</v>
+      </c>
+      <c r="I34" s="1">
+        <f>SUM(Tabela5[[#This Row],[P1 Q1]:[P1 Q5]])</f>
+        <v>20.399999999999999</v>
+      </c>
+      <c r="J34" s="1">
+        <v>2</v>
+      </c>
+      <c r="K34" s="1">
+        <v>0</v>
+      </c>
+      <c r="L34" s="1">
+        <v>0</v>
+      </c>
+      <c r="M34" s="1">
+        <v>0</v>
+      </c>
+      <c r="N34" s="1">
+        <v>0</v>
+      </c>
+      <c r="O34" s="1">
+        <f>SUM(Tabela5[[#This Row],[P2 Q1]:[P2 Q5]])</f>
+        <v>2</v>
+      </c>
+      <c r="P34" s="1">
+        <f>SUM(Tabela5[[#This Row],[Nota P2]],Tabela5[[#This Row],[Nota P1]])</f>
+        <v>22.4</v>
+      </c>
+    </row>
+    <row r="35" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A35" t="s">
+        <v>9</v>
+      </c>
+      <c r="B35">
+        <v>2024675179</v>
+      </c>
+      <c r="D35" s="1">
+        <v>0</v>
+      </c>
+      <c r="E35" s="1">
+        <v>2.5</v>
+      </c>
+      <c r="F35" s="1">
+        <v>2.5</v>
+      </c>
+      <c r="G35" s="1">
+        <v>2</v>
+      </c>
+      <c r="H35" s="1">
+        <v>2.5</v>
+      </c>
+      <c r="I35" s="1">
+        <f>SUM(Tabela5[[#This Row],[P1 Q1]:[P1 Q5]])</f>
+        <v>9.5</v>
+      </c>
+      <c r="J35" s="1">
+        <v>2</v>
+      </c>
+      <c r="K35" s="1">
+        <v>0</v>
+      </c>
+      <c r="L35" s="1">
+        <v>4</v>
+      </c>
+      <c r="M35" s="1">
+        <v>4</v>
+      </c>
+      <c r="N35" s="1">
+        <v>2</v>
+      </c>
+      <c r="O35" s="1">
+        <f>SUM(Tabela5[[#This Row],[P2 Q1]:[P2 Q5]])</f>
+        <v>12</v>
+      </c>
+      <c r="P35" s="1">
+        <f>SUM(Tabela5[[#This Row],[Nota P2]],Tabela5[[#This Row],[Nota P1]])</f>
+        <v>21.5</v>
+      </c>
+    </row>
+    <row r="36" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A36" t="s">
+        <v>9</v>
+      </c>
+      <c r="B36">
+        <v>2024701072</v>
+      </c>
+      <c r="D36" s="1">
+        <v>0</v>
+      </c>
+      <c r="E36" s="1">
+        <v>3</v>
+      </c>
+      <c r="F36" s="1">
+        <v>1.7</v>
+      </c>
+      <c r="G36" s="1">
+        <v>2.5</v>
+      </c>
+      <c r="H36" s="1">
+        <v>1.7</v>
+      </c>
+      <c r="I36" s="1">
+        <f>SUM(Tabela5[[#This Row],[P1 Q1]:[P1 Q5]])</f>
+        <v>8.9</v>
+      </c>
+      <c r="J36" s="1">
+        <v>2</v>
+      </c>
+      <c r="K36" s="1">
+        <v>0</v>
+      </c>
+      <c r="L36" s="1">
+        <v>3</v>
+      </c>
+      <c r="M36" s="1">
+        <v>3</v>
+      </c>
+      <c r="N36" s="1">
+        <v>4</v>
+      </c>
+      <c r="O36" s="1">
+        <f>SUM(Tabela5[[#This Row],[P2 Q1]:[P2 Q5]])</f>
+        <v>12</v>
+      </c>
+      <c r="P36" s="1">
+        <f>SUM(Tabela5[[#This Row],[Nota P2]],Tabela5[[#This Row],[Nota P1]])</f>
+        <v>20.9</v>
+      </c>
+    </row>
+    <row r="37" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A37" t="s">
+        <v>1</v>
+      </c>
+      <c r="B37">
+        <v>2024711396</v>
+      </c>
+      <c r="D37" s="1">
+        <v>5</v>
+      </c>
+      <c r="E37" s="1">
+        <v>2.5</v>
+      </c>
+      <c r="F37" s="1">
+        <v>0</v>
+      </c>
+      <c r="G37" s="1">
+        <v>4.2</v>
+      </c>
+      <c r="H37" s="1">
+        <v>1.2</v>
+      </c>
+      <c r="I37" s="1">
+        <f>SUM(Tabela5[[#This Row],[P1 Q1]:[P1 Q5]])</f>
+        <v>12.899999999999999</v>
+      </c>
+      <c r="J37" s="1">
+        <v>4</v>
+      </c>
+      <c r="K37" s="1">
+        <v>0</v>
+      </c>
+      <c r="L37" s="1">
+        <v>3</v>
+      </c>
+      <c r="M37" s="1">
+        <v>0</v>
+      </c>
+      <c r="N37" s="1">
+        <v>0</v>
+      </c>
+      <c r="O37" s="1">
+        <f>SUM(Tabela5[[#This Row],[P2 Q1]:[P2 Q5]])</f>
+        <v>7</v>
+      </c>
+      <c r="P37" s="1">
+        <f>SUM(Tabela5[[#This Row],[Nota P2]],Tabela5[[#This Row],[Nota P1]])</f>
+        <v>19.899999999999999</v>
+      </c>
+    </row>
+    <row r="38" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A38" t="s">
+        <v>1</v>
+      </c>
+      <c r="B38">
+        <v>2024727012</v>
+      </c>
+      <c r="D38" s="1">
+        <v>0</v>
+      </c>
+      <c r="E38" s="1">
+        <v>3.5</v>
+      </c>
+      <c r="F38" s="1">
+        <v>1.2</v>
+      </c>
+      <c r="G38" s="1">
+        <v>3.7</v>
+      </c>
+      <c r="H38" s="1">
+        <v>3.7</v>
+      </c>
+      <c r="I38" s="1">
+        <f>SUM(Tabela5[[#This Row],[P1 Q1]:[P1 Q5]])</f>
+        <v>12.100000000000001</v>
+      </c>
+      <c r="J38" s="1">
+        <v>3</v>
+      </c>
+      <c r="K38" s="1">
+        <v>1</v>
+      </c>
+      <c r="L38" s="1">
+        <v>0</v>
+      </c>
+      <c r="M38" s="1">
+        <v>3.5</v>
+      </c>
+      <c r="N38" s="1">
+        <v>0</v>
+      </c>
+      <c r="O38" s="1">
+        <f>SUM(Tabela5[[#This Row],[P2 Q1]:[P2 Q5]])</f>
+        <v>7.5</v>
+      </c>
+      <c r="P38" s="1">
+        <f>SUM(Tabela5[[#This Row],[Nota P2]],Tabela5[[#This Row],[Nota P1]])</f>
+        <v>19.600000000000001</v>
+      </c>
+    </row>
+    <row r="39" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A39" t="s">
+        <v>1</v>
+      </c>
+      <c r="B39">
+        <v>2024711680</v>
+      </c>
+      <c r="D39" s="1">
+        <v>5</v>
+      </c>
+      <c r="E39" s="1">
+        <v>3</v>
+      </c>
+      <c r="F39" s="1">
+        <v>2.5</v>
+      </c>
+      <c r="G39" s="1">
+        <v>3.7</v>
+      </c>
+      <c r="H39" s="1">
+        <v>5</v>
+      </c>
+      <c r="I39" s="1">
+        <f>SUM(Tabela5[[#This Row],[P1 Q1]:[P1 Q5]])</f>
+        <v>19.2</v>
+      </c>
+      <c r="J39" s="1">
+        <v>0</v>
+      </c>
+      <c r="K39" s="1">
+        <v>0</v>
+      </c>
+      <c r="L39" s="1">
+        <v>0</v>
+      </c>
+      <c r="M39" s="1">
+        <v>0</v>
+      </c>
+      <c r="N39" s="1">
+        <v>0</v>
+      </c>
+      <c r="O39" s="1">
+        <f>SUM(Tabela5[[#This Row],[P2 Q1]:[P2 Q5]])</f>
+        <v>0</v>
+      </c>
+      <c r="P39" s="1">
+        <f>SUM(Tabela5[[#This Row],[Nota P2]],Tabela5[[#This Row],[Nota P1]])</f>
+        <v>19.2</v>
+      </c>
+    </row>
+    <row r="40" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A40" t="s">
+        <v>9</v>
+      </c>
+      <c r="B40">
+        <v>2024715944</v>
+      </c>
+      <c r="D40" s="1">
+        <v>2.5</v>
+      </c>
+      <c r="E40" s="1">
+        <v>4</v>
+      </c>
+      <c r="F40" s="1">
+        <v>2.5</v>
+      </c>
+      <c r="G40" s="1">
+        <v>3.2</v>
+      </c>
+      <c r="H40" s="1">
+        <v>5</v>
+      </c>
+      <c r="I40" s="1">
+        <f>SUM(Tabela5[[#This Row],[P1 Q1]:[P1 Q5]])</f>
+        <v>17.2</v>
+      </c>
+      <c r="J40" s="1">
+        <v>0</v>
+      </c>
+      <c r="K40" s="1">
+        <v>0</v>
+      </c>
+      <c r="L40" s="1">
+        <v>0</v>
+      </c>
+      <c r="M40" s="1">
+        <v>0</v>
+      </c>
+      <c r="N40" s="1">
+        <v>0</v>
+      </c>
+      <c r="O40" s="1">
+        <f>SUM(Tabela5[[#This Row],[P2 Q1]:[P2 Q5]])</f>
+        <v>0</v>
+      </c>
+      <c r="P40" s="1">
+        <f>SUM(Tabela5[[#This Row],[Nota P2]],Tabela5[[#This Row],[Nota P1]])</f>
+        <v>17.2</v>
+      </c>
+    </row>
+    <row r="41" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A41" t="s">
+        <v>9</v>
+      </c>
+      <c r="B41">
+        <v>2023661379</v>
+      </c>
+      <c r="D41" s="1">
+        <v>0</v>
+      </c>
+      <c r="E41" s="1">
+        <v>4</v>
+      </c>
+      <c r="F41" s="1">
+        <v>1</v>
+      </c>
+      <c r="G41" s="1">
+        <v>5</v>
+      </c>
+      <c r="H41" s="1">
+        <v>3.7</v>
+      </c>
+      <c r="I41" s="1">
+        <f>SUM(Tabela5[[#This Row],[P1 Q1]:[P1 Q5]])</f>
+        <v>13.7</v>
+      </c>
+      <c r="J41" s="1">
+        <v>0</v>
+      </c>
+      <c r="K41" s="1">
+        <v>0</v>
+      </c>
+      <c r="L41" s="1">
+        <v>0</v>
+      </c>
+      <c r="M41" s="1">
+        <v>0</v>
+      </c>
+      <c r="N41" s="1">
+        <v>2</v>
+      </c>
+      <c r="O41" s="1">
+        <f>SUM(Tabela5[[#This Row],[P2 Q1]:[P2 Q5]])</f>
+        <v>2</v>
+      </c>
+      <c r="P41" s="1">
+        <f>SUM(Tabela5[[#This Row],[Nota P2]],Tabela5[[#This Row],[Nota P1]])</f>
+        <v>15.7</v>
+      </c>
+    </row>
+    <row r="42" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A42" t="s">
+        <v>9</v>
+      </c>
+      <c r="B42">
+        <v>2024710020</v>
+      </c>
+      <c r="D42" s="1">
+        <v>0</v>
+      </c>
+      <c r="E42" s="1">
+        <v>3.5</v>
+      </c>
+      <c r="F42" s="1">
+        <v>0</v>
+      </c>
+      <c r="G42" s="1">
+        <v>4.2</v>
+      </c>
+      <c r="H42" s="1">
+        <v>5</v>
+      </c>
+      <c r="I42" s="1">
+        <f>SUM(Tabela5[[#This Row],[P1 Q1]:[P1 Q5]])</f>
+        <v>12.7</v>
+      </c>
+      <c r="J42" s="1">
+        <v>0</v>
+      </c>
+      <c r="K42" s="1">
+        <v>0</v>
+      </c>
+      <c r="L42" s="1">
+        <v>0</v>
+      </c>
+      <c r="M42" s="1">
+        <v>0</v>
+      </c>
+      <c r="N42" s="1">
+        <v>0</v>
+      </c>
+      <c r="O42" s="1">
+        <f>SUM(Tabela5[[#This Row],[P2 Q1]:[P2 Q5]])</f>
+        <v>0</v>
+      </c>
+      <c r="P42" s="1">
+        <f>SUM(Tabela5[[#This Row],[Nota P2]],Tabela5[[#This Row],[Nota P1]])</f>
+        <v>12.7</v>
+      </c>
+    </row>
+    <row r="43" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A43" t="s">
+        <v>9</v>
+      </c>
+      <c r="B43">
+        <v>2024698420</v>
+      </c>
+      <c r="D43" s="1">
+        <v>5</v>
+      </c>
+      <c r="E43" s="1">
+        <v>3.5</v>
+      </c>
+      <c r="F43" s="1">
+        <v>0</v>
+      </c>
+      <c r="G43" s="1">
+        <v>1.5</v>
+      </c>
+      <c r="H43" s="1">
+        <v>2.5</v>
+      </c>
+      <c r="I43" s="1">
+        <f>SUM(Tabela5[[#This Row],[P1 Q1]:[P1 Q5]])</f>
+        <v>12.5</v>
+      </c>
+      <c r="J43" s="1">
+        <v>0</v>
+      </c>
+      <c r="K43" s="1">
+        <v>0</v>
+      </c>
+      <c r="L43" s="1">
+        <v>0</v>
+      </c>
+      <c r="M43" s="1">
+        <v>0</v>
+      </c>
+      <c r="N43" s="1">
+        <v>0</v>
+      </c>
+      <c r="O43" s="1">
+        <f>SUM(Tabela5[[#This Row],[P2 Q1]:[P2 Q5]])</f>
+        <v>0</v>
+      </c>
+      <c r="P43" s="1">
+        <f>SUM(Tabela5[[#This Row],[Nota P2]],Tabela5[[#This Row],[Nota P1]])</f>
+        <v>12.5</v>
+      </c>
+    </row>
+    <row r="44" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A44" t="s">
+        <v>1</v>
+      </c>
+      <c r="B44">
+        <v>2024661160</v>
+      </c>
+      <c r="D44" s="1">
+        <v>2.5</v>
+      </c>
+      <c r="E44" s="1">
+        <v>2.5</v>
+      </c>
+      <c r="F44" s="1">
+        <v>0</v>
+      </c>
+      <c r="G44" s="1">
+        <v>4.2</v>
+      </c>
+      <c r="H44" s="1">
+        <v>0</v>
+      </c>
+      <c r="I44" s="1">
+        <f>SUM(Tabela5[[#This Row],[P1 Q1]:[P1 Q5]])</f>
+        <v>9.1999999999999993</v>
+      </c>
+      <c r="J44" s="1">
+        <v>0</v>
+      </c>
+      <c r="K44" s="1">
+        <v>0</v>
+      </c>
+      <c r="L44" s="1">
+        <v>0</v>
+      </c>
+      <c r="M44" s="1">
+        <v>3</v>
+      </c>
+      <c r="N44" s="1">
+        <v>0</v>
+      </c>
+      <c r="O44" s="1">
+        <f>SUM(Tabela5[[#This Row],[P2 Q1]:[P2 Q5]])</f>
+        <v>3</v>
+      </c>
+      <c r="P44" s="1">
+        <f>SUM(Tabela5[[#This Row],[Nota P2]],Tabela5[[#This Row],[Nota P1]])</f>
+        <v>12.2</v>
+      </c>
+    </row>
+    <row r="45" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A45" t="s">
+        <v>9</v>
+      </c>
+      <c r="B45">
+        <v>2024700360</v>
+      </c>
+      <c r="D45" s="1">
+        <v>0</v>
+      </c>
+      <c r="E45" s="1">
+        <v>0</v>
+      </c>
+      <c r="F45" s="1">
+        <v>0</v>
+      </c>
+      <c r="G45" s="1">
+        <v>0</v>
+      </c>
+      <c r="H45" s="1">
+        <v>0</v>
+      </c>
+      <c r="I45" s="1">
+        <f>SUM(Tabela5[[#This Row],[P1 Q1]:[P1 Q5]])</f>
+        <v>0</v>
+      </c>
+      <c r="J45" s="1">
+        <v>2</v>
+      </c>
+      <c r="K45" s="1">
+        <v>0</v>
+      </c>
+      <c r="L45" s="1">
+        <v>2</v>
+      </c>
+      <c r="M45" s="1">
+        <v>4</v>
+      </c>
+      <c r="N45" s="1">
+        <v>4</v>
+      </c>
+      <c r="O45" s="1">
+        <f>SUM(Tabela5[[#This Row],[P2 Q1]:[P2 Q5]])</f>
+        <v>12</v>
+      </c>
+      <c r="P45" s="1">
+        <f>SUM(Tabela5[[#This Row],[Nota P2]],Tabela5[[#This Row],[Nota P1]])</f>
+        <v>12</v>
+      </c>
+    </row>
+    <row r="46" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A46" t="s">
+        <v>1</v>
+      </c>
+      <c r="B46">
+        <v>2024711493</v>
+      </c>
+      <c r="D46" s="1">
+        <v>0</v>
+      </c>
+      <c r="E46" s="1">
+        <v>2</v>
+      </c>
+      <c r="F46" s="1">
+        <v>0</v>
+      </c>
+      <c r="G46" s="1">
+        <v>0</v>
+      </c>
+      <c r="H46" s="1">
+        <v>3.7</v>
+      </c>
+      <c r="I46" s="1">
+        <f>SUM(Tabela5[[#This Row],[P1 Q1]:[P1 Q5]])</f>
+        <v>5.7</v>
+      </c>
+      <c r="J46" s="1">
+        <v>2</v>
+      </c>
+      <c r="K46" s="1">
+        <v>0</v>
+      </c>
+      <c r="L46" s="1">
+        <v>3</v>
+      </c>
+      <c r="M46" s="1">
+        <v>0</v>
+      </c>
+      <c r="N46" s="1">
+        <v>0</v>
+      </c>
+      <c r="O46" s="1">
+        <f>SUM(Tabela5[[#This Row],[P2 Q1]:[P2 Q5]])</f>
+        <v>5</v>
+      </c>
+      <c r="P46" s="1">
+        <f>SUM(Tabela5[[#This Row],[Nota P2]],Tabela5[[#This Row],[Nota P1]])</f>
+        <v>10.7</v>
+      </c>
+    </row>
+    <row r="47" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A47" t="s">
+        <v>9</v>
+      </c>
+      <c r="B47">
+        <v>2024675144</v>
+      </c>
+      <c r="D47" s="1">
+        <v>0</v>
+      </c>
+      <c r="E47" s="1">
+        <v>3.5</v>
+      </c>
+      <c r="F47" s="1">
+        <v>2</v>
+      </c>
+      <c r="G47" s="1">
+        <v>0</v>
+      </c>
+      <c r="H47" s="1">
+        <v>1.2</v>
+      </c>
+      <c r="I47" s="1">
+        <f>SUM(Tabela5[[#This Row],[P1 Q1]:[P1 Q5]])</f>
+        <v>6.7</v>
+      </c>
+      <c r="J47" s="1">
+        <v>0</v>
+      </c>
+      <c r="K47" s="1">
+        <v>0</v>
+      </c>
+      <c r="L47" s="1">
+        <v>3</v>
+      </c>
+      <c r="M47" s="1">
+        <v>1</v>
+      </c>
+      <c r="N47" s="1">
+        <v>0</v>
+      </c>
+      <c r="O47" s="1">
+        <f>SUM(Tabela5[[#This Row],[P2 Q1]:[P2 Q5]])</f>
+        <v>4</v>
+      </c>
+      <c r="P47" s="1">
+        <f>SUM(Tabela5[[#This Row],[Nota P2]],Tabela5[[#This Row],[Nota P1]])</f>
+        <v>10.7</v>
+      </c>
+    </row>
+    <row r="48" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A48" t="s">
+        <v>9</v>
+      </c>
+      <c r="B48">
+        <v>2024693045</v>
+      </c>
+      <c r="D48" s="1">
+        <v>0</v>
+      </c>
+      <c r="E48" s="1">
+        <v>0</v>
+      </c>
+      <c r="F48" s="1">
+        <v>0</v>
+      </c>
+      <c r="G48" s="1">
+        <v>0</v>
+      </c>
+      <c r="H48" s="1">
+        <v>0</v>
+      </c>
+      <c r="I48" s="1">
+        <f>SUM(Tabela5[[#This Row],[P1 Q1]:[P1 Q5]])</f>
+        <v>0</v>
+      </c>
+      <c r="J48" s="1">
+        <v>3</v>
+      </c>
+      <c r="K48" s="1">
+        <v>0</v>
+      </c>
+      <c r="L48" s="1">
+        <v>3</v>
+      </c>
+      <c r="M48" s="1">
+        <v>4</v>
+      </c>
+      <c r="N48" s="1">
+        <v>0</v>
+      </c>
+      <c r="O48" s="1">
+        <f>SUM(Tabela5[[#This Row],[P2 Q1]:[P2 Q5]])</f>
+        <v>10</v>
+      </c>
+      <c r="P48" s="1">
+        <f>SUM(Tabela5[[#This Row],[Nota P2]],Tabela5[[#This Row],[Nota P1]])</f>
+        <v>10</v>
+      </c>
+    </row>
+    <row r="49" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A49" t="s">
+        <v>9</v>
+      </c>
+      <c r="B49">
+        <v>2024700483</v>
+      </c>
+      <c r="D49" s="1">
+        <v>0</v>
+      </c>
+      <c r="E49" s="1">
+        <v>0</v>
+      </c>
+      <c r="F49" s="1">
+        <v>0</v>
+      </c>
+      <c r="G49" s="1">
+        <v>0</v>
+      </c>
+      <c r="H49" s="1">
+        <v>0</v>
+      </c>
+      <c r="I49" s="1">
+        <f>SUM(Tabela5[[#This Row],[P1 Q1]:[P1 Q5]])</f>
+        <v>0</v>
+      </c>
+      <c r="J49" s="1">
+        <v>2</v>
+      </c>
+      <c r="K49" s="1">
+        <v>0</v>
+      </c>
+      <c r="L49" s="1">
+        <v>4</v>
+      </c>
+      <c r="M49" s="1">
+        <v>3</v>
+      </c>
+      <c r="N49" s="1">
+        <v>0</v>
+      </c>
+      <c r="O49" s="1">
+        <f>SUM(Tabela5[[#This Row],[P2 Q1]:[P2 Q5]])</f>
+        <v>9</v>
+      </c>
+      <c r="P49" s="1">
+        <f>SUM(Tabela5[[#This Row],[Nota P2]],Tabela5[[#This Row],[Nota P1]])</f>
+        <v>9</v>
+      </c>
+    </row>
+    <row r="50" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A50" t="s">
+        <v>9</v>
+      </c>
+      <c r="B50">
+        <v>2024696877</v>
+      </c>
+      <c r="D50" s="1">
+        <v>5</v>
+      </c>
+      <c r="E50" s="1">
+        <v>3.5</v>
+      </c>
+      <c r="F50" s="1">
+        <v>0</v>
+      </c>
+      <c r="G50" s="1">
+        <v>0</v>
+      </c>
+      <c r="H50" s="1">
+        <v>0</v>
+      </c>
+      <c r="I50" s="1">
+        <f>SUM(Tabela5[[#This Row],[P1 Q1]:[P1 Q5]])</f>
+        <v>8.5</v>
+      </c>
+      <c r="J50" s="1">
+        <v>0</v>
+      </c>
+      <c r="K50" s="1">
+        <v>0</v>
+      </c>
+      <c r="L50" s="1">
+        <v>0</v>
+      </c>
+      <c r="M50" s="1">
+        <v>0</v>
+      </c>
+      <c r="N50" s="1">
+        <v>0</v>
+      </c>
+      <c r="O50" s="1">
+        <f>SUM(Tabela5[[#This Row],[P2 Q1]:[P2 Q5]])</f>
+        <v>0</v>
+      </c>
+      <c r="P50" s="1">
+        <f>SUM(Tabela5[[#This Row],[Nota P2]],Tabela5[[#This Row],[Nota P1]])</f>
+        <v>8.5</v>
+      </c>
+    </row>
+    <row r="51" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A51" t="s">
+        <v>9</v>
+      </c>
+      <c r="B51">
+        <v>2024709219</v>
+      </c>
+      <c r="D51" s="1">
+        <v>0</v>
+      </c>
+      <c r="E51" s="1">
+        <v>0</v>
+      </c>
+      <c r="F51" s="1">
+        <v>0</v>
+      </c>
+      <c r="G51" s="1">
+        <v>0</v>
+      </c>
+      <c r="H51" s="1">
+        <v>0</v>
+      </c>
+      <c r="I51" s="1">
+        <f>SUM(Tabela5[[#This Row],[P1 Q1]:[P1 Q5]])</f>
+        <v>0</v>
+      </c>
+      <c r="J51" s="1">
+        <v>0</v>
+      </c>
+      <c r="K51" s="1">
+        <v>0</v>
+      </c>
+      <c r="L51" s="1">
+        <v>0</v>
+      </c>
+      <c r="M51" s="1">
+        <v>0</v>
+      </c>
+      <c r="N51" s="1">
+        <v>0</v>
+      </c>
+      <c r="O51" s="1">
+        <f>SUM(Tabela5[[#This Row],[P2 Q1]:[P2 Q5]])</f>
+        <v>0</v>
+      </c>
+      <c r="P51" s="1">
+        <f>SUM(Tabela5[[#This Row],[Nota P2]],Tabela5[[#This Row],[Nota P1]])</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A52" t="s">
+        <v>9</v>
+      </c>
+      <c r="B52">
+        <v>2024675187</v>
+      </c>
+      <c r="D52" s="1">
+        <v>0</v>
+      </c>
+      <c r="E52" s="1">
+        <v>0</v>
+      </c>
+      <c r="F52" s="1">
+        <v>0</v>
+      </c>
+      <c r="G52" s="1">
+        <v>0</v>
+      </c>
+      <c r="H52" s="1">
+        <v>0</v>
+      </c>
+      <c r="I52" s="1">
+        <f>SUM(Tabela5[[#This Row],[P1 Q1]:[P1 Q5]])</f>
+        <v>0</v>
+      </c>
+      <c r="J52" s="1">
+        <v>0</v>
+      </c>
+      <c r="K52" s="1">
+        <v>0</v>
+      </c>
+      <c r="L52" s="1">
+        <v>0</v>
+      </c>
+      <c r="M52" s="1">
+        <v>0</v>
+      </c>
+      <c r="N52" s="1">
+        <v>0</v>
+      </c>
+      <c r="O52" s="1">
+        <f>SUM(Tabela5[[#This Row],[P2 Q1]:[P2 Q5]])</f>
+        <v>0</v>
+      </c>
+      <c r="P52" s="1">
+        <f>SUM(Tabela5[[#This Row],[Nota P2]],Tabela5[[#This Row],[Nota P1]])</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="53" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A53" t="s">
+        <v>9</v>
+      </c>
+      <c r="B53">
+        <v>2024675152</v>
+      </c>
+      <c r="D53" s="1">
+        <v>0</v>
+      </c>
+      <c r="E53" s="1">
+        <v>0</v>
+      </c>
+      <c r="F53" s="1">
+        <v>0</v>
+      </c>
+      <c r="G53" s="1">
+        <v>0</v>
+      </c>
+      <c r="H53" s="1">
+        <v>0</v>
+      </c>
+      <c r="I53" s="1">
+        <f>SUM(Tabela5[[#This Row],[P1 Q1]:[P1 Q5]])</f>
+        <v>0</v>
+      </c>
+      <c r="J53" s="1">
+        <v>0</v>
+      </c>
+      <c r="K53" s="1">
+        <v>0</v>
+      </c>
+      <c r="L53" s="1">
+        <v>0</v>
+      </c>
+      <c r="M53" s="1">
+        <v>0</v>
+      </c>
+      <c r="N53" s="1">
+        <v>0</v>
+      </c>
+      <c r="O53" s="1">
+        <f>SUM(Tabela5[[#This Row],[P2 Q1]:[P2 Q5]])</f>
+        <v>0</v>
+      </c>
+      <c r="P53" s="1">
+        <f>SUM(Tabela5[[#This Row],[Nota P2]],Tabela5[[#This Row],[Nota P1]])</f>
+        <v>0</v>
+      </c>
+    </row>
+  </sheetData>
+  <conditionalFormatting sqref="D1:H1">
+    <cfRule type="colorScale" priority="8">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="J1:N1">
+    <cfRule type="colorScale" priority="7">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D3:H53">
+    <cfRule type="colorScale" priority="6">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="J3:N53">
+    <cfRule type="colorScale" priority="5">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="O3:O53">
+    <cfRule type="colorScale" priority="3">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="I3:I53">
+    <cfRule type="colorScale" priority="2">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="P3:P53">
+    <cfRule type="colorScale" priority="1">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
+  <tableParts count="1">
+    <tablePart r:id="rId1"/>
+  </tableParts>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:J54"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G12" sqref="G12"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="I53" sqref="A1:I53"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="0" defaultRowHeight="14.4" zeroHeight="1" x14ac:dyDescent="0.3"/>
@@ -604,10 +3765,10 @@
     </row>
     <row r="3" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
-        <v>9</v>
+        <v>1</v>
       </c>
       <c r="B3" s="2">
-        <v>2024715936</v>
+        <v>2024716606</v>
       </c>
       <c r="C3" s="2" t="s">
         <v>11</v>
@@ -634,10 +3795,10 @@
     </row>
     <row r="4" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
-        <v>1</v>
+        <v>9</v>
       </c>
       <c r="B4" s="2">
-        <v>2024716606</v>
+        <v>2024715936</v>
       </c>
       <c r="C4" s="2" t="s">
         <v>11</v>
@@ -1060,26 +4221,26 @@
     </row>
     <row r="19" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A19" t="s">
-        <v>9</v>
+        <v>1</v>
       </c>
       <c r="B19" s="2">
-        <v>2024691921</v>
+        <v>2024716169</v>
       </c>
       <c r="C19" s="2"/>
       <c r="D19" s="1">
         <v>5</v>
       </c>
       <c r="E19" s="1">
-        <v>4</v>
+        <v>3.5</v>
       </c>
       <c r="F19" s="1">
         <v>2.5</v>
       </c>
       <c r="G19" s="1">
-        <v>4.2</v>
+        <v>5</v>
       </c>
       <c r="H19" s="1">
-        <v>4</v>
+        <v>3.7</v>
       </c>
       <c r="I19" s="1">
         <f>SUM(D19:H19)</f>
@@ -1088,26 +4249,26 @@
     </row>
     <row r="20" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A20" t="s">
-        <v>9</v>
+        <v>1</v>
       </c>
       <c r="B20" s="2">
-        <v>2024700351</v>
+        <v>2024712317</v>
       </c>
       <c r="C20" s="2"/>
       <c r="D20" s="1">
         <v>5</v>
       </c>
       <c r="E20" s="1">
-        <v>3.5</v>
+        <v>4</v>
       </c>
       <c r="F20" s="1">
-        <v>2.5</v>
+        <v>1.7</v>
       </c>
       <c r="G20" s="1">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="H20" s="1">
-        <v>3.7</v>
+        <v>5</v>
       </c>
       <c r="I20" s="1">
         <f>SUM(D20:H20)</f>
@@ -1144,10 +4305,10 @@
     </row>
     <row r="22" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A22" t="s">
-        <v>1</v>
+        <v>9</v>
       </c>
       <c r="B22" s="2">
-        <v>2024716169</v>
+        <v>2024700351</v>
       </c>
       <c r="C22" s="2"/>
       <c r="D22" s="1">
@@ -1172,10 +4333,10 @@
     </row>
     <row r="23" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A23" t="s">
-        <v>1</v>
+        <v>9</v>
       </c>
       <c r="B23" s="2">
-        <v>2024712317</v>
+        <v>2024691921</v>
       </c>
       <c r="C23" s="2"/>
       <c r="D23" s="1">
@@ -1185,13 +4346,13 @@
         <v>4</v>
       </c>
       <c r="F23" s="1">
-        <v>1.7</v>
+        <v>2.5</v>
       </c>
       <c r="G23" s="1">
-        <v>4</v>
+        <v>4.2</v>
       </c>
       <c r="H23" s="1">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="I23" s="1">
         <f>SUM(D23:H23)</f>
@@ -1875,14 +5036,24 @@
         <v>9</v>
       </c>
       <c r="B48" s="2">
-        <v>2024675152</v>
+        <v>2024709219</v>
       </c>
       <c r="C48" s="2"/>
-      <c r="D48" s="1"/>
-      <c r="E48" s="1"/>
-      <c r="F48" s="1"/>
-      <c r="G48" s="1"/>
-      <c r="H48" s="1"/>
+      <c r="D48" s="1">
+        <v>0</v>
+      </c>
+      <c r="E48" s="1">
+        <v>0</v>
+      </c>
+      <c r="F48" s="1">
+        <v>0</v>
+      </c>
+      <c r="G48" s="1">
+        <v>0</v>
+      </c>
+      <c r="H48" s="1">
+        <v>0</v>
+      </c>
       <c r="I48" s="1">
         <f>SUM(D48:H48)</f>
         <v>0</v>
@@ -1893,14 +5064,24 @@
         <v>9</v>
       </c>
       <c r="B49" s="2">
-        <v>2024675187</v>
+        <v>2024700483</v>
       </c>
       <c r="C49" s="2"/>
-      <c r="D49" s="1"/>
-      <c r="E49" s="1"/>
-      <c r="F49" s="1"/>
-      <c r="G49" s="1"/>
-      <c r="H49" s="1"/>
+      <c r="D49" s="1">
+        <v>0</v>
+      </c>
+      <c r="E49" s="1">
+        <v>0</v>
+      </c>
+      <c r="F49" s="1">
+        <v>0</v>
+      </c>
+      <c r="G49" s="1">
+        <v>0</v>
+      </c>
+      <c r="H49" s="1">
+        <v>0</v>
+      </c>
       <c r="I49" s="1">
         <f>SUM(D49:H49)</f>
         <v>0</v>
@@ -1911,14 +5092,24 @@
         <v>9</v>
       </c>
       <c r="B50" s="2">
-        <v>2024693045</v>
+        <v>2024700360</v>
       </c>
       <c r="C50" s="2"/>
-      <c r="D50" s="1"/>
-      <c r="E50" s="1"/>
-      <c r="F50" s="1"/>
-      <c r="G50" s="1"/>
-      <c r="H50" s="1"/>
+      <c r="D50" s="1">
+        <v>0</v>
+      </c>
+      <c r="E50" s="1">
+        <v>0</v>
+      </c>
+      <c r="F50" s="1">
+        <v>0</v>
+      </c>
+      <c r="G50" s="1">
+        <v>0</v>
+      </c>
+      <c r="H50" s="1">
+        <v>0</v>
+      </c>
       <c r="I50" s="1">
         <f>SUM(D50:H50)</f>
         <v>0</v>
@@ -1929,14 +5120,24 @@
         <v>9</v>
       </c>
       <c r="B51" s="2">
-        <v>2024700360</v>
+        <v>2024693045</v>
       </c>
       <c r="C51" s="2"/>
-      <c r="D51" s="1"/>
-      <c r="E51" s="1"/>
-      <c r="F51" s="1"/>
-      <c r="G51" s="1"/>
-      <c r="H51" s="1"/>
+      <c r="D51" s="1">
+        <v>0</v>
+      </c>
+      <c r="E51" s="1">
+        <v>0</v>
+      </c>
+      <c r="F51" s="1">
+        <v>0</v>
+      </c>
+      <c r="G51" s="1">
+        <v>0</v>
+      </c>
+      <c r="H51" s="1">
+        <v>0</v>
+      </c>
       <c r="I51" s="1">
         <f>SUM(D51:H51)</f>
         <v>0</v>
@@ -1947,14 +5148,24 @@
         <v>9</v>
       </c>
       <c r="B52" s="2">
-        <v>2024700483</v>
+        <v>2024675187</v>
       </c>
       <c r="C52" s="2"/>
-      <c r="D52" s="1"/>
-      <c r="E52" s="1"/>
-      <c r="F52" s="1"/>
-      <c r="G52" s="1"/>
-      <c r="H52" s="1"/>
+      <c r="D52" s="1">
+        <v>0</v>
+      </c>
+      <c r="E52" s="1">
+        <v>0</v>
+      </c>
+      <c r="F52" s="1">
+        <v>0</v>
+      </c>
+      <c r="G52" s="1">
+        <v>0</v>
+      </c>
+      <c r="H52" s="1">
+        <v>0</v>
+      </c>
       <c r="I52" s="1">
         <f>SUM(D52:H52)</f>
         <v>0</v>
@@ -1965,14 +5176,24 @@
         <v>9</v>
       </c>
       <c r="B53" s="2">
-        <v>2024709219</v>
+        <v>2024675152</v>
       </c>
       <c r="C53" s="2"/>
-      <c r="D53" s="1"/>
-      <c r="E53" s="1"/>
-      <c r="F53" s="1"/>
-      <c r="G53" s="1"/>
-      <c r="H53" s="1"/>
+      <c r="D53" s="1">
+        <v>0</v>
+      </c>
+      <c r="E53" s="1">
+        <v>0</v>
+      </c>
+      <c r="F53" s="1">
+        <v>0</v>
+      </c>
+      <c r="G53" s="1">
+        <v>0</v>
+      </c>
+      <c r="H53" s="1">
+        <v>0</v>
+      </c>
       <c r="I53" s="1">
         <f>SUM(D53:H53)</f>
         <v>0</v>
@@ -1981,6 +5202,18 @@
     <row r="54" spans="1:9" x14ac:dyDescent="0.3"/>
   </sheetData>
   <conditionalFormatting sqref="D3:D47">
+    <cfRule type="colorScale" priority="4">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D48:H53">
     <cfRule type="colorScale" priority="3">
       <colorScale>
         <cfvo type="min"/>
@@ -1992,7 +5225,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="D48:D53">
+  <conditionalFormatting sqref="D1:H1">
     <cfRule type="colorScale" priority="2">
       <colorScale>
         <cfvo type="min"/>
@@ -2004,7 +5237,67 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="D1:H1">
+  <conditionalFormatting sqref="E3:E53">
+    <cfRule type="colorScale" priority="5">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F3:F53">
+    <cfRule type="colorScale" priority="6">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="G3:G53">
+    <cfRule type="colorScale" priority="7">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H3:H53">
+    <cfRule type="colorScale" priority="8">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="I3:I53">
+    <cfRule type="colorScale" priority="9">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D3:H53">
     <cfRule type="colorScale" priority="1">
       <colorScale>
         <cfvo type="min"/>
@@ -2016,7 +5309,1528 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="E3:E53">
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <tableParts count="1">
+    <tablePart r:id="rId1"/>
+  </tableParts>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8D1DE8A8-8B41-4112-BF30-191E543E1CF2}">
+  <dimension ref="A1:L54"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D1" sqref="D1:I1048576"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="0" defaultRowHeight="14.4" zeroHeight="1" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="8.6640625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="13.44140625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="13.44140625" customWidth="1"/>
+    <col min="4" max="4" width="14.109375" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="8.88671875" customWidth="1"/>
+    <col min="6" max="10" width="5.5546875" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="7.33203125" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="5" bestFit="1" customWidth="1"/>
+    <col min="13" max="16384" width="8.88671875" hidden="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A1" s="4"/>
+      <c r="B1" s="4"/>
+      <c r="C1" s="4"/>
+      <c r="D1" s="3">
+        <f t="shared" ref="D1:G1" si="0">SUM(D3:D53)</f>
+        <v>111</v>
+      </c>
+      <c r="E1" s="3">
+        <f t="shared" si="0"/>
+        <v>61.5</v>
+      </c>
+      <c r="F1" s="3">
+        <f t="shared" si="0"/>
+        <v>119</v>
+      </c>
+      <c r="G1" s="3">
+        <f t="shared" si="0"/>
+        <v>138</v>
+      </c>
+      <c r="H1" s="3">
+        <f>SUM(H3:H53)</f>
+        <v>74</v>
+      </c>
+      <c r="I1" s="4"/>
+    </row>
+    <row r="2" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A2" t="s">
+        <v>0</v>
+      </c>
+      <c r="B2" t="s">
+        <v>2</v>
+      </c>
+      <c r="C2" t="s">
+        <v>10</v>
+      </c>
+      <c r="D2" t="s">
+        <v>5</v>
+      </c>
+      <c r="E2" t="s">
+        <v>3</v>
+      </c>
+      <c r="F2" t="s">
+        <v>6</v>
+      </c>
+      <c r="G2" t="s">
+        <v>7</v>
+      </c>
+      <c r="H2" t="s">
+        <v>4</v>
+      </c>
+      <c r="I2" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A3" t="s">
+        <v>1</v>
+      </c>
+      <c r="B3" s="2">
+        <v>2024727012</v>
+      </c>
+      <c r="C3" s="2"/>
+      <c r="D3" s="1">
+        <v>3</v>
+      </c>
+      <c r="E3" s="1">
+        <v>1</v>
+      </c>
+      <c r="F3" s="1">
+        <v>0</v>
+      </c>
+      <c r="G3" s="1">
+        <v>3.5</v>
+      </c>
+      <c r="H3" s="1">
+        <v>0</v>
+      </c>
+      <c r="I3" s="1">
+        <f>SUM(D3:H3)</f>
+        <v>7.5</v>
+      </c>
+    </row>
+    <row r="4" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A4" t="s">
+        <v>1</v>
+      </c>
+      <c r="B4" s="2">
+        <v>2024716606</v>
+      </c>
+      <c r="C4" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="D4" s="1">
+        <v>4</v>
+      </c>
+      <c r="E4" s="1">
+        <v>4</v>
+      </c>
+      <c r="F4" s="1">
+        <v>4</v>
+      </c>
+      <c r="G4" s="1">
+        <v>4</v>
+      </c>
+      <c r="H4" s="1">
+        <v>4</v>
+      </c>
+      <c r="I4" s="1">
+        <f>SUM(D4:H4)</f>
+        <v>20</v>
+      </c>
+    </row>
+    <row r="5" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A5" t="s">
+        <v>1</v>
+      </c>
+      <c r="B5" s="2">
+        <v>2024716169</v>
+      </c>
+      <c r="C5" s="2"/>
+      <c r="D5" s="1">
+        <v>0</v>
+      </c>
+      <c r="E5" s="1">
+        <v>1</v>
+      </c>
+      <c r="F5" s="1">
+        <v>4</v>
+      </c>
+      <c r="G5" s="1">
+        <v>4</v>
+      </c>
+      <c r="H5" s="1">
+        <v>0</v>
+      </c>
+      <c r="I5" s="1">
+        <f>SUM(D5:H5)</f>
+        <v>9</v>
+      </c>
+    </row>
+    <row r="6" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A6" t="s">
+        <v>9</v>
+      </c>
+      <c r="B6" s="2">
+        <v>2024715979</v>
+      </c>
+      <c r="C6" s="2"/>
+      <c r="D6" s="1">
+        <v>4</v>
+      </c>
+      <c r="E6" s="1">
+        <v>0</v>
+      </c>
+      <c r="F6" s="1">
+        <v>4</v>
+      </c>
+      <c r="G6" s="1">
+        <v>3.5</v>
+      </c>
+      <c r="H6" s="1">
+        <v>2</v>
+      </c>
+      <c r="I6" s="1">
+        <f>SUM(D6:H6)</f>
+        <v>13.5</v>
+      </c>
+    </row>
+    <row r="7" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A7" t="s">
+        <v>9</v>
+      </c>
+      <c r="B7" s="2">
+        <v>2024715952</v>
+      </c>
+      <c r="C7" s="2"/>
+      <c r="D7" s="1">
+        <v>4</v>
+      </c>
+      <c r="E7" s="1">
+        <v>4</v>
+      </c>
+      <c r="F7" s="1">
+        <v>2</v>
+      </c>
+      <c r="G7" s="1">
+        <v>4</v>
+      </c>
+      <c r="H7" s="1">
+        <v>0</v>
+      </c>
+      <c r="I7" s="1">
+        <f>SUM(D7:H7)</f>
+        <v>14</v>
+      </c>
+    </row>
+    <row r="8" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A8" t="s">
+        <v>9</v>
+      </c>
+      <c r="B8" s="2">
+        <v>2024715944</v>
+      </c>
+      <c r="C8" s="2"/>
+      <c r="D8" s="1">
+        <v>0</v>
+      </c>
+      <c r="E8" s="1">
+        <v>0</v>
+      </c>
+      <c r="F8" s="1">
+        <v>0</v>
+      </c>
+      <c r="G8" s="1">
+        <v>0</v>
+      </c>
+      <c r="H8" s="1">
+        <v>0</v>
+      </c>
+      <c r="I8" s="1">
+        <f>SUM(D8:H8)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A9" t="s">
+        <v>9</v>
+      </c>
+      <c r="B9" s="2">
+        <v>2024715936</v>
+      </c>
+      <c r="C9" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="D9" s="1">
+        <v>3</v>
+      </c>
+      <c r="E9" s="1">
+        <v>1</v>
+      </c>
+      <c r="F9" s="1">
+        <v>3</v>
+      </c>
+      <c r="G9" s="1">
+        <v>4</v>
+      </c>
+      <c r="H9" s="1">
+        <v>4</v>
+      </c>
+      <c r="I9" s="1">
+        <f>SUM(D9:H9)</f>
+        <v>15</v>
+      </c>
+    </row>
+    <row r="10" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A10" t="s">
+        <v>1</v>
+      </c>
+      <c r="B10" s="2">
+        <v>2024712317</v>
+      </c>
+      <c r="C10" s="2"/>
+      <c r="D10" s="1">
+        <v>0</v>
+      </c>
+      <c r="E10" s="1">
+        <v>2</v>
+      </c>
+      <c r="F10" s="1">
+        <v>3</v>
+      </c>
+      <c r="G10" s="1">
+        <v>4</v>
+      </c>
+      <c r="H10" s="1">
+        <v>2</v>
+      </c>
+      <c r="I10" s="1">
+        <f>SUM(D10:H10)</f>
+        <v>11</v>
+      </c>
+    </row>
+    <row r="11" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A11" t="s">
+        <v>1</v>
+      </c>
+      <c r="B11" s="2">
+        <v>2024711698</v>
+      </c>
+      <c r="C11" s="2"/>
+      <c r="D11" s="1">
+        <v>3</v>
+      </c>
+      <c r="E11" s="1">
+        <v>0</v>
+      </c>
+      <c r="F11" s="1">
+        <v>4</v>
+      </c>
+      <c r="G11" s="1">
+        <v>4</v>
+      </c>
+      <c r="H11" s="1">
+        <v>0</v>
+      </c>
+      <c r="I11" s="1">
+        <f>SUM(D11:H11)</f>
+        <v>11</v>
+      </c>
+    </row>
+    <row r="12" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A12" t="s">
+        <v>1</v>
+      </c>
+      <c r="B12" s="2">
+        <v>2024711680</v>
+      </c>
+      <c r="C12" s="2"/>
+      <c r="D12" s="1">
+        <v>0</v>
+      </c>
+      <c r="E12" s="1">
+        <v>0</v>
+      </c>
+      <c r="F12" s="1">
+        <v>0</v>
+      </c>
+      <c r="G12" s="1">
+        <v>0</v>
+      </c>
+      <c r="H12" s="1">
+        <v>0</v>
+      </c>
+      <c r="I12" s="1">
+        <f>SUM(D12:H12)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A13" t="s">
+        <v>1</v>
+      </c>
+      <c r="B13" s="2">
+        <v>2024711655</v>
+      </c>
+      <c r="C13" s="2"/>
+      <c r="D13" s="1">
+        <v>3</v>
+      </c>
+      <c r="E13" s="1">
+        <v>4</v>
+      </c>
+      <c r="F13" s="1">
+        <v>0</v>
+      </c>
+      <c r="G13" s="1">
+        <v>2</v>
+      </c>
+      <c r="H13" s="1">
+        <v>0</v>
+      </c>
+      <c r="I13" s="1">
+        <f>SUM(D13:H13)</f>
+        <v>9</v>
+      </c>
+    </row>
+    <row r="14" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A14" t="s">
+        <v>1</v>
+      </c>
+      <c r="B14" s="2">
+        <v>2024711531</v>
+      </c>
+      <c r="C14" s="2"/>
+      <c r="D14" s="1">
+        <v>4</v>
+      </c>
+      <c r="E14" s="1">
+        <v>4</v>
+      </c>
+      <c r="F14" s="1">
+        <v>3</v>
+      </c>
+      <c r="G14" s="1">
+        <v>4</v>
+      </c>
+      <c r="H14" s="1">
+        <v>4</v>
+      </c>
+      <c r="I14" s="1">
+        <f>SUM(D14:H14)</f>
+        <v>19</v>
+      </c>
+    </row>
+    <row r="15" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A15" t="s">
+        <v>1</v>
+      </c>
+      <c r="B15" s="2">
+        <v>2024711493</v>
+      </c>
+      <c r="C15" s="2"/>
+      <c r="D15" s="1">
+        <v>2</v>
+      </c>
+      <c r="E15" s="1">
+        <v>0</v>
+      </c>
+      <c r="F15" s="1">
+        <v>3</v>
+      </c>
+      <c r="G15" s="1">
+        <v>0</v>
+      </c>
+      <c r="H15" s="1">
+        <v>0</v>
+      </c>
+      <c r="I15" s="1">
+        <f>SUM(D15:H15)</f>
+        <v>5</v>
+      </c>
+    </row>
+    <row r="16" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A16" t="s">
+        <v>1</v>
+      </c>
+      <c r="B16" s="2">
+        <v>2024711396</v>
+      </c>
+      <c r="C16" s="2"/>
+      <c r="D16" s="1">
+        <v>4</v>
+      </c>
+      <c r="E16" s="1">
+        <v>0</v>
+      </c>
+      <c r="F16" s="1">
+        <v>3</v>
+      </c>
+      <c r="G16" s="1">
+        <v>0</v>
+      </c>
+      <c r="H16" s="1">
+        <v>0</v>
+      </c>
+      <c r="I16" s="1">
+        <f>SUM(D16:H16)</f>
+        <v>7</v>
+      </c>
+    </row>
+    <row r="17" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A17" t="s">
+        <v>1</v>
+      </c>
+      <c r="B17" s="2">
+        <v>2024711370</v>
+      </c>
+      <c r="C17" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="D17" s="1">
+        <v>3</v>
+      </c>
+      <c r="E17" s="1">
+        <v>0</v>
+      </c>
+      <c r="F17" s="1">
+        <v>4</v>
+      </c>
+      <c r="G17" s="1">
+        <v>4</v>
+      </c>
+      <c r="H17" s="1">
+        <v>4</v>
+      </c>
+      <c r="I17" s="1">
+        <f>SUM(D17:H17)</f>
+        <v>15</v>
+      </c>
+    </row>
+    <row r="18" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A18" t="s">
+        <v>9</v>
+      </c>
+      <c r="B18" s="2">
+        <v>2024710039</v>
+      </c>
+      <c r="C18" s="2"/>
+      <c r="D18" s="1">
+        <v>4</v>
+      </c>
+      <c r="E18" s="1">
+        <v>4</v>
+      </c>
+      <c r="F18" s="1">
+        <v>3</v>
+      </c>
+      <c r="G18" s="1">
+        <v>4</v>
+      </c>
+      <c r="H18" s="1">
+        <v>0</v>
+      </c>
+      <c r="I18" s="1">
+        <f>SUM(D18:H18)</f>
+        <v>15</v>
+      </c>
+    </row>
+    <row r="19" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A19" t="s">
+        <v>9</v>
+      </c>
+      <c r="B19" s="2">
+        <v>2024710020</v>
+      </c>
+      <c r="C19" s="2"/>
+      <c r="D19" s="1">
+        <v>0</v>
+      </c>
+      <c r="E19" s="1">
+        <v>0</v>
+      </c>
+      <c r="F19" s="1">
+        <v>0</v>
+      </c>
+      <c r="G19" s="1">
+        <v>0</v>
+      </c>
+      <c r="H19" s="1">
+        <v>0</v>
+      </c>
+      <c r="I19" s="1">
+        <f>SUM(D19:H19)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A20" t="s">
+        <v>9</v>
+      </c>
+      <c r="B20" s="2">
+        <v>2024709960</v>
+      </c>
+      <c r="C20" s="2"/>
+      <c r="D20" s="1">
+        <v>3</v>
+      </c>
+      <c r="E20" s="1">
+        <v>2</v>
+      </c>
+      <c r="F20" s="1">
+        <v>3</v>
+      </c>
+      <c r="G20" s="1">
+        <v>4</v>
+      </c>
+      <c r="H20" s="1">
+        <v>0</v>
+      </c>
+      <c r="I20" s="1">
+        <f>SUM(D20:H20)</f>
+        <v>12</v>
+      </c>
+    </row>
+    <row r="21" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A21" t="s">
+        <v>9</v>
+      </c>
+      <c r="B21" s="2">
+        <v>2024709316</v>
+      </c>
+      <c r="C21" s="2"/>
+      <c r="D21" s="1">
+        <v>3</v>
+      </c>
+      <c r="E21" s="1">
+        <v>4</v>
+      </c>
+      <c r="F21" s="1">
+        <v>3</v>
+      </c>
+      <c r="G21" s="1">
+        <v>4</v>
+      </c>
+      <c r="H21" s="1">
+        <v>0</v>
+      </c>
+      <c r="I21" s="1">
+        <f>SUM(D21:H21)</f>
+        <v>14</v>
+      </c>
+    </row>
+    <row r="22" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A22" t="s">
+        <v>9</v>
+      </c>
+      <c r="B22" s="2">
+        <v>2024709308</v>
+      </c>
+      <c r="C22" s="2"/>
+      <c r="D22" s="1">
+        <v>3</v>
+      </c>
+      <c r="E22" s="1">
+        <v>4</v>
+      </c>
+      <c r="F22" s="1">
+        <v>2</v>
+      </c>
+      <c r="G22" s="1">
+        <v>4</v>
+      </c>
+      <c r="H22" s="1">
+        <v>0</v>
+      </c>
+      <c r="I22" s="1">
+        <f>SUM(D22:H22)</f>
+        <v>13</v>
+      </c>
+    </row>
+    <row r="23" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A23" t="s">
+        <v>9</v>
+      </c>
+      <c r="B23" s="2">
+        <v>2024709294</v>
+      </c>
+      <c r="C23" s="2"/>
+      <c r="D23" s="1">
+        <v>3.5</v>
+      </c>
+      <c r="E23" s="1">
+        <v>0</v>
+      </c>
+      <c r="F23" s="1">
+        <v>4</v>
+      </c>
+      <c r="G23" s="1">
+        <v>3</v>
+      </c>
+      <c r="H23" s="1">
+        <v>0</v>
+      </c>
+      <c r="I23" s="1">
+        <f>SUM(D23:H23)</f>
+        <v>10.5</v>
+      </c>
+    </row>
+    <row r="24" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A24" t="s">
+        <v>9</v>
+      </c>
+      <c r="B24" s="2">
+        <v>2024709286</v>
+      </c>
+      <c r="C24" s="2"/>
+      <c r="D24" s="1">
+        <v>3</v>
+      </c>
+      <c r="E24" s="1">
+        <v>4</v>
+      </c>
+      <c r="F24" s="1">
+        <v>4</v>
+      </c>
+      <c r="G24" s="1">
+        <v>4</v>
+      </c>
+      <c r="H24" s="1">
+        <v>4</v>
+      </c>
+      <c r="I24" s="1">
+        <f>SUM(D24:H24)</f>
+        <v>19</v>
+      </c>
+    </row>
+    <row r="25" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A25" t="s">
+        <v>9</v>
+      </c>
+      <c r="B25" s="2">
+        <v>2024709278</v>
+      </c>
+      <c r="C25" s="2"/>
+      <c r="D25" s="1">
+        <v>4</v>
+      </c>
+      <c r="E25" s="1">
+        <v>4</v>
+      </c>
+      <c r="F25" s="1">
+        <v>3</v>
+      </c>
+      <c r="G25" s="1">
+        <v>4</v>
+      </c>
+      <c r="H25" s="1">
+        <v>0</v>
+      </c>
+      <c r="I25" s="1">
+        <f>SUM(D25:H25)</f>
+        <v>15</v>
+      </c>
+    </row>
+    <row r="26" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A26" t="s">
+        <v>9</v>
+      </c>
+      <c r="B26" s="2">
+        <v>2024709219</v>
+      </c>
+      <c r="C26" s="2"/>
+      <c r="D26" s="1">
+        <v>0</v>
+      </c>
+      <c r="E26" s="1">
+        <v>0</v>
+      </c>
+      <c r="F26" s="1">
+        <v>0</v>
+      </c>
+      <c r="G26" s="1">
+        <v>0</v>
+      </c>
+      <c r="H26" s="1">
+        <v>0</v>
+      </c>
+      <c r="I26" s="1">
+        <f>SUM(D26:H26)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="27" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A27" t="s">
+        <v>9</v>
+      </c>
+      <c r="B27" s="2">
+        <v>2024709200</v>
+      </c>
+      <c r="C27" s="2"/>
+      <c r="D27" s="1">
+        <v>2</v>
+      </c>
+      <c r="E27" s="1">
+        <v>0</v>
+      </c>
+      <c r="F27" s="1">
+        <v>3</v>
+      </c>
+      <c r="G27" s="1">
+        <v>4</v>
+      </c>
+      <c r="H27" s="1">
+        <v>2</v>
+      </c>
+      <c r="I27" s="1">
+        <f>SUM(D27:H27)</f>
+        <v>11</v>
+      </c>
+    </row>
+    <row r="28" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A28" t="s">
+        <v>9</v>
+      </c>
+      <c r="B28" s="2">
+        <v>2024703369</v>
+      </c>
+      <c r="C28" s="2"/>
+      <c r="D28" s="1">
+        <v>2</v>
+      </c>
+      <c r="E28" s="1">
+        <v>0</v>
+      </c>
+      <c r="F28" s="1">
+        <v>3</v>
+      </c>
+      <c r="G28" s="1">
+        <v>4</v>
+      </c>
+      <c r="H28" s="1">
+        <v>2</v>
+      </c>
+      <c r="I28" s="1">
+        <f>SUM(D28:H28)</f>
+        <v>11</v>
+      </c>
+    </row>
+    <row r="29" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A29" t="s">
+        <v>9</v>
+      </c>
+      <c r="B29" s="2">
+        <v>2024701846</v>
+      </c>
+      <c r="C29" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="D29" s="1">
+        <v>4</v>
+      </c>
+      <c r="E29" s="1">
+        <v>1</v>
+      </c>
+      <c r="F29" s="1">
+        <v>4</v>
+      </c>
+      <c r="G29" s="1">
+        <v>4</v>
+      </c>
+      <c r="H29" s="1">
+        <v>4</v>
+      </c>
+      <c r="I29" s="1">
+        <f>SUM(D29:H29)</f>
+        <v>17</v>
+      </c>
+    </row>
+    <row r="30" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A30" t="s">
+        <v>9</v>
+      </c>
+      <c r="B30" s="2">
+        <v>2024701382</v>
+      </c>
+      <c r="C30" s="2"/>
+      <c r="D30" s="1">
+        <v>3</v>
+      </c>
+      <c r="E30" s="1">
+        <v>1</v>
+      </c>
+      <c r="F30" s="1">
+        <v>4</v>
+      </c>
+      <c r="G30" s="1">
+        <v>4</v>
+      </c>
+      <c r="H30" s="1">
+        <v>0</v>
+      </c>
+      <c r="I30" s="1">
+        <f>SUM(D30:H30)</f>
+        <v>12</v>
+      </c>
+    </row>
+    <row r="31" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A31" t="s">
+        <v>9</v>
+      </c>
+      <c r="B31" s="2">
+        <v>2024701072</v>
+      </c>
+      <c r="C31" s="2"/>
+      <c r="D31" s="1">
+        <v>2</v>
+      </c>
+      <c r="E31" s="1">
+        <v>0</v>
+      </c>
+      <c r="F31" s="1">
+        <v>3</v>
+      </c>
+      <c r="G31" s="1">
+        <v>3</v>
+      </c>
+      <c r="H31" s="1">
+        <v>4</v>
+      </c>
+      <c r="I31" s="1">
+        <f>SUM(D31:H31)</f>
+        <v>12</v>
+      </c>
+    </row>
+    <row r="32" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A32" t="s">
+        <v>9</v>
+      </c>
+      <c r="B32" s="2">
+        <v>2024700840</v>
+      </c>
+      <c r="C32" s="2"/>
+      <c r="D32" s="1">
+        <v>3</v>
+      </c>
+      <c r="E32" s="1">
+        <v>1</v>
+      </c>
+      <c r="F32" s="1">
+        <v>3</v>
+      </c>
+      <c r="G32" s="1">
+        <v>4</v>
+      </c>
+      <c r="H32" s="1">
+        <v>0</v>
+      </c>
+      <c r="I32" s="1">
+        <f>SUM(D32:H32)</f>
+        <v>11</v>
+      </c>
+    </row>
+    <row r="33" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A33" t="s">
+        <v>9</v>
+      </c>
+      <c r="B33" s="2">
+        <v>2024700483</v>
+      </c>
+      <c r="C33" s="2"/>
+      <c r="D33" s="1">
+        <v>2</v>
+      </c>
+      <c r="E33" s="1">
+        <v>0</v>
+      </c>
+      <c r="F33" s="1">
+        <v>4</v>
+      </c>
+      <c r="G33" s="1">
+        <v>3</v>
+      </c>
+      <c r="H33" s="1">
+        <v>0</v>
+      </c>
+      <c r="I33" s="1">
+        <f>SUM(D33:H33)</f>
+        <v>9</v>
+      </c>
+    </row>
+    <row r="34" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A34" t="s">
+        <v>9</v>
+      </c>
+      <c r="B34" s="2">
+        <v>2024700386</v>
+      </c>
+      <c r="C34" s="2"/>
+      <c r="D34" s="1">
+        <v>2</v>
+      </c>
+      <c r="E34" s="1">
+        <v>0</v>
+      </c>
+      <c r="F34" s="1">
+        <v>0</v>
+      </c>
+      <c r="G34" s="1">
+        <v>3</v>
+      </c>
+      <c r="H34" s="1">
+        <v>4</v>
+      </c>
+      <c r="I34" s="1">
+        <f>SUM(D34:H34)</f>
+        <v>9</v>
+      </c>
+    </row>
+    <row r="35" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A35" t="s">
+        <v>9</v>
+      </c>
+      <c r="B35" s="2">
+        <v>2024700378</v>
+      </c>
+      <c r="C35" s="2"/>
+      <c r="D35" s="1">
+        <v>4</v>
+      </c>
+      <c r="E35" s="1">
+        <v>0</v>
+      </c>
+      <c r="F35" s="1">
+        <v>3</v>
+      </c>
+      <c r="G35" s="1">
+        <v>3</v>
+      </c>
+      <c r="H35" s="1">
+        <v>4</v>
+      </c>
+      <c r="I35" s="1">
+        <f>SUM(D35:H35)</f>
+        <v>14</v>
+      </c>
+    </row>
+    <row r="36" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A36" t="s">
+        <v>9</v>
+      </c>
+      <c r="B36" s="2">
+        <v>2024700360</v>
+      </c>
+      <c r="C36" s="2"/>
+      <c r="D36" s="1">
+        <v>2</v>
+      </c>
+      <c r="E36" s="1">
+        <v>0</v>
+      </c>
+      <c r="F36" s="1">
+        <v>2</v>
+      </c>
+      <c r="G36" s="1">
+        <v>4</v>
+      </c>
+      <c r="H36" s="1">
+        <v>4</v>
+      </c>
+      <c r="I36" s="1">
+        <f>SUM(D36:H36)</f>
+        <v>12</v>
+      </c>
+    </row>
+    <row r="37" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A37" t="s">
+        <v>9</v>
+      </c>
+      <c r="B37" s="2">
+        <v>2024700351</v>
+      </c>
+      <c r="C37" s="2"/>
+      <c r="D37" s="1">
+        <v>4</v>
+      </c>
+      <c r="E37" s="1">
+        <v>4</v>
+      </c>
+      <c r="F37" s="1">
+        <v>4</v>
+      </c>
+      <c r="G37" s="1">
+        <v>4</v>
+      </c>
+      <c r="H37" s="1">
+        <v>4</v>
+      </c>
+      <c r="I37" s="1">
+        <f>SUM(D37:H37)</f>
+        <v>20</v>
+      </c>
+    </row>
+    <row r="38" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A38" t="s">
+        <v>9</v>
+      </c>
+      <c r="B38" s="2">
+        <v>2024699183</v>
+      </c>
+      <c r="C38" s="2"/>
+      <c r="D38" s="1">
+        <v>3</v>
+      </c>
+      <c r="E38" s="1">
+        <v>0</v>
+      </c>
+      <c r="F38" s="1">
+        <v>4</v>
+      </c>
+      <c r="G38" s="1">
+        <v>3</v>
+      </c>
+      <c r="H38" s="1">
+        <v>0</v>
+      </c>
+      <c r="I38" s="1">
+        <f>SUM(D38:H38)</f>
+        <v>10</v>
+      </c>
+    </row>
+    <row r="39" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A39" t="s">
+        <v>9</v>
+      </c>
+      <c r="B39" s="2">
+        <v>2024698420</v>
+      </c>
+      <c r="C39" s="2"/>
+      <c r="D39" s="1">
+        <v>0</v>
+      </c>
+      <c r="E39" s="1">
+        <v>0</v>
+      </c>
+      <c r="F39" s="1">
+        <v>0</v>
+      </c>
+      <c r="G39" s="1">
+        <v>0</v>
+      </c>
+      <c r="H39" s="1">
+        <v>0</v>
+      </c>
+      <c r="I39" s="1">
+        <f>SUM(D39:H39)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="40" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A40" t="s">
+        <v>9</v>
+      </c>
+      <c r="B40" s="2">
+        <v>2024696877</v>
+      </c>
+      <c r="C40" s="2"/>
+      <c r="D40" s="1">
+        <v>0</v>
+      </c>
+      <c r="E40" s="1">
+        <v>0</v>
+      </c>
+      <c r="F40" s="1">
+        <v>0</v>
+      </c>
+      <c r="G40" s="1">
+        <v>0</v>
+      </c>
+      <c r="H40" s="1">
+        <v>0</v>
+      </c>
+      <c r="I40" s="1">
+        <f>SUM(D40:H40)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="41" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A41" t="s">
+        <v>9</v>
+      </c>
+      <c r="B41" s="2">
+        <v>2024693045</v>
+      </c>
+      <c r="C41" s="2"/>
+      <c r="D41" s="1">
+        <v>3</v>
+      </c>
+      <c r="E41" s="1">
+        <v>0</v>
+      </c>
+      <c r="F41" s="1">
+        <v>3</v>
+      </c>
+      <c r="G41" s="1">
+        <v>4</v>
+      </c>
+      <c r="H41" s="1">
+        <v>0</v>
+      </c>
+      <c r="I41" s="1">
+        <f>SUM(D41:H41)</f>
+        <v>10</v>
+      </c>
+    </row>
+    <row r="42" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A42" t="s">
+        <v>9</v>
+      </c>
+      <c r="B42" s="2">
+        <v>2024691921</v>
+      </c>
+      <c r="C42" s="2"/>
+      <c r="D42" s="1">
+        <v>1</v>
+      </c>
+      <c r="E42" s="1">
+        <v>3</v>
+      </c>
+      <c r="F42" s="1">
+        <v>2</v>
+      </c>
+      <c r="G42" s="1">
+        <v>3</v>
+      </c>
+      <c r="H42" s="1">
+        <v>4</v>
+      </c>
+      <c r="I42" s="1">
+        <f>SUM(D42:H42)</f>
+        <v>13</v>
+      </c>
+    </row>
+    <row r="43" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A43" t="s">
+        <v>9</v>
+      </c>
+      <c r="B43" s="2">
+        <v>2024691883</v>
+      </c>
+      <c r="C43" s="2"/>
+      <c r="D43" s="1">
+        <v>4</v>
+      </c>
+      <c r="E43" s="1">
+        <v>0.5</v>
+      </c>
+      <c r="F43" s="1">
+        <v>3</v>
+      </c>
+      <c r="G43" s="1">
+        <v>4</v>
+      </c>
+      <c r="H43" s="1">
+        <v>4</v>
+      </c>
+      <c r="I43" s="1">
+        <f>SUM(D43:H43)</f>
+        <v>15.5</v>
+      </c>
+    </row>
+    <row r="44" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A44" t="s">
+        <v>9</v>
+      </c>
+      <c r="B44" s="2">
+        <v>2024675187</v>
+      </c>
+      <c r="C44" s="2"/>
+      <c r="D44" s="1">
+        <v>0</v>
+      </c>
+      <c r="E44" s="1">
+        <v>0</v>
+      </c>
+      <c r="F44" s="1">
+        <v>0</v>
+      </c>
+      <c r="G44" s="1">
+        <v>0</v>
+      </c>
+      <c r="H44" s="1">
+        <v>0</v>
+      </c>
+      <c r="I44" s="1">
+        <f>SUM(D44:H44)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="45" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A45" t="s">
+        <v>9</v>
+      </c>
+      <c r="B45" s="2">
+        <v>2024675179</v>
+      </c>
+      <c r="C45" s="2"/>
+      <c r="D45" s="1">
+        <v>2</v>
+      </c>
+      <c r="E45" s="1">
+        <v>0</v>
+      </c>
+      <c r="F45" s="1">
+        <v>4</v>
+      </c>
+      <c r="G45" s="1">
+        <v>4</v>
+      </c>
+      <c r="H45" s="1">
+        <v>2</v>
+      </c>
+      <c r="I45" s="1">
+        <f>SUM(D45:H45)</f>
+        <v>12</v>
+      </c>
+    </row>
+    <row r="46" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A46" t="s">
+        <v>9</v>
+      </c>
+      <c r="B46" s="2">
+        <v>2024675152</v>
+      </c>
+      <c r="C46" s="2"/>
+      <c r="D46" s="1">
+        <v>0</v>
+      </c>
+      <c r="E46" s="1">
+        <v>0</v>
+      </c>
+      <c r="F46" s="1">
+        <v>0</v>
+      </c>
+      <c r="G46" s="1">
+        <v>0</v>
+      </c>
+      <c r="H46" s="1">
+        <v>0</v>
+      </c>
+      <c r="I46" s="1">
+        <f>SUM(D46:H46)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="47" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A47" t="s">
+        <v>9</v>
+      </c>
+      <c r="B47" s="2">
+        <v>2024675144</v>
+      </c>
+      <c r="C47" s="2"/>
+      <c r="D47" s="1">
+        <v>0</v>
+      </c>
+      <c r="E47" s="1">
+        <v>0</v>
+      </c>
+      <c r="F47" s="1">
+        <v>3</v>
+      </c>
+      <c r="G47" s="1">
+        <v>1</v>
+      </c>
+      <c r="H47" s="1">
+        <v>0</v>
+      </c>
+      <c r="I47" s="1">
+        <f>SUM(D47:H47)</f>
+        <v>4</v>
+      </c>
+    </row>
+    <row r="48" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A48" t="s">
+        <v>9</v>
+      </c>
+      <c r="B48" s="2">
+        <v>2024674016</v>
+      </c>
+      <c r="C48" s="2"/>
+      <c r="D48" s="1">
+        <v>2</v>
+      </c>
+      <c r="E48" s="1">
+        <v>0</v>
+      </c>
+      <c r="F48" s="1">
+        <v>0</v>
+      </c>
+      <c r="G48" s="1">
+        <v>0</v>
+      </c>
+      <c r="H48" s="1">
+        <v>0</v>
+      </c>
+      <c r="I48" s="1">
+        <f>SUM(D48:H48)</f>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="49" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A49" t="s">
+        <v>9</v>
+      </c>
+      <c r="B49" s="2">
+        <v>2024673630</v>
+      </c>
+      <c r="C49" s="2"/>
+      <c r="D49" s="1">
+        <v>0</v>
+      </c>
+      <c r="E49" s="1">
+        <v>3</v>
+      </c>
+      <c r="F49" s="1">
+        <v>1</v>
+      </c>
+      <c r="G49" s="1">
+        <v>0</v>
+      </c>
+      <c r="H49" s="1">
+        <v>4</v>
+      </c>
+      <c r="I49" s="1">
+        <f>SUM(D49:H49)</f>
+        <v>8</v>
+      </c>
+    </row>
+    <row r="50" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A50" t="s">
+        <v>1</v>
+      </c>
+      <c r="B50" s="2">
+        <v>2024661160</v>
+      </c>
+      <c r="C50" s="2"/>
+      <c r="D50" s="1">
+        <v>0</v>
+      </c>
+      <c r="E50" s="1">
+        <v>0</v>
+      </c>
+      <c r="F50" s="1">
+        <v>0</v>
+      </c>
+      <c r="G50" s="1">
+        <v>3</v>
+      </c>
+      <c r="H50" s="1">
+        <v>0</v>
+      </c>
+      <c r="I50" s="1">
+        <f>SUM(D50:H50)</f>
+        <v>3</v>
+      </c>
+    </row>
+    <row r="51" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A51" t="s">
+        <v>9</v>
+      </c>
+      <c r="B51" s="2">
+        <v>2023710949</v>
+      </c>
+      <c r="C51" s="2"/>
+      <c r="D51" s="1">
+        <v>2.5</v>
+      </c>
+      <c r="E51" s="1">
+        <v>4</v>
+      </c>
+      <c r="F51" s="1">
+        <v>4</v>
+      </c>
+      <c r="G51" s="1">
+        <v>4</v>
+      </c>
+      <c r="H51" s="1">
+        <v>4</v>
+      </c>
+      <c r="I51" s="1">
+        <f>SUM(D51:H51)</f>
+        <v>18.5</v>
+      </c>
+    </row>
+    <row r="52" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A52" t="s">
+        <v>9</v>
+      </c>
+      <c r="B52" s="2">
+        <v>2023661379</v>
+      </c>
+      <c r="C52" s="2"/>
+      <c r="D52" s="1">
+        <v>0</v>
+      </c>
+      <c r="E52" s="1">
+        <v>0</v>
+      </c>
+      <c r="F52" s="1">
+        <v>0</v>
+      </c>
+      <c r="G52" s="1">
+        <v>0</v>
+      </c>
+      <c r="H52" s="1">
+        <v>2</v>
+      </c>
+      <c r="I52" s="1">
+        <f>SUM(D52:H52)</f>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="53" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A53" t="s">
+        <v>9</v>
+      </c>
+      <c r="B53" s="2">
+        <v>2023655557</v>
+      </c>
+      <c r="C53" s="2"/>
+      <c r="D53" s="1">
+        <v>3</v>
+      </c>
+      <c r="E53" s="1">
+        <v>1</v>
+      </c>
+      <c r="F53" s="1">
+        <v>3</v>
+      </c>
+      <c r="G53" s="1">
+        <v>4</v>
+      </c>
+      <c r="H53" s="1">
+        <v>2</v>
+      </c>
+      <c r="I53" s="1">
+        <f>SUM(D53:H53)</f>
+        <v>13</v>
+      </c>
+    </row>
+    <row r="54" spans="1:9" x14ac:dyDescent="0.3"/>
+  </sheetData>
+  <conditionalFormatting sqref="D3:D47">
     <cfRule type="colorScale" priority="4">
       <colorScale>
         <cfvo type="min"/>
@@ -2028,7 +6842,31 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="F3:F53">
+  <conditionalFormatting sqref="D48:D53">
+    <cfRule type="colorScale" priority="3">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D1:H1">
+    <cfRule type="colorScale" priority="2">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E3:E53">
     <cfRule type="colorScale" priority="5">
       <colorScale>
         <cfvo type="min"/>
@@ -2040,7 +6878,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="G3:G53">
+  <conditionalFormatting sqref="F3:F53">
     <cfRule type="colorScale" priority="6">
       <colorScale>
         <cfvo type="min"/>
@@ -2052,7 +6890,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="H3:H53">
+  <conditionalFormatting sqref="G3:G53">
     <cfRule type="colorScale" priority="7">
       <colorScale>
         <cfvo type="min"/>
@@ -2064,8 +6902,32 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
+  <conditionalFormatting sqref="H3:H53">
+    <cfRule type="colorScale" priority="8">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
   <conditionalFormatting sqref="I3:I53">
-    <cfRule type="colorScale" priority="8">
+    <cfRule type="colorScale" priority="9">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D3:H53">
+    <cfRule type="colorScale" priority="1">
       <colorScale>
         <cfvo type="min"/>
         <cfvo type="percentile" val="50"/>

--- a/2024.2/Materiais enviados/Provas/Módulo 1/Notas.xlsx
+++ b/2024.2/Materiais enviados/Provas/Módulo 1/Notas.xlsx
@@ -8,14 +8,15 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="B:\GitHub\UFMG\DCC865-Projeto_e_Analise_de_Algoritmos\2024.2\Materiais enviados\Provas\Módulo 1\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4B095E0C-4067-43BD-B96D-B51953F7E8FB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0C0FDA60-BCDB-40CA-AEA6-2FE0E149EF18}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Todas as notas" sheetId="3" r:id="rId1"/>
-    <sheet name="P1" sheetId="1" r:id="rId2"/>
-    <sheet name="P2" sheetId="2" r:id="rId3"/>
+    <sheet name="Planilha1" sheetId="4" r:id="rId2"/>
+    <sheet name="P1" sheetId="1" r:id="rId3"/>
+    <sheet name="P2" sheetId="2" r:id="rId4"/>
   </sheets>
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">'Todas as notas'!#REF!</definedName>
@@ -142,7 +143,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="3">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -153,6 +154,12 @@
       <patternFill patternType="solid">
         <fgColor theme="1" tint="0.44999542222357858"/>
         <bgColor theme="1" tint="0.44999542222357858"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="1" tint="0.249977111117893"/>
+        <bgColor theme="1" tint="0.249977111117893"/>
       </patternFill>
     </fill>
   </fills>
@@ -168,17 +175,212 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="164" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="49" fontId="2" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="164" fontId="1" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="164" fontId="1" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="2" fontId="2" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="29">
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color auto="1"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+      <numFmt numFmtId="164" formatCode="0.0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color auto="1"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+      <numFmt numFmtId="164" formatCode="0.0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color auto="1"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+      <numFmt numFmtId="164" formatCode="0.0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color auto="1"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+      <numFmt numFmtId="164" formatCode="0.0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color auto="1"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+      <numFmt numFmtId="164" formatCode="0.0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color auto="1"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+      <numFmt numFmtId="164" formatCode="0.0"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="30" formatCode="@"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="30" formatCode="@"/>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color auto="1"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+      <numFmt numFmtId="164" formatCode="0.0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color auto="1"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+      <numFmt numFmtId="164" formatCode="0.0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color auto="1"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+      <numFmt numFmtId="164" formatCode="0.0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color auto="1"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+      <numFmt numFmtId="164" formatCode="0.0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color auto="1"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+      <numFmt numFmtId="164" formatCode="0.0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color auto="1"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+      <numFmt numFmtId="164" formatCode="0.0"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="30" formatCode="@"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="30" formatCode="@"/>
+    </dxf>
     <dxf>
       <font>
         <strike val="0"/>
@@ -374,198 +576,6 @@
       </font>
       <numFmt numFmtId="164" formatCode="0.0"/>
     </dxf>
-    <dxf>
-      <numFmt numFmtId="30" formatCode="@"/>
-    </dxf>
-    <dxf>
-      <font>
-        <strike val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color auto="1"/>
-        <name val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </font>
-      <numFmt numFmtId="164" formatCode="0.0"/>
-    </dxf>
-    <dxf>
-      <font>
-        <strike val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color auto="1"/>
-        <name val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </font>
-      <numFmt numFmtId="164" formatCode="0.0"/>
-    </dxf>
-    <dxf>
-      <font>
-        <strike val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color auto="1"/>
-        <name val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </font>
-      <numFmt numFmtId="164" formatCode="0.0"/>
-    </dxf>
-    <dxf>
-      <font>
-        <strike val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color auto="1"/>
-        <name val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </font>
-      <numFmt numFmtId="164" formatCode="0.0"/>
-    </dxf>
-    <dxf>
-      <font>
-        <strike val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color auto="1"/>
-        <name val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </font>
-      <numFmt numFmtId="164" formatCode="0.0"/>
-    </dxf>
-    <dxf>
-      <font>
-        <strike val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color auto="1"/>
-        <name val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </font>
-      <numFmt numFmtId="164" formatCode="0.0"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="30" formatCode="@"/>
-    </dxf>
-    <dxf>
-      <font>
-        <strike val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color auto="1"/>
-        <name val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </font>
-      <numFmt numFmtId="164" formatCode="0.0"/>
-    </dxf>
-    <dxf>
-      <font>
-        <strike val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color auto="1"/>
-        <name val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </font>
-      <numFmt numFmtId="164" formatCode="0.0"/>
-    </dxf>
-    <dxf>
-      <font>
-        <strike val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color auto="1"/>
-        <name val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </font>
-      <numFmt numFmtId="164" formatCode="0.0"/>
-    </dxf>
-    <dxf>
-      <font>
-        <strike val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color auto="1"/>
-        <name val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </font>
-      <numFmt numFmtId="164" formatCode="0.0"/>
-    </dxf>
-    <dxf>
-      <font>
-        <strike val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color auto="1"/>
-        <name val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </font>
-      <numFmt numFmtId="164" formatCode="0.0"/>
-    </dxf>
-    <dxf>
-      <font>
-        <strike val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color auto="1"/>
-        <name val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </font>
-      <numFmt numFmtId="164" formatCode="0.0"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="30" formatCode="@"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="30" formatCode="@"/>
-    </dxf>
   </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
@@ -583,25 +593,25 @@
 <table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="5" xr:uid="{D8F77952-2AC0-42C0-AC90-F82B3EC43569}" name="Tabela5" displayName="Tabela5" ref="A2:P53" totalsRowShown="0">
   <autoFilter ref="A2:P53" xr:uid="{D8F77952-2AC0-42C0-AC90-F82B3EC43569}"/>
   <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A3:P53">
-    <sortCondition descending="1" ref="P2:P53"/>
+    <sortCondition descending="1" ref="O2:O53"/>
   </sortState>
   <tableColumns count="16">
     <tableColumn id="1" xr3:uid="{A53A2C59-CFCF-4DCE-A539-E5C7C52B4323}" name="Turma"/>
     <tableColumn id="2" xr3:uid="{D46261CA-D987-4B1E-AAA1-4814381AC974}" name="MATRICULA"/>
     <tableColumn id="3" xr3:uid="{EA298C66-D77E-4E0C-BDE1-C7E2FF592509}" name="Nome"/>
-    <tableColumn id="4" xr3:uid="{9A116FAF-6A84-48A6-B7CA-698B497F4531}" name="P1 Q1" dataDxfId="12"/>
-    <tableColumn id="5" xr3:uid="{D12FCC22-0C24-43C5-B6BA-8CEDD28B1DBC}" name="P1 Q2" dataDxfId="11"/>
-    <tableColumn id="6" xr3:uid="{DD5FB362-D52B-4E2A-BF0F-67536B79BC88}" name="P1 Q3" dataDxfId="10"/>
-    <tableColumn id="7" xr3:uid="{525F3116-E758-4D18-9405-8A2F3AE88A1D}" name="P1 Q4" dataDxfId="9"/>
-    <tableColumn id="8" xr3:uid="{8C433621-7006-41E0-AAE1-6AD4077F9D26}" name="P1 Q5" dataDxfId="5"/>
-    <tableColumn id="9" xr3:uid="{2A64D5F4-A002-4AC1-88C6-6836E53406AE}" name="Nota P1" dataDxfId="3"/>
-    <tableColumn id="10" xr3:uid="{72E5D83D-FB26-48ED-8B84-25716D854F13}" name="P2 Q1" dataDxfId="4"/>
-    <tableColumn id="11" xr3:uid="{AFFCAA7F-4266-4CC7-8025-96260539743C}" name="P2 Q2" dataDxfId="8"/>
-    <tableColumn id="12" xr3:uid="{3C8DD629-298E-40DC-930C-1E191B680BDE}" name="P2 Q3" dataDxfId="7"/>
-    <tableColumn id="13" xr3:uid="{01F5A46F-FD30-4721-B00D-3719108A04E3}" name="P2 Q4" dataDxfId="6"/>
-    <tableColumn id="14" xr3:uid="{4DE10E09-DF17-4838-AD03-D3C31A02A6CB}" name="P2 Q5" dataDxfId="2"/>
-    <tableColumn id="15" xr3:uid="{37D7A5B3-7131-4112-A4C2-BA2609570788}" name="Nota P2" dataDxfId="1"/>
-    <tableColumn id="16" xr3:uid="{F3F2CD2E-A9C2-44E2-B2C9-4793C32B078F}" name="Módulo 1 e 2" dataDxfId="0">
+    <tableColumn id="4" xr3:uid="{9A116FAF-6A84-48A6-B7CA-698B497F4531}" name="P1 Q1" dataDxfId="28"/>
+    <tableColumn id="5" xr3:uid="{D12FCC22-0C24-43C5-B6BA-8CEDD28B1DBC}" name="P1 Q2" dataDxfId="27"/>
+    <tableColumn id="6" xr3:uid="{DD5FB362-D52B-4E2A-BF0F-67536B79BC88}" name="P1 Q3" dataDxfId="26"/>
+    <tableColumn id="7" xr3:uid="{525F3116-E758-4D18-9405-8A2F3AE88A1D}" name="P1 Q4" dataDxfId="25"/>
+    <tableColumn id="8" xr3:uid="{8C433621-7006-41E0-AAE1-6AD4077F9D26}" name="P1 Q5" dataDxfId="24"/>
+    <tableColumn id="9" xr3:uid="{2A64D5F4-A002-4AC1-88C6-6836E53406AE}" name="Nota P1" dataDxfId="23"/>
+    <tableColumn id="10" xr3:uid="{72E5D83D-FB26-48ED-8B84-25716D854F13}" name="P2 Q1" dataDxfId="22"/>
+    <tableColumn id="11" xr3:uid="{AFFCAA7F-4266-4CC7-8025-96260539743C}" name="P2 Q2" dataDxfId="21"/>
+    <tableColumn id="12" xr3:uid="{3C8DD629-298E-40DC-930C-1E191B680BDE}" name="P2 Q3" dataDxfId="20"/>
+    <tableColumn id="13" xr3:uid="{01F5A46F-FD30-4721-B00D-3719108A04E3}" name="P2 Q4" dataDxfId="19"/>
+    <tableColumn id="14" xr3:uid="{4DE10E09-DF17-4838-AD03-D3C31A02A6CB}" name="P2 Q5" dataDxfId="18"/>
+    <tableColumn id="15" xr3:uid="{37D7A5B3-7131-4112-A4C2-BA2609570788}" name="Nota P2" dataDxfId="17"/>
+    <tableColumn id="16" xr3:uid="{F3F2CD2E-A9C2-44E2-B2C9-4793C32B078F}" name="Módulo 1 e 2" dataDxfId="16">
       <calculatedColumnFormula>SUM(Tabela5[[#This Row],[Nota P2]],Tabela5[[#This Row],[Nota P1]])</calculatedColumnFormula>
     </tableColumn>
   </tableColumns>
@@ -617,14 +627,14 @@
   </sortState>
   <tableColumns count="9">
     <tableColumn id="1" xr3:uid="{BFC0ED60-759B-4BF8-88EE-08E8F81479B6}" name="Turma"/>
-    <tableColumn id="2" xr3:uid="{C0AA615E-562F-485C-8FBD-DED54E1F7ADE}" name="MATRICULA" dataDxfId="28"/>
-    <tableColumn id="9" xr3:uid="{1D4B4CB9-7BB1-43B1-B1DB-D0E028E91578}" name="Nome" dataDxfId="27"/>
-    <tableColumn id="3" xr3:uid="{B811706B-CA27-4CD6-A11D-5EDC50854FF1}" name="Q1" dataDxfId="26"/>
-    <tableColumn id="4" xr3:uid="{9E75F866-5E88-4AB7-862B-E6421E8DA98F}" name="Q2" dataDxfId="25"/>
-    <tableColumn id="5" xr3:uid="{7BCD41E6-B749-403C-B599-9EECC1C8F34C}" name="Q3" dataDxfId="24"/>
-    <tableColumn id="6" xr3:uid="{8A0DD61F-3932-4A92-8E41-45AAAB6C361A}" name="Q4" dataDxfId="23"/>
-    <tableColumn id="7" xr3:uid="{305F59C9-21DF-4808-B78F-695D9697BD49}" name="Q5" dataDxfId="22"/>
-    <tableColumn id="8" xr3:uid="{59A12193-9B24-4649-A9C7-A347CE3F942F}" name="Nota" dataDxfId="21">
+    <tableColumn id="2" xr3:uid="{C0AA615E-562F-485C-8FBD-DED54E1F7ADE}" name="MATRICULA" dataDxfId="15"/>
+    <tableColumn id="9" xr3:uid="{1D4B4CB9-7BB1-43B1-B1DB-D0E028E91578}" name="Nome" dataDxfId="14"/>
+    <tableColumn id="3" xr3:uid="{B811706B-CA27-4CD6-A11D-5EDC50854FF1}" name="Q1" dataDxfId="13"/>
+    <tableColumn id="4" xr3:uid="{9E75F866-5E88-4AB7-862B-E6421E8DA98F}" name="Q2" dataDxfId="12"/>
+    <tableColumn id="5" xr3:uid="{7BCD41E6-B749-403C-B599-9EECC1C8F34C}" name="Q3" dataDxfId="11"/>
+    <tableColumn id="6" xr3:uid="{8A0DD61F-3932-4A92-8E41-45AAAB6C361A}" name="Q4" dataDxfId="10"/>
+    <tableColumn id="7" xr3:uid="{305F59C9-21DF-4808-B78F-695D9697BD49}" name="Q5" dataDxfId="9"/>
+    <tableColumn id="8" xr3:uid="{59A12193-9B24-4649-A9C7-A347CE3F942F}" name="Nota" dataDxfId="8">
       <calculatedColumnFormula>SUM(D3:H3)</calculatedColumnFormula>
     </tableColumn>
   </tableColumns>
@@ -640,14 +650,14 @@
   </sortState>
   <tableColumns count="9">
     <tableColumn id="1" xr3:uid="{9A597B2A-BCEE-4D3B-A0F0-8913F18EDBC4}" name="Turma"/>
-    <tableColumn id="2" xr3:uid="{B44EA045-0897-40BA-B5A8-7B35E81BA541}" name="MATRICULA" dataDxfId="20"/>
-    <tableColumn id="9" xr3:uid="{8ADF0CB9-B3EF-436C-9C96-DFA691839C79}" name="Nome" dataDxfId="13"/>
-    <tableColumn id="3" xr3:uid="{13E5564B-4516-426A-B08E-982059E2E5BC}" name="Q1" dataDxfId="19"/>
-    <tableColumn id="4" xr3:uid="{E60E864D-1AAC-45C0-A70B-13936B6F247F}" name="Q2" dataDxfId="18"/>
-    <tableColumn id="5" xr3:uid="{438DC79B-2286-42C6-8C30-1D0A25F9D8B5}" name="Q3" dataDxfId="17"/>
-    <tableColumn id="6" xr3:uid="{6423B7C0-A146-4ECC-BD49-E25FDE130238}" name="Q4" dataDxfId="16"/>
-    <tableColumn id="7" xr3:uid="{AD0E195E-E577-485E-9732-D5E7E6B29A64}" name="Q5" dataDxfId="15"/>
-    <tableColumn id="8" xr3:uid="{13DFAE64-2AD3-46AE-A775-18B3C9F736A1}" name="Nota" dataDxfId="14">
+    <tableColumn id="2" xr3:uid="{B44EA045-0897-40BA-B5A8-7B35E81BA541}" name="MATRICULA" dataDxfId="7"/>
+    <tableColumn id="9" xr3:uid="{8ADF0CB9-B3EF-436C-9C96-DFA691839C79}" name="Nome" dataDxfId="6"/>
+    <tableColumn id="3" xr3:uid="{13E5564B-4516-426A-B08E-982059E2E5BC}" name="Q1" dataDxfId="5"/>
+    <tableColumn id="4" xr3:uid="{E60E864D-1AAC-45C0-A70B-13936B6F247F}" name="Q2" dataDxfId="4"/>
+    <tableColumn id="5" xr3:uid="{438DC79B-2286-42C6-8C30-1D0A25F9D8B5}" name="Q3" dataDxfId="3"/>
+    <tableColumn id="6" xr3:uid="{6423B7C0-A146-4ECC-BD49-E25FDE130238}" name="Q4" dataDxfId="2"/>
+    <tableColumn id="7" xr3:uid="{AD0E195E-E577-485E-9732-D5E7E6B29A64}" name="Q5" dataDxfId="1"/>
+    <tableColumn id="8" xr3:uid="{13DFAE64-2AD3-46AE-A775-18B3C9F736A1}" name="Nota" dataDxfId="0">
       <calculatedColumnFormula>SUM(D3:H3)</calculatedColumnFormula>
     </tableColumn>
   </tableColumns>
@@ -920,20 +930,22 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{55D759BB-1155-4903-96BA-60B49B282B75}">
   <dimension ref="A1:P53"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H11" sqref="H11"/>
+    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="H12" sqref="H12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="0" defaultRowHeight="14.4" zeroHeight="1" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="8.6640625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="13.44140625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="14.109375" bestFit="1" customWidth="1"/>
-    <col min="4" max="8" width="8.109375" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="9.88671875" bestFit="1" customWidth="1"/>
-    <col min="10" max="14" width="8.109375" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="9.88671875" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="14.21875" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="11.6640625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="18" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="16.6640625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="10.77734375" bestFit="1" customWidth="1"/>
+    <col min="5" max="8" width="11.21875" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="13.21875" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="11.21875" bestFit="1" customWidth="1"/>
+    <col min="11" max="14" width="11.6640625" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="13.5546875" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="18.21875" bestFit="1" customWidth="1"/>
     <col min="17" max="16384" width="8.88671875" hidden="1"/>
   </cols>
   <sheetData>
@@ -951,7 +963,7 @@
       </c>
       <c r="F1" s="3">
         <f t="shared" si="0"/>
-        <v>91.400000000000034</v>
+        <v>91.40000000000002</v>
       </c>
       <c r="G1" s="3">
         <f t="shared" si="0"/>
@@ -961,7 +973,10 @@
         <f>SUM(H3:H53)</f>
         <v>170.79999999999995</v>
       </c>
-      <c r="I1" s="4"/>
+      <c r="I1" s="7">
+        <f>SUMIF(Tabela5[Nota P1],"&gt;0",Tabela5[Nota P1])/COUNTIF(Tabela5[Nota P1],"&gt;0")</f>
+        <v>17.308888888888895</v>
+      </c>
       <c r="J1" s="3">
         <f t="shared" ref="J1:M1" si="1">SUM(J3:J53)</f>
         <v>111</v>
@@ -982,7 +997,10 @@
         <f>SUM(N3:N53)</f>
         <v>74</v>
       </c>
-      <c r="O1" s="4"/>
+      <c r="O1" s="7">
+        <f>SUMIF(Tabela5[Nota P2],"&gt;0",Tabela5[Nota P2])/COUNTIF(Tabela5[Nota P2],"&gt;0")</f>
+        <v>11.709302325581396</v>
+      </c>
       <c r="P1" s="4"/>
     </row>
     <row r="2" spans="1:16" x14ac:dyDescent="0.3">
@@ -1090,29 +1108,29 @@
     </row>
     <row r="4" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
-        <v>1</v>
+        <v>9</v>
       </c>
       <c r="B4">
-        <v>2024711531</v>
+        <v>2024700351</v>
       </c>
       <c r="D4" s="1">
         <v>5</v>
       </c>
       <c r="E4" s="1">
-        <v>4</v>
+        <v>3.5</v>
       </c>
       <c r="F4" s="1">
-        <v>5</v>
+        <v>2.5</v>
       </c>
       <c r="G4" s="1">
         <v>5</v>
       </c>
       <c r="H4" s="1">
-        <v>5</v>
+        <v>3.7</v>
       </c>
       <c r="I4" s="1">
         <f>SUM(Tabela5[[#This Row],[P1 Q1]:[P1 Q5]])</f>
-        <v>24</v>
+        <v>19.7</v>
       </c>
       <c r="J4" s="1">
         <v>4</v>
@@ -1121,7 +1139,7 @@
         <v>4</v>
       </c>
       <c r="L4" s="1">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="M4" s="1">
         <v>4</v>
@@ -1131,47 +1149,47 @@
       </c>
       <c r="O4" s="1">
         <f>SUM(Tabela5[[#This Row],[P2 Q1]:[P2 Q5]])</f>
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="P4" s="1">
         <f>SUM(Tabela5[[#This Row],[Nota P2]],Tabela5[[#This Row],[Nota P1]])</f>
-        <v>43</v>
+        <v>39.700000000000003</v>
       </c>
     </row>
     <row r="5" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
-        <v>9</v>
+        <v>1</v>
       </c>
       <c r="B5">
-        <v>2023710949</v>
+        <v>2024711531</v>
       </c>
       <c r="D5" s="1">
         <v>5</v>
       </c>
       <c r="E5" s="1">
-        <v>4.5</v>
+        <v>4</v>
       </c>
       <c r="F5" s="1">
         <v>5</v>
       </c>
       <c r="G5" s="1">
-        <v>4.2</v>
+        <v>5</v>
       </c>
       <c r="H5" s="1">
         <v>5</v>
       </c>
       <c r="I5" s="1">
         <f>SUM(Tabela5[[#This Row],[P1 Q1]:[P1 Q5]])</f>
-        <v>23.7</v>
+        <v>24</v>
       </c>
       <c r="J5" s="1">
-        <v>2.5</v>
+        <v>4</v>
       </c>
       <c r="K5" s="1">
         <v>4</v>
       </c>
       <c r="L5" s="1">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="M5" s="1">
         <v>4</v>
@@ -1181,11 +1199,11 @@
       </c>
       <c r="O5" s="1">
         <f>SUM(Tabela5[[#This Row],[P2 Q1]:[P2 Q5]])</f>
-        <v>18.5</v>
+        <v>19</v>
       </c>
       <c r="P5" s="1">
         <f>SUM(Tabela5[[#This Row],[Nota P2]],Tabela5[[#This Row],[Nota P1]])</f>
-        <v>42.2</v>
+        <v>43</v>
       </c>
     </row>
     <row r="6" spans="1:16" x14ac:dyDescent="0.3">
@@ -1243,38 +1261,35 @@
         <v>9</v>
       </c>
       <c r="B7">
-        <v>2024715936</v>
-      </c>
-      <c r="C7" t="s">
-        <v>11</v>
+        <v>2023710949</v>
       </c>
       <c r="D7" s="1">
         <v>5</v>
       </c>
       <c r="E7" s="1">
-        <v>5</v>
+        <v>4.5</v>
       </c>
       <c r="F7" s="1">
         <v>5</v>
       </c>
       <c r="G7" s="1">
-        <v>5</v>
+        <v>4.2</v>
       </c>
       <c r="H7" s="1">
         <v>5</v>
       </c>
       <c r="I7" s="1">
         <f>SUM(Tabela5[[#This Row],[P1 Q1]:[P1 Q5]])</f>
-        <v>25</v>
+        <v>23.7</v>
       </c>
       <c r="J7" s="1">
-        <v>3</v>
+        <v>2.5</v>
       </c>
       <c r="K7" s="1">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="L7" s="1">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="M7" s="1">
         <v>4</v>
@@ -1284,11 +1299,11 @@
       </c>
       <c r="O7" s="1">
         <f>SUM(Tabela5[[#This Row],[P2 Q1]:[P2 Q5]])</f>
-        <v>15</v>
+        <v>18.5</v>
       </c>
       <c r="P7" s="1">
         <f>SUM(Tabela5[[#This Row],[Nota P2]],Tabela5[[#This Row],[Nota P1]])</f>
-        <v>40</v>
+        <v>42.2</v>
       </c>
     </row>
     <row r="8" spans="1:16" x14ac:dyDescent="0.3">
@@ -1296,13 +1311,16 @@
         <v>9</v>
       </c>
       <c r="B8">
-        <v>2024700351</v>
+        <v>2024701846</v>
+      </c>
+      <c r="C8" t="s">
+        <v>13</v>
       </c>
       <c r="D8" s="1">
         <v>5</v>
       </c>
       <c r="E8" s="1">
-        <v>3.5</v>
+        <v>4.5</v>
       </c>
       <c r="F8" s="1">
         <v>2.5</v>
@@ -1311,17 +1329,17 @@
         <v>5</v>
       </c>
       <c r="H8" s="1">
-        <v>3.7</v>
+        <v>5</v>
       </c>
       <c r="I8" s="1">
         <f>SUM(Tabela5[[#This Row],[P1 Q1]:[P1 Q5]])</f>
-        <v>19.7</v>
+        <v>22</v>
       </c>
       <c r="J8" s="1">
         <v>4</v>
       </c>
       <c r="K8" s="1">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="L8" s="1">
         <v>4</v>
@@ -1334,11 +1352,11 @@
       </c>
       <c r="O8" s="1">
         <f>SUM(Tabela5[[#This Row],[P2 Q1]:[P2 Q5]])</f>
-        <v>20</v>
+        <v>17</v>
       </c>
       <c r="P8" s="1">
         <f>SUM(Tabela5[[#This Row],[Nota P2]],Tabela5[[#This Row],[Nota P1]])</f>
-        <v>39.700000000000003</v>
+        <v>39</v>
       </c>
     </row>
     <row r="9" spans="1:16" x14ac:dyDescent="0.3">
@@ -1346,38 +1364,35 @@
         <v>9</v>
       </c>
       <c r="B9">
-        <v>2024701846</v>
-      </c>
-      <c r="C9" t="s">
-        <v>13</v>
+        <v>2024691883</v>
       </c>
       <c r="D9" s="1">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="E9" s="1">
-        <v>4.5</v>
+        <v>3.5</v>
       </c>
       <c r="F9" s="1">
-        <v>2.5</v>
+        <v>1.7</v>
       </c>
       <c r="G9" s="1">
-        <v>5</v>
+        <v>4.2</v>
       </c>
       <c r="H9" s="1">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="I9" s="1">
         <f>SUM(Tabela5[[#This Row],[P1 Q1]:[P1 Q5]])</f>
-        <v>22</v>
+        <v>12.4</v>
       </c>
       <c r="J9" s="1">
         <v>4</v>
       </c>
       <c r="K9" s="1">
-        <v>1</v>
+        <v>0.5</v>
       </c>
       <c r="L9" s="1">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="M9" s="1">
         <v>4</v>
@@ -1387,11 +1402,11 @@
       </c>
       <c r="O9" s="1">
         <f>SUM(Tabela5[[#This Row],[P2 Q1]:[P2 Q5]])</f>
-        <v>17</v>
+        <v>15.5</v>
       </c>
       <c r="P9" s="1">
         <f>SUM(Tabela5[[#This Row],[Nota P2]],Tabela5[[#This Row],[Nota P1]])</f>
-        <v>39</v>
+        <v>27.9</v>
       </c>
     </row>
     <row r="10" spans="1:16" x14ac:dyDescent="0.3">
@@ -1399,10 +1414,13 @@
         <v>9</v>
       </c>
       <c r="B10">
-        <v>2024715952</v>
+        <v>2024715936</v>
+      </c>
+      <c r="C10" t="s">
+        <v>11</v>
       </c>
       <c r="D10" s="1">
-        <v>3.5</v>
+        <v>5</v>
       </c>
       <c r="E10" s="1">
         <v>5</v>
@@ -1418,30 +1436,30 @@
       </c>
       <c r="I10" s="1">
         <f>SUM(Tabela5[[#This Row],[P1 Q1]:[P1 Q5]])</f>
-        <v>23.5</v>
+        <v>25</v>
       </c>
       <c r="J10" s="1">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="K10" s="1">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="L10" s="1">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="M10" s="1">
         <v>4</v>
       </c>
       <c r="N10" s="1">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="O10" s="1">
         <f>SUM(Tabela5[[#This Row],[P2 Q1]:[P2 Q5]])</f>
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="P10" s="1">
         <f>SUM(Tabela5[[#This Row],[Nota P2]],Tabela5[[#This Row],[Nota P1]])</f>
-        <v>37.5</v>
+        <v>40</v>
       </c>
     </row>
     <row r="11" spans="1:16" x14ac:dyDescent="0.3">
@@ -1546,105 +1564,105 @@
     </row>
     <row r="13" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
-        <v>9</v>
+        <v>1</v>
       </c>
       <c r="B13">
-        <v>2024709316</v>
+        <v>2024711370</v>
+      </c>
+      <c r="C13" t="s">
+        <v>12</v>
       </c>
       <c r="D13" s="1">
         <v>5</v>
       </c>
       <c r="E13" s="1">
-        <v>4.5</v>
+        <v>5</v>
       </c>
       <c r="F13" s="1">
         <v>2.5</v>
       </c>
       <c r="G13" s="1">
-        <v>4.5</v>
+        <v>4.2</v>
       </c>
       <c r="H13" s="1">
-        <v>5</v>
+        <v>3.7</v>
       </c>
       <c r="I13" s="1">
         <f>SUM(Tabela5[[#This Row],[P1 Q1]:[P1 Q5]])</f>
-        <v>21.5</v>
+        <v>20.399999999999999</v>
       </c>
       <c r="J13" s="1">
         <v>3</v>
       </c>
       <c r="K13" s="1">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="L13" s="1">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="M13" s="1">
         <v>4</v>
       </c>
       <c r="N13" s="1">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="O13" s="1">
         <f>SUM(Tabela5[[#This Row],[P2 Q1]:[P2 Q5]])</f>
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="P13" s="1">
         <f>SUM(Tabela5[[#This Row],[Nota P2]],Tabela5[[#This Row],[Nota P1]])</f>
-        <v>35.5</v>
+        <v>35.4</v>
       </c>
     </row>
     <row r="14" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
-        <v>1</v>
+        <v>9</v>
       </c>
       <c r="B14">
-        <v>2024711370</v>
-      </c>
-      <c r="C14" t="s">
-        <v>12</v>
+        <v>2024715952</v>
       </c>
       <c r="D14" s="1">
-        <v>5</v>
+        <v>3.5</v>
       </c>
       <c r="E14" s="1">
         <v>5</v>
       </c>
       <c r="F14" s="1">
-        <v>2.5</v>
+        <v>5</v>
       </c>
       <c r="G14" s="1">
-        <v>4.2</v>
+        <v>5</v>
       </c>
       <c r="H14" s="1">
-        <v>3.7</v>
+        <v>5</v>
       </c>
       <c r="I14" s="1">
         <f>SUM(Tabela5[[#This Row],[P1 Q1]:[P1 Q5]])</f>
-        <v>20.399999999999999</v>
+        <v>23.5</v>
       </c>
       <c r="J14" s="1">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="K14" s="1">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="L14" s="1">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="M14" s="1">
         <v>4</v>
       </c>
       <c r="N14" s="1">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="O14" s="1">
         <f>SUM(Tabela5[[#This Row],[P2 Q1]:[P2 Q5]])</f>
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="P14" s="1">
         <f>SUM(Tabela5[[#This Row],[Nota P2]],Tabela5[[#This Row],[Nota P1]])</f>
-        <v>35.4</v>
+        <v>37.5</v>
       </c>
     </row>
     <row r="15" spans="1:16" x14ac:dyDescent="0.3">
@@ -1652,49 +1670,49 @@
         <v>9</v>
       </c>
       <c r="B15">
-        <v>2024715979</v>
+        <v>2024709316</v>
       </c>
       <c r="D15" s="1">
         <v>5</v>
       </c>
       <c r="E15" s="1">
-        <v>3.5</v>
+        <v>4.5</v>
       </c>
       <c r="F15" s="1">
-        <v>1.7</v>
+        <v>2.5</v>
       </c>
       <c r="G15" s="1">
-        <v>5</v>
+        <v>4.5</v>
       </c>
       <c r="H15" s="1">
         <v>5</v>
       </c>
       <c r="I15" s="1">
         <f>SUM(Tabela5[[#This Row],[P1 Q1]:[P1 Q5]])</f>
-        <v>20.2</v>
+        <v>21.5</v>
       </c>
       <c r="J15" s="1">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="K15" s="1">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="L15" s="1">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="M15" s="1">
-        <v>3.5</v>
+        <v>4</v>
       </c>
       <c r="N15" s="1">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="O15" s="1">
         <f>SUM(Tabela5[[#This Row],[P2 Q1]:[P2 Q5]])</f>
-        <v>13.5</v>
+        <v>14</v>
       </c>
       <c r="P15" s="1">
         <f>SUM(Tabela5[[#This Row],[Nota P2]],Tabela5[[#This Row],[Nota P1]])</f>
-        <v>33.700000000000003</v>
+        <v>35.5</v>
       </c>
     </row>
     <row r="16" spans="1:16" x14ac:dyDescent="0.3">
@@ -1702,49 +1720,49 @@
         <v>9</v>
       </c>
       <c r="B16">
-        <v>2024709308</v>
+        <v>2024700378</v>
       </c>
       <c r="D16" s="1">
         <v>5</v>
       </c>
       <c r="E16" s="1">
-        <v>4.5</v>
+        <v>3</v>
       </c>
       <c r="F16" s="1">
+        <v>1</v>
+      </c>
+      <c r="G16" s="1">
         <v>2.5</v>
       </c>
-      <c r="G16" s="1">
-        <v>3.7</v>
-      </c>
       <c r="H16" s="1">
-        <v>5</v>
+        <v>2.5</v>
       </c>
       <c r="I16" s="1">
         <f>SUM(Tabela5[[#This Row],[P1 Q1]:[P1 Q5]])</f>
-        <v>20.7</v>
+        <v>14</v>
       </c>
       <c r="J16" s="1">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="K16" s="1">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="L16" s="1">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="M16" s="1">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="N16" s="1">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="O16" s="1">
         <f>SUM(Tabela5[[#This Row],[P2 Q1]:[P2 Q5]])</f>
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="P16" s="1">
         <f>SUM(Tabela5[[#This Row],[Nota P2]],Tabela5[[#This Row],[Nota P1]])</f>
-        <v>33.700000000000003</v>
+        <v>28</v>
       </c>
     </row>
     <row r="17" spans="1:16" x14ac:dyDescent="0.3">
@@ -1752,49 +1770,49 @@
         <v>9</v>
       </c>
       <c r="B17">
-        <v>2024701382</v>
+        <v>2024715979</v>
       </c>
       <c r="D17" s="1">
         <v>5</v>
       </c>
       <c r="E17" s="1">
-        <v>4.5</v>
+        <v>3.5</v>
       </c>
       <c r="F17" s="1">
-        <v>2.5</v>
+        <v>1.7</v>
       </c>
       <c r="G17" s="1">
         <v>5</v>
       </c>
       <c r="H17" s="1">
-        <v>3.8</v>
+        <v>5</v>
       </c>
       <c r="I17" s="1">
         <f>SUM(Tabela5[[#This Row],[P1 Q1]:[P1 Q5]])</f>
-        <v>20.8</v>
+        <v>20.2</v>
       </c>
       <c r="J17" s="1">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="K17" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L17" s="1">
         <v>4</v>
       </c>
       <c r="M17" s="1">
-        <v>4</v>
+        <v>3.5</v>
       </c>
       <c r="N17" s="1">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="O17" s="1">
         <f>SUM(Tabela5[[#This Row],[P2 Q1]:[P2 Q5]])</f>
-        <v>12</v>
+        <v>13.5</v>
       </c>
       <c r="P17" s="1">
         <f>SUM(Tabela5[[#This Row],[Nota P2]],Tabela5[[#This Row],[Nota P1]])</f>
-        <v>32.799999999999997</v>
+        <v>33.700000000000003</v>
       </c>
     </row>
     <row r="18" spans="1:16" x14ac:dyDescent="0.3">
@@ -1802,41 +1820,41 @@
         <v>9</v>
       </c>
       <c r="B18">
-        <v>2024691921</v>
+        <v>2024709308</v>
       </c>
       <c r="D18" s="1">
         <v>5</v>
       </c>
       <c r="E18" s="1">
-        <v>4</v>
+        <v>4.5</v>
       </c>
       <c r="F18" s="1">
         <v>2.5</v>
       </c>
       <c r="G18" s="1">
-        <v>4.2</v>
+        <v>3.7</v>
       </c>
       <c r="H18" s="1">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="I18" s="1">
         <f>SUM(Tabela5[[#This Row],[P1 Q1]:[P1 Q5]])</f>
-        <v>19.7</v>
+        <v>20.7</v>
       </c>
       <c r="J18" s="1">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="K18" s="1">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="L18" s="1">
         <v>2</v>
       </c>
       <c r="M18" s="1">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="N18" s="1">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="O18" s="1">
         <f>SUM(Tabela5[[#This Row],[P2 Q1]:[P2 Q5]])</f>
@@ -1844,7 +1862,7 @@
       </c>
       <c r="P18" s="1">
         <f>SUM(Tabela5[[#This Row],[Nota P2]],Tabela5[[#This Row],[Nota P1]])</f>
-        <v>32.700000000000003</v>
+        <v>33.700000000000003</v>
       </c>
     </row>
     <row r="19" spans="1:16" x14ac:dyDescent="0.3">
@@ -1852,41 +1870,41 @@
         <v>9</v>
       </c>
       <c r="B19">
-        <v>2023655557</v>
+        <v>2024691921</v>
       </c>
       <c r="D19" s="1">
         <v>5</v>
       </c>
       <c r="E19" s="1">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="F19" s="1">
-        <v>0</v>
+        <v>2.5</v>
       </c>
       <c r="G19" s="1">
         <v>4.2</v>
       </c>
       <c r="H19" s="1">
-        <v>3.7</v>
+        <v>4</v>
       </c>
       <c r="I19" s="1">
         <f>SUM(Tabela5[[#This Row],[P1 Q1]:[P1 Q5]])</f>
-        <v>17.899999999999999</v>
+        <v>19.7</v>
       </c>
       <c r="J19" s="1">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="K19" s="1">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L19" s="1">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="M19" s="1">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="N19" s="1">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="O19" s="1">
         <f>SUM(Tabela5[[#This Row],[P2 Q1]:[P2 Q5]])</f>
@@ -1894,40 +1912,40 @@
       </c>
       <c r="P19" s="1">
         <f>SUM(Tabela5[[#This Row],[Nota P2]],Tabela5[[#This Row],[Nota P1]])</f>
-        <v>30.9</v>
+        <v>32.700000000000003</v>
       </c>
     </row>
     <row r="20" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A20" t="s">
-        <v>1</v>
+        <v>9</v>
       </c>
       <c r="B20">
-        <v>2024712317</v>
+        <v>2023655557</v>
       </c>
       <c r="D20" s="1">
         <v>5</v>
       </c>
       <c r="E20" s="1">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="F20" s="1">
-        <v>1.7</v>
+        <v>0</v>
       </c>
       <c r="G20" s="1">
-        <v>4</v>
+        <v>4.2</v>
       </c>
       <c r="H20" s="1">
-        <v>5</v>
+        <v>3.7</v>
       </c>
       <c r="I20" s="1">
         <f>SUM(Tabela5[[#This Row],[P1 Q1]:[P1 Q5]])</f>
-        <v>19.7</v>
+        <v>17.899999999999999</v>
       </c>
       <c r="J20" s="1">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="K20" s="1">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="L20" s="1">
         <v>3</v>
@@ -1940,11 +1958,11 @@
       </c>
       <c r="O20" s="1">
         <f>SUM(Tabela5[[#This Row],[P2 Q1]:[P2 Q5]])</f>
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="P20" s="1">
         <f>SUM(Tabela5[[#This Row],[Nota P2]],Tabela5[[#This Row],[Nota P1]])</f>
-        <v>30.7</v>
+        <v>30.9</v>
       </c>
     </row>
     <row r="21" spans="1:16" x14ac:dyDescent="0.3">
@@ -1952,49 +1970,49 @@
         <v>9</v>
       </c>
       <c r="B21">
-        <v>2024709294</v>
+        <v>2024701382</v>
       </c>
       <c r="D21" s="1">
         <v>5</v>
       </c>
       <c r="E21" s="1">
-        <v>4</v>
+        <v>4.5</v>
       </c>
       <c r="F21" s="1">
         <v>2.5</v>
       </c>
       <c r="G21" s="1">
-        <v>4.2</v>
+        <v>5</v>
       </c>
       <c r="H21" s="1">
-        <v>4</v>
+        <v>3.8</v>
       </c>
       <c r="I21" s="1">
         <f>SUM(Tabela5[[#This Row],[P1 Q1]:[P1 Q5]])</f>
-        <v>19.7</v>
+        <v>20.8</v>
       </c>
       <c r="J21" s="1">
-        <v>3.5</v>
+        <v>3</v>
       </c>
       <c r="K21" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L21" s="1">
         <v>4</v>
       </c>
       <c r="M21" s="1">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="N21" s="1">
         <v>0</v>
       </c>
       <c r="O21" s="1">
         <f>SUM(Tabela5[[#This Row],[P2 Q1]:[P2 Q5]])</f>
-        <v>10.5</v>
+        <v>12</v>
       </c>
       <c r="P21" s="1">
         <f>SUM(Tabela5[[#This Row],[Nota P2]],Tabela5[[#This Row],[Nota P1]])</f>
-        <v>30.2</v>
+        <v>32.799999999999997</v>
       </c>
     </row>
     <row r="22" spans="1:16" x14ac:dyDescent="0.3">
@@ -2002,33 +2020,33 @@
         <v>9</v>
       </c>
       <c r="B22">
-        <v>2024709200</v>
+        <v>2024709960</v>
       </c>
       <c r="D22" s="1">
         <v>5</v>
       </c>
       <c r="E22" s="1">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="F22" s="1">
         <v>2.5</v>
       </c>
       <c r="G22" s="1">
-        <v>2.5</v>
+        <v>5</v>
       </c>
       <c r="H22" s="1">
-        <v>5</v>
+        <v>1.2</v>
       </c>
       <c r="I22" s="1">
         <f>SUM(Tabela5[[#This Row],[P1 Q1]:[P1 Q5]])</f>
-        <v>19</v>
+        <v>16.7</v>
       </c>
       <c r="J22" s="1">
+        <v>3</v>
+      </c>
+      <c r="K22" s="1">
         <v>2</v>
       </c>
-      <c r="K22" s="1">
-        <v>0</v>
-      </c>
       <c r="L22" s="1">
         <v>3</v>
       </c>
@@ -2036,15 +2054,15 @@
         <v>4</v>
       </c>
       <c r="N22" s="1">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="O22" s="1">
         <f>SUM(Tabela5[[#This Row],[P2 Q1]:[P2 Q5]])</f>
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="P22" s="1">
         <f>SUM(Tabela5[[#This Row],[Nota P2]],Tabela5[[#This Row],[Nota P1]])</f>
-        <v>30</v>
+        <v>28.7</v>
       </c>
     </row>
     <row r="23" spans="1:16" x14ac:dyDescent="0.3">
@@ -2052,26 +2070,26 @@
         <v>9</v>
       </c>
       <c r="B23">
-        <v>2024700386</v>
+        <v>2024675179</v>
       </c>
       <c r="D23" s="1">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="E23" s="1">
-        <v>3</v>
+        <v>2.5</v>
       </c>
       <c r="F23" s="1">
         <v>2.5</v>
       </c>
       <c r="G23" s="1">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="H23" s="1">
-        <v>5</v>
+        <v>2.5</v>
       </c>
       <c r="I23" s="1">
         <f>SUM(Tabela5[[#This Row],[P1 Q1]:[P1 Q5]])</f>
-        <v>20.5</v>
+        <v>9.5</v>
       </c>
       <c r="J23" s="1">
         <v>2</v>
@@ -2080,151 +2098,151 @@
         <v>0</v>
       </c>
       <c r="L23" s="1">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="M23" s="1">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="N23" s="1">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="O23" s="1">
         <f>SUM(Tabela5[[#This Row],[P2 Q1]:[P2 Q5]])</f>
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="P23" s="1">
         <f>SUM(Tabela5[[#This Row],[Nota P2]],Tabela5[[#This Row],[Nota P1]])</f>
-        <v>29.5</v>
+        <v>21.5</v>
       </c>
     </row>
     <row r="24" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A24" t="s">
-        <v>1</v>
+        <v>9</v>
       </c>
       <c r="B24">
-        <v>2024711698</v>
+        <v>2024701072</v>
       </c>
       <c r="D24" s="1">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="E24" s="1">
-        <v>4.5</v>
+        <v>3</v>
       </c>
       <c r="F24" s="1">
-        <v>0</v>
+        <v>1.7</v>
       </c>
       <c r="G24" s="1">
-        <v>5</v>
+        <v>2.5</v>
       </c>
       <c r="H24" s="1">
-        <v>3.7</v>
+        <v>1.7</v>
       </c>
       <c r="I24" s="1">
         <f>SUM(Tabela5[[#This Row],[P1 Q1]:[P1 Q5]])</f>
-        <v>18.2</v>
+        <v>8.9</v>
       </c>
       <c r="J24" s="1">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="K24" s="1">
         <v>0</v>
       </c>
       <c r="L24" s="1">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="M24" s="1">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="N24" s="1">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="O24" s="1">
         <f>SUM(Tabela5[[#This Row],[P2 Q1]:[P2 Q5]])</f>
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="P24" s="1">
         <f>SUM(Tabela5[[#This Row],[Nota P2]],Tabela5[[#This Row],[Nota P1]])</f>
-        <v>29.2</v>
+        <v>20.9</v>
       </c>
     </row>
     <row r="25" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A25" t="s">
-        <v>1</v>
+        <v>9</v>
       </c>
       <c r="B25">
-        <v>2024716169</v>
+        <v>2024700360</v>
       </c>
       <c r="D25" s="1">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="E25" s="1">
-        <v>3.5</v>
+        <v>0</v>
       </c>
       <c r="F25" s="1">
-        <v>2.5</v>
+        <v>0</v>
       </c>
       <c r="G25" s="1">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="H25" s="1">
-        <v>3.7</v>
+        <v>0</v>
       </c>
       <c r="I25" s="1">
         <f>SUM(Tabela5[[#This Row],[P1 Q1]:[P1 Q5]])</f>
-        <v>19.7</v>
+        <v>0</v>
       </c>
       <c r="J25" s="1">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="K25" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L25" s="1">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="M25" s="1">
         <v>4</v>
       </c>
       <c r="N25" s="1">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="O25" s="1">
         <f>SUM(Tabela5[[#This Row],[P2 Q1]:[P2 Q5]])</f>
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="P25" s="1">
         <f>SUM(Tabela5[[#This Row],[Nota P2]],Tabela5[[#This Row],[Nota P1]])</f>
-        <v>28.7</v>
+        <v>12</v>
       </c>
     </row>
     <row r="26" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A26" t="s">
-        <v>9</v>
+        <v>1</v>
       </c>
       <c r="B26">
-        <v>2024709960</v>
+        <v>2024712317</v>
       </c>
       <c r="D26" s="1">
         <v>5</v>
       </c>
       <c r="E26" s="1">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="F26" s="1">
-        <v>2.5</v>
+        <v>1.7</v>
       </c>
       <c r="G26" s="1">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="H26" s="1">
-        <v>1.2</v>
+        <v>5</v>
       </c>
       <c r="I26" s="1">
         <f>SUM(Tabela5[[#This Row],[P1 Q1]:[P1 Q5]])</f>
-        <v>16.7</v>
+        <v>19.7</v>
       </c>
       <c r="J26" s="1">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="K26" s="1">
         <v>2</v>
@@ -2236,15 +2254,15 @@
         <v>4</v>
       </c>
       <c r="N26" s="1">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="O26" s="1">
         <f>SUM(Tabela5[[#This Row],[P2 Q1]:[P2 Q5]])</f>
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="P26" s="1">
         <f>SUM(Tabela5[[#This Row],[Nota P2]],Tabela5[[#This Row],[Nota P1]])</f>
-        <v>28.7</v>
+        <v>30.7</v>
       </c>
     </row>
     <row r="27" spans="1:16" x14ac:dyDescent="0.3">
@@ -2252,29 +2270,29 @@
         <v>9</v>
       </c>
       <c r="B27">
-        <v>2024700378</v>
+        <v>2024709200</v>
       </c>
       <c r="D27" s="1">
         <v>5</v>
       </c>
       <c r="E27" s="1">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="F27" s="1">
-        <v>1</v>
+        <v>2.5</v>
       </c>
       <c r="G27" s="1">
         <v>2.5</v>
       </c>
       <c r="H27" s="1">
-        <v>2.5</v>
+        <v>5</v>
       </c>
       <c r="I27" s="1">
         <f>SUM(Tabela5[[#This Row],[P1 Q1]:[P1 Q5]])</f>
-        <v>14</v>
+        <v>19</v>
       </c>
       <c r="J27" s="1">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="K27" s="1">
         <v>0</v>
@@ -2283,68 +2301,68 @@
         <v>3</v>
       </c>
       <c r="M27" s="1">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="N27" s="1">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="O27" s="1">
         <f>SUM(Tabela5[[#This Row],[P2 Q1]:[P2 Q5]])</f>
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="P27" s="1">
         <f>SUM(Tabela5[[#This Row],[Nota P2]],Tabela5[[#This Row],[Nota P1]])</f>
-        <v>28</v>
+        <v>30</v>
       </c>
     </row>
     <row r="28" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A28" t="s">
-        <v>9</v>
+        <v>1</v>
       </c>
       <c r="B28">
-        <v>2024691883</v>
+        <v>2024711698</v>
       </c>
       <c r="D28" s="1">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="E28" s="1">
-        <v>3.5</v>
+        <v>4.5</v>
       </c>
       <c r="F28" s="1">
-        <v>1.7</v>
+        <v>0</v>
       </c>
       <c r="G28" s="1">
-        <v>4.2</v>
+        <v>5</v>
       </c>
       <c r="H28" s="1">
-        <v>3</v>
+        <v>3.7</v>
       </c>
       <c r="I28" s="1">
         <f>SUM(Tabela5[[#This Row],[P1 Q1]:[P1 Q5]])</f>
-        <v>12.4</v>
+        <v>18.2</v>
       </c>
       <c r="J28" s="1">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="K28" s="1">
-        <v>0.5</v>
+        <v>0</v>
       </c>
       <c r="L28" s="1">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="M28" s="1">
         <v>4</v>
       </c>
       <c r="N28" s="1">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="O28" s="1">
         <f>SUM(Tabela5[[#This Row],[P2 Q1]:[P2 Q5]])</f>
-        <v>15.5</v>
+        <v>11</v>
       </c>
       <c r="P28" s="1">
         <f>SUM(Tabela5[[#This Row],[Nota P2]],Tabela5[[#This Row],[Nota P1]])</f>
-        <v>27.9</v>
+        <v>29.2</v>
       </c>
     </row>
     <row r="29" spans="1:16" x14ac:dyDescent="0.3">
@@ -2402,99 +2420,99 @@
         <v>9</v>
       </c>
       <c r="B30">
-        <v>2024699183</v>
+        <v>2024700840</v>
       </c>
       <c r="D30" s="1">
-        <v>5</v>
+        <v>2.5</v>
       </c>
       <c r="E30" s="1">
-        <v>3.5</v>
+        <v>2.5</v>
       </c>
       <c r="F30" s="1">
-        <v>1.7</v>
+        <v>2.5</v>
       </c>
       <c r="G30" s="1">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="H30" s="1">
-        <v>3.7</v>
+        <v>2.5</v>
       </c>
       <c r="I30" s="1">
         <f>SUM(Tabela5[[#This Row],[P1 Q1]:[P1 Q5]])</f>
-        <v>16.899999999999999</v>
+        <v>15</v>
       </c>
       <c r="J30" s="1">
         <v>3</v>
       </c>
       <c r="K30" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L30" s="1">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="M30" s="1">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="N30" s="1">
         <v>0</v>
       </c>
       <c r="O30" s="1">
         <f>SUM(Tabela5[[#This Row],[P2 Q1]:[P2 Q5]])</f>
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="P30" s="1">
         <f>SUM(Tabela5[[#This Row],[Nota P2]],Tabela5[[#This Row],[Nota P1]])</f>
-        <v>26.9</v>
+        <v>26</v>
       </c>
     </row>
     <row r="31" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A31" t="s">
-        <v>1</v>
+        <v>9</v>
       </c>
       <c r="B31">
-        <v>2024711655</v>
+        <v>2024709294</v>
       </c>
       <c r="D31" s="1">
+        <v>5</v>
+      </c>
+      <c r="E31" s="1">
+        <v>4</v>
+      </c>
+      <c r="F31" s="1">
         <v>2.5</v>
-      </c>
-      <c r="E31" s="1">
-        <v>4</v>
-      </c>
-      <c r="F31" s="1">
-        <v>1.7</v>
       </c>
       <c r="G31" s="1">
         <v>4.2</v>
       </c>
       <c r="H31" s="1">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="I31" s="1">
         <f>SUM(Tabela5[[#This Row],[P1 Q1]:[P1 Q5]])</f>
-        <v>17.399999999999999</v>
+        <v>19.7</v>
       </c>
       <c r="J31" s="1">
-        <v>3</v>
+        <v>3.5</v>
       </c>
       <c r="K31" s="1">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="L31" s="1">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="M31" s="1">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="N31" s="1">
         <v>0</v>
       </c>
       <c r="O31" s="1">
         <f>SUM(Tabela5[[#This Row],[P2 Q1]:[P2 Q5]])</f>
-        <v>9</v>
+        <v>10.5</v>
       </c>
       <c r="P31" s="1">
         <f>SUM(Tabela5[[#This Row],[Nota P2]],Tabela5[[#This Row],[Nota P1]])</f>
-        <v>26.4</v>
+        <v>30.2</v>
       </c>
     </row>
     <row r="32" spans="1:16" x14ac:dyDescent="0.3">
@@ -2502,49 +2520,49 @@
         <v>9</v>
       </c>
       <c r="B32">
-        <v>2024700840</v>
+        <v>2024699183</v>
       </c>
       <c r="D32" s="1">
-        <v>2.5</v>
+        <v>5</v>
       </c>
       <c r="E32" s="1">
-        <v>2.5</v>
+        <v>3.5</v>
       </c>
       <c r="F32" s="1">
-        <v>2.5</v>
+        <v>1.7</v>
       </c>
       <c r="G32" s="1">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="H32" s="1">
-        <v>2.5</v>
+        <v>3.7</v>
       </c>
       <c r="I32" s="1">
         <f>SUM(Tabela5[[#This Row],[P1 Q1]:[P1 Q5]])</f>
-        <v>15</v>
+        <v>16.899999999999999</v>
       </c>
       <c r="J32" s="1">
         <v>3</v>
       </c>
       <c r="K32" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L32" s="1">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="M32" s="1">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="N32" s="1">
         <v>0</v>
       </c>
       <c r="O32" s="1">
         <f>SUM(Tabela5[[#This Row],[P2 Q1]:[P2 Q5]])</f>
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="P32" s="1">
         <f>SUM(Tabela5[[#This Row],[Nota P2]],Tabela5[[#This Row],[Nota P1]])</f>
-        <v>26</v>
+        <v>26.9</v>
       </c>
     </row>
     <row r="33" spans="1:16" x14ac:dyDescent="0.3">
@@ -2552,49 +2570,49 @@
         <v>9</v>
       </c>
       <c r="B33">
-        <v>2024673630</v>
+        <v>2024693045</v>
       </c>
       <c r="D33" s="1">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="E33" s="1">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="F33" s="1">
-        <v>1.7</v>
+        <v>0</v>
       </c>
       <c r="G33" s="1">
-        <v>2.5</v>
+        <v>0</v>
       </c>
       <c r="H33" s="1">
-        <v>3.7</v>
+        <v>0</v>
       </c>
       <c r="I33" s="1">
         <f>SUM(Tabela5[[#This Row],[P1 Q1]:[P1 Q5]])</f>
-        <v>15.899999999999999</v>
+        <v>0</v>
       </c>
       <c r="J33" s="1">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="K33" s="1">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="L33" s="1">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="M33" s="1">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="N33" s="1">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="O33" s="1">
         <f>SUM(Tabela5[[#This Row],[P2 Q1]:[P2 Q5]])</f>
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="P33" s="1">
         <f>SUM(Tabela5[[#This Row],[Nota P2]],Tabela5[[#This Row],[Nota P1]])</f>
-        <v>23.9</v>
+        <v>10</v>
       </c>
     </row>
     <row r="34" spans="1:16" x14ac:dyDescent="0.3">
@@ -2602,26 +2620,26 @@
         <v>9</v>
       </c>
       <c r="B34">
-        <v>2024674016</v>
+        <v>2024700386</v>
       </c>
       <c r="D34" s="1">
         <v>5</v>
       </c>
       <c r="E34" s="1">
-        <v>4.5</v>
+        <v>3</v>
       </c>
       <c r="F34" s="1">
-        <v>1.7</v>
+        <v>2.5</v>
       </c>
       <c r="G34" s="1">
-        <v>4.2</v>
+        <v>5</v>
       </c>
       <c r="H34" s="1">
         <v>5</v>
       </c>
       <c r="I34" s="1">
         <f>SUM(Tabela5[[#This Row],[P1 Q1]:[P1 Q5]])</f>
-        <v>20.399999999999999</v>
+        <v>20.5</v>
       </c>
       <c r="J34" s="1">
         <v>2</v>
@@ -2633,51 +2651,51 @@
         <v>0</v>
       </c>
       <c r="M34" s="1">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="N34" s="1">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="O34" s="1">
         <f>SUM(Tabela5[[#This Row],[P2 Q1]:[P2 Q5]])</f>
-        <v>2</v>
+        <v>9</v>
       </c>
       <c r="P34" s="1">
         <f>SUM(Tabela5[[#This Row],[Nota P2]],Tabela5[[#This Row],[Nota P1]])</f>
-        <v>22.4</v>
+        <v>29.5</v>
       </c>
     </row>
     <row r="35" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A35" t="s">
-        <v>9</v>
+        <v>1</v>
       </c>
       <c r="B35">
-        <v>2024675179</v>
+        <v>2024716169</v>
       </c>
       <c r="D35" s="1">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="E35" s="1">
-        <v>2.5</v>
+        <v>3.5</v>
       </c>
       <c r="F35" s="1">
         <v>2.5</v>
       </c>
       <c r="G35" s="1">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="H35" s="1">
-        <v>2.5</v>
+        <v>3.7</v>
       </c>
       <c r="I35" s="1">
         <f>SUM(Tabela5[[#This Row],[P1 Q1]:[P1 Q5]])</f>
-        <v>9.5</v>
+        <v>19.7</v>
       </c>
       <c r="J35" s="1">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="K35" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L35" s="1">
         <v>4</v>
@@ -2686,165 +2704,165 @@
         <v>4</v>
       </c>
       <c r="N35" s="1">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="O35" s="1">
         <f>SUM(Tabela5[[#This Row],[P2 Q1]:[P2 Q5]])</f>
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="P35" s="1">
         <f>SUM(Tabela5[[#This Row],[Nota P2]],Tabela5[[#This Row],[Nota P1]])</f>
-        <v>21.5</v>
+        <v>28.7</v>
       </c>
     </row>
     <row r="36" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A36" t="s">
-        <v>9</v>
+        <v>1</v>
       </c>
       <c r="B36">
-        <v>2024701072</v>
+        <v>2024711655</v>
       </c>
       <c r="D36" s="1">
-        <v>0</v>
+        <v>2.5</v>
       </c>
       <c r="E36" s="1">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="F36" s="1">
         <v>1.7</v>
       </c>
       <c r="G36" s="1">
-        <v>2.5</v>
+        <v>4.2</v>
       </c>
       <c r="H36" s="1">
-        <v>1.7</v>
+        <v>5</v>
       </c>
       <c r="I36" s="1">
         <f>SUM(Tabela5[[#This Row],[P1 Q1]:[P1 Q5]])</f>
-        <v>8.9</v>
+        <v>17.399999999999999</v>
       </c>
       <c r="J36" s="1">
+        <v>3</v>
+      </c>
+      <c r="K36" s="1">
+        <v>4</v>
+      </c>
+      <c r="L36" s="1">
+        <v>0</v>
+      </c>
+      <c r="M36" s="1">
         <v>2</v>
       </c>
-      <c r="K36" s="1">
-        <v>0</v>
-      </c>
-      <c r="L36" s="1">
-        <v>3</v>
-      </c>
-      <c r="M36" s="1">
-        <v>3</v>
-      </c>
       <c r="N36" s="1">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="O36" s="1">
         <f>SUM(Tabela5[[#This Row],[P2 Q1]:[P2 Q5]])</f>
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="P36" s="1">
         <f>SUM(Tabela5[[#This Row],[Nota P2]],Tabela5[[#This Row],[Nota P1]])</f>
-        <v>20.9</v>
+        <v>26.4</v>
       </c>
     </row>
     <row r="37" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A37" t="s">
-        <v>1</v>
+        <v>9</v>
       </c>
       <c r="B37">
-        <v>2024711396</v>
+        <v>2024700483</v>
       </c>
       <c r="D37" s="1">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="E37" s="1">
-        <v>2.5</v>
+        <v>0</v>
       </c>
       <c r="F37" s="1">
         <v>0</v>
       </c>
       <c r="G37" s="1">
-        <v>4.2</v>
+        <v>0</v>
       </c>
       <c r="H37" s="1">
-        <v>1.2</v>
+        <v>0</v>
       </c>
       <c r="I37" s="1">
         <f>SUM(Tabela5[[#This Row],[P1 Q1]:[P1 Q5]])</f>
-        <v>12.899999999999999</v>
+        <v>0</v>
       </c>
       <c r="J37" s="1">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="K37" s="1">
         <v>0</v>
       </c>
       <c r="L37" s="1">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="M37" s="1">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="N37" s="1">
         <v>0</v>
       </c>
       <c r="O37" s="1">
         <f>SUM(Tabela5[[#This Row],[P2 Q1]:[P2 Q5]])</f>
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="P37" s="1">
         <f>SUM(Tabela5[[#This Row],[Nota P2]],Tabela5[[#This Row],[Nota P1]])</f>
-        <v>19.899999999999999</v>
+        <v>9</v>
       </c>
     </row>
     <row r="38" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A38" t="s">
-        <v>1</v>
+        <v>9</v>
       </c>
       <c r="B38">
-        <v>2024727012</v>
+        <v>2024673630</v>
       </c>
       <c r="D38" s="1">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="E38" s="1">
-        <v>3.5</v>
+        <v>3</v>
       </c>
       <c r="F38" s="1">
-        <v>1.2</v>
+        <v>1.7</v>
       </c>
       <c r="G38" s="1">
-        <v>3.7</v>
+        <v>2.5</v>
       </c>
       <c r="H38" s="1">
         <v>3.7</v>
       </c>
       <c r="I38" s="1">
         <f>SUM(Tabela5[[#This Row],[P1 Q1]:[P1 Q5]])</f>
-        <v>12.100000000000001</v>
+        <v>15.899999999999999</v>
       </c>
       <c r="J38" s="1">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="K38" s="1">
+        <v>3</v>
+      </c>
+      <c r="L38" s="1">
         <v>1</v>
       </c>
-      <c r="L38" s="1">
-        <v>0</v>
-      </c>
       <c r="M38" s="1">
-        <v>3.5</v>
+        <v>0</v>
       </c>
       <c r="N38" s="1">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="O38" s="1">
         <f>SUM(Tabela5[[#This Row],[P2 Q1]:[P2 Q5]])</f>
-        <v>7.5</v>
+        <v>8</v>
       </c>
       <c r="P38" s="1">
         <f>SUM(Tabela5[[#This Row],[Nota P2]],Tabela5[[#This Row],[Nota P1]])</f>
-        <v>19.600000000000001</v>
+        <v>23.9</v>
       </c>
     </row>
     <row r="39" spans="1:16" x14ac:dyDescent="0.3">
@@ -2852,85 +2870,85 @@
         <v>1</v>
       </c>
       <c r="B39">
-        <v>2024711680</v>
+        <v>2024727012</v>
       </c>
       <c r="D39" s="1">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="E39" s="1">
-        <v>3</v>
+        <v>3.5</v>
       </c>
       <c r="F39" s="1">
-        <v>2.5</v>
+        <v>1.2</v>
       </c>
       <c r="G39" s="1">
         <v>3.7</v>
       </c>
       <c r="H39" s="1">
-        <v>5</v>
+        <v>3.7</v>
       </c>
       <c r="I39" s="1">
         <f>SUM(Tabela5[[#This Row],[P1 Q1]:[P1 Q5]])</f>
-        <v>19.2</v>
+        <v>12.100000000000001</v>
       </c>
       <c r="J39" s="1">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="K39" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L39" s="1">
         <v>0</v>
       </c>
       <c r="M39" s="1">
-        <v>0</v>
+        <v>3.5</v>
       </c>
       <c r="N39" s="1">
         <v>0</v>
       </c>
       <c r="O39" s="1">
         <f>SUM(Tabela5[[#This Row],[P2 Q1]:[P2 Q5]])</f>
-        <v>0</v>
+        <v>7.5</v>
       </c>
       <c r="P39" s="1">
         <f>SUM(Tabela5[[#This Row],[Nota P2]],Tabela5[[#This Row],[Nota P1]])</f>
-        <v>19.2</v>
+        <v>19.600000000000001</v>
       </c>
     </row>
     <row r="40" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A40" t="s">
-        <v>9</v>
+        <v>1</v>
       </c>
       <c r="B40">
-        <v>2024715944</v>
+        <v>2024711396</v>
       </c>
       <c r="D40" s="1">
+        <v>5</v>
+      </c>
+      <c r="E40" s="1">
         <v>2.5</v>
       </c>
-      <c r="E40" s="1">
-        <v>4</v>
-      </c>
       <c r="F40" s="1">
-        <v>2.5</v>
+        <v>0</v>
       </c>
       <c r="G40" s="1">
-        <v>3.2</v>
+        <v>4.2</v>
       </c>
       <c r="H40" s="1">
-        <v>5</v>
+        <v>1.2</v>
       </c>
       <c r="I40" s="1">
         <f>SUM(Tabela5[[#This Row],[P1 Q1]:[P1 Q5]])</f>
-        <v>17.2</v>
+        <v>12.899999999999999</v>
       </c>
       <c r="J40" s="1">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="K40" s="1">
         <v>0</v>
       </c>
       <c r="L40" s="1">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="M40" s="1">
         <v>0</v>
@@ -2940,61 +2958,61 @@
       </c>
       <c r="O40" s="1">
         <f>SUM(Tabela5[[#This Row],[P2 Q1]:[P2 Q5]])</f>
-        <v>0</v>
+        <v>7</v>
       </c>
       <c r="P40" s="1">
         <f>SUM(Tabela5[[#This Row],[Nota P2]],Tabela5[[#This Row],[Nota P1]])</f>
-        <v>17.2</v>
+        <v>19.899999999999999</v>
       </c>
     </row>
     <row r="41" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A41" t="s">
-        <v>9</v>
+        <v>1</v>
       </c>
       <c r="B41">
-        <v>2023661379</v>
+        <v>2024711493</v>
       </c>
       <c r="D41" s="1">
         <v>0</v>
       </c>
       <c r="E41" s="1">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="F41" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G41" s="1">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="H41" s="1">
         <v>3.7</v>
       </c>
       <c r="I41" s="1">
         <f>SUM(Tabela5[[#This Row],[P1 Q1]:[P1 Q5]])</f>
-        <v>13.7</v>
+        <v>5.7</v>
       </c>
       <c r="J41" s="1">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="K41" s="1">
         <v>0</v>
       </c>
       <c r="L41" s="1">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="M41" s="1">
         <v>0</v>
       </c>
       <c r="N41" s="1">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="O41" s="1">
         <f>SUM(Tabela5[[#This Row],[P2 Q1]:[P2 Q5]])</f>
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="P41" s="1">
         <f>SUM(Tabela5[[#This Row],[Nota P2]],Tabela5[[#This Row],[Nota P1]])</f>
-        <v>15.7</v>
+        <v>10.7</v>
       </c>
     </row>
     <row r="42" spans="1:16" x14ac:dyDescent="0.3">
@@ -3002,7 +3020,7 @@
         <v>9</v>
       </c>
       <c r="B42">
-        <v>2024710020</v>
+        <v>2024675144</v>
       </c>
       <c r="D42" s="1">
         <v>0</v>
@@ -3011,17 +3029,17 @@
         <v>3.5</v>
       </c>
       <c r="F42" s="1">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="G42" s="1">
-        <v>4.2</v>
+        <v>0</v>
       </c>
       <c r="H42" s="1">
-        <v>5</v>
+        <v>1.2</v>
       </c>
       <c r="I42" s="1">
         <f>SUM(Tabela5[[#This Row],[P1 Q1]:[P1 Q5]])</f>
-        <v>12.7</v>
+        <v>6.7</v>
       </c>
       <c r="J42" s="1">
         <v>0</v>
@@ -3030,48 +3048,48 @@
         <v>0</v>
       </c>
       <c r="L42" s="1">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="M42" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N42" s="1">
         <v>0</v>
       </c>
       <c r="O42" s="1">
         <f>SUM(Tabela5[[#This Row],[P2 Q1]:[P2 Q5]])</f>
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="P42" s="1">
         <f>SUM(Tabela5[[#This Row],[Nota P2]],Tabela5[[#This Row],[Nota P1]])</f>
-        <v>12.7</v>
+        <v>10.7</v>
       </c>
     </row>
     <row r="43" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A43" t="s">
-        <v>9</v>
+        <v>1</v>
       </c>
       <c r="B43">
-        <v>2024698420</v>
+        <v>2024661160</v>
       </c>
       <c r="D43" s="1">
-        <v>5</v>
+        <v>2.5</v>
       </c>
       <c r="E43" s="1">
-        <v>3.5</v>
+        <v>2.5</v>
       </c>
       <c r="F43" s="1">
         <v>0</v>
       </c>
       <c r="G43" s="1">
-        <v>1.5</v>
+        <v>4.2</v>
       </c>
       <c r="H43" s="1">
-        <v>2.5</v>
+        <v>0</v>
       </c>
       <c r="I43" s="1">
         <f>SUM(Tabela5[[#This Row],[P1 Q1]:[P1 Q5]])</f>
-        <v>12.5</v>
+        <v>9.1999999999999993</v>
       </c>
       <c r="J43" s="1">
         <v>0</v>
@@ -3083,48 +3101,48 @@
         <v>0</v>
       </c>
       <c r="M43" s="1">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="N43" s="1">
         <v>0</v>
       </c>
       <c r="O43" s="1">
         <f>SUM(Tabela5[[#This Row],[P2 Q1]:[P2 Q5]])</f>
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="P43" s="1">
         <f>SUM(Tabela5[[#This Row],[Nota P2]],Tabela5[[#This Row],[Nota P1]])</f>
-        <v>12.5</v>
+        <v>12.2</v>
       </c>
     </row>
     <row r="44" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A44" t="s">
-        <v>1</v>
+        <v>9</v>
       </c>
       <c r="B44">
-        <v>2024661160</v>
+        <v>2024674016</v>
       </c>
       <c r="D44" s="1">
-        <v>2.5</v>
+        <v>5</v>
       </c>
       <c r="E44" s="1">
-        <v>2.5</v>
+        <v>4.5</v>
       </c>
       <c r="F44" s="1">
-        <v>0</v>
+        <v>1.7</v>
       </c>
       <c r="G44" s="1">
         <v>4.2</v>
       </c>
       <c r="H44" s="1">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="I44" s="1">
         <f>SUM(Tabela5[[#This Row],[P1 Q1]:[P1 Q5]])</f>
-        <v>9.1999999999999993</v>
+        <v>20.399999999999999</v>
       </c>
       <c r="J44" s="1">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="K44" s="1">
         <v>0</v>
@@ -3133,18 +3151,18 @@
         <v>0</v>
       </c>
       <c r="M44" s="1">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="N44" s="1">
         <v>0</v>
       </c>
       <c r="O44" s="1">
         <f>SUM(Tabela5[[#This Row],[P2 Q1]:[P2 Q5]])</f>
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="P44" s="1">
         <f>SUM(Tabela5[[#This Row],[Nota P2]],Tabela5[[#This Row],[Nota P1]])</f>
-        <v>12.2</v>
+        <v>22.4</v>
       </c>
     </row>
     <row r="45" spans="1:16" x14ac:dyDescent="0.3">
@@ -3152,49 +3170,49 @@
         <v>9</v>
       </c>
       <c r="B45">
-        <v>2024700360</v>
+        <v>2023661379</v>
       </c>
       <c r="D45" s="1">
         <v>0</v>
       </c>
       <c r="E45" s="1">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="F45" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G45" s="1">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="H45" s="1">
-        <v>0</v>
+        <v>3.7</v>
       </c>
       <c r="I45" s="1">
         <f>SUM(Tabela5[[#This Row],[P1 Q1]:[P1 Q5]])</f>
-        <v>0</v>
+        <v>13.7</v>
       </c>
       <c r="J45" s="1">
+        <v>0</v>
+      </c>
+      <c r="K45" s="1">
+        <v>0</v>
+      </c>
+      <c r="L45" s="1">
+        <v>0</v>
+      </c>
+      <c r="M45" s="1">
+        <v>0</v>
+      </c>
+      <c r="N45" s="1">
         <v>2</v>
       </c>
-      <c r="K45" s="1">
-        <v>0</v>
-      </c>
-      <c r="L45" s="1">
+      <c r="O45" s="1">
+        <f>SUM(Tabela5[[#This Row],[P2 Q1]:[P2 Q5]])</f>
         <v>2</v>
-      </c>
-      <c r="M45" s="1">
-        <v>4</v>
-      </c>
-      <c r="N45" s="1">
-        <v>4</v>
-      </c>
-      <c r="O45" s="1">
-        <f>SUM(Tabela5[[#This Row],[P2 Q1]:[P2 Q5]])</f>
-        <v>12</v>
       </c>
       <c r="P45" s="1">
         <f>SUM(Tabela5[[#This Row],[Nota P2]],Tabela5[[#This Row],[Nota P1]])</f>
-        <v>12</v>
+        <v>15.7</v>
       </c>
     </row>
     <row r="46" spans="1:16" x14ac:dyDescent="0.3">
@@ -3202,35 +3220,35 @@
         <v>1</v>
       </c>
       <c r="B46">
-        <v>2024711493</v>
+        <v>2024711680</v>
       </c>
       <c r="D46" s="1">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="E46" s="1">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F46" s="1">
-        <v>0</v>
+        <v>2.5</v>
       </c>
       <c r="G46" s="1">
-        <v>0</v>
+        <v>3.7</v>
       </c>
       <c r="H46" s="1">
-        <v>3.7</v>
+        <v>5</v>
       </c>
       <c r="I46" s="1">
         <f>SUM(Tabela5[[#This Row],[P1 Q1]:[P1 Q5]])</f>
-        <v>5.7</v>
+        <v>19.2</v>
       </c>
       <c r="J46" s="1">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="K46" s="1">
         <v>0</v>
       </c>
       <c r="L46" s="1">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="M46" s="1">
         <v>0</v>
@@ -3240,11 +3258,11 @@
       </c>
       <c r="O46" s="1">
         <f>SUM(Tabela5[[#This Row],[P2 Q1]:[P2 Q5]])</f>
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="P46" s="1">
         <f>SUM(Tabela5[[#This Row],[Nota P2]],Tabela5[[#This Row],[Nota P1]])</f>
-        <v>10.7</v>
+        <v>19.2</v>
       </c>
     </row>
     <row r="47" spans="1:16" x14ac:dyDescent="0.3">
@@ -3252,26 +3270,26 @@
         <v>9</v>
       </c>
       <c r="B47">
-        <v>2024675144</v>
+        <v>2024715944</v>
       </c>
       <c r="D47" s="1">
-        <v>0</v>
+        <v>2.5</v>
       </c>
       <c r="E47" s="1">
-        <v>3.5</v>
+        <v>4</v>
       </c>
       <c r="F47" s="1">
-        <v>2</v>
+        <v>2.5</v>
       </c>
       <c r="G47" s="1">
-        <v>0</v>
+        <v>3.2</v>
       </c>
       <c r="H47" s="1">
-        <v>1.2</v>
+        <v>5</v>
       </c>
       <c r="I47" s="1">
         <f>SUM(Tabela5[[#This Row],[P1 Q1]:[P1 Q5]])</f>
-        <v>6.7</v>
+        <v>17.2</v>
       </c>
       <c r="J47" s="1">
         <v>0</v>
@@ -3280,21 +3298,21 @@
         <v>0</v>
       </c>
       <c r="L47" s="1">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="M47" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N47" s="1">
         <v>0</v>
       </c>
       <c r="O47" s="1">
         <f>SUM(Tabela5[[#This Row],[P2 Q1]:[P2 Q5]])</f>
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="P47" s="1">
         <f>SUM(Tabela5[[#This Row],[Nota P2]],Tabela5[[#This Row],[Nota P1]])</f>
-        <v>10.7</v>
+        <v>17.2</v>
       </c>
     </row>
     <row r="48" spans="1:16" x14ac:dyDescent="0.3">
@@ -3302,49 +3320,49 @@
         <v>9</v>
       </c>
       <c r="B48">
-        <v>2024693045</v>
+        <v>2024710020</v>
       </c>
       <c r="D48" s="1">
         <v>0</v>
       </c>
       <c r="E48" s="1">
-        <v>0</v>
+        <v>3.5</v>
       </c>
       <c r="F48" s="1">
         <v>0</v>
       </c>
       <c r="G48" s="1">
-        <v>0</v>
+        <v>4.2</v>
       </c>
       <c r="H48" s="1">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="I48" s="1">
         <f>SUM(Tabela5[[#This Row],[P1 Q1]:[P1 Q5]])</f>
-        <v>0</v>
+        <v>12.7</v>
       </c>
       <c r="J48" s="1">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="K48" s="1">
         <v>0</v>
       </c>
       <c r="L48" s="1">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="M48" s="1">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="N48" s="1">
         <v>0</v>
       </c>
       <c r="O48" s="1">
         <f>SUM(Tabela5[[#This Row],[P2 Q1]:[P2 Q5]])</f>
-        <v>10</v>
+        <v>0</v>
       </c>
       <c r="P48" s="1">
         <f>SUM(Tabela5[[#This Row],[Nota P2]],Tabela5[[#This Row],[Nota P1]])</f>
-        <v>10</v>
+        <v>12.7</v>
       </c>
     </row>
     <row r="49" spans="1:16" x14ac:dyDescent="0.3">
@@ -3352,49 +3370,49 @@
         <v>9</v>
       </c>
       <c r="B49">
-        <v>2024700483</v>
+        <v>2024698420</v>
       </c>
       <c r="D49" s="1">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="E49" s="1">
-        <v>0</v>
+        <v>3.5</v>
       </c>
       <c r="F49" s="1">
         <v>0</v>
       </c>
       <c r="G49" s="1">
-        <v>0</v>
+        <v>1.5</v>
       </c>
       <c r="H49" s="1">
-        <v>0</v>
+        <v>2.5</v>
       </c>
       <c r="I49" s="1">
         <f>SUM(Tabela5[[#This Row],[P1 Q1]:[P1 Q5]])</f>
-        <v>0</v>
+        <v>12.5</v>
       </c>
       <c r="J49" s="1">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="K49" s="1">
         <v>0</v>
       </c>
       <c r="L49" s="1">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="M49" s="1">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="N49" s="1">
         <v>0</v>
       </c>
       <c r="O49" s="1">
         <f>SUM(Tabela5[[#This Row],[P2 Q1]:[P2 Q5]])</f>
-        <v>9</v>
+        <v>0</v>
       </c>
       <c r="P49" s="1">
         <f>SUM(Tabela5[[#This Row],[Nota P2]],Tabela5[[#This Row],[Nota P1]])</f>
-        <v>9</v>
+        <v>12.5</v>
       </c>
     </row>
     <row r="50" spans="1:16" x14ac:dyDescent="0.3">
@@ -3610,8 +3628,8 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="J1:N1">
-    <cfRule type="colorScale" priority="7">
+  <conditionalFormatting sqref="D3:H53">
+    <cfRule type="colorScale" priority="6">
       <colorScale>
         <cfvo type="min"/>
         <cfvo type="percentile" val="50"/>
@@ -3622,8 +3640,20 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="D3:H53">
-    <cfRule type="colorScale" priority="6">
+  <conditionalFormatting sqref="I3:I53">
+    <cfRule type="colorScale" priority="2">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="J1:N1">
+    <cfRule type="colorScale" priority="7">
       <colorScale>
         <cfvo type="min"/>
         <cfvo type="percentile" val="50"/>
@@ -3658,18 +3688,6 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="I3:I53">
-    <cfRule type="colorScale" priority="2">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
-        <color rgb="FFF8696B"/>
-        <color rgb="FFFFEB84"/>
-        <color rgb="FF63BE7B"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
   <conditionalFormatting sqref="P3:P53">
     <cfRule type="colorScale" priority="1">
       <colorScale>
@@ -3690,6 +3708,363 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D53D9964-3B87-48FB-9482-EDEF1E3A404B}">
+  <dimension ref="C2:L50"/>
+  <sheetViews>
+    <sheetView topLeftCell="A10" workbookViewId="0">
+      <selection activeCell="C2" sqref="C2"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetData>
+    <row r="2" spans="3:12" x14ac:dyDescent="0.3">
+      <c r="C2" s="3">
+        <f>AVERAGE(C3:C45)</f>
+        <v>11.709302325581396</v>
+      </c>
+    </row>
+    <row r="3" spans="3:12" x14ac:dyDescent="0.3">
+      <c r="C3" s="5">
+        <f>SUM(Tabela5[[#This Row],[P2 Q1]:[P2 Q5]])</f>
+        <v>20</v>
+      </c>
+    </row>
+    <row r="4" spans="3:12" x14ac:dyDescent="0.3">
+      <c r="C4" s="6">
+        <f>SUM(Tabela5[[#This Row],[P2 Q1]:[P2 Q5]])</f>
+        <v>20</v>
+      </c>
+    </row>
+    <row r="5" spans="3:12" x14ac:dyDescent="0.3">
+      <c r="C5" s="5">
+        <f>SUM(Tabela5[[#This Row],[P2 Q1]:[P2 Q5]])</f>
+        <v>19</v>
+      </c>
+    </row>
+    <row r="6" spans="3:12" x14ac:dyDescent="0.3">
+      <c r="C6" s="6">
+        <f>SUM(Tabela5[[#This Row],[P2 Q1]:[P2 Q5]])</f>
+        <v>19</v>
+      </c>
+    </row>
+    <row r="7" spans="3:12" x14ac:dyDescent="0.3">
+      <c r="C7" s="5">
+        <f>SUM(Tabela5[[#This Row],[P2 Q1]:[P2 Q5]])</f>
+        <v>18.5</v>
+      </c>
+      <c r="L7" s="3"/>
+    </row>
+    <row r="8" spans="3:12" x14ac:dyDescent="0.3">
+      <c r="C8" s="6">
+        <f>SUM(Tabela5[[#This Row],[P2 Q1]:[P2 Q5]])</f>
+        <v>17</v>
+      </c>
+      <c r="L8" s="5"/>
+    </row>
+    <row r="9" spans="3:12" x14ac:dyDescent="0.3">
+      <c r="C9" s="5">
+        <f>SUM(Tabela5[[#This Row],[P2 Q1]:[P2 Q5]])</f>
+        <v>15.5</v>
+      </c>
+      <c r="L9" s="6"/>
+    </row>
+    <row r="10" spans="3:12" x14ac:dyDescent="0.3">
+      <c r="C10" s="6">
+        <f>SUM(Tabela5[[#This Row],[P2 Q1]:[P2 Q5]])</f>
+        <v>15</v>
+      </c>
+      <c r="L10" s="5"/>
+    </row>
+    <row r="11" spans="3:12" x14ac:dyDescent="0.3">
+      <c r="C11" s="5">
+        <f>SUM(Tabela5[[#This Row],[P2 Q1]:[P2 Q5]])</f>
+        <v>15</v>
+      </c>
+      <c r="L11" s="6"/>
+    </row>
+    <row r="12" spans="3:12" x14ac:dyDescent="0.3">
+      <c r="C12" s="6">
+        <f>SUM(Tabela5[[#This Row],[P2 Q1]:[P2 Q5]])</f>
+        <v>15</v>
+      </c>
+      <c r="L12" s="5"/>
+    </row>
+    <row r="13" spans="3:12" x14ac:dyDescent="0.3">
+      <c r="C13" s="5">
+        <f>SUM(Tabela5[[#This Row],[P2 Q1]:[P2 Q5]])</f>
+        <v>15</v>
+      </c>
+      <c r="L13" s="6"/>
+    </row>
+    <row r="14" spans="3:12" x14ac:dyDescent="0.3">
+      <c r="C14" s="6">
+        <f>SUM(Tabela5[[#This Row],[P2 Q1]:[P2 Q5]])</f>
+        <v>14</v>
+      </c>
+      <c r="L14" s="5"/>
+    </row>
+    <row r="15" spans="3:12" x14ac:dyDescent="0.3">
+      <c r="C15" s="5">
+        <f>SUM(Tabela5[[#This Row],[P2 Q1]:[P2 Q5]])</f>
+        <v>14</v>
+      </c>
+      <c r="L15" s="6"/>
+    </row>
+    <row r="16" spans="3:12" x14ac:dyDescent="0.3">
+      <c r="C16" s="6">
+        <f>SUM(Tabela5[[#This Row],[P2 Q1]:[P2 Q5]])</f>
+        <v>14</v>
+      </c>
+      <c r="L16" s="5"/>
+    </row>
+    <row r="17" spans="3:12" x14ac:dyDescent="0.3">
+      <c r="C17" s="5">
+        <f>SUM(Tabela5[[#This Row],[P2 Q1]:[P2 Q5]])</f>
+        <v>13.5</v>
+      </c>
+      <c r="L17" s="6"/>
+    </row>
+    <row r="18" spans="3:12" x14ac:dyDescent="0.3">
+      <c r="C18" s="6">
+        <f>SUM(Tabela5[[#This Row],[P2 Q1]:[P2 Q5]])</f>
+        <v>13</v>
+      </c>
+      <c r="L18" s="5"/>
+    </row>
+    <row r="19" spans="3:12" x14ac:dyDescent="0.3">
+      <c r="C19" s="5">
+        <f>SUM(Tabela5[[#This Row],[P2 Q1]:[P2 Q5]])</f>
+        <v>13</v>
+      </c>
+      <c r="L19" s="6"/>
+    </row>
+    <row r="20" spans="3:12" x14ac:dyDescent="0.3">
+      <c r="C20" s="6">
+        <f>SUM(Tabela5[[#This Row],[P2 Q1]:[P2 Q5]])</f>
+        <v>13</v>
+      </c>
+      <c r="L20" s="5"/>
+    </row>
+    <row r="21" spans="3:12" x14ac:dyDescent="0.3">
+      <c r="C21" s="5">
+        <f>SUM(Tabela5[[#This Row],[P2 Q1]:[P2 Q5]])</f>
+        <v>12</v>
+      </c>
+      <c r="L21" s="6"/>
+    </row>
+    <row r="22" spans="3:12" x14ac:dyDescent="0.3">
+      <c r="C22" s="6">
+        <f>SUM(Tabela5[[#This Row],[P2 Q1]:[P2 Q5]])</f>
+        <v>12</v>
+      </c>
+      <c r="L22" s="5"/>
+    </row>
+    <row r="23" spans="3:12" x14ac:dyDescent="0.3">
+      <c r="C23" s="5">
+        <f>SUM(Tabela5[[#This Row],[P2 Q1]:[P2 Q5]])</f>
+        <v>12</v>
+      </c>
+      <c r="L23" s="6"/>
+    </row>
+    <row r="24" spans="3:12" x14ac:dyDescent="0.3">
+      <c r="C24" s="6">
+        <f>SUM(Tabela5[[#This Row],[P2 Q1]:[P2 Q5]])</f>
+        <v>12</v>
+      </c>
+      <c r="L24" s="5"/>
+    </row>
+    <row r="25" spans="3:12" x14ac:dyDescent="0.3">
+      <c r="C25" s="5">
+        <f>SUM(Tabela5[[#This Row],[P2 Q1]:[P2 Q5]])</f>
+        <v>12</v>
+      </c>
+      <c r="L25" s="6"/>
+    </row>
+    <row r="26" spans="3:12" x14ac:dyDescent="0.3">
+      <c r="C26" s="6">
+        <f>SUM(Tabela5[[#This Row],[P2 Q1]:[P2 Q5]])</f>
+        <v>11</v>
+      </c>
+      <c r="L26" s="5"/>
+    </row>
+    <row r="27" spans="3:12" x14ac:dyDescent="0.3">
+      <c r="C27" s="5">
+        <f>SUM(Tabela5[[#This Row],[P2 Q1]:[P2 Q5]])</f>
+        <v>11</v>
+      </c>
+      <c r="L27" s="6"/>
+    </row>
+    <row r="28" spans="3:12" x14ac:dyDescent="0.3">
+      <c r="C28" s="6">
+        <f>SUM(Tabela5[[#This Row],[P2 Q1]:[P2 Q5]])</f>
+        <v>11</v>
+      </c>
+      <c r="L28" s="5"/>
+    </row>
+    <row r="29" spans="3:12" x14ac:dyDescent="0.3">
+      <c r="C29" s="5">
+        <f>SUM(Tabela5[[#This Row],[P2 Q1]:[P2 Q5]])</f>
+        <v>11</v>
+      </c>
+      <c r="L29" s="6"/>
+    </row>
+    <row r="30" spans="3:12" x14ac:dyDescent="0.3">
+      <c r="C30" s="6">
+        <f>SUM(Tabela5[[#This Row],[P2 Q1]:[P2 Q5]])</f>
+        <v>11</v>
+      </c>
+      <c r="L30" s="5"/>
+    </row>
+    <row r="31" spans="3:12" x14ac:dyDescent="0.3">
+      <c r="C31" s="5">
+        <f>SUM(Tabela5[[#This Row],[P2 Q1]:[P2 Q5]])</f>
+        <v>10.5</v>
+      </c>
+      <c r="L31" s="6"/>
+    </row>
+    <row r="32" spans="3:12" x14ac:dyDescent="0.3">
+      <c r="C32" s="6">
+        <f>SUM(Tabela5[[#This Row],[P2 Q1]:[P2 Q5]])</f>
+        <v>10</v>
+      </c>
+      <c r="L32" s="5"/>
+    </row>
+    <row r="33" spans="3:12" x14ac:dyDescent="0.3">
+      <c r="C33" s="5">
+        <f>SUM(Tabela5[[#This Row],[P2 Q1]:[P2 Q5]])</f>
+        <v>10</v>
+      </c>
+      <c r="L33" s="6"/>
+    </row>
+    <row r="34" spans="3:12" x14ac:dyDescent="0.3">
+      <c r="C34" s="6">
+        <f>SUM(Tabela5[[#This Row],[P2 Q1]:[P2 Q5]])</f>
+        <v>9</v>
+      </c>
+      <c r="L34" s="5"/>
+    </row>
+    <row r="35" spans="3:12" x14ac:dyDescent="0.3">
+      <c r="C35" s="5">
+        <f>SUM(Tabela5[[#This Row],[P2 Q1]:[P2 Q5]])</f>
+        <v>9</v>
+      </c>
+      <c r="L35" s="6"/>
+    </row>
+    <row r="36" spans="3:12" x14ac:dyDescent="0.3">
+      <c r="C36" s="6">
+        <f>SUM(Tabela5[[#This Row],[P2 Q1]:[P2 Q5]])</f>
+        <v>9</v>
+      </c>
+      <c r="L36" s="5"/>
+    </row>
+    <row r="37" spans="3:12" x14ac:dyDescent="0.3">
+      <c r="C37" s="5">
+        <f>SUM(Tabela5[[#This Row],[P2 Q1]:[P2 Q5]])</f>
+        <v>9</v>
+      </c>
+      <c r="L37" s="6"/>
+    </row>
+    <row r="38" spans="3:12" x14ac:dyDescent="0.3">
+      <c r="C38" s="6">
+        <f>SUM(Tabela5[[#This Row],[P2 Q1]:[P2 Q5]])</f>
+        <v>8</v>
+      </c>
+      <c r="L38" s="5"/>
+    </row>
+    <row r="39" spans="3:12" x14ac:dyDescent="0.3">
+      <c r="C39" s="5">
+        <f>SUM(Tabela5[[#This Row],[P2 Q1]:[P2 Q5]])</f>
+        <v>7.5</v>
+      </c>
+      <c r="L39" s="6"/>
+    </row>
+    <row r="40" spans="3:12" x14ac:dyDescent="0.3">
+      <c r="C40" s="6">
+        <f>SUM(Tabela5[[#This Row],[P2 Q1]:[P2 Q5]])</f>
+        <v>7</v>
+      </c>
+      <c r="L40" s="5"/>
+    </row>
+    <row r="41" spans="3:12" x14ac:dyDescent="0.3">
+      <c r="C41" s="5">
+        <f>SUM(Tabela5[[#This Row],[P2 Q1]:[P2 Q5]])</f>
+        <v>5</v>
+      </c>
+      <c r="L41" s="6"/>
+    </row>
+    <row r="42" spans="3:12" x14ac:dyDescent="0.3">
+      <c r="C42" s="6">
+        <f>SUM(Tabela5[[#This Row],[P2 Q1]:[P2 Q5]])</f>
+        <v>4</v>
+      </c>
+      <c r="L42" s="5"/>
+    </row>
+    <row r="43" spans="3:12" x14ac:dyDescent="0.3">
+      <c r="C43" s="5">
+        <f>SUM(Tabela5[[#This Row],[P2 Q1]:[P2 Q5]])</f>
+        <v>3</v>
+      </c>
+      <c r="L43" s="6"/>
+    </row>
+    <row r="44" spans="3:12" x14ac:dyDescent="0.3">
+      <c r="C44" s="6">
+        <f>SUM(Tabela5[[#This Row],[P2 Q1]:[P2 Q5]])</f>
+        <v>2</v>
+      </c>
+      <c r="L44" s="5"/>
+    </row>
+    <row r="45" spans="3:12" x14ac:dyDescent="0.3">
+      <c r="C45" s="5">
+        <f>SUM(Tabela5[[#This Row],[P2 Q1]:[P2 Q5]])</f>
+        <v>2</v>
+      </c>
+      <c r="L45" s="6"/>
+    </row>
+    <row r="46" spans="3:12" x14ac:dyDescent="0.3">
+      <c r="L46" s="5"/>
+    </row>
+    <row r="47" spans="3:12" x14ac:dyDescent="0.3">
+      <c r="L47" s="6"/>
+    </row>
+    <row r="48" spans="3:12" x14ac:dyDescent="0.3">
+      <c r="L48" s="5"/>
+    </row>
+    <row r="49" spans="12:12" x14ac:dyDescent="0.3">
+      <c r="L49" s="6"/>
+    </row>
+    <row r="50" spans="12:12" x14ac:dyDescent="0.3">
+      <c r="L50" s="5"/>
+    </row>
+  </sheetData>
+  <conditionalFormatting sqref="L8:L50">
+    <cfRule type="colorScale" priority="2">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C3:C45">
+    <cfRule type="colorScale" priority="1">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:J54"/>
   <sheetViews>
@@ -3789,7 +4164,7 @@
         <v>5</v>
       </c>
       <c r="I3" s="1">
-        <f>SUM(D3:H3)</f>
+        <f t="shared" ref="I3:I34" si="1">SUM(D3:H3)</f>
         <v>25</v>
       </c>
     </row>
@@ -3819,7 +4194,7 @@
         <v>5</v>
       </c>
       <c r="I4" s="1">
-        <f>SUM(D4:H4)</f>
+        <f t="shared" si="1"/>
         <v>25</v>
       </c>
     </row>
@@ -3847,7 +4222,7 @@
         <v>5</v>
       </c>
       <c r="I5" s="1">
-        <f>SUM(D5:H5)</f>
+        <f t="shared" si="1"/>
         <v>24</v>
       </c>
     </row>
@@ -3875,7 +4250,7 @@
         <v>5</v>
       </c>
       <c r="I6" s="1">
-        <f>SUM(D6:H6)</f>
+        <f t="shared" si="1"/>
         <v>23.7</v>
       </c>
     </row>
@@ -3903,7 +4278,7 @@
         <v>5</v>
       </c>
       <c r="I7" s="1">
-        <f>SUM(D7:H7)</f>
+        <f t="shared" si="1"/>
         <v>23.5</v>
       </c>
     </row>
@@ -3933,7 +4308,7 @@
         <v>5</v>
       </c>
       <c r="I8" s="1">
-        <f>SUM(D8:H8)</f>
+        <f t="shared" si="1"/>
         <v>22</v>
       </c>
     </row>
@@ -3961,7 +4336,7 @@
         <v>5</v>
       </c>
       <c r="I9" s="1">
-        <f>SUM(D9:H9)</f>
+        <f t="shared" si="1"/>
         <v>21.7</v>
       </c>
     </row>
@@ -3989,7 +4364,7 @@
         <v>5</v>
       </c>
       <c r="I10" s="1">
-        <f>SUM(D10:H10)</f>
+        <f t="shared" si="1"/>
         <v>21.5</v>
       </c>
     </row>
@@ -4017,7 +4392,7 @@
         <v>5</v>
       </c>
       <c r="I11" s="1">
-        <f>SUM(D11:H11)</f>
+        <f t="shared" si="1"/>
         <v>21.2</v>
       </c>
     </row>
@@ -4045,7 +4420,7 @@
         <v>5</v>
       </c>
       <c r="I12" s="1">
-        <f>SUM(D12:H12)</f>
+        <f t="shared" si="1"/>
         <v>21.2</v>
       </c>
     </row>
@@ -4073,7 +4448,7 @@
         <v>3.8</v>
       </c>
       <c r="I13" s="1">
-        <f>SUM(D13:H13)</f>
+        <f t="shared" si="1"/>
         <v>20.8</v>
       </c>
     </row>
@@ -4101,7 +4476,7 @@
         <v>5</v>
       </c>
       <c r="I14" s="1">
-        <f>SUM(D14:H14)</f>
+        <f t="shared" si="1"/>
         <v>20.7</v>
       </c>
     </row>
@@ -4129,7 +4504,7 @@
         <v>5</v>
       </c>
       <c r="I15" s="1">
-        <f>SUM(D15:H15)</f>
+        <f t="shared" si="1"/>
         <v>20.5</v>
       </c>
     </row>
@@ -4159,7 +4534,7 @@
         <v>3.7</v>
       </c>
       <c r="I16" s="1">
-        <f>SUM(D16:H16)</f>
+        <f t="shared" si="1"/>
         <v>20.399999999999999</v>
       </c>
     </row>
@@ -4187,7 +4562,7 @@
         <v>5</v>
       </c>
       <c r="I17" s="1">
-        <f>SUM(D17:H17)</f>
+        <f t="shared" si="1"/>
         <v>20.399999999999999</v>
       </c>
     </row>
@@ -4215,7 +4590,7 @@
         <v>5</v>
       </c>
       <c r="I18" s="1">
-        <f>SUM(D18:H18)</f>
+        <f t="shared" si="1"/>
         <v>20.2</v>
       </c>
     </row>
@@ -4243,7 +4618,7 @@
         <v>3.7</v>
       </c>
       <c r="I19" s="1">
-        <f>SUM(D19:H19)</f>
+        <f t="shared" si="1"/>
         <v>19.7</v>
       </c>
     </row>
@@ -4271,7 +4646,7 @@
         <v>5</v>
       </c>
       <c r="I20" s="1">
-        <f>SUM(D20:H20)</f>
+        <f t="shared" si="1"/>
         <v>19.7</v>
       </c>
     </row>
@@ -4299,7 +4674,7 @@
         <v>4</v>
       </c>
       <c r="I21" s="1">
-        <f>SUM(D21:H21)</f>
+        <f t="shared" si="1"/>
         <v>19.7</v>
       </c>
     </row>
@@ -4327,7 +4702,7 @@
         <v>3.7</v>
       </c>
       <c r="I22" s="1">
-        <f>SUM(D22:H22)</f>
+        <f t="shared" si="1"/>
         <v>19.7</v>
       </c>
     </row>
@@ -4355,7 +4730,7 @@
         <v>4</v>
       </c>
       <c r="I23" s="1">
-        <f>SUM(D23:H23)</f>
+        <f t="shared" si="1"/>
         <v>19.7</v>
       </c>
     </row>
@@ -4383,7 +4758,7 @@
         <v>5</v>
       </c>
       <c r="I24" s="1">
-        <f>SUM(D24:H24)</f>
+        <f t="shared" si="1"/>
         <v>19.2</v>
       </c>
     </row>
@@ -4411,7 +4786,7 @@
         <v>5</v>
       </c>
       <c r="I25" s="1">
-        <f>SUM(D25:H25)</f>
+        <f t="shared" si="1"/>
         <v>19</v>
       </c>
     </row>
@@ -4439,7 +4814,7 @@
         <v>3.7</v>
       </c>
       <c r="I26" s="1">
-        <f>SUM(D26:H26)</f>
+        <f t="shared" si="1"/>
         <v>18.2</v>
       </c>
     </row>
@@ -4467,7 +4842,7 @@
         <v>3.7</v>
       </c>
       <c r="I27" s="1">
-        <f>SUM(D27:H27)</f>
+        <f t="shared" si="1"/>
         <v>17.899999999999999</v>
       </c>
     </row>
@@ -4495,7 +4870,7 @@
         <v>5</v>
       </c>
       <c r="I28" s="1">
-        <f>SUM(D28:H28)</f>
+        <f t="shared" si="1"/>
         <v>17.399999999999999</v>
       </c>
     </row>
@@ -4523,7 +4898,7 @@
         <v>5</v>
       </c>
       <c r="I29" s="1">
-        <f>SUM(D29:H29)</f>
+        <f t="shared" si="1"/>
         <v>17.2</v>
       </c>
     </row>
@@ -4551,7 +4926,7 @@
         <v>3.7</v>
       </c>
       <c r="I30" s="1">
-        <f>SUM(D30:H30)</f>
+        <f t="shared" si="1"/>
         <v>16.899999999999999</v>
       </c>
     </row>
@@ -4579,7 +4954,7 @@
         <v>1.2</v>
       </c>
       <c r="I31" s="1">
-        <f>SUM(D31:H31)</f>
+        <f t="shared" si="1"/>
         <v>16.7</v>
       </c>
     </row>
@@ -4607,7 +4982,7 @@
         <v>3.7</v>
       </c>
       <c r="I32" s="1">
-        <f>SUM(D32:H32)</f>
+        <f t="shared" si="1"/>
         <v>16.399999999999999</v>
       </c>
     </row>
@@ -4635,7 +5010,7 @@
         <v>3.7</v>
       </c>
       <c r="I33" s="1">
-        <f>SUM(D33:H33)</f>
+        <f t="shared" si="1"/>
         <v>15.899999999999999</v>
       </c>
     </row>
@@ -4663,7 +5038,7 @@
         <v>2.5</v>
       </c>
       <c r="I34" s="1">
-        <f>SUM(D34:H34)</f>
+        <f t="shared" si="1"/>
         <v>15</v>
       </c>
     </row>
@@ -4691,7 +5066,7 @@
         <v>2.5</v>
       </c>
       <c r="I35" s="1">
-        <f>SUM(D35:H35)</f>
+        <f t="shared" ref="I35:I66" si="2">SUM(D35:H35)</f>
         <v>14</v>
       </c>
     </row>
@@ -4719,7 +5094,7 @@
         <v>3.7</v>
       </c>
       <c r="I36" s="1">
-        <f>SUM(D36:H36)</f>
+        <f t="shared" si="2"/>
         <v>13.7</v>
       </c>
     </row>
@@ -4747,7 +5122,7 @@
         <v>1.2</v>
       </c>
       <c r="I37" s="1">
-        <f>SUM(D37:H37)</f>
+        <f t="shared" si="2"/>
         <v>12.899999999999999</v>
       </c>
     </row>
@@ -4775,7 +5150,7 @@
         <v>5</v>
       </c>
       <c r="I38" s="1">
-        <f>SUM(D38:H38)</f>
+        <f t="shared" si="2"/>
         <v>12.7</v>
       </c>
     </row>
@@ -4803,7 +5178,7 @@
         <v>2.5</v>
       </c>
       <c r="I39" s="1">
-        <f>SUM(D39:H39)</f>
+        <f t="shared" si="2"/>
         <v>12.5</v>
       </c>
     </row>
@@ -4831,7 +5206,7 @@
         <v>3</v>
       </c>
       <c r="I40" s="1">
-        <f>SUM(D40:H40)</f>
+        <f t="shared" si="2"/>
         <v>12.4</v>
       </c>
     </row>
@@ -4859,7 +5234,7 @@
         <v>3.7</v>
       </c>
       <c r="I41" s="1">
-        <f>SUM(D41:H41)</f>
+        <f t="shared" si="2"/>
         <v>12.100000000000001</v>
       </c>
     </row>
@@ -4887,7 +5262,7 @@
         <v>2.5</v>
       </c>
       <c r="I42" s="1">
-        <f>SUM(D42:H42)</f>
+        <f t="shared" si="2"/>
         <v>9.5</v>
       </c>
     </row>
@@ -4915,7 +5290,7 @@
         <v>0</v>
       </c>
       <c r="I43" s="1">
-        <f>SUM(D43:H43)</f>
+        <f t="shared" si="2"/>
         <v>9.1999999999999993</v>
       </c>
     </row>
@@ -4943,7 +5318,7 @@
         <v>1.7</v>
       </c>
       <c r="I44" s="1">
-        <f>SUM(D44:H44)</f>
+        <f t="shared" si="2"/>
         <v>8.9</v>
       </c>
     </row>
@@ -4971,7 +5346,7 @@
         <v>0</v>
       </c>
       <c r="I45" s="1">
-        <f>SUM(D45:H45)</f>
+        <f t="shared" si="2"/>
         <v>8.5</v>
       </c>
     </row>
@@ -4999,7 +5374,7 @@
         <v>1.2</v>
       </c>
       <c r="I46" s="1">
-        <f>SUM(D46:H46)</f>
+        <f t="shared" si="2"/>
         <v>6.7</v>
       </c>
     </row>
@@ -5027,7 +5402,7 @@
         <v>3.7</v>
       </c>
       <c r="I47" s="1">
-        <f>SUM(D47:H47)</f>
+        <f t="shared" si="2"/>
         <v>5.7</v>
       </c>
     </row>
@@ -5055,7 +5430,7 @@
         <v>0</v>
       </c>
       <c r="I48" s="1">
-        <f>SUM(D48:H48)</f>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
     </row>
@@ -5083,7 +5458,7 @@
         <v>0</v>
       </c>
       <c r="I49" s="1">
-        <f>SUM(D49:H49)</f>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
     </row>
@@ -5111,7 +5486,7 @@
         <v>0</v>
       </c>
       <c r="I50" s="1">
-        <f>SUM(D50:H50)</f>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
     </row>
@@ -5139,7 +5514,7 @@
         <v>0</v>
       </c>
       <c r="I51" s="1">
-        <f>SUM(D51:H51)</f>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
     </row>
@@ -5167,7 +5542,7 @@
         <v>0</v>
       </c>
       <c r="I52" s="1">
-        <f>SUM(D52:H52)</f>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
     </row>
@@ -5195,7 +5570,7 @@
         <v>0</v>
       </c>
       <c r="I53" s="1">
-        <f>SUM(D53:H53)</f>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
     </row>
@@ -5213,8 +5588,8 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="D48:H53">
-    <cfRule type="colorScale" priority="3">
+  <conditionalFormatting sqref="D1:H1">
+    <cfRule type="colorScale" priority="2">
       <colorScale>
         <cfvo type="min"/>
         <cfvo type="percentile" val="50"/>
@@ -5225,8 +5600,20 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="D1:H1">
-    <cfRule type="colorScale" priority="2">
+  <conditionalFormatting sqref="D3:H53">
+    <cfRule type="colorScale" priority="1">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D48:H53">
+    <cfRule type="colorScale" priority="3">
       <colorScale>
         <cfvo type="min"/>
         <cfvo type="percentile" val="50"/>
@@ -5297,18 +5684,6 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="D3:H53">
-    <cfRule type="colorScale" priority="1">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
-        <color rgb="FFF8696B"/>
-        <color rgb="FFFFEB84"/>
-        <color rgb="FF63BE7B"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <tableParts count="1">
     <tablePart r:id="rId1"/>
@@ -5316,7 +5691,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8D1DE8A8-8B41-4112-BF30-191E543E1CF2}">
   <dimension ref="A1:L54"/>
   <sheetViews>
@@ -5416,7 +5791,7 @@
         <v>0</v>
       </c>
       <c r="I3" s="1">
-        <f>SUM(D3:H3)</f>
+        <f t="shared" ref="I3:I34" si="1">SUM(D3:H3)</f>
         <v>7.5</v>
       </c>
     </row>
@@ -5446,7 +5821,7 @@
         <v>4</v>
       </c>
       <c r="I4" s="1">
-        <f>SUM(D4:H4)</f>
+        <f t="shared" si="1"/>
         <v>20</v>
       </c>
     </row>
@@ -5474,7 +5849,7 @@
         <v>0</v>
       </c>
       <c r="I5" s="1">
-        <f>SUM(D5:H5)</f>
+        <f t="shared" si="1"/>
         <v>9</v>
       </c>
     </row>
@@ -5502,7 +5877,7 @@
         <v>2</v>
       </c>
       <c r="I6" s="1">
-        <f>SUM(D6:H6)</f>
+        <f t="shared" si="1"/>
         <v>13.5</v>
       </c>
     </row>
@@ -5530,7 +5905,7 @@
         <v>0</v>
       </c>
       <c r="I7" s="1">
-        <f>SUM(D7:H7)</f>
+        <f t="shared" si="1"/>
         <v>14</v>
       </c>
     </row>
@@ -5558,7 +5933,7 @@
         <v>0</v>
       </c>
       <c r="I8" s="1">
-        <f>SUM(D8:H8)</f>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
     </row>
@@ -5588,7 +5963,7 @@
         <v>4</v>
       </c>
       <c r="I9" s="1">
-        <f>SUM(D9:H9)</f>
+        <f t="shared" si="1"/>
         <v>15</v>
       </c>
     </row>
@@ -5616,7 +5991,7 @@
         <v>2</v>
       </c>
       <c r="I10" s="1">
-        <f>SUM(D10:H10)</f>
+        <f t="shared" si="1"/>
         <v>11</v>
       </c>
     </row>
@@ -5644,7 +6019,7 @@
         <v>0</v>
       </c>
       <c r="I11" s="1">
-        <f>SUM(D11:H11)</f>
+        <f t="shared" si="1"/>
         <v>11</v>
       </c>
     </row>
@@ -5672,7 +6047,7 @@
         <v>0</v>
       </c>
       <c r="I12" s="1">
-        <f>SUM(D12:H12)</f>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
     </row>
@@ -5700,7 +6075,7 @@
         <v>0</v>
       </c>
       <c r="I13" s="1">
-        <f>SUM(D13:H13)</f>
+        <f t="shared" si="1"/>
         <v>9</v>
       </c>
     </row>
@@ -5728,7 +6103,7 @@
         <v>4</v>
       </c>
       <c r="I14" s="1">
-        <f>SUM(D14:H14)</f>
+        <f t="shared" si="1"/>
         <v>19</v>
       </c>
     </row>
@@ -5756,7 +6131,7 @@
         <v>0</v>
       </c>
       <c r="I15" s="1">
-        <f>SUM(D15:H15)</f>
+        <f t="shared" si="1"/>
         <v>5</v>
       </c>
     </row>
@@ -5784,7 +6159,7 @@
         <v>0</v>
       </c>
       <c r="I16" s="1">
-        <f>SUM(D16:H16)</f>
+        <f t="shared" si="1"/>
         <v>7</v>
       </c>
     </row>
@@ -5814,7 +6189,7 @@
         <v>4</v>
       </c>
       <c r="I17" s="1">
-        <f>SUM(D17:H17)</f>
+        <f t="shared" si="1"/>
         <v>15</v>
       </c>
     </row>
@@ -5842,7 +6217,7 @@
         <v>0</v>
       </c>
       <c r="I18" s="1">
-        <f>SUM(D18:H18)</f>
+        <f t="shared" si="1"/>
         <v>15</v>
       </c>
     </row>
@@ -5870,7 +6245,7 @@
         <v>0</v>
       </c>
       <c r="I19" s="1">
-        <f>SUM(D19:H19)</f>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
     </row>
@@ -5898,7 +6273,7 @@
         <v>0</v>
       </c>
       <c r="I20" s="1">
-        <f>SUM(D20:H20)</f>
+        <f t="shared" si="1"/>
         <v>12</v>
       </c>
     </row>
@@ -5926,7 +6301,7 @@
         <v>0</v>
       </c>
       <c r="I21" s="1">
-        <f>SUM(D21:H21)</f>
+        <f t="shared" si="1"/>
         <v>14</v>
       </c>
     </row>
@@ -5954,7 +6329,7 @@
         <v>0</v>
       </c>
       <c r="I22" s="1">
-        <f>SUM(D22:H22)</f>
+        <f t="shared" si="1"/>
         <v>13</v>
       </c>
     </row>
@@ -5982,7 +6357,7 @@
         <v>0</v>
       </c>
       <c r="I23" s="1">
-        <f>SUM(D23:H23)</f>
+        <f t="shared" si="1"/>
         <v>10.5</v>
       </c>
     </row>
@@ -6010,7 +6385,7 @@
         <v>4</v>
       </c>
       <c r="I24" s="1">
-        <f>SUM(D24:H24)</f>
+        <f t="shared" si="1"/>
         <v>19</v>
       </c>
     </row>
@@ -6038,7 +6413,7 @@
         <v>0</v>
       </c>
       <c r="I25" s="1">
-        <f>SUM(D25:H25)</f>
+        <f t="shared" si="1"/>
         <v>15</v>
       </c>
     </row>
@@ -6066,7 +6441,7 @@
         <v>0</v>
       </c>
       <c r="I26" s="1">
-        <f>SUM(D26:H26)</f>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
     </row>
@@ -6094,7 +6469,7 @@
         <v>2</v>
       </c>
       <c r="I27" s="1">
-        <f>SUM(D27:H27)</f>
+        <f t="shared" si="1"/>
         <v>11</v>
       </c>
     </row>
@@ -6122,7 +6497,7 @@
         <v>2</v>
       </c>
       <c r="I28" s="1">
-        <f>SUM(D28:H28)</f>
+        <f t="shared" si="1"/>
         <v>11</v>
       </c>
     </row>
@@ -6152,7 +6527,7 @@
         <v>4</v>
       </c>
       <c r="I29" s="1">
-        <f>SUM(D29:H29)</f>
+        <f t="shared" si="1"/>
         <v>17</v>
       </c>
     </row>
@@ -6180,7 +6555,7 @@
         <v>0</v>
       </c>
       <c r="I30" s="1">
-        <f>SUM(D30:H30)</f>
+        <f t="shared" si="1"/>
         <v>12</v>
       </c>
     </row>
@@ -6208,7 +6583,7 @@
         <v>4</v>
       </c>
       <c r="I31" s="1">
-        <f>SUM(D31:H31)</f>
+        <f t="shared" si="1"/>
         <v>12</v>
       </c>
     </row>
@@ -6236,7 +6611,7 @@
         <v>0</v>
       </c>
       <c r="I32" s="1">
-        <f>SUM(D32:H32)</f>
+        <f t="shared" si="1"/>
         <v>11</v>
       </c>
     </row>
@@ -6264,7 +6639,7 @@
         <v>0</v>
       </c>
       <c r="I33" s="1">
-        <f>SUM(D33:H33)</f>
+        <f t="shared" si="1"/>
         <v>9</v>
       </c>
     </row>
@@ -6292,7 +6667,7 @@
         <v>4</v>
       </c>
       <c r="I34" s="1">
-        <f>SUM(D34:H34)</f>
+        <f t="shared" si="1"/>
         <v>9</v>
       </c>
     </row>
@@ -6320,7 +6695,7 @@
         <v>4</v>
       </c>
       <c r="I35" s="1">
-        <f>SUM(D35:H35)</f>
+        <f t="shared" ref="I35:I66" si="2">SUM(D35:H35)</f>
         <v>14</v>
       </c>
     </row>
@@ -6348,7 +6723,7 @@
         <v>4</v>
       </c>
       <c r="I36" s="1">
-        <f>SUM(D36:H36)</f>
+        <f t="shared" si="2"/>
         <v>12</v>
       </c>
     </row>
@@ -6376,7 +6751,7 @@
         <v>4</v>
       </c>
       <c r="I37" s="1">
-        <f>SUM(D37:H37)</f>
+        <f t="shared" si="2"/>
         <v>20</v>
       </c>
     </row>
@@ -6404,7 +6779,7 @@
         <v>0</v>
       </c>
       <c r="I38" s="1">
-        <f>SUM(D38:H38)</f>
+        <f t="shared" si="2"/>
         <v>10</v>
       </c>
     </row>
@@ -6432,7 +6807,7 @@
         <v>0</v>
       </c>
       <c r="I39" s="1">
-        <f>SUM(D39:H39)</f>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
     </row>
@@ -6460,7 +6835,7 @@
         <v>0</v>
       </c>
       <c r="I40" s="1">
-        <f>SUM(D40:H40)</f>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
     </row>
@@ -6488,7 +6863,7 @@
         <v>0</v>
       </c>
       <c r="I41" s="1">
-        <f>SUM(D41:H41)</f>
+        <f t="shared" si="2"/>
         <v>10</v>
       </c>
     </row>
@@ -6516,7 +6891,7 @@
         <v>4</v>
       </c>
       <c r="I42" s="1">
-        <f>SUM(D42:H42)</f>
+        <f t="shared" si="2"/>
         <v>13</v>
       </c>
     </row>
@@ -6544,7 +6919,7 @@
         <v>4</v>
       </c>
       <c r="I43" s="1">
-        <f>SUM(D43:H43)</f>
+        <f t="shared" si="2"/>
         <v>15.5</v>
       </c>
     </row>
@@ -6572,7 +6947,7 @@
         <v>0</v>
       </c>
       <c r="I44" s="1">
-        <f>SUM(D44:H44)</f>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
     </row>
@@ -6600,7 +6975,7 @@
         <v>2</v>
       </c>
       <c r="I45" s="1">
-        <f>SUM(D45:H45)</f>
+        <f t="shared" si="2"/>
         <v>12</v>
       </c>
     </row>
@@ -6628,7 +7003,7 @@
         <v>0</v>
       </c>
       <c r="I46" s="1">
-        <f>SUM(D46:H46)</f>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
     </row>
@@ -6656,7 +7031,7 @@
         <v>0</v>
       </c>
       <c r="I47" s="1">
-        <f>SUM(D47:H47)</f>
+        <f t="shared" si="2"/>
         <v>4</v>
       </c>
     </row>
@@ -6684,7 +7059,7 @@
         <v>0</v>
       </c>
       <c r="I48" s="1">
-        <f>SUM(D48:H48)</f>
+        <f t="shared" si="2"/>
         <v>2</v>
       </c>
     </row>
@@ -6712,7 +7087,7 @@
         <v>4</v>
       </c>
       <c r="I49" s="1">
-        <f>SUM(D49:H49)</f>
+        <f t="shared" si="2"/>
         <v>8</v>
       </c>
     </row>
@@ -6740,7 +7115,7 @@
         <v>0</v>
       </c>
       <c r="I50" s="1">
-        <f>SUM(D50:H50)</f>
+        <f t="shared" si="2"/>
         <v>3</v>
       </c>
     </row>
@@ -6768,7 +7143,7 @@
         <v>4</v>
       </c>
       <c r="I51" s="1">
-        <f>SUM(D51:H51)</f>
+        <f t="shared" si="2"/>
         <v>18.5</v>
       </c>
     </row>
@@ -6796,7 +7171,7 @@
         <v>2</v>
       </c>
       <c r="I52" s="1">
-        <f>SUM(D52:H52)</f>
+        <f t="shared" si="2"/>
         <v>2</v>
       </c>
     </row>
@@ -6824,7 +7199,7 @@
         <v>2</v>
       </c>
       <c r="I53" s="1">
-        <f>SUM(D53:H53)</f>
+        <f t="shared" si="2"/>
         <v>13</v>
       </c>
     </row>
@@ -6856,6 +7231,18 @@
   </conditionalFormatting>
   <conditionalFormatting sqref="D1:H1">
     <cfRule type="colorScale" priority="2">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D3:H53">
+    <cfRule type="colorScale" priority="1">
       <colorScale>
         <cfvo type="min"/>
         <cfvo type="percentile" val="50"/>
@@ -6926,18 +7313,6 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="D3:H53">
-    <cfRule type="colorScale" priority="1">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
-        <color rgb="FFF8696B"/>
-        <color rgb="FFFFEB84"/>
-        <color rgb="FF63BE7B"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <tableParts count="1">
     <tablePart r:id="rId1"/>

--- a/2024.2/Materiais enviados/Provas/Módulo 1/Notas.xlsx
+++ b/2024.2/Materiais enviados/Provas/Módulo 1/Notas.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="B:\GitHub\UFMG\DCC865-Projeto_e_Analise_de_Algoritmos\2024.2\Materiais enviados\Provas\Módulo 1\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0C0FDA60-BCDB-40CA-AEA6-2FE0E149EF18}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F45BA8A2-7EC3-45D7-BD05-A5A2F11DA95E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Todas as notas" sheetId="3" r:id="rId1"/>
@@ -19,6 +19,7 @@
     <sheet name="P2" sheetId="2" r:id="rId4"/>
   </sheets>
   <definedNames>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">Planilha1!$B$2:$F$2</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">'Todas as notas'!#REF!</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
@@ -26,12 +27,21 @@
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
     </ext>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+      </xcalcf:calcFeatures>
+    </ext>
   </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="199" uniqueCount="27">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="207" uniqueCount="37">
   <si>
     <t>Turma</t>
   </si>
@@ -113,6 +123,36 @@
   <si>
     <t>Módulo 1 e 2</t>
   </si>
+  <si>
+    <t>Matrícula</t>
+  </si>
+  <si>
+    <t>Prova 1</t>
+  </si>
+  <si>
+    <t>Prova 2</t>
+  </si>
+  <si>
+    <t>TP</t>
+  </si>
+  <si>
+    <t>NOTA FINAL</t>
+  </si>
+  <si>
+    <t>TP1</t>
+  </si>
+  <si>
+    <t>Bira</t>
+  </si>
+  <si>
+    <t>Nota P1 Final</t>
+  </si>
+  <si>
+    <t>Nota P2 Final</t>
+  </si>
+  <si>
+    <t>Mód 1 e 2 - Final</t>
+  </si>
 </sst>
 </file>
 
@@ -121,7 +161,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="0.0"/>
   </numFmts>
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -142,8 +182,14 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="8"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="4">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -154,12 +200,6 @@
       <patternFill patternType="solid">
         <fgColor theme="1" tint="0.44999542222357858"/>
         <bgColor theme="1" tint="0.44999542222357858"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="1" tint="0.249977111117893"/>
-        <bgColor theme="1" tint="0.249977111117893"/>
       </patternFill>
     </fill>
   </fills>
@@ -175,20 +215,151 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="8">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="164" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="49" fontId="2" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
-    <xf numFmtId="164" fontId="1" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
-    <xf numFmtId="164" fontId="1" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
     <xf numFmtId="2" fontId="2" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="1" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="29">
+  <dxfs count="33">
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color auto="1"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+      <numFmt numFmtId="164" formatCode="0.0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color auto="1"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+      <numFmt numFmtId="164" formatCode="0.0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color auto="1"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+      <numFmt numFmtId="164" formatCode="0.0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color auto="1"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+      <numFmt numFmtId="1" formatCode="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color auto="1"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+      <numFmt numFmtId="164" formatCode="0.0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color auto="1"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+      <numFmt numFmtId="164" formatCode="0.0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color auto="1"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+      <numFmt numFmtId="164" formatCode="0.0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color auto="1"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+      <numFmt numFmtId="164" formatCode="0.0"/>
+    </dxf>
     <dxf>
       <font>
         <strike val="0"/>
@@ -516,66 +687,6 @@
       </font>
       <numFmt numFmtId="164" formatCode="0.0"/>
     </dxf>
-    <dxf>
-      <font>
-        <strike val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color auto="1"/>
-        <name val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </font>
-      <numFmt numFmtId="164" formatCode="0.0"/>
-    </dxf>
-    <dxf>
-      <font>
-        <strike val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color auto="1"/>
-        <name val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </font>
-      <numFmt numFmtId="164" formatCode="0.0"/>
-    </dxf>
-    <dxf>
-      <font>
-        <strike val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color auto="1"/>
-        <name val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </font>
-      <numFmt numFmtId="164" formatCode="0.0"/>
-    </dxf>
-    <dxf>
-      <font>
-        <strike val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color auto="1"/>
-        <name val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </font>
-      <numFmt numFmtId="164" formatCode="0.0"/>
-    </dxf>
   </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
@@ -590,29 +701,35 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="5" xr:uid="{D8F77952-2AC0-42C0-AC90-F82B3EC43569}" name="Tabela5" displayName="Tabela5" ref="A2:P53" totalsRowShown="0">
-  <autoFilter ref="A2:P53" xr:uid="{D8F77952-2AC0-42C0-AC90-F82B3EC43569}"/>
-  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A3:P53">
-    <sortCondition descending="1" ref="O2:O53"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="5" xr:uid="{D8F77952-2AC0-42C0-AC90-F82B3EC43569}" name="Tabela5" displayName="Tabela5" ref="A2:T53" totalsRowShown="0">
+  <autoFilter ref="A2:T53" xr:uid="{D8F77952-2AC0-42C0-AC90-F82B3EC43569}"/>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A3:T53">
+    <sortCondition descending="1" ref="T2:T53"/>
   </sortState>
-  <tableColumns count="16">
+  <tableColumns count="20">
     <tableColumn id="1" xr3:uid="{A53A2C59-CFCF-4DCE-A539-E5C7C52B4323}" name="Turma"/>
     <tableColumn id="2" xr3:uid="{D46261CA-D987-4B1E-AAA1-4814381AC974}" name="MATRICULA"/>
     <tableColumn id="3" xr3:uid="{EA298C66-D77E-4E0C-BDE1-C7E2FF592509}" name="Nome"/>
-    <tableColumn id="4" xr3:uid="{9A116FAF-6A84-48A6-B7CA-698B497F4531}" name="P1 Q1" dataDxfId="28"/>
-    <tableColumn id="5" xr3:uid="{D12FCC22-0C24-43C5-B6BA-8CEDD28B1DBC}" name="P1 Q2" dataDxfId="27"/>
-    <tableColumn id="6" xr3:uid="{DD5FB362-D52B-4E2A-BF0F-67536B79BC88}" name="P1 Q3" dataDxfId="26"/>
-    <tableColumn id="7" xr3:uid="{525F3116-E758-4D18-9405-8A2F3AE88A1D}" name="P1 Q4" dataDxfId="25"/>
-    <tableColumn id="8" xr3:uid="{8C433621-7006-41E0-AAE1-6AD4077F9D26}" name="P1 Q5" dataDxfId="24"/>
-    <tableColumn id="9" xr3:uid="{2A64D5F4-A002-4AC1-88C6-6836E53406AE}" name="Nota P1" dataDxfId="23"/>
-    <tableColumn id="10" xr3:uid="{72E5D83D-FB26-48ED-8B84-25716D854F13}" name="P2 Q1" dataDxfId="22"/>
-    <tableColumn id="11" xr3:uid="{AFFCAA7F-4266-4CC7-8025-96260539743C}" name="P2 Q2" dataDxfId="21"/>
-    <tableColumn id="12" xr3:uid="{3C8DD629-298E-40DC-930C-1E191B680BDE}" name="P2 Q3" dataDxfId="20"/>
-    <tableColumn id="13" xr3:uid="{01F5A46F-FD30-4721-B00D-3719108A04E3}" name="P2 Q4" dataDxfId="19"/>
-    <tableColumn id="14" xr3:uid="{4DE10E09-DF17-4838-AD03-D3C31A02A6CB}" name="P2 Q5" dataDxfId="18"/>
-    <tableColumn id="15" xr3:uid="{37D7A5B3-7131-4112-A4C2-BA2609570788}" name="Nota P2" dataDxfId="17"/>
-    <tableColumn id="16" xr3:uid="{F3F2CD2E-A9C2-44E2-B2C9-4793C32B078F}" name="Módulo 1 e 2" dataDxfId="16">
-      <calculatedColumnFormula>SUM(Tabela5[[#This Row],[Nota P2]],Tabela5[[#This Row],[Nota P1]])</calculatedColumnFormula>
+    <tableColumn id="4" xr3:uid="{9A116FAF-6A84-48A6-B7CA-698B497F4531}" name="P1 Q1" dataDxfId="32"/>
+    <tableColumn id="5" xr3:uid="{D12FCC22-0C24-43C5-B6BA-8CEDD28B1DBC}" name="P1 Q2" dataDxfId="31"/>
+    <tableColumn id="6" xr3:uid="{DD5FB362-D52B-4E2A-BF0F-67536B79BC88}" name="P1 Q3" dataDxfId="30"/>
+    <tableColumn id="7" xr3:uid="{525F3116-E758-4D18-9405-8A2F3AE88A1D}" name="P1 Q4" dataDxfId="29"/>
+    <tableColumn id="8" xr3:uid="{8C433621-7006-41E0-AAE1-6AD4077F9D26}" name="P1 Q5" dataDxfId="28"/>
+    <tableColumn id="9" xr3:uid="{2A64D5F4-A002-4AC1-88C6-6836E53406AE}" name="Nota P1" dataDxfId="7"/>
+    <tableColumn id="20" xr3:uid="{C08BCA0A-0BF3-4774-8BB7-D32368E71ECA}" name="Nota P1 Final" dataDxfId="5"/>
+    <tableColumn id="10" xr3:uid="{72E5D83D-FB26-48ED-8B84-25716D854F13}" name="P2 Q1" dataDxfId="6"/>
+    <tableColumn id="11" xr3:uid="{AFFCAA7F-4266-4CC7-8025-96260539743C}" name="P2 Q2" dataDxfId="27"/>
+    <tableColumn id="12" xr3:uid="{3C8DD629-298E-40DC-930C-1E191B680BDE}" name="P2 Q3" dataDxfId="26"/>
+    <tableColumn id="13" xr3:uid="{01F5A46F-FD30-4721-B00D-3719108A04E3}" name="P2 Q4" dataDxfId="25"/>
+    <tableColumn id="14" xr3:uid="{4DE10E09-DF17-4838-AD03-D3C31A02A6CB}" name="P2 Q5" dataDxfId="24"/>
+    <tableColumn id="15" xr3:uid="{37D7A5B3-7131-4112-A4C2-BA2609570788}" name="Nota P2" dataDxfId="4"/>
+    <tableColumn id="21" xr3:uid="{2DE840FD-E1D0-4928-BE21-D28BCA208EB5}" name="Nota P2 Final" dataDxfId="2"/>
+    <tableColumn id="17" xr3:uid="{C84BCC16-65FC-4CD0-A142-C83C69170C97}" name="TP1" dataDxfId="3"/>
+    <tableColumn id="16" xr3:uid="{F3F2CD2E-A9C2-44E2-B2C9-4793C32B078F}" name="Módulo 1 e 2" dataDxfId="1">
+      <calculatedColumnFormula>SUM(Tabela5[[#This Row],[Nota P2]],Tabela5[[#This Row],[Nota P1]],Tabela5[[#This Row],[TP1]])</calculatedColumnFormula>
+    </tableColumn>
+    <tableColumn id="23" xr3:uid="{7901F6CF-6B59-478C-984E-58F7FB41B596}" name="Mód 1 e 2 - Final" dataDxfId="0">
+      <calculatedColumnFormula>SUM(Tabela5[[#This Row],[Nota P1 Final]],Tabela5[[#This Row],[Nota P2 Final]],Tabela5[[#This Row],[TP1]])</calculatedColumnFormula>
     </tableColumn>
   </tableColumns>
   <tableStyleInfo name="TableStyleDark1" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
@@ -627,14 +744,14 @@
   </sortState>
   <tableColumns count="9">
     <tableColumn id="1" xr3:uid="{BFC0ED60-759B-4BF8-88EE-08E8F81479B6}" name="Turma"/>
-    <tableColumn id="2" xr3:uid="{C0AA615E-562F-485C-8FBD-DED54E1F7ADE}" name="MATRICULA" dataDxfId="15"/>
-    <tableColumn id="9" xr3:uid="{1D4B4CB9-7BB1-43B1-B1DB-D0E028E91578}" name="Nome" dataDxfId="14"/>
-    <tableColumn id="3" xr3:uid="{B811706B-CA27-4CD6-A11D-5EDC50854FF1}" name="Q1" dataDxfId="13"/>
-    <tableColumn id="4" xr3:uid="{9E75F866-5E88-4AB7-862B-E6421E8DA98F}" name="Q2" dataDxfId="12"/>
-    <tableColumn id="5" xr3:uid="{7BCD41E6-B749-403C-B599-9EECC1C8F34C}" name="Q3" dataDxfId="11"/>
-    <tableColumn id="6" xr3:uid="{8A0DD61F-3932-4A92-8E41-45AAAB6C361A}" name="Q4" dataDxfId="10"/>
-    <tableColumn id="7" xr3:uid="{305F59C9-21DF-4808-B78F-695D9697BD49}" name="Q5" dataDxfId="9"/>
-    <tableColumn id="8" xr3:uid="{59A12193-9B24-4649-A9C7-A347CE3F942F}" name="Nota" dataDxfId="8">
+    <tableColumn id="2" xr3:uid="{C0AA615E-562F-485C-8FBD-DED54E1F7ADE}" name="MATRICULA" dataDxfId="23"/>
+    <tableColumn id="9" xr3:uid="{1D4B4CB9-7BB1-43B1-B1DB-D0E028E91578}" name="Nome" dataDxfId="22"/>
+    <tableColumn id="3" xr3:uid="{B811706B-CA27-4CD6-A11D-5EDC50854FF1}" name="Q1" dataDxfId="21"/>
+    <tableColumn id="4" xr3:uid="{9E75F866-5E88-4AB7-862B-E6421E8DA98F}" name="Q2" dataDxfId="20"/>
+    <tableColumn id="5" xr3:uid="{7BCD41E6-B749-403C-B599-9EECC1C8F34C}" name="Q3" dataDxfId="19"/>
+    <tableColumn id="6" xr3:uid="{8A0DD61F-3932-4A92-8E41-45AAAB6C361A}" name="Q4" dataDxfId="18"/>
+    <tableColumn id="7" xr3:uid="{305F59C9-21DF-4808-B78F-695D9697BD49}" name="Q5" dataDxfId="17"/>
+    <tableColumn id="8" xr3:uid="{59A12193-9B24-4649-A9C7-A347CE3F942F}" name="Nota" dataDxfId="16">
       <calculatedColumnFormula>SUM(D3:H3)</calculatedColumnFormula>
     </tableColumn>
   </tableColumns>
@@ -650,14 +767,14 @@
   </sortState>
   <tableColumns count="9">
     <tableColumn id="1" xr3:uid="{9A597B2A-BCEE-4D3B-A0F0-8913F18EDBC4}" name="Turma"/>
-    <tableColumn id="2" xr3:uid="{B44EA045-0897-40BA-B5A8-7B35E81BA541}" name="MATRICULA" dataDxfId="7"/>
-    <tableColumn id="9" xr3:uid="{8ADF0CB9-B3EF-436C-9C96-DFA691839C79}" name="Nome" dataDxfId="6"/>
-    <tableColumn id="3" xr3:uid="{13E5564B-4516-426A-B08E-982059E2E5BC}" name="Q1" dataDxfId="5"/>
-    <tableColumn id="4" xr3:uid="{E60E864D-1AAC-45C0-A70B-13936B6F247F}" name="Q2" dataDxfId="4"/>
-    <tableColumn id="5" xr3:uid="{438DC79B-2286-42C6-8C30-1D0A25F9D8B5}" name="Q3" dataDxfId="3"/>
-    <tableColumn id="6" xr3:uid="{6423B7C0-A146-4ECC-BD49-E25FDE130238}" name="Q4" dataDxfId="2"/>
-    <tableColumn id="7" xr3:uid="{AD0E195E-E577-485E-9732-D5E7E6B29A64}" name="Q5" dataDxfId="1"/>
-    <tableColumn id="8" xr3:uid="{13DFAE64-2AD3-46AE-A775-18B3C9F736A1}" name="Nota" dataDxfId="0">
+    <tableColumn id="2" xr3:uid="{B44EA045-0897-40BA-B5A8-7B35E81BA541}" name="MATRICULA" dataDxfId="15"/>
+    <tableColumn id="9" xr3:uid="{8ADF0CB9-B3EF-436C-9C96-DFA691839C79}" name="Nome" dataDxfId="14"/>
+    <tableColumn id="3" xr3:uid="{13E5564B-4516-426A-B08E-982059E2E5BC}" name="Q1" dataDxfId="13"/>
+    <tableColumn id="4" xr3:uid="{E60E864D-1AAC-45C0-A70B-13936B6F247F}" name="Q2" dataDxfId="12"/>
+    <tableColumn id="5" xr3:uid="{438DC79B-2286-42C6-8C30-1D0A25F9D8B5}" name="Q3" dataDxfId="11"/>
+    <tableColumn id="6" xr3:uid="{6423B7C0-A146-4ECC-BD49-E25FDE130238}" name="Q4" dataDxfId="10"/>
+    <tableColumn id="7" xr3:uid="{AD0E195E-E577-485E-9732-D5E7E6B29A64}" name="Q5" dataDxfId="9"/>
+    <tableColumn id="8" xr3:uid="{13DFAE64-2AD3-46AE-A775-18B3C9F736A1}" name="Nota" dataDxfId="8">
       <calculatedColumnFormula>SUM(D3:H3)</calculatedColumnFormula>
     </tableColumn>
   </tableColumns>
@@ -928,10 +1045,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{55D759BB-1155-4903-96BA-60B49B282B75}">
-  <dimension ref="A1:P53"/>
+  <dimension ref="A1:U53"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="H12" sqref="H12"/>
+    <sheetView tabSelected="1" topLeftCell="A13" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="T1" sqref="A1:T53"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="0" defaultRowHeight="14.4" zeroHeight="1" x14ac:dyDescent="0.3"/>
@@ -942,14 +1059,17 @@
     <col min="4" max="4" width="10.77734375" bestFit="1" customWidth="1"/>
     <col min="5" max="8" width="11.21875" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="13.21875" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="11.21875" bestFit="1" customWidth="1"/>
-    <col min="11" max="14" width="11.6640625" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="13.5546875" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="18.21875" bestFit="1" customWidth="1"/>
-    <col min="17" max="16384" width="8.88671875" hidden="1"/>
+    <col min="10" max="10" width="13.21875" customWidth="1"/>
+    <col min="11" max="11" width="11.21875" bestFit="1" customWidth="1"/>
+    <col min="12" max="15" width="11.6640625" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="13.5546875" bestFit="1" customWidth="1"/>
+    <col min="17" max="18" width="13.5546875" customWidth="1"/>
+    <col min="19" max="19" width="18.21875" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="8.88671875" customWidth="1"/>
+    <col min="22" max="16384" width="8.88671875" hidden="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A1" s="4"/>
       <c r="B1" s="4"/>
       <c r="C1" s="4"/>
@@ -973,37 +1093,50 @@
         <f>SUM(H3:H53)</f>
         <v>170.79999999999995</v>
       </c>
-      <c r="I1" s="7">
+      <c r="I1" s="5">
         <f>SUMIF(Tabela5[Nota P1],"&gt;0",Tabela5[Nota P1])/COUNTIF(Tabela5[Nota P1],"&gt;0")</f>
-        <v>17.308888888888895</v>
-      </c>
-      <c r="J1" s="3">
-        <f t="shared" ref="J1:M1" si="1">SUM(J3:J53)</f>
+        <v>17.308888888888891</v>
+      </c>
+      <c r="J1" s="5"/>
+      <c r="K1" s="3">
+        <f t="shared" ref="K1:N1" si="1">SUM(K3:K53)</f>
         <v>111</v>
       </c>
-      <c r="K1" s="3">
+      <c r="L1" s="3">
         <f t="shared" si="1"/>
         <v>61.5</v>
       </c>
-      <c r="L1" s="3">
+      <c r="M1" s="3">
         <f t="shared" si="1"/>
         <v>119</v>
       </c>
-      <c r="M1" s="3">
+      <c r="N1" s="3">
         <f t="shared" si="1"/>
         <v>138</v>
       </c>
-      <c r="N1" s="3">
-        <f>SUM(N3:N53)</f>
+      <c r="O1" s="3">
+        <f>SUM(O3:O53)</f>
         <v>74</v>
       </c>
-      <c r="O1" s="7">
+      <c r="P1" s="5">
         <f>SUMIF(Tabela5[Nota P2],"&gt;0",Tabela5[Nota P2])/COUNTIF(Tabela5[Nota P2],"&gt;0")</f>
         <v>11.709302325581396</v>
       </c>
-      <c r="P1" s="4"/>
-    </row>
-    <row r="2" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="Q1" s="5"/>
+      <c r="R1" s="5">
+        <f>AVERAGE(Tabela5[TP1])</f>
+        <v>4</v>
+      </c>
+      <c r="S1" s="5">
+        <f>AVERAGE(Tabela5[Módulo 1 e 2])</f>
+        <v>29.145098039215711</v>
+      </c>
+      <c r="T1" s="5">
+        <f>AVERAGE(Tabela5[Mód 1 e 2 - Final])</f>
+        <v>29.556862745098059</v>
+      </c>
+    </row>
+    <row r="2" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>0</v>
       </c>
@@ -1032,28 +1165,40 @@
         <v>25</v>
       </c>
       <c r="J2" t="s">
+        <v>34</v>
+      </c>
+      <c r="K2" t="s">
         <v>19</v>
       </c>
-      <c r="K2" t="s">
+      <c r="L2" t="s">
         <v>20</v>
       </c>
-      <c r="L2" t="s">
+      <c r="M2" t="s">
         <v>21</v>
       </c>
-      <c r="M2" t="s">
+      <c r="N2" t="s">
         <v>22</v>
       </c>
-      <c r="N2" t="s">
+      <c r="O2" t="s">
         <v>23</v>
       </c>
-      <c r="O2" t="s">
+      <c r="P2" t="s">
         <v>24</v>
       </c>
-      <c r="P2" t="s">
+      <c r="Q2" t="s">
+        <v>35</v>
+      </c>
+      <c r="R2" t="s">
+        <v>32</v>
+      </c>
+      <c r="S2" t="s">
         <v>26</v>
       </c>
-    </row>
-    <row r="3" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="T2" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="3" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>1</v>
       </c>
@@ -1061,7 +1206,7 @@
         <v>2024716606</v>
       </c>
       <c r="C3" t="s">
-        <v>11</v>
+        <v>33</v>
       </c>
       <c r="D3" s="1">
         <v>5</v>
@@ -1083,7 +1228,7 @@
         <v>25</v>
       </c>
       <c r="J3" s="1">
-        <v>4</v>
+        <v>25</v>
       </c>
       <c r="K3" s="1">
         <v>4</v>
@@ -1098,42 +1243,55 @@
         <v>4</v>
       </c>
       <c r="O3" s="1">
+        <v>4</v>
+      </c>
+      <c r="P3" s="1">
         <f>SUM(Tabela5[[#This Row],[P2 Q1]:[P2 Q5]])</f>
         <v>20</v>
       </c>
-      <c r="P3" s="1">
-        <f>SUM(Tabela5[[#This Row],[Nota P2]],Tabela5[[#This Row],[Nota P1]])</f>
-        <v>45</v>
-      </c>
-    </row>
-    <row r="4" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="Q3" s="1">
+        <v>20</v>
+      </c>
+      <c r="R3" s="6">
+        <v>5</v>
+      </c>
+      <c r="S3" s="1">
+        <f>SUM(Tabela5[[#This Row],[Nota P2]],Tabela5[[#This Row],[Nota P1]],Tabela5[[#This Row],[TP1]])</f>
+        <v>50</v>
+      </c>
+      <c r="T3" s="1">
+        <f>SUM(Tabela5[[#This Row],[Nota P1 Final]],Tabela5[[#This Row],[Nota P2 Final]],Tabela5[[#This Row],[TP1]])</f>
+        <v>50</v>
+      </c>
+    </row>
+    <row r="4" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
-        <v>9</v>
+        <v>1</v>
       </c>
       <c r="B4">
-        <v>2024700351</v>
+        <v>2024711531</v>
       </c>
       <c r="D4" s="1">
         <v>5</v>
       </c>
       <c r="E4" s="1">
-        <v>3.5</v>
+        <v>4</v>
       </c>
       <c r="F4" s="1">
-        <v>2.5</v>
+        <v>5</v>
       </c>
       <c r="G4" s="1">
         <v>5</v>
       </c>
       <c r="H4" s="1">
-        <v>3.7</v>
+        <v>5</v>
       </c>
       <c r="I4" s="1">
         <f>SUM(Tabela5[[#This Row],[P1 Q1]:[P1 Q5]])</f>
-        <v>19.7</v>
+        <v>24</v>
       </c>
       <c r="J4" s="1">
-        <v>4</v>
+        <v>24</v>
       </c>
       <c r="K4" s="1">
         <v>4</v>
@@ -1142,54 +1300,67 @@
         <v>4</v>
       </c>
       <c r="M4" s="1">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="N4" s="1">
         <v>4</v>
       </c>
       <c r="O4" s="1">
+        <v>4</v>
+      </c>
+      <c r="P4" s="1">
         <f>SUM(Tabela5[[#This Row],[P2 Q1]:[P2 Q5]])</f>
-        <v>20</v>
-      </c>
-      <c r="P4" s="1">
-        <f>SUM(Tabela5[[#This Row],[Nota P2]],Tabela5[[#This Row],[Nota P1]])</f>
-        <v>39.700000000000003</v>
-      </c>
-    </row>
-    <row r="5" spans="1:16" x14ac:dyDescent="0.3">
+        <v>19</v>
+      </c>
+      <c r="Q4" s="1">
+        <v>19</v>
+      </c>
+      <c r="R4" s="6">
+        <v>5</v>
+      </c>
+      <c r="S4" s="1">
+        <f>SUM(Tabela5[[#This Row],[Nota P2]],Tabela5[[#This Row],[Nota P1]],Tabela5[[#This Row],[TP1]])</f>
+        <v>48</v>
+      </c>
+      <c r="T4" s="1">
+        <f>SUM(Tabela5[[#This Row],[Nota P1 Final]],Tabela5[[#This Row],[Nota P2 Final]],Tabela5[[#This Row],[TP1]])</f>
+        <v>48</v>
+      </c>
+    </row>
+    <row r="5" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
-        <v>1</v>
+        <v>9</v>
       </c>
       <c r="B5">
-        <v>2024711531</v>
+        <v>2023710949</v>
       </c>
       <c r="D5" s="1">
         <v>5</v>
       </c>
       <c r="E5" s="1">
-        <v>4</v>
+        <v>4.5</v>
       </c>
       <c r="F5" s="1">
         <v>5</v>
       </c>
       <c r="G5" s="1">
-        <v>5</v>
+        <v>4.2</v>
       </c>
       <c r="H5" s="1">
         <v>5</v>
       </c>
       <c r="I5" s="1">
         <f>SUM(Tabela5[[#This Row],[P1 Q1]:[P1 Q5]])</f>
-        <v>24</v>
+        <v>23.7</v>
       </c>
       <c r="J5" s="1">
-        <v>4</v>
+        <v>23.7</v>
       </c>
       <c r="K5" s="1">
-        <v>4</v>
+        <v>2.5</v>
       </c>
       <c r="L5" s="1">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="M5" s="1">
         <v>4</v>
@@ -1198,15 +1369,28 @@
         <v>4</v>
       </c>
       <c r="O5" s="1">
+        <v>4</v>
+      </c>
+      <c r="P5" s="1">
         <f>SUM(Tabela5[[#This Row],[P2 Q1]:[P2 Q5]])</f>
-        <v>19</v>
-      </c>
-      <c r="P5" s="1">
-        <f>SUM(Tabela5[[#This Row],[Nota P2]],Tabela5[[#This Row],[Nota P1]])</f>
-        <v>43</v>
-      </c>
-    </row>
-    <row r="6" spans="1:16" x14ac:dyDescent="0.3">
+        <v>18.5</v>
+      </c>
+      <c r="Q5" s="1">
+        <v>18.5</v>
+      </c>
+      <c r="R5" s="6">
+        <v>5</v>
+      </c>
+      <c r="S5" s="1">
+        <f>SUM(Tabela5[[#This Row],[Nota P2]],Tabela5[[#This Row],[Nota P1]],Tabela5[[#This Row],[TP1]])</f>
+        <v>47.2</v>
+      </c>
+      <c r="T5" s="1">
+        <f>SUM(Tabela5[[#This Row],[Nota P1 Final]],Tabela5[[#This Row],[Nota P2 Final]],Tabela5[[#This Row],[TP1]])</f>
+        <v>47.2</v>
+      </c>
+    </row>
+    <row r="6" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
         <v>9</v>
       </c>
@@ -1233,10 +1417,10 @@
         <v>21.2</v>
       </c>
       <c r="J6" s="1">
-        <v>3</v>
+        <v>21.2</v>
       </c>
       <c r="K6" s="1">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="L6" s="1">
         <v>4</v>
@@ -1248,79 +1432,102 @@
         <v>4</v>
       </c>
       <c r="O6" s="1">
+        <v>4</v>
+      </c>
+      <c r="P6" s="1">
         <f>SUM(Tabela5[[#This Row],[P2 Q1]:[P2 Q5]])</f>
         <v>19</v>
       </c>
-      <c r="P6" s="1">
-        <f>SUM(Tabela5[[#This Row],[Nota P2]],Tabela5[[#This Row],[Nota P1]])</f>
-        <v>40.200000000000003</v>
-      </c>
-    </row>
-    <row r="7" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="Q6" s="1">
+        <v>19</v>
+      </c>
+      <c r="R6" s="6">
+        <v>5</v>
+      </c>
+      <c r="S6" s="1">
+        <f>SUM(Tabela5[[#This Row],[Nota P2]],Tabela5[[#This Row],[Nota P1]],Tabela5[[#This Row],[TP1]])</f>
+        <v>45.2</v>
+      </c>
+      <c r="T6" s="1">
+        <f>SUM(Tabela5[[#This Row],[Nota P1 Final]],Tabela5[[#This Row],[Nota P2 Final]],Tabela5[[#This Row],[TP1]])</f>
+        <v>45.2</v>
+      </c>
+    </row>
+    <row r="7" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
         <v>9</v>
       </c>
       <c r="B7">
-        <v>2023710949</v>
+        <v>2024715936</v>
       </c>
       <c r="D7" s="1">
         <v>5</v>
       </c>
       <c r="E7" s="1">
-        <v>4.5</v>
+        <v>5</v>
       </c>
       <c r="F7" s="1">
         <v>5</v>
       </c>
       <c r="G7" s="1">
-        <v>4.2</v>
+        <v>5</v>
       </c>
       <c r="H7" s="1">
         <v>5</v>
       </c>
       <c r="I7" s="1">
         <f>SUM(Tabela5[[#This Row],[P1 Q1]:[P1 Q5]])</f>
-        <v>23.7</v>
+        <v>25</v>
       </c>
       <c r="J7" s="1">
-        <v>2.5</v>
+        <v>25</v>
       </c>
       <c r="K7" s="1">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="L7" s="1">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="M7" s="1">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="N7" s="1">
         <v>4</v>
       </c>
       <c r="O7" s="1">
+        <v>4</v>
+      </c>
+      <c r="P7" s="1">
         <f>SUM(Tabela5[[#This Row],[P2 Q1]:[P2 Q5]])</f>
-        <v>18.5</v>
-      </c>
-      <c r="P7" s="1">
-        <f>SUM(Tabela5[[#This Row],[Nota P2]],Tabela5[[#This Row],[Nota P1]])</f>
-        <v>42.2</v>
-      </c>
-    </row>
-    <row r="8" spans="1:16" x14ac:dyDescent="0.3">
+        <v>15</v>
+      </c>
+      <c r="Q7" s="1">
+        <v>15</v>
+      </c>
+      <c r="R7" s="6">
+        <v>5</v>
+      </c>
+      <c r="S7" s="1">
+        <f>SUM(Tabela5[[#This Row],[Nota P2]],Tabela5[[#This Row],[Nota P1]],Tabela5[[#This Row],[TP1]])</f>
+        <v>45</v>
+      </c>
+      <c r="T7" s="1">
+        <f>SUM(Tabela5[[#This Row],[Nota P1 Final]],Tabela5[[#This Row],[Nota P2 Final]],Tabela5[[#This Row],[TP1]])</f>
+        <v>45</v>
+      </c>
+    </row>
+    <row r="8" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
         <v>9</v>
       </c>
       <c r="B8">
-        <v>2024701846</v>
-      </c>
-      <c r="C8" t="s">
-        <v>13</v>
+        <v>2024700351</v>
       </c>
       <c r="D8" s="1">
         <v>5</v>
       </c>
       <c r="E8" s="1">
-        <v>4.5</v>
+        <v>3.5</v>
       </c>
       <c r="F8" s="1">
         <v>2.5</v>
@@ -1329,98 +1536,124 @@
         <v>5</v>
       </c>
       <c r="H8" s="1">
-        <v>5</v>
+        <v>3.7</v>
       </c>
       <c r="I8" s="1">
         <f>SUM(Tabela5[[#This Row],[P1 Q1]:[P1 Q5]])</f>
+        <v>19.7</v>
+      </c>
+      <c r="J8" s="1">
+        <v>19.7</v>
+      </c>
+      <c r="K8" s="1">
+        <v>4</v>
+      </c>
+      <c r="L8" s="1">
+        <v>4</v>
+      </c>
+      <c r="M8" s="1">
+        <v>4</v>
+      </c>
+      <c r="N8" s="1">
+        <v>4</v>
+      </c>
+      <c r="O8" s="1">
+        <v>4</v>
+      </c>
+      <c r="P8" s="1">
+        <f>SUM(Tabela5[[#This Row],[P2 Q1]:[P2 Q5]])</f>
+        <v>20</v>
+      </c>
+      <c r="Q8" s="1">
+        <v>20</v>
+      </c>
+      <c r="R8" s="6">
+        <v>5</v>
+      </c>
+      <c r="S8" s="1">
+        <f>SUM(Tabela5[[#This Row],[Nota P2]],Tabela5[[#This Row],[Nota P1]],Tabela5[[#This Row],[TP1]])</f>
+        <v>44.7</v>
+      </c>
+      <c r="T8" s="1">
+        <f>SUM(Tabela5[[#This Row],[Nota P1 Final]],Tabela5[[#This Row],[Nota P2 Final]],Tabela5[[#This Row],[TP1]])</f>
+        <v>44.7</v>
+      </c>
+    </row>
+    <row r="9" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="A9" t="s">
+        <v>9</v>
+      </c>
+      <c r="B9">
+        <v>2024701846</v>
+      </c>
+      <c r="C9" t="s">
+        <v>13</v>
+      </c>
+      <c r="D9" s="1">
+        <v>5</v>
+      </c>
+      <c r="E9" s="1">
+        <v>4.5</v>
+      </c>
+      <c r="F9" s="1">
+        <v>2.5</v>
+      </c>
+      <c r="G9" s="1">
+        <v>5</v>
+      </c>
+      <c r="H9" s="1">
+        <v>5</v>
+      </c>
+      <c r="I9" s="1">
+        <f>SUM(Tabela5[[#This Row],[P1 Q1]:[P1 Q5]])</f>
         <v>22</v>
       </c>
-      <c r="J8" s="1">
-        <v>4</v>
-      </c>
-      <c r="K8" s="1">
+      <c r="J9" s="1">
+        <v>22</v>
+      </c>
+      <c r="K9" s="1">
+        <v>4</v>
+      </c>
+      <c r="L9" s="1">
         <v>1</v>
       </c>
-      <c r="L8" s="1">
-        <v>4</v>
-      </c>
-      <c r="M8" s="1">
-        <v>4</v>
-      </c>
-      <c r="N8" s="1">
-        <v>4</v>
-      </c>
-      <c r="O8" s="1">
+      <c r="M9" s="1">
+        <v>4</v>
+      </c>
+      <c r="N9" s="1">
+        <v>4</v>
+      </c>
+      <c r="O9" s="1">
+        <v>4</v>
+      </c>
+      <c r="P9" s="1">
         <f>SUM(Tabela5[[#This Row],[P2 Q1]:[P2 Q5]])</f>
         <v>17</v>
       </c>
-      <c r="P8" s="1">
-        <f>SUM(Tabela5[[#This Row],[Nota P2]],Tabela5[[#This Row],[Nota P1]])</f>
-        <v>39</v>
-      </c>
-    </row>
-    <row r="9" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A9" t="s">
-        <v>9</v>
-      </c>
-      <c r="B9">
-        <v>2024691883</v>
-      </c>
-      <c r="D9" s="1">
-        <v>0</v>
-      </c>
-      <c r="E9" s="1">
+      <c r="Q9" s="1">
+        <v>17</v>
+      </c>
+      <c r="R9" s="6">
+        <v>5</v>
+      </c>
+      <c r="S9" s="1">
+        <f>SUM(Tabela5[[#This Row],[Nota P2]],Tabela5[[#This Row],[Nota P1]],Tabela5[[#This Row],[TP1]])</f>
+        <v>44</v>
+      </c>
+      <c r="T9" s="1">
+        <f>SUM(Tabela5[[#This Row],[Nota P1 Final]],Tabela5[[#This Row],[Nota P2 Final]],Tabela5[[#This Row],[TP1]])</f>
+        <v>44</v>
+      </c>
+    </row>
+    <row r="10" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="A10" t="s">
+        <v>9</v>
+      </c>
+      <c r="B10">
+        <v>2024715952</v>
+      </c>
+      <c r="D10" s="1">
         <v>3.5</v>
-      </c>
-      <c r="F9" s="1">
-        <v>1.7</v>
-      </c>
-      <c r="G9" s="1">
-        <v>4.2</v>
-      </c>
-      <c r="H9" s="1">
-        <v>3</v>
-      </c>
-      <c r="I9" s="1">
-        <f>SUM(Tabela5[[#This Row],[P1 Q1]:[P1 Q5]])</f>
-        <v>12.4</v>
-      </c>
-      <c r="J9" s="1">
-        <v>4</v>
-      </c>
-      <c r="K9" s="1">
-        <v>0.5</v>
-      </c>
-      <c r="L9" s="1">
-        <v>3</v>
-      </c>
-      <c r="M9" s="1">
-        <v>4</v>
-      </c>
-      <c r="N9" s="1">
-        <v>4</v>
-      </c>
-      <c r="O9" s="1">
-        <f>SUM(Tabela5[[#This Row],[P2 Q1]:[P2 Q5]])</f>
-        <v>15.5</v>
-      </c>
-      <c r="P9" s="1">
-        <f>SUM(Tabela5[[#This Row],[Nota P2]],Tabela5[[#This Row],[Nota P1]])</f>
-        <v>27.9</v>
-      </c>
-    </row>
-    <row r="10" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A10" t="s">
-        <v>9</v>
-      </c>
-      <c r="B10">
-        <v>2024715936</v>
-      </c>
-      <c r="C10" t="s">
-        <v>11</v>
-      </c>
-      <c r="D10" s="1">
-        <v>5</v>
       </c>
       <c r="E10" s="1">
         <v>5</v>
@@ -1436,33 +1669,46 @@
       </c>
       <c r="I10" s="1">
         <f>SUM(Tabela5[[#This Row],[P1 Q1]:[P1 Q5]])</f>
-        <v>25</v>
+        <v>23.5</v>
       </c>
       <c r="J10" s="1">
-        <v>3</v>
+        <v>23.5</v>
       </c>
       <c r="K10" s="1">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="L10" s="1">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="M10" s="1">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="N10" s="1">
         <v>4</v>
       </c>
       <c r="O10" s="1">
+        <v>0</v>
+      </c>
+      <c r="P10" s="1">
         <f>SUM(Tabela5[[#This Row],[P2 Q1]:[P2 Q5]])</f>
-        <v>15</v>
-      </c>
-      <c r="P10" s="1">
-        <f>SUM(Tabela5[[#This Row],[Nota P2]],Tabela5[[#This Row],[Nota P1]])</f>
-        <v>40</v>
-      </c>
-    </row>
-    <row r="11" spans="1:16" x14ac:dyDescent="0.3">
+        <v>14</v>
+      </c>
+      <c r="Q10" s="1">
+        <v>14</v>
+      </c>
+      <c r="R10" s="6">
+        <v>5</v>
+      </c>
+      <c r="S10" s="1">
+        <f>SUM(Tabela5[[#This Row],[Nota P2]],Tabela5[[#This Row],[Nota P1]],Tabela5[[#This Row],[TP1]])</f>
+        <v>42.5</v>
+      </c>
+      <c r="T10" s="1">
+        <f>SUM(Tabela5[[#This Row],[Nota P1 Final]],Tabela5[[#This Row],[Nota P2 Final]],Tabela5[[#This Row],[TP1]])</f>
+        <v>42.5</v>
+      </c>
+    </row>
+    <row r="11" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
         <v>9</v>
       </c>
@@ -1489,30 +1735,43 @@
         <v>21.7</v>
       </c>
       <c r="J11" s="1">
-        <v>4</v>
+        <v>21.7</v>
       </c>
       <c r="K11" s="1">
         <v>4</v>
       </c>
       <c r="L11" s="1">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="M11" s="1">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="N11" s="1">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="O11" s="1">
+        <v>0</v>
+      </c>
+      <c r="P11" s="1">
         <f>SUM(Tabela5[[#This Row],[P2 Q1]:[P2 Q5]])</f>
         <v>15</v>
       </c>
-      <c r="P11" s="1">
-        <f>SUM(Tabela5[[#This Row],[Nota P2]],Tabela5[[#This Row],[Nota P1]])</f>
-        <v>36.700000000000003</v>
-      </c>
-    </row>
-    <row r="12" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="Q11" s="1">
+        <v>15</v>
+      </c>
+      <c r="R11" s="6">
+        <v>5</v>
+      </c>
+      <c r="S11" s="1">
+        <f>SUM(Tabela5[[#This Row],[Nota P2]],Tabela5[[#This Row],[Nota P1]],Tabela5[[#This Row],[TP1]])</f>
+        <v>41.7</v>
+      </c>
+      <c r="T11" s="1">
+        <f>SUM(Tabela5[[#This Row],[Nota P1 Final]],Tabela5[[#This Row],[Nota P2 Final]],Tabela5[[#This Row],[TP1]])</f>
+        <v>41.7</v>
+      </c>
+    </row>
+    <row r="12" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
         <v>9</v>
       </c>
@@ -1539,883 +1798,1117 @@
         <v>21.2</v>
       </c>
       <c r="J12" s="1">
-        <v>4</v>
+        <v>21.2</v>
       </c>
       <c r="K12" s="1">
         <v>4</v>
       </c>
       <c r="L12" s="1">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="M12" s="1">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="N12" s="1">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="O12" s="1">
+        <v>0</v>
+      </c>
+      <c r="P12" s="1">
         <f>SUM(Tabela5[[#This Row],[P2 Q1]:[P2 Q5]])</f>
         <v>15</v>
       </c>
-      <c r="P12" s="1">
-        <f>SUM(Tabela5[[#This Row],[Nota P2]],Tabela5[[#This Row],[Nota P1]])</f>
-        <v>36.200000000000003</v>
-      </c>
-    </row>
-    <row r="13" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="Q12" s="1">
+        <v>15</v>
+      </c>
+      <c r="R12" s="6">
+        <v>5</v>
+      </c>
+      <c r="S12" s="1">
+        <f>SUM(Tabela5[[#This Row],[Nota P2]],Tabela5[[#This Row],[Nota P1]],Tabela5[[#This Row],[TP1]])</f>
+        <v>41.2</v>
+      </c>
+      <c r="T12" s="1">
+        <f>SUM(Tabela5[[#This Row],[Nota P1 Final]],Tabela5[[#This Row],[Nota P2 Final]],Tabela5[[#This Row],[TP1]])</f>
+        <v>41.2</v>
+      </c>
+    </row>
+    <row r="13" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
-        <v>1</v>
+        <v>9</v>
       </c>
       <c r="B13">
-        <v>2024711370</v>
-      </c>
-      <c r="C13" t="s">
-        <v>12</v>
+        <v>2024709316</v>
       </c>
       <c r="D13" s="1">
         <v>5</v>
       </c>
       <c r="E13" s="1">
-        <v>5</v>
+        <v>4.5</v>
       </c>
       <c r="F13" s="1">
         <v>2.5</v>
       </c>
       <c r="G13" s="1">
-        <v>4.2</v>
+        <v>4.5</v>
       </c>
       <c r="H13" s="1">
-        <v>3.7</v>
+        <v>5</v>
       </c>
       <c r="I13" s="1">
         <f>SUM(Tabela5[[#This Row],[P1 Q1]:[P1 Q5]])</f>
+        <v>21.5</v>
+      </c>
+      <c r="J13" s="1">
+        <v>21.5</v>
+      </c>
+      <c r="K13" s="1">
+        <v>3</v>
+      </c>
+      <c r="L13" s="1">
+        <v>4</v>
+      </c>
+      <c r="M13" s="1">
+        <v>3</v>
+      </c>
+      <c r="N13" s="1">
+        <v>4</v>
+      </c>
+      <c r="O13" s="1">
+        <v>0</v>
+      </c>
+      <c r="P13" s="1">
+        <f>SUM(Tabela5[[#This Row],[P2 Q1]:[P2 Q5]])</f>
+        <v>14</v>
+      </c>
+      <c r="Q13" s="1">
+        <v>14</v>
+      </c>
+      <c r="R13" s="6">
+        <v>5</v>
+      </c>
+      <c r="S13" s="1">
+        <f>SUM(Tabela5[[#This Row],[Nota P2]],Tabela5[[#This Row],[Nota P1]],Tabela5[[#This Row],[TP1]])</f>
+        <v>40.5</v>
+      </c>
+      <c r="T13" s="1">
+        <f>SUM(Tabela5[[#This Row],[Nota P1 Final]],Tabela5[[#This Row],[Nota P2 Final]],Tabela5[[#This Row],[TP1]])</f>
+        <v>40.5</v>
+      </c>
+    </row>
+    <row r="14" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="A14" t="s">
+        <v>1</v>
+      </c>
+      <c r="B14">
+        <v>2024711370</v>
+      </c>
+      <c r="C14" t="s">
+        <v>12</v>
+      </c>
+      <c r="D14" s="1">
+        <v>5</v>
+      </c>
+      <c r="E14" s="1">
+        <v>5</v>
+      </c>
+      <c r="F14" s="1">
+        <v>2.5</v>
+      </c>
+      <c r="G14" s="1">
+        <v>4.2</v>
+      </c>
+      <c r="H14" s="1">
+        <v>3.7</v>
+      </c>
+      <c r="I14" s="1">
+        <f>SUM(Tabela5[[#This Row],[P1 Q1]:[P1 Q5]])</f>
         <v>20.399999999999999</v>
       </c>
-      <c r="J13" s="1">
-        <v>3</v>
-      </c>
-      <c r="K13" s="1">
-        <v>0</v>
-      </c>
-      <c r="L13" s="1">
-        <v>4</v>
-      </c>
-      <c r="M13" s="1">
-        <v>4</v>
-      </c>
-      <c r="N13" s="1">
-        <v>4</v>
-      </c>
-      <c r="O13" s="1">
+      <c r="J14" s="1">
+        <v>20.399999999999999</v>
+      </c>
+      <c r="K14" s="1">
+        <v>3</v>
+      </c>
+      <c r="L14" s="1">
+        <v>0</v>
+      </c>
+      <c r="M14" s="1">
+        <v>4</v>
+      </c>
+      <c r="N14" s="1">
+        <v>4</v>
+      </c>
+      <c r="O14" s="1">
+        <v>4</v>
+      </c>
+      <c r="P14" s="1">
         <f>SUM(Tabela5[[#This Row],[P2 Q1]:[P2 Q5]])</f>
         <v>15</v>
       </c>
-      <c r="P13" s="1">
-        <f>SUM(Tabela5[[#This Row],[Nota P2]],Tabela5[[#This Row],[Nota P1]])</f>
-        <v>35.4</v>
-      </c>
-    </row>
-    <row r="14" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A14" t="s">
-        <v>9</v>
-      </c>
-      <c r="B14">
-        <v>2024715952</v>
-      </c>
-      <c r="D14" s="1">
+      <c r="Q14" s="1">
+        <v>14</v>
+      </c>
+      <c r="R14" s="6">
+        <v>5</v>
+      </c>
+      <c r="S14" s="1">
+        <f>SUM(Tabela5[[#This Row],[Nota P2]],Tabela5[[#This Row],[Nota P1]],Tabela5[[#This Row],[TP1]])</f>
+        <v>40.4</v>
+      </c>
+      <c r="T14" s="1">
+        <f>SUM(Tabela5[[#This Row],[Nota P1 Final]],Tabela5[[#This Row],[Nota P2 Final]],Tabela5[[#This Row],[TP1]])</f>
+        <v>39.4</v>
+      </c>
+    </row>
+    <row r="15" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="A15" t="s">
+        <v>9</v>
+      </c>
+      <c r="B15">
+        <v>2024709308</v>
+      </c>
+      <c r="D15" s="1">
+        <v>5</v>
+      </c>
+      <c r="E15" s="1">
+        <v>4.5</v>
+      </c>
+      <c r="F15" s="1">
+        <v>2.5</v>
+      </c>
+      <c r="G15" s="1">
+        <v>3.7</v>
+      </c>
+      <c r="H15" s="1">
+        <v>5</v>
+      </c>
+      <c r="I15" s="1">
+        <f>SUM(Tabela5[[#This Row],[P1 Q1]:[P1 Q5]])</f>
+        <v>20.7</v>
+      </c>
+      <c r="J15" s="1">
+        <v>20.7</v>
+      </c>
+      <c r="K15" s="1">
+        <v>3</v>
+      </c>
+      <c r="L15" s="1">
+        <v>4</v>
+      </c>
+      <c r="M15" s="1">
+        <v>2</v>
+      </c>
+      <c r="N15" s="1">
+        <v>4</v>
+      </c>
+      <c r="O15" s="1">
+        <v>0</v>
+      </c>
+      <c r="P15" s="1">
+        <f>SUM(Tabela5[[#This Row],[P2 Q1]:[P2 Q5]])</f>
+        <v>13</v>
+      </c>
+      <c r="Q15" s="1">
+        <v>13</v>
+      </c>
+      <c r="R15" s="6">
+        <v>5</v>
+      </c>
+      <c r="S15" s="1">
+        <f>SUM(Tabela5[[#This Row],[Nota P2]],Tabela5[[#This Row],[Nota P1]],Tabela5[[#This Row],[TP1]])</f>
+        <v>38.700000000000003</v>
+      </c>
+      <c r="T15" s="1">
+        <f>SUM(Tabela5[[#This Row],[Nota P1 Final]],Tabela5[[#This Row],[Nota P2 Final]],Tabela5[[#This Row],[TP1]])</f>
+        <v>38.700000000000003</v>
+      </c>
+    </row>
+    <row r="16" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="A16" t="s">
+        <v>9</v>
+      </c>
+      <c r="B16">
+        <v>2024715979</v>
+      </c>
+      <c r="D16" s="1">
+        <v>5</v>
+      </c>
+      <c r="E16" s="1">
         <v>3.5</v>
       </c>
-      <c r="E14" s="1">
-        <v>5</v>
-      </c>
-      <c r="F14" s="1">
-        <v>5</v>
-      </c>
-      <c r="G14" s="1">
-        <v>5</v>
-      </c>
-      <c r="H14" s="1">
-        <v>5</v>
-      </c>
-      <c r="I14" s="1">
+      <c r="F16" s="1">
+        <v>1.7</v>
+      </c>
+      <c r="G16" s="1">
+        <v>5</v>
+      </c>
+      <c r="H16" s="1">
+        <v>5</v>
+      </c>
+      <c r="I16" s="1">
         <f>SUM(Tabela5[[#This Row],[P1 Q1]:[P1 Q5]])</f>
-        <v>23.5</v>
-      </c>
-      <c r="J14" s="1">
-        <v>4</v>
-      </c>
-      <c r="K14" s="1">
-        <v>4</v>
-      </c>
-      <c r="L14" s="1">
+        <v>20.2</v>
+      </c>
+      <c r="J16" s="1">
+        <v>20.2</v>
+      </c>
+      <c r="K16" s="1">
+        <v>4</v>
+      </c>
+      <c r="L16" s="1">
+        <v>0</v>
+      </c>
+      <c r="M16" s="1">
+        <v>4</v>
+      </c>
+      <c r="N16" s="1">
+        <v>3.5</v>
+      </c>
+      <c r="O16" s="1">
         <v>2</v>
       </c>
-      <c r="M14" s="1">
-        <v>4</v>
-      </c>
-      <c r="N14" s="1">
-        <v>0</v>
-      </c>
-      <c r="O14" s="1">
+      <c r="P16" s="1">
+        <f>SUM(Tabela5[[#This Row],[P2 Q1]:[P2 Q5]])</f>
+        <v>13.5</v>
+      </c>
+      <c r="Q16" s="1">
+        <v>13.5</v>
+      </c>
+      <c r="R16" s="6">
+        <v>5</v>
+      </c>
+      <c r="S16" s="1">
+        <f>SUM(Tabela5[[#This Row],[Nota P2]],Tabela5[[#This Row],[Nota P1]],Tabela5[[#This Row],[TP1]])</f>
+        <v>38.700000000000003</v>
+      </c>
+      <c r="T16" s="1">
+        <f>SUM(Tabela5[[#This Row],[Nota P1 Final]],Tabela5[[#This Row],[Nota P2 Final]],Tabela5[[#This Row],[TP1]])</f>
+        <v>38.700000000000003</v>
+      </c>
+    </row>
+    <row r="17" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="A17" t="s">
+        <v>9</v>
+      </c>
+      <c r="B17">
+        <v>2024701382</v>
+      </c>
+      <c r="D17" s="1">
+        <v>5</v>
+      </c>
+      <c r="E17" s="1">
+        <v>4.5</v>
+      </c>
+      <c r="F17" s="1">
+        <v>2.5</v>
+      </c>
+      <c r="G17" s="1">
+        <v>5</v>
+      </c>
+      <c r="H17" s="1">
+        <v>3.8</v>
+      </c>
+      <c r="I17" s="1">
+        <f>SUM(Tabela5[[#This Row],[P1 Q1]:[P1 Q5]])</f>
+        <v>20.8</v>
+      </c>
+      <c r="J17" s="1">
+        <v>20.8</v>
+      </c>
+      <c r="K17" s="1">
+        <v>3</v>
+      </c>
+      <c r="L17" s="1">
+        <v>1</v>
+      </c>
+      <c r="M17" s="1">
+        <v>4</v>
+      </c>
+      <c r="N17" s="1">
+        <v>4</v>
+      </c>
+      <c r="O17" s="1">
+        <v>0</v>
+      </c>
+      <c r="P17" s="1">
+        <f>SUM(Tabela5[[#This Row],[P2 Q1]:[P2 Q5]])</f>
+        <v>12</v>
+      </c>
+      <c r="Q17" s="1">
+        <v>12</v>
+      </c>
+      <c r="R17" s="6">
+        <v>5</v>
+      </c>
+      <c r="S17" s="1">
+        <f>SUM(Tabela5[[#This Row],[Nota P2]],Tabela5[[#This Row],[Nota P1]],Tabela5[[#This Row],[TP1]])</f>
+        <v>37.799999999999997</v>
+      </c>
+      <c r="T17" s="1">
+        <f>SUM(Tabela5[[#This Row],[Nota P1 Final]],Tabela5[[#This Row],[Nota P2 Final]],Tabela5[[#This Row],[TP1]])</f>
+        <v>37.799999999999997</v>
+      </c>
+    </row>
+    <row r="18" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="A18" t="s">
+        <v>9</v>
+      </c>
+      <c r="B18">
+        <v>2024691921</v>
+      </c>
+      <c r="D18" s="1">
+        <v>5</v>
+      </c>
+      <c r="E18" s="1">
+        <v>4</v>
+      </c>
+      <c r="F18" s="1">
+        <v>2.5</v>
+      </c>
+      <c r="G18" s="1">
+        <v>4.2</v>
+      </c>
+      <c r="H18" s="1">
+        <v>4</v>
+      </c>
+      <c r="I18" s="1">
+        <f>SUM(Tabela5[[#This Row],[P1 Q1]:[P1 Q5]])</f>
+        <v>19.7</v>
+      </c>
+      <c r="J18" s="1">
+        <v>19.7</v>
+      </c>
+      <c r="K18" s="1">
+        <v>1</v>
+      </c>
+      <c r="L18" s="1">
+        <v>3</v>
+      </c>
+      <c r="M18" s="1">
+        <v>2</v>
+      </c>
+      <c r="N18" s="1">
+        <v>3</v>
+      </c>
+      <c r="O18" s="1">
+        <v>4</v>
+      </c>
+      <c r="P18" s="1">
+        <f>SUM(Tabela5[[#This Row],[P2 Q1]:[P2 Q5]])</f>
+        <v>13</v>
+      </c>
+      <c r="Q18" s="1">
+        <v>13</v>
+      </c>
+      <c r="R18" s="6">
+        <v>5</v>
+      </c>
+      <c r="S18" s="1">
+        <f>SUM(Tabela5[[#This Row],[Nota P2]],Tabela5[[#This Row],[Nota P1]],Tabela5[[#This Row],[TP1]])</f>
+        <v>37.700000000000003</v>
+      </c>
+      <c r="T18" s="1">
+        <f>SUM(Tabela5[[#This Row],[Nota P1 Final]],Tabela5[[#This Row],[Nota P2 Final]],Tabela5[[#This Row],[TP1]])</f>
+        <v>37.700000000000003</v>
+      </c>
+    </row>
+    <row r="19" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="A19" t="s">
+        <v>9</v>
+      </c>
+      <c r="B19">
+        <v>2024709200</v>
+      </c>
+      <c r="D19" s="1">
+        <v>5</v>
+      </c>
+      <c r="E19" s="1">
+        <v>4</v>
+      </c>
+      <c r="F19" s="1">
+        <v>2.5</v>
+      </c>
+      <c r="G19" s="1">
+        <v>2.5</v>
+      </c>
+      <c r="H19" s="1">
+        <v>5</v>
+      </c>
+      <c r="I19" s="1">
+        <f>SUM(Tabela5[[#This Row],[P1 Q1]:[P1 Q5]])</f>
+        <v>19</v>
+      </c>
+      <c r="J19" s="1">
+        <v>19</v>
+      </c>
+      <c r="K19" s="1">
+        <v>2</v>
+      </c>
+      <c r="L19" s="1">
+        <v>0</v>
+      </c>
+      <c r="M19" s="1">
+        <v>3</v>
+      </c>
+      <c r="N19" s="1">
+        <v>4</v>
+      </c>
+      <c r="O19" s="1">
+        <v>2</v>
+      </c>
+      <c r="P19" s="1">
+        <f>SUM(Tabela5[[#This Row],[P2 Q1]:[P2 Q5]])</f>
+        <v>11</v>
+      </c>
+      <c r="Q19" s="1">
+        <v>13</v>
+      </c>
+      <c r="R19" s="6">
+        <v>5</v>
+      </c>
+      <c r="S19" s="1">
+        <f>SUM(Tabela5[[#This Row],[Nota P2]],Tabela5[[#This Row],[Nota P1]],Tabela5[[#This Row],[TP1]])</f>
+        <v>35</v>
+      </c>
+      <c r="T19" s="1">
+        <f>SUM(Tabela5[[#This Row],[Nota P1 Final]],Tabela5[[#This Row],[Nota P2 Final]],Tabela5[[#This Row],[TP1]])</f>
+        <v>37</v>
+      </c>
+    </row>
+    <row r="20" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="A20" t="s">
+        <v>1</v>
+      </c>
+      <c r="B20">
+        <v>2024711698</v>
+      </c>
+      <c r="D20" s="1">
+        <v>5</v>
+      </c>
+      <c r="E20" s="1">
+        <v>4.5</v>
+      </c>
+      <c r="F20" s="1">
+        <v>0</v>
+      </c>
+      <c r="G20" s="1">
+        <v>5</v>
+      </c>
+      <c r="H20" s="1">
+        <v>3.7</v>
+      </c>
+      <c r="I20" s="1">
+        <f>SUM(Tabela5[[#This Row],[P1 Q1]:[P1 Q5]])</f>
+        <v>18.2</v>
+      </c>
+      <c r="J20" s="1">
+        <v>18.2</v>
+      </c>
+      <c r="K20" s="1">
+        <v>3</v>
+      </c>
+      <c r="L20" s="1">
+        <v>0</v>
+      </c>
+      <c r="M20" s="1">
+        <v>4</v>
+      </c>
+      <c r="N20" s="1">
+        <v>4</v>
+      </c>
+      <c r="O20" s="1">
+        <v>0</v>
+      </c>
+      <c r="P20" s="1">
+        <f>SUM(Tabela5[[#This Row],[P2 Q1]:[P2 Q5]])</f>
+        <v>11</v>
+      </c>
+      <c r="Q20" s="1">
+        <v>13</v>
+      </c>
+      <c r="R20" s="6">
+        <v>5</v>
+      </c>
+      <c r="S20" s="1">
+        <f>SUM(Tabela5[[#This Row],[Nota P2]],Tabela5[[#This Row],[Nota P1]],Tabela5[[#This Row],[TP1]])</f>
+        <v>34.200000000000003</v>
+      </c>
+      <c r="T20" s="1">
+        <f>SUM(Tabela5[[#This Row],[Nota P1 Final]],Tabela5[[#This Row],[Nota P2 Final]],Tabela5[[#This Row],[TP1]])</f>
+        <v>36.200000000000003</v>
+      </c>
+    </row>
+    <row r="21" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="A21" t="s">
+        <v>9</v>
+      </c>
+      <c r="B21">
+        <v>2023655557</v>
+      </c>
+      <c r="D21" s="1">
+        <v>5</v>
+      </c>
+      <c r="E21" s="1">
+        <v>5</v>
+      </c>
+      <c r="F21" s="1">
+        <v>0</v>
+      </c>
+      <c r="G21" s="1">
+        <v>4.2</v>
+      </c>
+      <c r="H21" s="1">
+        <v>3.7</v>
+      </c>
+      <c r="I21" s="1">
+        <f>SUM(Tabela5[[#This Row],[P1 Q1]:[P1 Q5]])</f>
+        <v>17.899999999999999</v>
+      </c>
+      <c r="J21" s="1">
+        <v>17.899999999999999</v>
+      </c>
+      <c r="K21" s="1">
+        <v>3</v>
+      </c>
+      <c r="L21" s="1">
+        <v>1</v>
+      </c>
+      <c r="M21" s="1">
+        <v>3</v>
+      </c>
+      <c r="N21" s="1">
+        <v>4</v>
+      </c>
+      <c r="O21" s="1">
+        <v>2</v>
+      </c>
+      <c r="P21" s="1">
+        <f>SUM(Tabela5[[#This Row],[P2 Q1]:[P2 Q5]])</f>
+        <v>13</v>
+      </c>
+      <c r="Q21" s="1">
+        <v>13</v>
+      </c>
+      <c r="R21" s="6">
+        <v>5</v>
+      </c>
+      <c r="S21" s="1">
+        <f>SUM(Tabela5[[#This Row],[Nota P2]],Tabela5[[#This Row],[Nota P1]],Tabela5[[#This Row],[TP1]])</f>
+        <v>35.9</v>
+      </c>
+      <c r="T21" s="1">
+        <f>SUM(Tabela5[[#This Row],[Nota P1 Final]],Tabela5[[#This Row],[Nota P2 Final]],Tabela5[[#This Row],[TP1]])</f>
+        <v>35.9</v>
+      </c>
+    </row>
+    <row r="22" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="A22" t="s">
+        <v>9</v>
+      </c>
+      <c r="B22">
+        <v>2024703369</v>
+      </c>
+      <c r="D22" s="1">
+        <v>5</v>
+      </c>
+      <c r="E22" s="1">
+        <v>3.5</v>
+      </c>
+      <c r="F22" s="1">
+        <v>1.7</v>
+      </c>
+      <c r="G22" s="1">
+        <v>2.5</v>
+      </c>
+      <c r="H22" s="1">
+        <v>3.7</v>
+      </c>
+      <c r="I22" s="1">
+        <f>SUM(Tabela5[[#This Row],[P1 Q1]:[P1 Q5]])</f>
+        <v>16.399999999999999</v>
+      </c>
+      <c r="J22" s="1">
+        <v>17.7</v>
+      </c>
+      <c r="K22" s="1">
+        <v>2</v>
+      </c>
+      <c r="L22" s="1">
+        <v>0</v>
+      </c>
+      <c r="M22" s="1">
+        <v>3</v>
+      </c>
+      <c r="N22" s="1">
+        <v>4</v>
+      </c>
+      <c r="O22" s="1">
+        <v>2</v>
+      </c>
+      <c r="P22" s="1">
+        <f>SUM(Tabela5[[#This Row],[P2 Q1]:[P2 Q5]])</f>
+        <v>11</v>
+      </c>
+      <c r="Q22" s="1">
+        <v>13</v>
+      </c>
+      <c r="R22" s="6">
+        <v>5</v>
+      </c>
+      <c r="S22" s="1">
+        <f>SUM(Tabela5[[#This Row],[Nota P2]],Tabela5[[#This Row],[Nota P1]],Tabela5[[#This Row],[TP1]])</f>
+        <v>32.4</v>
+      </c>
+      <c r="T22" s="1">
+        <f>SUM(Tabela5[[#This Row],[Nota P1 Final]],Tabela5[[#This Row],[Nota P2 Final]],Tabela5[[#This Row],[TP1]])</f>
+        <v>35.700000000000003</v>
+      </c>
+    </row>
+    <row r="23" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="A23" t="s">
+        <v>9</v>
+      </c>
+      <c r="B23">
+        <v>2024709960</v>
+      </c>
+      <c r="D23" s="1">
+        <v>5</v>
+      </c>
+      <c r="E23" s="1">
+        <v>3</v>
+      </c>
+      <c r="F23" s="1">
+        <v>2.5</v>
+      </c>
+      <c r="G23" s="1">
+        <v>5</v>
+      </c>
+      <c r="H23" s="1">
+        <v>1.2</v>
+      </c>
+      <c r="I23" s="1">
+        <f>SUM(Tabela5[[#This Row],[P1 Q1]:[P1 Q5]])</f>
+        <v>16.7</v>
+      </c>
+      <c r="J23" s="1">
+        <v>16.7</v>
+      </c>
+      <c r="K23" s="1">
+        <v>3</v>
+      </c>
+      <c r="L23" s="1">
+        <v>2</v>
+      </c>
+      <c r="M23" s="1">
+        <v>3</v>
+      </c>
+      <c r="N23" s="1">
+        <v>4</v>
+      </c>
+      <c r="O23" s="1">
+        <v>0</v>
+      </c>
+      <c r="P23" s="1">
+        <f>SUM(Tabela5[[#This Row],[P2 Q1]:[P2 Q5]])</f>
+        <v>12</v>
+      </c>
+      <c r="Q23" s="1">
+        <v>13</v>
+      </c>
+      <c r="R23" s="6">
+        <v>5</v>
+      </c>
+      <c r="S23" s="1">
+        <f>SUM(Tabela5[[#This Row],[Nota P2]],Tabela5[[#This Row],[Nota P1]],Tabela5[[#This Row],[TP1]])</f>
+        <v>33.700000000000003</v>
+      </c>
+      <c r="T23" s="1">
+        <f>SUM(Tabela5[[#This Row],[Nota P1 Final]],Tabela5[[#This Row],[Nota P2 Final]],Tabela5[[#This Row],[TP1]])</f>
+        <v>34.700000000000003</v>
+      </c>
+    </row>
+    <row r="24" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="A24" t="s">
+        <v>1</v>
+      </c>
+      <c r="B24">
+        <v>2024712317</v>
+      </c>
+      <c r="D24" s="1">
+        <v>5</v>
+      </c>
+      <c r="E24" s="1">
+        <v>4</v>
+      </c>
+      <c r="F24" s="1">
+        <v>1.7</v>
+      </c>
+      <c r="G24" s="1">
+        <v>4</v>
+      </c>
+      <c r="H24" s="1">
+        <v>5</v>
+      </c>
+      <c r="I24" s="1">
+        <f>SUM(Tabela5[[#This Row],[P1 Q1]:[P1 Q5]])</f>
+        <v>19.7</v>
+      </c>
+      <c r="J24" s="1">
+        <v>19.7</v>
+      </c>
+      <c r="K24" s="1">
+        <v>0</v>
+      </c>
+      <c r="L24" s="1">
+        <v>2</v>
+      </c>
+      <c r="M24" s="1">
+        <v>3</v>
+      </c>
+      <c r="N24" s="1">
+        <v>4</v>
+      </c>
+      <c r="O24" s="1">
+        <v>2</v>
+      </c>
+      <c r="P24" s="1">
+        <f>SUM(Tabela5[[#This Row],[P2 Q1]:[P2 Q5]])</f>
+        <v>11</v>
+      </c>
+      <c r="Q24" s="1">
+        <v>11</v>
+      </c>
+      <c r="R24" s="6">
+        <v>4</v>
+      </c>
+      <c r="S24" s="1">
+        <f>SUM(Tabela5[[#This Row],[Nota P2]],Tabela5[[#This Row],[Nota P1]],Tabela5[[#This Row],[TP1]])</f>
+        <v>34.700000000000003</v>
+      </c>
+      <c r="T24" s="1">
+        <f>SUM(Tabela5[[#This Row],[Nota P1 Final]],Tabela5[[#This Row],[Nota P2 Final]],Tabela5[[#This Row],[TP1]])</f>
+        <v>34.700000000000003</v>
+      </c>
+    </row>
+    <row r="25" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="A25" t="s">
+        <v>9</v>
+      </c>
+      <c r="B25">
+        <v>2024700386</v>
+      </c>
+      <c r="D25" s="1">
+        <v>5</v>
+      </c>
+      <c r="E25" s="1">
+        <v>3</v>
+      </c>
+      <c r="F25" s="1">
+        <v>2.5</v>
+      </c>
+      <c r="G25" s="1">
+        <v>5</v>
+      </c>
+      <c r="H25" s="1">
+        <v>5</v>
+      </c>
+      <c r="I25" s="1">
+        <f>SUM(Tabela5[[#This Row],[P1 Q1]:[P1 Q5]])</f>
+        <v>20.5</v>
+      </c>
+      <c r="J25" s="1">
+        <v>20.5</v>
+      </c>
+      <c r="K25" s="1">
+        <v>2</v>
+      </c>
+      <c r="L25" s="1">
+        <v>0</v>
+      </c>
+      <c r="M25" s="1">
+        <v>0</v>
+      </c>
+      <c r="N25" s="1">
+        <v>3</v>
+      </c>
+      <c r="O25" s="1">
+        <v>4</v>
+      </c>
+      <c r="P25" s="1">
+        <f>SUM(Tabela5[[#This Row],[P2 Q1]:[P2 Q5]])</f>
+        <v>9</v>
+      </c>
+      <c r="Q25" s="1">
+        <v>9</v>
+      </c>
+      <c r="R25" s="6">
+        <v>5</v>
+      </c>
+      <c r="S25" s="1">
+        <f>SUM(Tabela5[[#This Row],[Nota P2]],Tabela5[[#This Row],[Nota P1]],Tabela5[[#This Row],[TP1]])</f>
+        <v>34.5</v>
+      </c>
+      <c r="T25" s="1">
+        <f>SUM(Tabela5[[#This Row],[Nota P1 Final]],Tabela5[[#This Row],[Nota P2 Final]],Tabela5[[#This Row],[TP1]])</f>
+        <v>34.5</v>
+      </c>
+    </row>
+    <row r="26" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="A26" t="s">
+        <v>9</v>
+      </c>
+      <c r="B26">
+        <v>2024693045</v>
+      </c>
+      <c r="D26" s="1">
+        <v>0</v>
+      </c>
+      <c r="E26" s="1">
+        <v>0</v>
+      </c>
+      <c r="F26" s="1">
+        <v>0</v>
+      </c>
+      <c r="G26" s="1">
+        <v>0</v>
+      </c>
+      <c r="H26" s="1">
+        <v>0</v>
+      </c>
+      <c r="I26" s="1">
+        <f>SUM(Tabela5[[#This Row],[P1 Q1]:[P1 Q5]])</f>
+        <v>0</v>
+      </c>
+      <c r="J26" s="1">
+        <v>19.2</v>
+      </c>
+      <c r="K26" s="1">
+        <v>3</v>
+      </c>
+      <c r="L26" s="1">
+        <v>0</v>
+      </c>
+      <c r="M26" s="1">
+        <v>3</v>
+      </c>
+      <c r="N26" s="1">
+        <v>4</v>
+      </c>
+      <c r="O26" s="1">
+        <v>0</v>
+      </c>
+      <c r="P26" s="1">
+        <f>SUM(Tabela5[[#This Row],[P2 Q1]:[P2 Q5]])</f>
+        <v>10</v>
+      </c>
+      <c r="Q26" s="1">
+        <v>10</v>
+      </c>
+      <c r="R26" s="6">
+        <v>5</v>
+      </c>
+      <c r="S26" s="1">
+        <f>SUM(Tabela5[[#This Row],[Nota P2]],Tabela5[[#This Row],[Nota P1]],Tabela5[[#This Row],[TP1]])</f>
+        <v>15</v>
+      </c>
+      <c r="T26" s="1">
+        <f>SUM(Tabela5[[#This Row],[Nota P1 Final]],Tabela5[[#This Row],[Nota P2 Final]],Tabela5[[#This Row],[TP1]])</f>
+        <v>34.200000000000003</v>
+      </c>
+    </row>
+    <row r="27" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="A27" t="s">
+        <v>9</v>
+      </c>
+      <c r="B27">
+        <v>2024710020</v>
+      </c>
+      <c r="D27" s="1">
+        <v>0</v>
+      </c>
+      <c r="E27" s="1">
+        <v>3.5</v>
+      </c>
+      <c r="F27" s="1">
+        <v>0</v>
+      </c>
+      <c r="G27" s="1">
+        <v>4.2</v>
+      </c>
+      <c r="H27" s="1">
+        <v>5</v>
+      </c>
+      <c r="I27" s="1">
+        <f>SUM(Tabela5[[#This Row],[P1 Q1]:[P1 Q5]])</f>
+        <v>12.7</v>
+      </c>
+      <c r="J27" s="1">
+        <v>15</v>
+      </c>
+      <c r="K27" s="1">
+        <v>0</v>
+      </c>
+      <c r="L27" s="1">
+        <v>0</v>
+      </c>
+      <c r="M27" s="1">
+        <v>0</v>
+      </c>
+      <c r="N27" s="1">
+        <v>0</v>
+      </c>
+      <c r="O27" s="1">
+        <v>0</v>
+      </c>
+      <c r="P27" s="1">
+        <f>SUM(Tabela5[[#This Row],[P2 Q1]:[P2 Q5]])</f>
+        <v>0</v>
+      </c>
+      <c r="Q27" s="1">
+        <v>14</v>
+      </c>
+      <c r="R27" s="6">
+        <v>5</v>
+      </c>
+      <c r="S27" s="1">
+        <f>SUM(Tabela5[[#This Row],[Nota P2]],Tabela5[[#This Row],[Nota P1]],Tabela5[[#This Row],[TP1]])</f>
+        <v>17.7</v>
+      </c>
+      <c r="T27" s="1">
+        <f>SUM(Tabela5[[#This Row],[Nota P1 Final]],Tabela5[[#This Row],[Nota P2 Final]],Tabela5[[#This Row],[TP1]])</f>
+        <v>34</v>
+      </c>
+    </row>
+    <row r="28" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="A28" t="s">
+        <v>1</v>
+      </c>
+      <c r="B28">
+        <v>2024716169</v>
+      </c>
+      <c r="D28" s="1">
+        <v>5</v>
+      </c>
+      <c r="E28" s="1">
+        <v>3.5</v>
+      </c>
+      <c r="F28" s="1">
+        <v>2.5</v>
+      </c>
+      <c r="G28" s="1">
+        <v>5</v>
+      </c>
+      <c r="H28" s="1">
+        <v>3.7</v>
+      </c>
+      <c r="I28" s="1">
+        <f>SUM(Tabela5[[#This Row],[P1 Q1]:[P1 Q5]])</f>
+        <v>19.7</v>
+      </c>
+      <c r="J28" s="1">
+        <v>19.7</v>
+      </c>
+      <c r="K28" s="1">
+        <v>0</v>
+      </c>
+      <c r="L28" s="1">
+        <v>1</v>
+      </c>
+      <c r="M28" s="1">
+        <v>4</v>
+      </c>
+      <c r="N28" s="1">
+        <v>4</v>
+      </c>
+      <c r="O28" s="1">
+        <v>0</v>
+      </c>
+      <c r="P28" s="1">
+        <f>SUM(Tabela5[[#This Row],[P2 Q1]:[P2 Q5]])</f>
+        <v>9</v>
+      </c>
+      <c r="Q28" s="1">
+        <v>9</v>
+      </c>
+      <c r="R28" s="6">
+        <v>5</v>
+      </c>
+      <c r="S28" s="1">
+        <f>SUM(Tabela5[[#This Row],[Nota P2]],Tabela5[[#This Row],[Nota P1]],Tabela5[[#This Row],[TP1]])</f>
+        <v>33.700000000000003</v>
+      </c>
+      <c r="T28" s="1">
+        <f>SUM(Tabela5[[#This Row],[Nota P1 Final]],Tabela5[[#This Row],[Nota P2 Final]],Tabela5[[#This Row],[TP1]])</f>
+        <v>33.700000000000003</v>
+      </c>
+    </row>
+    <row r="29" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="A29" t="s">
+        <v>9</v>
+      </c>
+      <c r="B29">
+        <v>2024700378</v>
+      </c>
+      <c r="D29" s="1">
+        <v>5</v>
+      </c>
+      <c r="E29" s="1">
+        <v>3</v>
+      </c>
+      <c r="F29" s="1">
+        <v>1</v>
+      </c>
+      <c r="G29" s="1">
+        <v>2.5</v>
+      </c>
+      <c r="H29" s="1">
+        <v>2.5</v>
+      </c>
+      <c r="I29" s="1">
+        <f>SUM(Tabela5[[#This Row],[P1 Q1]:[P1 Q5]])</f>
+        <v>14</v>
+      </c>
+      <c r="J29" s="1">
+        <v>14</v>
+      </c>
+      <c r="K29" s="1">
+        <v>4</v>
+      </c>
+      <c r="L29" s="1">
+        <v>0</v>
+      </c>
+      <c r="M29" s="1">
+        <v>3</v>
+      </c>
+      <c r="N29" s="1">
+        <v>3</v>
+      </c>
+      <c r="O29" s="1">
+        <v>4</v>
+      </c>
+      <c r="P29" s="1">
         <f>SUM(Tabela5[[#This Row],[P2 Q1]:[P2 Q5]])</f>
         <v>14</v>
       </c>
-      <c r="P14" s="1">
-        <f>SUM(Tabela5[[#This Row],[Nota P2]],Tabela5[[#This Row],[Nota P1]])</f>
-        <v>37.5</v>
-      </c>
-    </row>
-    <row r="15" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A15" t="s">
-        <v>9</v>
-      </c>
-      <c r="B15">
-        <v>2024709316</v>
-      </c>
-      <c r="D15" s="1">
-        <v>5</v>
-      </c>
-      <c r="E15" s="1">
-        <v>4.5</v>
-      </c>
-      <c r="F15" s="1">
-        <v>2.5</v>
-      </c>
-      <c r="G15" s="1">
-        <v>4.5</v>
-      </c>
-      <c r="H15" s="1">
-        <v>5</v>
-      </c>
-      <c r="I15" s="1">
-        <f>SUM(Tabela5[[#This Row],[P1 Q1]:[P1 Q5]])</f>
-        <v>21.5</v>
-      </c>
-      <c r="J15" s="1">
-        <v>3</v>
-      </c>
-      <c r="K15" s="1">
-        <v>4</v>
-      </c>
-      <c r="L15" s="1">
-        <v>3</v>
-      </c>
-      <c r="M15" s="1">
-        <v>4</v>
-      </c>
-      <c r="N15" s="1">
-        <v>0</v>
-      </c>
-      <c r="O15" s="1">
-        <f>SUM(Tabela5[[#This Row],[P2 Q1]:[P2 Q5]])</f>
+      <c r="Q29" s="1">
         <v>14</v>
       </c>
-      <c r="P15" s="1">
-        <f>SUM(Tabela5[[#This Row],[Nota P2]],Tabela5[[#This Row],[Nota P1]])</f>
-        <v>35.5</v>
-      </c>
-    </row>
-    <row r="16" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A16" t="s">
-        <v>9</v>
-      </c>
-      <c r="B16">
-        <v>2024700378</v>
-      </c>
-      <c r="D16" s="1">
-        <v>5</v>
-      </c>
-      <c r="E16" s="1">
-        <v>3</v>
-      </c>
-      <c r="F16" s="1">
-        <v>1</v>
-      </c>
-      <c r="G16" s="1">
-        <v>2.5</v>
-      </c>
-      <c r="H16" s="1">
-        <v>2.5</v>
-      </c>
-      <c r="I16" s="1">
-        <f>SUM(Tabela5[[#This Row],[P1 Q1]:[P1 Q5]])</f>
-        <v>14</v>
-      </c>
-      <c r="J16" s="1">
-        <v>4</v>
-      </c>
-      <c r="K16" s="1">
-        <v>0</v>
-      </c>
-      <c r="L16" s="1">
-        <v>3</v>
-      </c>
-      <c r="M16" s="1">
-        <v>3</v>
-      </c>
-      <c r="N16" s="1">
-        <v>4</v>
-      </c>
-      <c r="O16" s="1">
-        <f>SUM(Tabela5[[#This Row],[P2 Q1]:[P2 Q5]])</f>
-        <v>14</v>
-      </c>
-      <c r="P16" s="1">
-        <f>SUM(Tabela5[[#This Row],[Nota P2]],Tabela5[[#This Row],[Nota P1]])</f>
-        <v>28</v>
-      </c>
-    </row>
-    <row r="17" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A17" t="s">
-        <v>9</v>
-      </c>
-      <c r="B17">
-        <v>2024715979</v>
-      </c>
-      <c r="D17" s="1">
-        <v>5</v>
-      </c>
-      <c r="E17" s="1">
-        <v>3.5</v>
-      </c>
-      <c r="F17" s="1">
-        <v>1.7</v>
-      </c>
-      <c r="G17" s="1">
-        <v>5</v>
-      </c>
-      <c r="H17" s="1">
-        <v>5</v>
-      </c>
-      <c r="I17" s="1">
-        <f>SUM(Tabela5[[#This Row],[P1 Q1]:[P1 Q5]])</f>
-        <v>20.2</v>
-      </c>
-      <c r="J17" s="1">
-        <v>4</v>
-      </c>
-      <c r="K17" s="1">
-        <v>0</v>
-      </c>
-      <c r="L17" s="1">
-        <v>4</v>
-      </c>
-      <c r="M17" s="1">
-        <v>3.5</v>
-      </c>
-      <c r="N17" s="1">
-        <v>2</v>
-      </c>
-      <c r="O17" s="1">
-        <f>SUM(Tabela5[[#This Row],[P2 Q1]:[P2 Q5]])</f>
-        <v>13.5</v>
-      </c>
-      <c r="P17" s="1">
-        <f>SUM(Tabela5[[#This Row],[Nota P2]],Tabela5[[#This Row],[Nota P1]])</f>
-        <v>33.700000000000003</v>
-      </c>
-    </row>
-    <row r="18" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A18" t="s">
-        <v>9</v>
-      </c>
-      <c r="B18">
-        <v>2024709308</v>
-      </c>
-      <c r="D18" s="1">
-        <v>5</v>
-      </c>
-      <c r="E18" s="1">
-        <v>4.5</v>
-      </c>
-      <c r="F18" s="1">
-        <v>2.5</v>
-      </c>
-      <c r="G18" s="1">
-        <v>3.7</v>
-      </c>
-      <c r="H18" s="1">
-        <v>5</v>
-      </c>
-      <c r="I18" s="1">
-        <f>SUM(Tabela5[[#This Row],[P1 Q1]:[P1 Q5]])</f>
-        <v>20.7</v>
-      </c>
-      <c r="J18" s="1">
-        <v>3</v>
-      </c>
-      <c r="K18" s="1">
-        <v>4</v>
-      </c>
-      <c r="L18" s="1">
-        <v>2</v>
-      </c>
-      <c r="M18" s="1">
-        <v>4</v>
-      </c>
-      <c r="N18" s="1">
-        <v>0</v>
-      </c>
-      <c r="O18" s="1">
-        <f>SUM(Tabela5[[#This Row],[P2 Q1]:[P2 Q5]])</f>
-        <v>13</v>
-      </c>
-      <c r="P18" s="1">
-        <f>SUM(Tabela5[[#This Row],[Nota P2]],Tabela5[[#This Row],[Nota P1]])</f>
-        <v>33.700000000000003</v>
-      </c>
-    </row>
-    <row r="19" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A19" t="s">
-        <v>9</v>
-      </c>
-      <c r="B19">
-        <v>2024691921</v>
-      </c>
-      <c r="D19" s="1">
-        <v>5</v>
-      </c>
-      <c r="E19" s="1">
-        <v>4</v>
-      </c>
-      <c r="F19" s="1">
-        <v>2.5</v>
-      </c>
-      <c r="G19" s="1">
-        <v>4.2</v>
-      </c>
-      <c r="H19" s="1">
-        <v>4</v>
-      </c>
-      <c r="I19" s="1">
-        <f>SUM(Tabela5[[#This Row],[P1 Q1]:[P1 Q5]])</f>
-        <v>19.7</v>
-      </c>
-      <c r="J19" s="1">
-        <v>1</v>
-      </c>
-      <c r="K19" s="1">
-        <v>3</v>
-      </c>
-      <c r="L19" s="1">
-        <v>2</v>
-      </c>
-      <c r="M19" s="1">
-        <v>3</v>
-      </c>
-      <c r="N19" s="1">
-        <v>4</v>
-      </c>
-      <c r="O19" s="1">
-        <f>SUM(Tabela5[[#This Row],[P2 Q1]:[P2 Q5]])</f>
-        <v>13</v>
-      </c>
-      <c r="P19" s="1">
-        <f>SUM(Tabela5[[#This Row],[Nota P2]],Tabela5[[#This Row],[Nota P1]])</f>
-        <v>32.700000000000003</v>
-      </c>
-    </row>
-    <row r="20" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A20" t="s">
-        <v>9</v>
-      </c>
-      <c r="B20">
-        <v>2023655557</v>
-      </c>
-      <c r="D20" s="1">
-        <v>5</v>
-      </c>
-      <c r="E20" s="1">
-        <v>5</v>
-      </c>
-      <c r="F20" s="1">
-        <v>0</v>
-      </c>
-      <c r="G20" s="1">
-        <v>4.2</v>
-      </c>
-      <c r="H20" s="1">
-        <v>3.7</v>
-      </c>
-      <c r="I20" s="1">
-        <f>SUM(Tabela5[[#This Row],[P1 Q1]:[P1 Q5]])</f>
-        <v>17.899999999999999</v>
-      </c>
-      <c r="J20" s="1">
-        <v>3</v>
-      </c>
-      <c r="K20" s="1">
-        <v>1</v>
-      </c>
-      <c r="L20" s="1">
-        <v>3</v>
-      </c>
-      <c r="M20" s="1">
-        <v>4</v>
-      </c>
-      <c r="N20" s="1">
-        <v>2</v>
-      </c>
-      <c r="O20" s="1">
-        <f>SUM(Tabela5[[#This Row],[P2 Q1]:[P2 Q5]])</f>
-        <v>13</v>
-      </c>
-      <c r="P20" s="1">
-        <f>SUM(Tabela5[[#This Row],[Nota P2]],Tabela5[[#This Row],[Nota P1]])</f>
-        <v>30.9</v>
-      </c>
-    </row>
-    <row r="21" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A21" t="s">
-        <v>9</v>
-      </c>
-      <c r="B21">
-        <v>2024701382</v>
-      </c>
-      <c r="D21" s="1">
-        <v>5</v>
-      </c>
-      <c r="E21" s="1">
-        <v>4.5</v>
-      </c>
-      <c r="F21" s="1">
-        <v>2.5</v>
-      </c>
-      <c r="G21" s="1">
-        <v>5</v>
-      </c>
-      <c r="H21" s="1">
-        <v>3.8</v>
-      </c>
-      <c r="I21" s="1">
-        <f>SUM(Tabela5[[#This Row],[P1 Q1]:[P1 Q5]])</f>
-        <v>20.8</v>
-      </c>
-      <c r="J21" s="1">
-        <v>3</v>
-      </c>
-      <c r="K21" s="1">
-        <v>1</v>
-      </c>
-      <c r="L21" s="1">
-        <v>4</v>
-      </c>
-      <c r="M21" s="1">
-        <v>4</v>
-      </c>
-      <c r="N21" s="1">
-        <v>0</v>
-      </c>
-      <c r="O21" s="1">
-        <f>SUM(Tabela5[[#This Row],[P2 Q1]:[P2 Q5]])</f>
-        <v>12</v>
-      </c>
-      <c r="P21" s="1">
-        <f>SUM(Tabela5[[#This Row],[Nota P2]],Tabela5[[#This Row],[Nota P1]])</f>
-        <v>32.799999999999997</v>
-      </c>
-    </row>
-    <row r="22" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A22" t="s">
-        <v>9</v>
-      </c>
-      <c r="B22">
-        <v>2024709960</v>
-      </c>
-      <c r="D22" s="1">
-        <v>5</v>
-      </c>
-      <c r="E22" s="1">
-        <v>3</v>
-      </c>
-      <c r="F22" s="1">
-        <v>2.5</v>
-      </c>
-      <c r="G22" s="1">
-        <v>5</v>
-      </c>
-      <c r="H22" s="1">
-        <v>1.2</v>
-      </c>
-      <c r="I22" s="1">
-        <f>SUM(Tabela5[[#This Row],[P1 Q1]:[P1 Q5]])</f>
-        <v>16.7</v>
-      </c>
-      <c r="J22" s="1">
-        <v>3</v>
-      </c>
-      <c r="K22" s="1">
-        <v>2</v>
-      </c>
-      <c r="L22" s="1">
-        <v>3</v>
-      </c>
-      <c r="M22" s="1">
-        <v>4</v>
-      </c>
-      <c r="N22" s="1">
-        <v>0</v>
-      </c>
-      <c r="O22" s="1">
-        <f>SUM(Tabela5[[#This Row],[P2 Q1]:[P2 Q5]])</f>
-        <v>12</v>
-      </c>
-      <c r="P22" s="1">
-        <f>SUM(Tabela5[[#This Row],[Nota P2]],Tabela5[[#This Row],[Nota P1]])</f>
-        <v>28.7</v>
-      </c>
-    </row>
-    <row r="23" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A23" t="s">
-        <v>9</v>
-      </c>
-      <c r="B23">
-        <v>2024675179</v>
-      </c>
-      <c r="D23" s="1">
-        <v>0</v>
-      </c>
-      <c r="E23" s="1">
-        <v>2.5</v>
-      </c>
-      <c r="F23" s="1">
-        <v>2.5</v>
-      </c>
-      <c r="G23" s="1">
-        <v>2</v>
-      </c>
-      <c r="H23" s="1">
-        <v>2.5</v>
-      </c>
-      <c r="I23" s="1">
-        <f>SUM(Tabela5[[#This Row],[P1 Q1]:[P1 Q5]])</f>
-        <v>9.5</v>
-      </c>
-      <c r="J23" s="1">
-        <v>2</v>
-      </c>
-      <c r="K23" s="1">
-        <v>0</v>
-      </c>
-      <c r="L23" s="1">
-        <v>4</v>
-      </c>
-      <c r="M23" s="1">
-        <v>4</v>
-      </c>
-      <c r="N23" s="1">
-        <v>2</v>
-      </c>
-      <c r="O23" s="1">
-        <f>SUM(Tabela5[[#This Row],[P2 Q1]:[P2 Q5]])</f>
-        <v>12</v>
-      </c>
-      <c r="P23" s="1">
-        <f>SUM(Tabela5[[#This Row],[Nota P2]],Tabela5[[#This Row],[Nota P1]])</f>
-        <v>21.5</v>
-      </c>
-    </row>
-    <row r="24" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A24" t="s">
-        <v>9</v>
-      </c>
-      <c r="B24">
-        <v>2024701072</v>
-      </c>
-      <c r="D24" s="1">
-        <v>0</v>
-      </c>
-      <c r="E24" s="1">
-        <v>3</v>
-      </c>
-      <c r="F24" s="1">
-        <v>1.7</v>
-      </c>
-      <c r="G24" s="1">
-        <v>2.5</v>
-      </c>
-      <c r="H24" s="1">
-        <v>1.7</v>
-      </c>
-      <c r="I24" s="1">
-        <f>SUM(Tabela5[[#This Row],[P1 Q1]:[P1 Q5]])</f>
-        <v>8.9</v>
-      </c>
-      <c r="J24" s="1">
-        <v>2</v>
-      </c>
-      <c r="K24" s="1">
-        <v>0</v>
-      </c>
-      <c r="L24" s="1">
-        <v>3</v>
-      </c>
-      <c r="M24" s="1">
-        <v>3</v>
-      </c>
-      <c r="N24" s="1">
-        <v>4</v>
-      </c>
-      <c r="O24" s="1">
-        <f>SUM(Tabela5[[#This Row],[P2 Q1]:[P2 Q5]])</f>
-        <v>12</v>
-      </c>
-      <c r="P24" s="1">
-        <f>SUM(Tabela5[[#This Row],[Nota P2]],Tabela5[[#This Row],[Nota P1]])</f>
-        <v>20.9</v>
-      </c>
-    </row>
-    <row r="25" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A25" t="s">
-        <v>9</v>
-      </c>
-      <c r="B25">
-        <v>2024700360</v>
-      </c>
-      <c r="D25" s="1">
-        <v>0</v>
-      </c>
-      <c r="E25" s="1">
-        <v>0</v>
-      </c>
-      <c r="F25" s="1">
-        <v>0</v>
-      </c>
-      <c r="G25" s="1">
-        <v>0</v>
-      </c>
-      <c r="H25" s="1">
-        <v>0</v>
-      </c>
-      <c r="I25" s="1">
-        <f>SUM(Tabela5[[#This Row],[P1 Q1]:[P1 Q5]])</f>
-        <v>0</v>
-      </c>
-      <c r="J25" s="1">
-        <v>2</v>
-      </c>
-      <c r="K25" s="1">
-        <v>0</v>
-      </c>
-      <c r="L25" s="1">
-        <v>2</v>
-      </c>
-      <c r="M25" s="1">
-        <v>4</v>
-      </c>
-      <c r="N25" s="1">
-        <v>4</v>
-      </c>
-      <c r="O25" s="1">
-        <f>SUM(Tabela5[[#This Row],[P2 Q1]:[P2 Q5]])</f>
-        <v>12</v>
-      </c>
-      <c r="P25" s="1">
-        <f>SUM(Tabela5[[#This Row],[Nota P2]],Tabela5[[#This Row],[Nota P1]])</f>
-        <v>12</v>
-      </c>
-    </row>
-    <row r="26" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A26" t="s">
-        <v>1</v>
-      </c>
-      <c r="B26">
-        <v>2024712317</v>
-      </c>
-      <c r="D26" s="1">
-        <v>5</v>
-      </c>
-      <c r="E26" s="1">
-        <v>4</v>
-      </c>
-      <c r="F26" s="1">
-        <v>1.7</v>
-      </c>
-      <c r="G26" s="1">
-        <v>4</v>
-      </c>
-      <c r="H26" s="1">
-        <v>5</v>
-      </c>
-      <c r="I26" s="1">
-        <f>SUM(Tabela5[[#This Row],[P1 Q1]:[P1 Q5]])</f>
-        <v>19.7</v>
-      </c>
-      <c r="J26" s="1">
-        <v>0</v>
-      </c>
-      <c r="K26" s="1">
-        <v>2</v>
-      </c>
-      <c r="L26" s="1">
-        <v>3</v>
-      </c>
-      <c r="M26" s="1">
-        <v>4</v>
-      </c>
-      <c r="N26" s="1">
-        <v>2</v>
-      </c>
-      <c r="O26" s="1">
-        <f>SUM(Tabela5[[#This Row],[P2 Q1]:[P2 Q5]])</f>
-        <v>11</v>
-      </c>
-      <c r="P26" s="1">
-        <f>SUM(Tabela5[[#This Row],[Nota P2]],Tabela5[[#This Row],[Nota P1]])</f>
-        <v>30.7</v>
-      </c>
-    </row>
-    <row r="27" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A27" t="s">
-        <v>9</v>
-      </c>
-      <c r="B27">
-        <v>2024709200</v>
-      </c>
-      <c r="D27" s="1">
-        <v>5</v>
-      </c>
-      <c r="E27" s="1">
-        <v>4</v>
-      </c>
-      <c r="F27" s="1">
-        <v>2.5</v>
-      </c>
-      <c r="G27" s="1">
-        <v>2.5</v>
-      </c>
-      <c r="H27" s="1">
-        <v>5</v>
-      </c>
-      <c r="I27" s="1">
-        <f>SUM(Tabela5[[#This Row],[P1 Q1]:[P1 Q5]])</f>
-        <v>19</v>
-      </c>
-      <c r="J27" s="1">
-        <v>2</v>
-      </c>
-      <c r="K27" s="1">
-        <v>0</v>
-      </c>
-      <c r="L27" s="1">
-        <v>3</v>
-      </c>
-      <c r="M27" s="1">
-        <v>4</v>
-      </c>
-      <c r="N27" s="1">
-        <v>2</v>
-      </c>
-      <c r="O27" s="1">
-        <f>SUM(Tabela5[[#This Row],[P2 Q1]:[P2 Q5]])</f>
-        <v>11</v>
-      </c>
-      <c r="P27" s="1">
-        <f>SUM(Tabela5[[#This Row],[Nota P2]],Tabela5[[#This Row],[Nota P1]])</f>
-        <v>30</v>
-      </c>
-    </row>
-    <row r="28" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A28" t="s">
-        <v>1</v>
-      </c>
-      <c r="B28">
-        <v>2024711698</v>
-      </c>
-      <c r="D28" s="1">
-        <v>5</v>
-      </c>
-      <c r="E28" s="1">
-        <v>4.5</v>
-      </c>
-      <c r="F28" s="1">
-        <v>0</v>
-      </c>
-      <c r="G28" s="1">
-        <v>5</v>
-      </c>
-      <c r="H28" s="1">
-        <v>3.7</v>
-      </c>
-      <c r="I28" s="1">
-        <f>SUM(Tabela5[[#This Row],[P1 Q1]:[P1 Q5]])</f>
-        <v>18.2</v>
-      </c>
-      <c r="J28" s="1">
-        <v>3</v>
-      </c>
-      <c r="K28" s="1">
-        <v>0</v>
-      </c>
-      <c r="L28" s="1">
-        <v>4</v>
-      </c>
-      <c r="M28" s="1">
-        <v>4</v>
-      </c>
-      <c r="N28" s="1">
-        <v>0</v>
-      </c>
-      <c r="O28" s="1">
-        <f>SUM(Tabela5[[#This Row],[P2 Q1]:[P2 Q5]])</f>
-        <v>11</v>
-      </c>
-      <c r="P28" s="1">
-        <f>SUM(Tabela5[[#This Row],[Nota P2]],Tabela5[[#This Row],[Nota P1]])</f>
-        <v>29.2</v>
-      </c>
-    </row>
-    <row r="29" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A29" t="s">
-        <v>9</v>
-      </c>
-      <c r="B29">
-        <v>2024703369</v>
-      </c>
-      <c r="D29" s="1">
-        <v>5</v>
-      </c>
-      <c r="E29" s="1">
-        <v>3.5</v>
-      </c>
-      <c r="F29" s="1">
-        <v>1.7</v>
-      </c>
-      <c r="G29" s="1">
-        <v>2.5</v>
-      </c>
-      <c r="H29" s="1">
-        <v>3.7</v>
-      </c>
-      <c r="I29" s="1">
-        <f>SUM(Tabela5[[#This Row],[P1 Q1]:[P1 Q5]])</f>
-        <v>16.399999999999999</v>
-      </c>
-      <c r="J29" s="1">
-        <v>2</v>
-      </c>
-      <c r="K29" s="1">
-        <v>0</v>
-      </c>
-      <c r="L29" s="1">
-        <v>3</v>
-      </c>
-      <c r="M29" s="1">
-        <v>4</v>
-      </c>
-      <c r="N29" s="1">
-        <v>2</v>
-      </c>
-      <c r="O29" s="1">
-        <f>SUM(Tabela5[[#This Row],[P2 Q1]:[P2 Q5]])</f>
-        <v>11</v>
-      </c>
-      <c r="P29" s="1">
-        <f>SUM(Tabela5[[#This Row],[Nota P2]],Tabela5[[#This Row],[Nota P1]])</f>
-        <v>27.4</v>
-      </c>
-    </row>
-    <row r="30" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="R29" s="6">
+        <v>5</v>
+      </c>
+      <c r="S29" s="1">
+        <f>SUM(Tabela5[[#This Row],[Nota P2]],Tabela5[[#This Row],[Nota P1]],Tabela5[[#This Row],[TP1]])</f>
+        <v>33</v>
+      </c>
+      <c r="T29" s="1">
+        <f>SUM(Tabela5[[#This Row],[Nota P1 Final]],Tabela5[[#This Row],[Nota P2 Final]],Tabela5[[#This Row],[TP1]])</f>
+        <v>33</v>
+      </c>
+    </row>
+    <row r="30" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A30" t="s">
         <v>9</v>
       </c>
@@ -2442,38 +2935,51 @@
         <v>15</v>
       </c>
       <c r="J30" s="1">
-        <v>3</v>
+        <v>15</v>
       </c>
       <c r="K30" s="1">
+        <v>3</v>
+      </c>
+      <c r="L30" s="1">
         <v>1</v>
       </c>
-      <c r="L30" s="1">
-        <v>3</v>
-      </c>
       <c r="M30" s="1">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="N30" s="1">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="O30" s="1">
+        <v>0</v>
+      </c>
+      <c r="P30" s="1">
         <f>SUM(Tabela5[[#This Row],[P2 Q1]:[P2 Q5]])</f>
         <v>11</v>
       </c>
-      <c r="P30" s="1">
-        <f>SUM(Tabela5[[#This Row],[Nota P2]],Tabela5[[#This Row],[Nota P1]])</f>
-        <v>26</v>
-      </c>
-    </row>
-    <row r="31" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="Q30" s="1">
+        <v>13</v>
+      </c>
+      <c r="R30" s="6">
+        <v>5</v>
+      </c>
+      <c r="S30" s="1">
+        <f>SUM(Tabela5[[#This Row],[Nota P2]],Tabela5[[#This Row],[Nota P1]],Tabela5[[#This Row],[TP1]])</f>
+        <v>31</v>
+      </c>
+      <c r="T30" s="1">
+        <f>SUM(Tabela5[[#This Row],[Nota P1 Final]],Tabela5[[#This Row],[Nota P2 Final]],Tabela5[[#This Row],[TP1]])</f>
+        <v>33</v>
+      </c>
+    </row>
+    <row r="31" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A31" t="s">
         <v>9</v>
       </c>
       <c r="B31">
-        <v>2024709294</v>
+        <v>2024715944</v>
       </c>
       <c r="D31" s="1">
-        <v>5</v>
+        <v>2.5</v>
       </c>
       <c r="E31" s="1">
         <v>4</v>
@@ -2482,40 +2988,53 @@
         <v>2.5</v>
       </c>
       <c r="G31" s="1">
-        <v>4.2</v>
+        <v>3.2</v>
       </c>
       <c r="H31" s="1">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="I31" s="1">
         <f>SUM(Tabela5[[#This Row],[P1 Q1]:[P1 Q5]])</f>
-        <v>19.7</v>
+        <v>17.2</v>
       </c>
       <c r="J31" s="1">
-        <v>3.5</v>
+        <v>17.2</v>
       </c>
       <c r="K31" s="1">
         <v>0</v>
       </c>
       <c r="L31" s="1">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="M31" s="1">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="N31" s="1">
         <v>0</v>
       </c>
       <c r="O31" s="1">
+        <v>0</v>
+      </c>
+      <c r="P31" s="1">
         <f>SUM(Tabela5[[#This Row],[P2 Q1]:[P2 Q5]])</f>
+        <v>0</v>
+      </c>
+      <c r="Q31" s="1">
         <v>10.5</v>
       </c>
-      <c r="P31" s="1">
-        <f>SUM(Tabela5[[#This Row],[Nota P2]],Tabela5[[#This Row],[Nota P1]])</f>
-        <v>30.2</v>
-      </c>
-    </row>
-    <row r="32" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="R31" s="6">
+        <v>5</v>
+      </c>
+      <c r="S31" s="1">
+        <f>SUM(Tabela5[[#This Row],[Nota P2]],Tabela5[[#This Row],[Nota P1]],Tabela5[[#This Row],[TP1]])</f>
+        <v>22.2</v>
+      </c>
+      <c r="T31" s="1">
+        <f>SUM(Tabela5[[#This Row],[Nota P1 Final]],Tabela5[[#This Row],[Nota P2 Final]],Tabela5[[#This Row],[TP1]])</f>
+        <v>32.700000000000003</v>
+      </c>
+    </row>
+    <row r="32" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A32" t="s">
         <v>9</v>
       </c>
@@ -2542,113 +3061,139 @@
         <v>16.899999999999999</v>
       </c>
       <c r="J32" s="1">
-        <v>3</v>
+        <v>17.399999999999999</v>
       </c>
       <c r="K32" s="1">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="L32" s="1">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="M32" s="1">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="N32" s="1">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="O32" s="1">
+        <v>0</v>
+      </c>
+      <c r="P32" s="1">
         <f>SUM(Tabela5[[#This Row],[P2 Q1]:[P2 Q5]])</f>
         <v>10</v>
       </c>
-      <c r="P32" s="1">
-        <f>SUM(Tabela5[[#This Row],[Nota P2]],Tabela5[[#This Row],[Nota P1]])</f>
-        <v>26.9</v>
-      </c>
-    </row>
-    <row r="33" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="Q32" s="1">
+        <v>10</v>
+      </c>
+      <c r="R32" s="6">
+        <v>5</v>
+      </c>
+      <c r="S32" s="1">
+        <f>SUM(Tabela5[[#This Row],[Nota P2]],Tabela5[[#This Row],[Nota P1]],Tabela5[[#This Row],[TP1]])</f>
+        <v>31.9</v>
+      </c>
+      <c r="T32" s="1">
+        <f>SUM(Tabela5[[#This Row],[Nota P1 Final]],Tabela5[[#This Row],[Nota P2 Final]],Tabela5[[#This Row],[TP1]])</f>
+        <v>32.4</v>
+      </c>
+    </row>
+    <row r="33" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A33" t="s">
-        <v>9</v>
+        <v>1</v>
       </c>
       <c r="B33">
-        <v>2024693045</v>
+        <v>2024711655</v>
       </c>
       <c r="D33" s="1">
-        <v>0</v>
+        <v>2.5</v>
       </c>
       <c r="E33" s="1">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="F33" s="1">
-        <v>0</v>
+        <v>1.7</v>
       </c>
       <c r="G33" s="1">
-        <v>0</v>
+        <v>4.2</v>
       </c>
       <c r="H33" s="1">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="I33" s="1">
         <f>SUM(Tabela5[[#This Row],[P1 Q1]:[P1 Q5]])</f>
-        <v>0</v>
+        <v>17.399999999999999</v>
       </c>
       <c r="J33" s="1">
-        <v>3</v>
+        <v>17.399999999999999</v>
       </c>
       <c r="K33" s="1">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="L33" s="1">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="M33" s="1">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="N33" s="1">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="O33" s="1">
+        <v>0</v>
+      </c>
+      <c r="P33" s="1">
         <f>SUM(Tabela5[[#This Row],[P2 Q1]:[P2 Q5]])</f>
-        <v>10</v>
-      </c>
-      <c r="P33" s="1">
-        <f>SUM(Tabela5[[#This Row],[Nota P2]],Tabela5[[#This Row],[Nota P1]])</f>
-        <v>10</v>
-      </c>
-    </row>
-    <row r="34" spans="1:16" x14ac:dyDescent="0.3">
+        <v>9</v>
+      </c>
+      <c r="Q33" s="1">
+        <v>9</v>
+      </c>
+      <c r="R33" s="6">
+        <v>5</v>
+      </c>
+      <c r="S33" s="1">
+        <f>SUM(Tabela5[[#This Row],[Nota P2]],Tabela5[[#This Row],[Nota P1]],Tabela5[[#This Row],[TP1]])</f>
+        <v>31.4</v>
+      </c>
+      <c r="T33" s="1">
+        <f>SUM(Tabela5[[#This Row],[Nota P1 Final]],Tabela5[[#This Row],[Nota P2 Final]],Tabela5[[#This Row],[TP1]])</f>
+        <v>31.4</v>
+      </c>
+    </row>
+    <row r="34" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A34" t="s">
         <v>9</v>
       </c>
       <c r="B34">
-        <v>2024700386</v>
+        <v>2024691883</v>
       </c>
       <c r="D34" s="1">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="E34" s="1">
-        <v>3</v>
+        <v>3.5</v>
       </c>
       <c r="F34" s="1">
-        <v>2.5</v>
+        <v>1.7</v>
       </c>
       <c r="G34" s="1">
-        <v>5</v>
+        <v>4.2</v>
       </c>
       <c r="H34" s="1">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="I34" s="1">
         <f>SUM(Tabela5[[#This Row],[P1 Q1]:[P1 Q5]])</f>
-        <v>20.5</v>
+        <v>12.4</v>
       </c>
       <c r="J34" s="1">
-        <v>2</v>
+        <v>12.4</v>
       </c>
       <c r="K34" s="1">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="L34" s="1">
-        <v>0</v>
+        <v>0.5</v>
       </c>
       <c r="M34" s="1">
         <v>3</v>
@@ -2657,148 +3202,187 @@
         <v>4</v>
       </c>
       <c r="O34" s="1">
+        <v>4</v>
+      </c>
+      <c r="P34" s="1">
         <f>SUM(Tabela5[[#This Row],[P2 Q1]:[P2 Q5]])</f>
-        <v>9</v>
-      </c>
-      <c r="P34" s="1">
-        <f>SUM(Tabela5[[#This Row],[Nota P2]],Tabela5[[#This Row],[Nota P1]])</f>
-        <v>29.5</v>
-      </c>
-    </row>
-    <row r="35" spans="1:16" x14ac:dyDescent="0.3">
+        <v>15.5</v>
+      </c>
+      <c r="Q34" s="1">
+        <v>15.5</v>
+      </c>
+      <c r="R34" s="6">
+        <v>1</v>
+      </c>
+      <c r="S34" s="1">
+        <f>SUM(Tabela5[[#This Row],[Nota P2]],Tabela5[[#This Row],[Nota P1]],Tabela5[[#This Row],[TP1]])</f>
+        <v>28.9</v>
+      </c>
+      <c r="T34" s="1">
+        <f>SUM(Tabela5[[#This Row],[Nota P1 Final]],Tabela5[[#This Row],[Nota P2 Final]],Tabela5[[#This Row],[TP1]])</f>
+        <v>28.9</v>
+      </c>
+    </row>
+    <row r="35" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A35" t="s">
-        <v>1</v>
+        <v>9</v>
       </c>
       <c r="B35">
-        <v>2024716169</v>
+        <v>2024675179</v>
       </c>
       <c r="D35" s="1">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="E35" s="1">
-        <v>3.5</v>
+        <v>2.5</v>
       </c>
       <c r="F35" s="1">
         <v>2.5</v>
       </c>
       <c r="G35" s="1">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="H35" s="1">
-        <v>3.7</v>
+        <v>2.5</v>
       </c>
       <c r="I35" s="1">
         <f>SUM(Tabela5[[#This Row],[P1 Q1]:[P1 Q5]])</f>
-        <v>19.7</v>
+        <v>9.5</v>
       </c>
       <c r="J35" s="1">
-        <v>0</v>
+        <v>12.5</v>
       </c>
       <c r="K35" s="1">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L35" s="1">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="M35" s="1">
         <v>4</v>
       </c>
       <c r="N35" s="1">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="O35" s="1">
+        <v>2</v>
+      </c>
+      <c r="P35" s="1">
         <f>SUM(Tabela5[[#This Row],[P2 Q1]:[P2 Q5]])</f>
-        <v>9</v>
-      </c>
-      <c r="P35" s="1">
-        <f>SUM(Tabela5[[#This Row],[Nota P2]],Tabela5[[#This Row],[Nota P1]])</f>
-        <v>28.7</v>
-      </c>
-    </row>
-    <row r="36" spans="1:16" x14ac:dyDescent="0.3">
+        <v>12</v>
+      </c>
+      <c r="Q35" s="1">
+        <v>12</v>
+      </c>
+      <c r="R35" s="6">
+        <v>4</v>
+      </c>
+      <c r="S35" s="1">
+        <f>SUM(Tabela5[[#This Row],[Nota P2]],Tabela5[[#This Row],[Nota P1]],Tabela5[[#This Row],[TP1]])</f>
+        <v>25.5</v>
+      </c>
+      <c r="T35" s="1">
+        <f>SUM(Tabela5[[#This Row],[Nota P1 Final]],Tabela5[[#This Row],[Nota P2 Final]],Tabela5[[#This Row],[TP1]])</f>
+        <v>28.5</v>
+      </c>
+    </row>
+    <row r="36" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A36" t="s">
-        <v>1</v>
+        <v>9</v>
       </c>
       <c r="B36">
-        <v>2024711655</v>
+        <v>2024673630</v>
       </c>
       <c r="D36" s="1">
-        <v>2.5</v>
+        <v>5</v>
       </c>
       <c r="E36" s="1">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="F36" s="1">
         <v>1.7</v>
       </c>
       <c r="G36" s="1">
-        <v>4.2</v>
+        <v>2.5</v>
       </c>
       <c r="H36" s="1">
-        <v>5</v>
+        <v>3.7</v>
       </c>
       <c r="I36" s="1">
         <f>SUM(Tabela5[[#This Row],[P1 Q1]:[P1 Q5]])</f>
-        <v>17.399999999999999</v>
+        <v>15.899999999999999</v>
       </c>
       <c r="J36" s="1">
-        <v>3</v>
+        <v>15.9</v>
       </c>
       <c r="K36" s="1">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="L36" s="1">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="M36" s="1">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="N36" s="1">
         <v>0</v>
       </c>
       <c r="O36" s="1">
+        <v>4</v>
+      </c>
+      <c r="P36" s="1">
         <f>SUM(Tabela5[[#This Row],[P2 Q1]:[P2 Q5]])</f>
-        <v>9</v>
-      </c>
-      <c r="P36" s="1">
-        <f>SUM(Tabela5[[#This Row],[Nota P2]],Tabela5[[#This Row],[Nota P1]])</f>
-        <v>26.4</v>
-      </c>
-    </row>
-    <row r="37" spans="1:16" x14ac:dyDescent="0.3">
+        <v>8</v>
+      </c>
+      <c r="Q36" s="1">
+        <v>8</v>
+      </c>
+      <c r="R36" s="6">
+        <v>4</v>
+      </c>
+      <c r="S36" s="1">
+        <f>SUM(Tabela5[[#This Row],[Nota P2]],Tabela5[[#This Row],[Nota P1]],Tabela5[[#This Row],[TP1]])</f>
+        <v>27.9</v>
+      </c>
+      <c r="T36" s="1">
+        <f>SUM(Tabela5[[#This Row],[Nota P1 Final]],Tabela5[[#This Row],[Nota P2 Final]],Tabela5[[#This Row],[TP1]])</f>
+        <v>27.9</v>
+      </c>
+    </row>
+    <row r="37" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A37" t="s">
-        <v>9</v>
+        <v>1</v>
       </c>
       <c r="B37">
-        <v>2024700483</v>
+        <v>2024711396</v>
       </c>
       <c r="D37" s="1">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="E37" s="1">
-        <v>0</v>
+        <v>2.5</v>
       </c>
       <c r="F37" s="1">
         <v>0</v>
       </c>
       <c r="G37" s="1">
-        <v>0</v>
+        <v>4.2</v>
       </c>
       <c r="H37" s="1">
-        <v>0</v>
+        <v>1.2</v>
       </c>
       <c r="I37" s="1">
         <f>SUM(Tabela5[[#This Row],[P1 Q1]:[P1 Q5]])</f>
-        <v>0</v>
+        <v>12.899999999999999</v>
       </c>
       <c r="J37" s="1">
-        <v>2</v>
+        <v>12.9</v>
       </c>
       <c r="K37" s="1">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="L37" s="1">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="M37" s="1">
         <v>3</v>
@@ -2807,23 +3391,36 @@
         <v>0</v>
       </c>
       <c r="O37" s="1">
+        <v>0</v>
+      </c>
+      <c r="P37" s="1">
         <f>SUM(Tabela5[[#This Row],[P2 Q1]:[P2 Q5]])</f>
-        <v>9</v>
-      </c>
-      <c r="P37" s="1">
-        <f>SUM(Tabela5[[#This Row],[Nota P2]],Tabela5[[#This Row],[Nota P1]])</f>
-        <v>9</v>
-      </c>
-    </row>
-    <row r="38" spans="1:16" x14ac:dyDescent="0.3">
+        <v>7</v>
+      </c>
+      <c r="Q37" s="1">
+        <v>7</v>
+      </c>
+      <c r="R37" s="6">
+        <v>5</v>
+      </c>
+      <c r="S37" s="1">
+        <f>SUM(Tabela5[[#This Row],[Nota P2]],Tabela5[[#This Row],[Nota P1]],Tabela5[[#This Row],[TP1]])</f>
+        <v>24.9</v>
+      </c>
+      <c r="T37" s="1">
+        <f>SUM(Tabela5[[#This Row],[Nota P1 Final]],Tabela5[[#This Row],[Nota P2 Final]],Tabela5[[#This Row],[TP1]])</f>
+        <v>24.9</v>
+      </c>
+    </row>
+    <row r="38" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A38" t="s">
         <v>9</v>
       </c>
       <c r="B38">
-        <v>2024673630</v>
+        <v>2024701072</v>
       </c>
       <c r="D38" s="1">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="E38" s="1">
         <v>3</v>
@@ -2835,37 +3432,50 @@
         <v>2.5</v>
       </c>
       <c r="H38" s="1">
-        <v>3.7</v>
+        <v>1.7</v>
       </c>
       <c r="I38" s="1">
         <f>SUM(Tabela5[[#This Row],[P1 Q1]:[P1 Q5]])</f>
-        <v>15.899999999999999</v>
+        <v>8.9</v>
       </c>
       <c r="J38" s="1">
-        <v>0</v>
+        <v>8.9</v>
       </c>
       <c r="K38" s="1">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="L38" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="M38" s="1">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="N38" s="1">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="O38" s="1">
+        <v>4</v>
+      </c>
+      <c r="P38" s="1">
         <f>SUM(Tabela5[[#This Row],[P2 Q1]:[P2 Q5]])</f>
-        <v>8</v>
-      </c>
-      <c r="P38" s="1">
-        <f>SUM(Tabela5[[#This Row],[Nota P2]],Tabela5[[#This Row],[Nota P1]])</f>
+        <v>12</v>
+      </c>
+      <c r="Q38" s="1">
+        <v>12</v>
+      </c>
+      <c r="R38" s="6">
+        <v>3</v>
+      </c>
+      <c r="S38" s="1">
+        <f>SUM(Tabela5[[#This Row],[Nota P2]],Tabela5[[#This Row],[Nota P1]],Tabela5[[#This Row],[TP1]])</f>
         <v>23.9</v>
       </c>
-    </row>
-    <row r="39" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="T38" s="1">
+        <f>SUM(Tabela5[[#This Row],[Nota P1 Final]],Tabela5[[#This Row],[Nota P2 Final]],Tabela5[[#This Row],[TP1]])</f>
+        <v>23.9</v>
+      </c>
+    </row>
+    <row r="39" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A39" t="s">
         <v>1</v>
       </c>
@@ -2892,63 +3502,76 @@
         <v>12.100000000000001</v>
       </c>
       <c r="J39" s="1">
-        <v>3</v>
+        <v>12.1</v>
       </c>
       <c r="K39" s="1">
+        <v>3</v>
+      </c>
+      <c r="L39" s="1">
         <v>1</v>
       </c>
-      <c r="L39" s="1">
-        <v>0</v>
-      </c>
       <c r="M39" s="1">
+        <v>0</v>
+      </c>
+      <c r="N39" s="1">
         <v>3.5</v>
       </c>
-      <c r="N39" s="1">
-        <v>0</v>
-      </c>
       <c r="O39" s="1">
+        <v>0</v>
+      </c>
+      <c r="P39" s="1">
         <f>SUM(Tabela5[[#This Row],[P2 Q1]:[P2 Q5]])</f>
         <v>7.5</v>
       </c>
-      <c r="P39" s="1">
-        <f>SUM(Tabela5[[#This Row],[Nota P2]],Tabela5[[#This Row],[Nota P1]])</f>
-        <v>19.600000000000001</v>
-      </c>
-    </row>
-    <row r="40" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="Q39" s="1">
+        <v>7.5</v>
+      </c>
+      <c r="R39" s="6">
+        <v>3</v>
+      </c>
+      <c r="S39" s="1">
+        <f>SUM(Tabela5[[#This Row],[Nota P2]],Tabela5[[#This Row],[Nota P1]],Tabela5[[#This Row],[TP1]])</f>
+        <v>22.6</v>
+      </c>
+      <c r="T39" s="1">
+        <f>SUM(Tabela5[[#This Row],[Nota P1 Final]],Tabela5[[#This Row],[Nota P2 Final]],Tabela5[[#This Row],[TP1]])</f>
+        <v>22.6</v>
+      </c>
+    </row>
+    <row r="40" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A40" t="s">
-        <v>1</v>
+        <v>9</v>
       </c>
       <c r="B40">
-        <v>2024711396</v>
+        <v>2024674016</v>
       </c>
       <c r="D40" s="1">
         <v>5</v>
       </c>
       <c r="E40" s="1">
-        <v>2.5</v>
+        <v>4.5</v>
       </c>
       <c r="F40" s="1">
-        <v>0</v>
+        <v>1.7</v>
       </c>
       <c r="G40" s="1">
         <v>4.2</v>
       </c>
       <c r="H40" s="1">
-        <v>1.2</v>
+        <v>5</v>
       </c>
       <c r="I40" s="1">
         <f>SUM(Tabela5[[#This Row],[P1 Q1]:[P1 Q5]])</f>
-        <v>12.899999999999999</v>
+        <v>20.399999999999999</v>
       </c>
       <c r="J40" s="1">
-        <v>4</v>
+        <v>20.399999999999999</v>
       </c>
       <c r="K40" s="1">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="L40" s="1">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="M40" s="1">
         <v>0</v>
@@ -2957,48 +3580,61 @@
         <v>0</v>
       </c>
       <c r="O40" s="1">
+        <v>0</v>
+      </c>
+      <c r="P40" s="1">
         <f>SUM(Tabela5[[#This Row],[P2 Q1]:[P2 Q5]])</f>
-        <v>7</v>
-      </c>
-      <c r="P40" s="1">
-        <f>SUM(Tabela5[[#This Row],[Nota P2]],Tabela5[[#This Row],[Nota P1]])</f>
-        <v>19.899999999999999</v>
-      </c>
-    </row>
-    <row r="41" spans="1:16" x14ac:dyDescent="0.3">
+        <v>2</v>
+      </c>
+      <c r="Q40" s="1">
+        <v>2</v>
+      </c>
+      <c r="R40" s="6">
+        <v>0</v>
+      </c>
+      <c r="S40" s="1">
+        <f>SUM(Tabela5[[#This Row],[Nota P2]],Tabela5[[#This Row],[Nota P1]],Tabela5[[#This Row],[TP1]])</f>
+        <v>22.4</v>
+      </c>
+      <c r="T40" s="1">
+        <f>SUM(Tabela5[[#This Row],[Nota P1 Final]],Tabela5[[#This Row],[Nota P2 Final]],Tabela5[[#This Row],[TP1]])</f>
+        <v>22.4</v>
+      </c>
+    </row>
+    <row r="41" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A41" t="s">
-        <v>1</v>
+        <v>9</v>
       </c>
       <c r="B41">
-        <v>2024711493</v>
+        <v>2024698420</v>
       </c>
       <c r="D41" s="1">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="E41" s="1">
-        <v>2</v>
+        <v>3.5</v>
       </c>
       <c r="F41" s="1">
         <v>0</v>
       </c>
       <c r="G41" s="1">
-        <v>0</v>
+        <v>1.5</v>
       </c>
       <c r="H41" s="1">
-        <v>3.7</v>
+        <v>2.5</v>
       </c>
       <c r="I41" s="1">
         <f>SUM(Tabela5[[#This Row],[P1 Q1]:[P1 Q5]])</f>
-        <v>5.7</v>
+        <v>12.5</v>
       </c>
       <c r="J41" s="1">
-        <v>2</v>
+        <v>12.5</v>
       </c>
       <c r="K41" s="1">
         <v>0</v>
       </c>
       <c r="L41" s="1">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="M41" s="1">
         <v>0</v>
@@ -3007,292 +3643,370 @@
         <v>0</v>
       </c>
       <c r="O41" s="1">
+        <v>0</v>
+      </c>
+      <c r="P41" s="1">
         <f>SUM(Tabela5[[#This Row],[P2 Q1]:[P2 Q5]])</f>
-        <v>5</v>
-      </c>
-      <c r="P41" s="1">
-        <f>SUM(Tabela5[[#This Row],[Nota P2]],Tabela5[[#This Row],[Nota P1]])</f>
-        <v>10.7</v>
-      </c>
-    </row>
-    <row r="42" spans="1:16" x14ac:dyDescent="0.3">
+        <v>0</v>
+      </c>
+      <c r="Q41" s="1">
+        <v>4</v>
+      </c>
+      <c r="R41" s="6">
+        <v>5</v>
+      </c>
+      <c r="S41" s="1">
+        <f>SUM(Tabela5[[#This Row],[Nota P2]],Tabela5[[#This Row],[Nota P1]],Tabela5[[#This Row],[TP1]])</f>
+        <v>17.5</v>
+      </c>
+      <c r="T41" s="1">
+        <f>SUM(Tabela5[[#This Row],[Nota P1 Final]],Tabela5[[#This Row],[Nota P2 Final]],Tabela5[[#This Row],[TP1]])</f>
+        <v>21.5</v>
+      </c>
+    </row>
+    <row r="42" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A42" t="s">
         <v>9</v>
       </c>
       <c r="B42">
-        <v>2024675144</v>
+        <v>2023661379</v>
       </c>
       <c r="D42" s="1">
         <v>0</v>
       </c>
       <c r="E42" s="1">
-        <v>3.5</v>
+        <v>4</v>
       </c>
       <c r="F42" s="1">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="G42" s="1">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="H42" s="1">
-        <v>1.2</v>
+        <v>3.7</v>
       </c>
       <c r="I42" s="1">
         <f>SUM(Tabela5[[#This Row],[P1 Q1]:[P1 Q5]])</f>
-        <v>6.7</v>
+        <v>13.7</v>
       </c>
       <c r="J42" s="1">
-        <v>0</v>
+        <v>13.7</v>
       </c>
       <c r="K42" s="1">
         <v>0</v>
       </c>
       <c r="L42" s="1">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="M42" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N42" s="1">
         <v>0</v>
       </c>
       <c r="O42" s="1">
+        <v>2</v>
+      </c>
+      <c r="P42" s="1">
         <f>SUM(Tabela5[[#This Row],[P2 Q1]:[P2 Q5]])</f>
-        <v>4</v>
-      </c>
-      <c r="P42" s="1">
-        <f>SUM(Tabela5[[#This Row],[Nota P2]],Tabela5[[#This Row],[Nota P1]])</f>
-        <v>10.7</v>
-      </c>
-    </row>
-    <row r="43" spans="1:16" x14ac:dyDescent="0.3">
+        <v>2</v>
+      </c>
+      <c r="Q42" s="1">
+        <v>2</v>
+      </c>
+      <c r="R42" s="6">
+        <v>5</v>
+      </c>
+      <c r="S42" s="1">
+        <f>SUM(Tabela5[[#This Row],[Nota P2]],Tabela5[[#This Row],[Nota P1]],Tabela5[[#This Row],[TP1]])</f>
+        <v>20.7</v>
+      </c>
+      <c r="T42" s="1">
+        <f>SUM(Tabela5[[#This Row],[Nota P1 Final]],Tabela5[[#This Row],[Nota P2 Final]],Tabela5[[#This Row],[TP1]])</f>
+        <v>20.7</v>
+      </c>
+    </row>
+    <row r="43" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A43" t="s">
-        <v>1</v>
+        <v>9</v>
       </c>
       <c r="B43">
-        <v>2024661160</v>
+        <v>2024709294</v>
       </c>
       <c r="D43" s="1">
+        <v>5</v>
+      </c>
+      <c r="E43" s="1">
+        <v>4</v>
+      </c>
+      <c r="F43" s="1">
         <v>2.5</v>
-      </c>
-      <c r="E43" s="1">
-        <v>2.5</v>
-      </c>
-      <c r="F43" s="1">
-        <v>0</v>
       </c>
       <c r="G43" s="1">
         <v>4.2</v>
       </c>
       <c r="H43" s="1">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="I43" s="1">
         <f>SUM(Tabela5[[#This Row],[P1 Q1]:[P1 Q5]])</f>
-        <v>9.1999999999999993</v>
+        <v>19.7</v>
       </c>
       <c r="J43" s="1">
-        <v>0</v>
+        <v>19.7</v>
       </c>
       <c r="K43" s="1">
-        <v>0</v>
+        <v>3.5</v>
       </c>
       <c r="L43" s="1">
         <v>0</v>
       </c>
       <c r="M43" s="1">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="N43" s="1">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="O43" s="1">
+        <v>0</v>
+      </c>
+      <c r="P43" s="1">
         <f>SUM(Tabela5[[#This Row],[P2 Q1]:[P2 Q5]])</f>
-        <v>3</v>
-      </c>
-      <c r="P43" s="1">
-        <f>SUM(Tabela5[[#This Row],[Nota P2]],Tabela5[[#This Row],[Nota P1]])</f>
-        <v>12.2</v>
-      </c>
-    </row>
-    <row r="44" spans="1:16" x14ac:dyDescent="0.3">
+        <v>10.5</v>
+      </c>
+      <c r="Q43" s="1">
+        <v>0</v>
+      </c>
+      <c r="R43" s="6">
+        <v>0</v>
+      </c>
+      <c r="S43" s="1">
+        <f>SUM(Tabela5[[#This Row],[Nota P2]],Tabela5[[#This Row],[Nota P1]],Tabela5[[#This Row],[TP1]])</f>
+        <v>30.2</v>
+      </c>
+      <c r="T43" s="1">
+        <f>SUM(Tabela5[[#This Row],[Nota P1 Final]],Tabela5[[#This Row],[Nota P2 Final]],Tabela5[[#This Row],[TP1]])</f>
+        <v>19.7</v>
+      </c>
+    </row>
+    <row r="44" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A44" t="s">
-        <v>9</v>
+        <v>1</v>
       </c>
       <c r="B44">
-        <v>2024674016</v>
+        <v>2024661160</v>
       </c>
       <c r="D44" s="1">
-        <v>5</v>
+        <v>2.5</v>
       </c>
       <c r="E44" s="1">
-        <v>4.5</v>
+        <v>2.5</v>
       </c>
       <c r="F44" s="1">
-        <v>1.7</v>
+        <v>0</v>
       </c>
       <c r="G44" s="1">
         <v>4.2</v>
       </c>
       <c r="H44" s="1">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="I44" s="1">
         <f>SUM(Tabela5[[#This Row],[P1 Q1]:[P1 Q5]])</f>
-        <v>20.399999999999999</v>
+        <v>9.1999999999999993</v>
       </c>
       <c r="J44" s="1">
+        <v>11</v>
+      </c>
+      <c r="K44" s="1">
+        <v>0</v>
+      </c>
+      <c r="L44" s="1">
+        <v>0</v>
+      </c>
+      <c r="M44" s="1">
+        <v>0</v>
+      </c>
+      <c r="N44" s="1">
+        <v>3</v>
+      </c>
+      <c r="O44" s="1">
+        <v>0</v>
+      </c>
+      <c r="P44" s="1">
+        <f>SUM(Tabela5[[#This Row],[P2 Q1]:[P2 Q5]])</f>
+        <v>3</v>
+      </c>
+      <c r="Q44" s="1">
+        <v>3</v>
+      </c>
+      <c r="R44" s="6">
+        <v>5</v>
+      </c>
+      <c r="S44" s="1">
+        <f>SUM(Tabela5[[#This Row],[Nota P2]],Tabela5[[#This Row],[Nota P1]],Tabela5[[#This Row],[TP1]])</f>
+        <v>17.2</v>
+      </c>
+      <c r="T44" s="1">
+        <f>SUM(Tabela5[[#This Row],[Nota P1 Final]],Tabela5[[#This Row],[Nota P2 Final]],Tabela5[[#This Row],[TP1]])</f>
+        <v>19</v>
+      </c>
+    </row>
+    <row r="45" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="A45" t="s">
+        <v>1</v>
+      </c>
+      <c r="B45">
+        <v>2024711493</v>
+      </c>
+      <c r="D45" s="1">
+        <v>0</v>
+      </c>
+      <c r="E45" s="1">
         <v>2</v>
       </c>
-      <c r="K44" s="1">
-        <v>0</v>
-      </c>
-      <c r="L44" s="1">
-        <v>0</v>
-      </c>
-      <c r="M44" s="1">
-        <v>0</v>
-      </c>
-      <c r="N44" s="1">
-        <v>0</v>
-      </c>
-      <c r="O44" s="1">
-        <f>SUM(Tabela5[[#This Row],[P2 Q1]:[P2 Q5]])</f>
-        <v>2</v>
-      </c>
-      <c r="P44" s="1">
-        <f>SUM(Tabela5[[#This Row],[Nota P2]],Tabela5[[#This Row],[Nota P1]])</f>
-        <v>22.4</v>
-      </c>
-    </row>
-    <row r="45" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A45" t="s">
-        <v>9</v>
-      </c>
-      <c r="B45">
-        <v>2023661379</v>
-      </c>
-      <c r="D45" s="1">
-        <v>0</v>
-      </c>
-      <c r="E45" s="1">
-        <v>4</v>
-      </c>
       <c r="F45" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G45" s="1">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="H45" s="1">
         <v>3.7</v>
       </c>
       <c r="I45" s="1">
         <f>SUM(Tabela5[[#This Row],[P1 Q1]:[P1 Q5]])</f>
-        <v>13.7</v>
+        <v>5.7</v>
       </c>
       <c r="J45" s="1">
-        <v>0</v>
+        <v>7</v>
       </c>
       <c r="K45" s="1">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="L45" s="1">
         <v>0</v>
       </c>
       <c r="M45" s="1">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="N45" s="1">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="O45" s="1">
+        <v>0</v>
+      </c>
+      <c r="P45" s="1">
         <f>SUM(Tabela5[[#This Row],[P2 Q1]:[P2 Q5]])</f>
-        <v>2</v>
-      </c>
-      <c r="P45" s="1">
-        <f>SUM(Tabela5[[#This Row],[Nota P2]],Tabela5[[#This Row],[Nota P1]])</f>
+        <v>5</v>
+      </c>
+      <c r="Q45" s="1">
+        <v>5</v>
+      </c>
+      <c r="R45" s="6">
+        <v>5</v>
+      </c>
+      <c r="S45" s="1">
+        <f>SUM(Tabela5[[#This Row],[Nota P2]],Tabela5[[#This Row],[Nota P1]],Tabela5[[#This Row],[TP1]])</f>
         <v>15.7</v>
       </c>
-    </row>
-    <row r="46" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="T45" s="1">
+        <f>SUM(Tabela5[[#This Row],[Nota P1 Final]],Tabela5[[#This Row],[Nota P2 Final]],Tabela5[[#This Row],[TP1]])</f>
+        <v>17</v>
+      </c>
+    </row>
+    <row r="46" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A46" t="s">
-        <v>1</v>
+        <v>9</v>
       </c>
       <c r="B46">
-        <v>2024711680</v>
+        <v>2024700483</v>
       </c>
       <c r="D46" s="1">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="E46" s="1">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="F46" s="1">
-        <v>2.5</v>
+        <v>0</v>
       </c>
       <c r="G46" s="1">
-        <v>3.7</v>
+        <v>0</v>
       </c>
       <c r="H46" s="1">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="I46" s="1">
         <f>SUM(Tabela5[[#This Row],[P1 Q1]:[P1 Q5]])</f>
-        <v>19.2</v>
+        <v>0</v>
       </c>
       <c r="J46" s="1">
         <v>0</v>
       </c>
       <c r="K46" s="1">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="L46" s="1">
         <v>0</v>
       </c>
       <c r="M46" s="1">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="N46" s="1">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="O46" s="1">
+        <v>0</v>
+      </c>
+      <c r="P46" s="1">
         <f>SUM(Tabela5[[#This Row],[P2 Q1]:[P2 Q5]])</f>
-        <v>0</v>
-      </c>
-      <c r="P46" s="1">
-        <f>SUM(Tabela5[[#This Row],[Nota P2]],Tabela5[[#This Row],[Nota P1]])</f>
-        <v>19.2</v>
-      </c>
-    </row>
-    <row r="47" spans="1:16" x14ac:dyDescent="0.3">
+        <v>9</v>
+      </c>
+      <c r="Q46" s="1">
+        <v>9</v>
+      </c>
+      <c r="R46" s="6">
+        <v>5</v>
+      </c>
+      <c r="S46" s="1">
+        <f>SUM(Tabela5[[#This Row],[Nota P2]],Tabela5[[#This Row],[Nota P1]],Tabela5[[#This Row],[TP1]])</f>
+        <v>14</v>
+      </c>
+      <c r="T46" s="1">
+        <f>SUM(Tabela5[[#This Row],[Nota P1 Final]],Tabela5[[#This Row],[Nota P2 Final]],Tabela5[[#This Row],[TP1]])</f>
+        <v>14</v>
+      </c>
+    </row>
+    <row r="47" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A47" t="s">
         <v>9</v>
       </c>
       <c r="B47">
-        <v>2024715944</v>
+        <v>2024675144</v>
       </c>
       <c r="D47" s="1">
-        <v>2.5</v>
+        <v>0</v>
       </c>
       <c r="E47" s="1">
-        <v>4</v>
+        <v>3.5</v>
       </c>
       <c r="F47" s="1">
-        <v>2.5</v>
+        <v>2</v>
       </c>
       <c r="G47" s="1">
-        <v>3.2</v>
+        <v>0</v>
       </c>
       <c r="H47" s="1">
-        <v>5</v>
+        <v>1.2</v>
       </c>
       <c r="I47" s="1">
         <f>SUM(Tabela5[[#This Row],[P1 Q1]:[P1 Q5]])</f>
-        <v>17.2</v>
+        <v>6.7</v>
       </c>
       <c r="J47" s="1">
-        <v>0</v>
+        <v>3.5</v>
       </c>
       <c r="K47" s="1">
         <v>0</v>
@@ -3301,29 +4015,42 @@
         <v>0</v>
       </c>
       <c r="M47" s="1">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="N47" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="O47" s="1">
+        <v>0</v>
+      </c>
+      <c r="P47" s="1">
         <f>SUM(Tabela5[[#This Row],[P2 Q1]:[P2 Q5]])</f>
-        <v>0</v>
-      </c>
-      <c r="P47" s="1">
-        <f>SUM(Tabela5[[#This Row],[Nota P2]],Tabela5[[#This Row],[Nota P1]])</f>
-        <v>17.2</v>
-      </c>
-    </row>
-    <row r="48" spans="1:16" x14ac:dyDescent="0.3">
+        <v>4</v>
+      </c>
+      <c r="Q47" s="1">
+        <v>4</v>
+      </c>
+      <c r="R47" s="6">
+        <v>5</v>
+      </c>
+      <c r="S47" s="1">
+        <f>SUM(Tabela5[[#This Row],[Nota P2]],Tabela5[[#This Row],[Nota P1]],Tabela5[[#This Row],[TP1]])</f>
+        <v>15.7</v>
+      </c>
+      <c r="T47" s="1">
+        <f>SUM(Tabela5[[#This Row],[Nota P1 Final]],Tabela5[[#This Row],[Nota P2 Final]],Tabela5[[#This Row],[TP1]])</f>
+        <v>12.5</v>
+      </c>
+    </row>
+    <row r="48" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A48" t="s">
         <v>9</v>
       </c>
       <c r="B48">
-        <v>2024710020</v>
+        <v>2024696877</v>
       </c>
       <c r="D48" s="1">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="E48" s="1">
         <v>3.5</v>
@@ -3332,17 +4059,17 @@
         <v>0</v>
       </c>
       <c r="G48" s="1">
-        <v>4.2</v>
+        <v>0</v>
       </c>
       <c r="H48" s="1">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="I48" s="1">
         <f>SUM(Tabela5[[#This Row],[P1 Q1]:[P1 Q5]])</f>
-        <v>12.7</v>
+        <v>8.5</v>
       </c>
       <c r="J48" s="1">
-        <v>0</v>
+        <v>8.5</v>
       </c>
       <c r="K48" s="1">
         <v>0</v>
@@ -3357,39 +4084,52 @@
         <v>0</v>
       </c>
       <c r="O48" s="1">
+        <v>0</v>
+      </c>
+      <c r="P48" s="1">
         <f>SUM(Tabela5[[#This Row],[P2 Q1]:[P2 Q5]])</f>
         <v>0</v>
       </c>
-      <c r="P48" s="1">
-        <f>SUM(Tabela5[[#This Row],[Nota P2]],Tabela5[[#This Row],[Nota P1]])</f>
-        <v>12.7</v>
-      </c>
-    </row>
-    <row r="49" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="Q48" s="1">
+        <v>0</v>
+      </c>
+      <c r="R48" s="6">
+        <v>0</v>
+      </c>
+      <c r="S48" s="1">
+        <f>SUM(Tabela5[[#This Row],[Nota P2]],Tabela5[[#This Row],[Nota P1]],Tabela5[[#This Row],[TP1]])</f>
+        <v>8.5</v>
+      </c>
+      <c r="T48" s="1">
+        <f>SUM(Tabela5[[#This Row],[Nota P1 Final]],Tabela5[[#This Row],[Nota P2 Final]],Tabela5[[#This Row],[TP1]])</f>
+        <v>8.5</v>
+      </c>
+    </row>
+    <row r="49" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A49" t="s">
         <v>9</v>
       </c>
       <c r="B49">
-        <v>2024698420</v>
+        <v>2024675152</v>
       </c>
       <c r="D49" s="1">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="E49" s="1">
-        <v>3.5</v>
+        <v>0</v>
       </c>
       <c r="F49" s="1">
         <v>0</v>
       </c>
       <c r="G49" s="1">
-        <v>1.5</v>
+        <v>0</v>
       </c>
       <c r="H49" s="1">
-        <v>2.5</v>
+        <v>0</v>
       </c>
       <c r="I49" s="1">
         <f>SUM(Tabela5[[#This Row],[P1 Q1]:[P1 Q5]])</f>
-        <v>12.5</v>
+        <v>0</v>
       </c>
       <c r="J49" s="1">
         <v>0</v>
@@ -3407,26 +4147,39 @@
         <v>0</v>
       </c>
       <c r="O49" s="1">
+        <v>0</v>
+      </c>
+      <c r="P49" s="1">
         <f>SUM(Tabela5[[#This Row],[P2 Q1]:[P2 Q5]])</f>
         <v>0</v>
       </c>
-      <c r="P49" s="1">
-        <f>SUM(Tabela5[[#This Row],[Nota P2]],Tabela5[[#This Row],[Nota P1]])</f>
-        <v>12.5</v>
-      </c>
-    </row>
-    <row r="50" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="Q49" s="1">
+        <v>0</v>
+      </c>
+      <c r="R49" s="6">
+        <v>0</v>
+      </c>
+      <c r="S49" s="1">
+        <f>SUM(Tabela5[[#This Row],[Nota P2]],Tabela5[[#This Row],[Nota P1]],Tabela5[[#This Row],[TP1]])</f>
+        <v>0</v>
+      </c>
+      <c r="T49" s="1">
+        <f>SUM(Tabela5[[#This Row],[Nota P1 Final]],Tabela5[[#This Row],[Nota P2 Final]],Tabela5[[#This Row],[TP1]])</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="50" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A50" t="s">
         <v>9</v>
       </c>
       <c r="B50">
-        <v>2024696877</v>
+        <v>2024675187</v>
       </c>
       <c r="D50" s="1">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="E50" s="1">
-        <v>3.5</v>
+        <v>0</v>
       </c>
       <c r="F50" s="1">
         <v>0</v>
@@ -3439,7 +4192,7 @@
       </c>
       <c r="I50" s="1">
         <f>SUM(Tabela5[[#This Row],[P1 Q1]:[P1 Q5]])</f>
-        <v>8.5</v>
+        <v>0</v>
       </c>
       <c r="J50" s="1">
         <v>0</v>
@@ -3457,20 +4210,33 @@
         <v>0</v>
       </c>
       <c r="O50" s="1">
+        <v>0</v>
+      </c>
+      <c r="P50" s="1">
         <f>SUM(Tabela5[[#This Row],[P2 Q1]:[P2 Q5]])</f>
         <v>0</v>
       </c>
-      <c r="P50" s="1">
-        <f>SUM(Tabela5[[#This Row],[Nota P2]],Tabela5[[#This Row],[Nota P1]])</f>
-        <v>8.5</v>
-      </c>
-    </row>
-    <row r="51" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="Q50" s="1">
+        <v>0</v>
+      </c>
+      <c r="R50" s="6">
+        <v>0</v>
+      </c>
+      <c r="S50" s="1">
+        <f>SUM(Tabela5[[#This Row],[Nota P2]],Tabela5[[#This Row],[Nota P1]],Tabela5[[#This Row],[TP1]])</f>
+        <v>0</v>
+      </c>
+      <c r="T50" s="1">
+        <f>SUM(Tabela5[[#This Row],[Nota P1 Final]],Tabela5[[#This Row],[Nota P2 Final]],Tabela5[[#This Row],[TP1]])</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A51" t="s">
         <v>9</v>
       </c>
       <c r="B51">
-        <v>2024709219</v>
+        <v>2024700360</v>
       </c>
       <c r="D51" s="1">
         <v>0</v>
@@ -3495,32 +4261,45 @@
         <v>0</v>
       </c>
       <c r="K51" s="1">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="L51" s="1">
         <v>0</v>
       </c>
       <c r="M51" s="1">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="N51" s="1">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="O51" s="1">
+        <v>4</v>
+      </c>
+      <c r="P51" s="1">
         <f>SUM(Tabela5[[#This Row],[P2 Q1]:[P2 Q5]])</f>
-        <v>0</v>
-      </c>
-      <c r="P51" s="1">
-        <f>SUM(Tabela5[[#This Row],[Nota P2]],Tabela5[[#This Row],[Nota P1]])</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="52" spans="1:16" x14ac:dyDescent="0.3">
+        <v>12</v>
+      </c>
+      <c r="Q51" s="1">
+        <v>0</v>
+      </c>
+      <c r="R51" s="6">
+        <v>0</v>
+      </c>
+      <c r="S51" s="1">
+        <f>SUM(Tabela5[[#This Row],[Nota P2]],Tabela5[[#This Row],[Nota P1]],Tabela5[[#This Row],[TP1]])</f>
+        <v>12</v>
+      </c>
+      <c r="T51" s="1">
+        <f>SUM(Tabela5[[#This Row],[Nota P1 Final]],Tabela5[[#This Row],[Nota P2 Final]],Tabela5[[#This Row],[TP1]])</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A52" t="s">
         <v>9</v>
       </c>
       <c r="B52">
-        <v>2024675187</v>
+        <v>2024709219</v>
       </c>
       <c r="D52" s="1">
         <v>0</v>
@@ -3557,39 +4336,52 @@
         <v>0</v>
       </c>
       <c r="O52" s="1">
+        <v>0</v>
+      </c>
+      <c r="P52" s="1">
         <f>SUM(Tabela5[[#This Row],[P2 Q1]:[P2 Q5]])</f>
         <v>0</v>
       </c>
-      <c r="P52" s="1">
-        <f>SUM(Tabela5[[#This Row],[Nota P2]],Tabela5[[#This Row],[Nota P1]])</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="53" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="Q52" s="1">
+        <v>0</v>
+      </c>
+      <c r="R52" s="6">
+        <v>0</v>
+      </c>
+      <c r="S52" s="1">
+        <f>SUM(Tabela5[[#This Row],[Nota P2]],Tabela5[[#This Row],[Nota P1]],Tabela5[[#This Row],[TP1]])</f>
+        <v>0</v>
+      </c>
+      <c r="T52" s="1">
+        <f>SUM(Tabela5[[#This Row],[Nota P1 Final]],Tabela5[[#This Row],[Nota P2 Final]],Tabela5[[#This Row],[TP1]])</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="53" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A53" t="s">
-        <v>9</v>
+        <v>1</v>
       </c>
       <c r="B53">
-        <v>2024675152</v>
+        <v>2024711680</v>
       </c>
       <c r="D53" s="1">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="E53" s="1">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="F53" s="1">
-        <v>0</v>
+        <v>2.5</v>
       </c>
       <c r="G53" s="1">
-        <v>0</v>
+        <v>3.7</v>
       </c>
       <c r="H53" s="1">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="I53" s="1">
         <f>SUM(Tabela5[[#This Row],[P1 Q1]:[P1 Q5]])</f>
-        <v>0</v>
+        <v>19.2</v>
       </c>
       <c r="J53" s="1">
         <v>0</v>
@@ -3607,17 +4399,31 @@
         <v>0</v>
       </c>
       <c r="O53" s="1">
+        <v>0</v>
+      </c>
+      <c r="P53" s="1">
         <f>SUM(Tabela5[[#This Row],[P2 Q1]:[P2 Q5]])</f>
         <v>0</v>
       </c>
-      <c r="P53" s="1">
-        <f>SUM(Tabela5[[#This Row],[Nota P2]],Tabela5[[#This Row],[Nota P1]])</f>
+      <c r="Q53" s="1">
+        <v>0</v>
+      </c>
+      <c r="R53" s="6">
+        <v>0</v>
+      </c>
+      <c r="S53" s="1">
+        <f>SUM(Tabela5[[#This Row],[Nota P2]],Tabela5[[#This Row],[Nota P1]],Tabela5[[#This Row],[TP1]])</f>
+        <v>19.2</v>
+      </c>
+      <c r="T53" s="1">
+        <f>SUM(Tabela5[[#This Row],[Nota P1 Final]],Tabela5[[#This Row],[Nota P2 Final]],Tabela5[[#This Row],[TP1]])</f>
         <v>0</v>
       </c>
     </row>
   </sheetData>
+  <phoneticPr fontId="3" type="noConversion"/>
   <conditionalFormatting sqref="D1:H1">
-    <cfRule type="colorScale" priority="8">
+    <cfRule type="colorScale" priority="12">
       <colorScale>
         <cfvo type="min"/>
         <cfvo type="percentile" val="50"/>
@@ -3629,6 +4435,18 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D3:H53">
+    <cfRule type="colorScale" priority="10">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="I3:I53">
     <cfRule type="colorScale" priority="6">
       <colorScale>
         <cfvo type="min"/>
@@ -3640,7 +4458,79 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="I3:I53">
+  <conditionalFormatting sqref="K1:O1">
+    <cfRule type="colorScale" priority="11">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="K3:O53">
+    <cfRule type="colorScale" priority="9">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="P3:P53">
+    <cfRule type="colorScale" priority="7">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="S3:S53">
+    <cfRule type="colorScale" priority="5">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="R3:R53">
+    <cfRule type="colorScale" priority="4">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="J3:J53">
+    <cfRule type="colorScale" priority="3">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="Q3:Q53">
     <cfRule type="colorScale" priority="2">
       <colorScale>
         <cfvo type="min"/>
@@ -3652,43 +4542,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="J1:N1">
-    <cfRule type="colorScale" priority="7">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
-        <color rgb="FFF8696B"/>
-        <color rgb="FFFFEB84"/>
-        <color rgb="FF63BE7B"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="J3:N53">
-    <cfRule type="colorScale" priority="5">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
-        <color rgb="FFF8696B"/>
-        <color rgb="FFFFEB84"/>
-        <color rgb="FF63BE7B"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="O3:O53">
-    <cfRule type="colorScale" priority="3">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
-        <color rgb="FFF8696B"/>
-        <color rgb="FFFFEB84"/>
-        <color rgb="FF63BE7B"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="P3:P53">
+  <conditionalFormatting sqref="T3:T53">
     <cfRule type="colorScale" priority="1">
       <colorScale>
         <cfvo type="min"/>
@@ -3709,357 +4563,910 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D53D9964-3B87-48FB-9482-EDEF1E3A404B}">
-  <dimension ref="C2:L50"/>
+  <dimension ref="B2:F53"/>
   <sheetViews>
-    <sheetView topLeftCell="A10" workbookViewId="0">
-      <selection activeCell="C2" sqref="C2"/>
+    <sheetView topLeftCell="A26" workbookViewId="0">
+      <selection activeCell="D3" sqref="D3:D53"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="2" max="2" width="11" bestFit="1" customWidth="1"/>
+    <col min="3" max="4" width="7.21875" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="4.44140625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="11.109375" bestFit="1" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="2" spans="3:12" x14ac:dyDescent="0.3">
-      <c r="C2" s="3">
-        <f>AVERAGE(C3:C45)</f>
-        <v>11.709302325581396</v>
-      </c>
-    </row>
-    <row r="3" spans="3:12" x14ac:dyDescent="0.3">
-      <c r="C3" s="5">
-        <f>SUM(Tabela5[[#This Row],[P2 Q1]:[P2 Q5]])</f>
+    <row r="2" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="B2" t="s">
+        <v>27</v>
+      </c>
+      <c r="C2" t="s">
+        <v>28</v>
+      </c>
+      <c r="D2" t="s">
+        <v>29</v>
+      </c>
+      <c r="E2" t="s">
+        <v>30</v>
+      </c>
+      <c r="F2" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="3" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="B3">
+        <v>2023655557</v>
+      </c>
+      <c r="C3" s="3">
+        <v>17.899999999999999</v>
+      </c>
+      <c r="D3" s="3">
+        <v>13</v>
+      </c>
+      <c r="E3" s="3">
+        <v>5</v>
+      </c>
+      <c r="F3" s="3">
+        <v>35.9</v>
+      </c>
+    </row>
+    <row r="4" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="B4">
+        <v>2023661379</v>
+      </c>
+      <c r="C4" s="3">
+        <v>13.7</v>
+      </c>
+      <c r="D4" s="3">
+        <v>2</v>
+      </c>
+      <c r="E4" s="3">
+        <v>5</v>
+      </c>
+      <c r="F4" s="3">
+        <v>20.7</v>
+      </c>
+    </row>
+    <row r="5" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="B5">
+        <v>2023710949</v>
+      </c>
+      <c r="C5" s="3">
+        <v>23.7</v>
+      </c>
+      <c r="D5" s="3">
+        <v>18.5</v>
+      </c>
+      <c r="E5" s="3">
+        <v>5</v>
+      </c>
+      <c r="F5" s="3">
+        <v>47.2</v>
+      </c>
+    </row>
+    <row r="6" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="B6">
+        <v>2024661160</v>
+      </c>
+      <c r="C6" s="3">
+        <v>11</v>
+      </c>
+      <c r="D6" s="3">
+        <v>3</v>
+      </c>
+      <c r="E6" s="3">
+        <v>5</v>
+      </c>
+      <c r="F6" s="3">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="7" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="B7">
+        <v>2024673630</v>
+      </c>
+      <c r="C7" s="3">
+        <v>15.9</v>
+      </c>
+      <c r="D7" s="3">
+        <v>8</v>
+      </c>
+      <c r="E7" s="3">
+        <v>4</v>
+      </c>
+      <c r="F7" s="3">
+        <v>27.9</v>
+      </c>
+    </row>
+    <row r="8" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="B8">
+        <v>2024674016</v>
+      </c>
+      <c r="C8" s="3">
+        <v>20.399999999999999</v>
+      </c>
+      <c r="D8" s="3">
+        <v>2</v>
+      </c>
+      <c r="E8" s="3">
+        <v>0</v>
+      </c>
+      <c r="F8" s="3">
+        <v>22.4</v>
+      </c>
+    </row>
+    <row r="9" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="B9">
+        <v>2024675144</v>
+      </c>
+      <c r="C9" s="3">
+        <v>3.5</v>
+      </c>
+      <c r="D9" s="3">
+        <v>4</v>
+      </c>
+      <c r="E9" s="3">
+        <v>5</v>
+      </c>
+      <c r="F9" s="3">
+        <v>12.5</v>
+      </c>
+    </row>
+    <row r="10" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="B10">
+        <v>2024675152</v>
+      </c>
+      <c r="C10" s="3">
+        <v>0</v>
+      </c>
+      <c r="D10" s="3">
+        <v>0</v>
+      </c>
+      <c r="E10" s="3">
+        <v>0</v>
+      </c>
+      <c r="F10" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="B11">
+        <v>2024675179</v>
+      </c>
+      <c r="C11" s="3">
+        <v>12.5</v>
+      </c>
+      <c r="D11" s="3">
+        <v>12</v>
+      </c>
+      <c r="E11" s="3">
+        <v>4</v>
+      </c>
+      <c r="F11" s="3">
+        <v>28.5</v>
+      </c>
+    </row>
+    <row r="12" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="B12">
+        <v>2024675187</v>
+      </c>
+      <c r="C12" s="3">
+        <v>0</v>
+      </c>
+      <c r="D12" s="3">
+        <v>0</v>
+      </c>
+      <c r="E12" s="3">
+        <v>0</v>
+      </c>
+      <c r="F12" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="B13">
+        <v>2024691883</v>
+      </c>
+      <c r="C13" s="3">
+        <v>12.4</v>
+      </c>
+      <c r="D13" s="3">
+        <v>15.5</v>
+      </c>
+      <c r="E13" s="3">
+        <v>1</v>
+      </c>
+      <c r="F13" s="3">
+        <v>28.9</v>
+      </c>
+    </row>
+    <row r="14" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="B14">
+        <v>2024691921</v>
+      </c>
+      <c r="C14" s="3">
+        <v>19.7</v>
+      </c>
+      <c r="D14" s="3">
+        <v>13</v>
+      </c>
+      <c r="E14" s="3">
+        <v>5</v>
+      </c>
+      <c r="F14" s="3">
+        <v>37.700000000000003</v>
+      </c>
+    </row>
+    <row r="15" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="B15">
+        <v>2024693045</v>
+      </c>
+      <c r="C15" s="3">
+        <v>19.2</v>
+      </c>
+      <c r="D15" s="3">
+        <v>10</v>
+      </c>
+      <c r="E15" s="3">
+        <v>5</v>
+      </c>
+      <c r="F15" s="3">
+        <v>34.200000000000003</v>
+      </c>
+    </row>
+    <row r="16" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="B16">
+        <v>2024696877</v>
+      </c>
+      <c r="C16" s="3">
+        <v>8.5</v>
+      </c>
+      <c r="D16" s="3">
+        <v>0</v>
+      </c>
+      <c r="E16" s="3">
+        <v>0</v>
+      </c>
+      <c r="F16" s="3">
+        <v>8.5</v>
+      </c>
+    </row>
+    <row r="17" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="B17">
+        <v>2024698420</v>
+      </c>
+      <c r="C17" s="3">
+        <v>12.5</v>
+      </c>
+      <c r="D17" s="3">
+        <v>4</v>
+      </c>
+      <c r="E17" s="3">
+        <v>5</v>
+      </c>
+      <c r="F17" s="3">
+        <v>21.5</v>
+      </c>
+    </row>
+    <row r="18" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="B18">
+        <v>2024699183</v>
+      </c>
+      <c r="C18" s="3">
+        <v>17.399999999999999</v>
+      </c>
+      <c r="D18" s="3">
+        <v>10</v>
+      </c>
+      <c r="E18" s="3">
+        <v>5</v>
+      </c>
+      <c r="F18" s="3">
+        <v>32.4</v>
+      </c>
+    </row>
+    <row r="19" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="B19">
+        <v>2024700351</v>
+      </c>
+      <c r="C19" s="3">
+        <v>19.7</v>
+      </c>
+      <c r="D19" s="3">
         <v>20</v>
       </c>
-    </row>
-    <row r="4" spans="3:12" x14ac:dyDescent="0.3">
-      <c r="C4" s="6">
-        <f>SUM(Tabela5[[#This Row],[P2 Q1]:[P2 Q5]])</f>
+      <c r="E19" s="3">
+        <v>5</v>
+      </c>
+      <c r="F19" s="3">
+        <v>44.7</v>
+      </c>
+    </row>
+    <row r="20" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="B20">
+        <v>2024700360</v>
+      </c>
+      <c r="C20" s="3">
+        <v>0</v>
+      </c>
+      <c r="D20" s="3">
+        <v>0</v>
+      </c>
+      <c r="E20" s="3">
+        <v>0</v>
+      </c>
+      <c r="F20" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="B21">
+        <v>2024700378</v>
+      </c>
+      <c r="C21" s="3">
+        <v>14</v>
+      </c>
+      <c r="D21" s="3">
+        <v>14</v>
+      </c>
+      <c r="E21" s="3">
+        <v>5</v>
+      </c>
+      <c r="F21" s="3">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="22" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="B22">
+        <v>2024700386</v>
+      </c>
+      <c r="C22" s="3">
+        <v>20.5</v>
+      </c>
+      <c r="D22" s="3">
+        <v>9</v>
+      </c>
+      <c r="E22" s="3">
+        <v>5</v>
+      </c>
+      <c r="F22" s="3">
+        <v>34.5</v>
+      </c>
+    </row>
+    <row r="23" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="B23">
+        <v>2024700483</v>
+      </c>
+      <c r="C23" s="3">
+        <v>0</v>
+      </c>
+      <c r="D23" s="3">
+        <v>9</v>
+      </c>
+      <c r="E23" s="3">
+        <v>5</v>
+      </c>
+      <c r="F23" s="3">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="24" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="B24">
+        <v>2024700840</v>
+      </c>
+      <c r="C24" s="3">
+        <v>15</v>
+      </c>
+      <c r="D24" s="3">
+        <v>13</v>
+      </c>
+      <c r="E24" s="3">
+        <v>5</v>
+      </c>
+      <c r="F24" s="3">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="25" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="B25">
+        <v>2024701072</v>
+      </c>
+      <c r="C25" s="3">
+        <v>8.9</v>
+      </c>
+      <c r="D25" s="3">
+        <v>12</v>
+      </c>
+      <c r="E25" s="3">
+        <v>3</v>
+      </c>
+      <c r="F25" s="3">
+        <v>23.9</v>
+      </c>
+    </row>
+    <row r="26" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="B26">
+        <v>2024701382</v>
+      </c>
+      <c r="C26" s="3">
+        <v>20.8</v>
+      </c>
+      <c r="D26" s="3">
+        <v>12</v>
+      </c>
+      <c r="E26" s="3">
+        <v>5</v>
+      </c>
+      <c r="F26" s="3">
+        <v>37.799999999999997</v>
+      </c>
+    </row>
+    <row r="27" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="B27">
+        <v>2024701846</v>
+      </c>
+      <c r="C27" s="3">
+        <v>22</v>
+      </c>
+      <c r="D27" s="3">
+        <v>17</v>
+      </c>
+      <c r="E27" s="3">
+        <v>5</v>
+      </c>
+      <c r="F27" s="3">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="28" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="B28">
+        <v>2024703369</v>
+      </c>
+      <c r="C28" s="3">
+        <v>17.7</v>
+      </c>
+      <c r="D28" s="3">
+        <v>13</v>
+      </c>
+      <c r="E28" s="3">
+        <v>5</v>
+      </c>
+      <c r="F28" s="3">
+        <v>35.700000000000003</v>
+      </c>
+    </row>
+    <row r="29" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="B29">
+        <v>2024709200</v>
+      </c>
+      <c r="C29" s="3">
+        <v>19</v>
+      </c>
+      <c r="D29" s="3">
+        <v>13</v>
+      </c>
+      <c r="E29" s="3">
+        <v>5</v>
+      </c>
+      <c r="F29" s="3">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="30" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="B30">
+        <v>2024709219</v>
+      </c>
+      <c r="C30" s="3">
+        <v>0</v>
+      </c>
+      <c r="D30" s="3">
+        <v>0</v>
+      </c>
+      <c r="E30" s="3">
+        <v>0</v>
+      </c>
+      <c r="F30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="B31">
+        <v>2024709278</v>
+      </c>
+      <c r="C31" s="3">
+        <v>21.7</v>
+      </c>
+      <c r="D31" s="3">
+        <v>15</v>
+      </c>
+      <c r="E31" s="3">
+        <v>5</v>
+      </c>
+      <c r="F31" s="3">
+        <v>41.7</v>
+      </c>
+    </row>
+    <row r="32" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="B32">
+        <v>2024709286</v>
+      </c>
+      <c r="C32" s="3">
+        <v>21.2</v>
+      </c>
+      <c r="D32" s="3">
+        <v>19</v>
+      </c>
+      <c r="E32" s="3">
+        <v>5</v>
+      </c>
+      <c r="F32" s="3">
+        <v>45.2</v>
+      </c>
+    </row>
+    <row r="33" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="B33">
+        <v>2024709294</v>
+      </c>
+      <c r="C33" s="3">
+        <v>19.7</v>
+      </c>
+      <c r="D33" s="3">
+        <v>0</v>
+      </c>
+      <c r="E33" s="3">
+        <v>0</v>
+      </c>
+      <c r="F33" s="3">
+        <v>19.7</v>
+      </c>
+    </row>
+    <row r="34" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="B34">
+        <v>2024709308</v>
+      </c>
+      <c r="C34" s="3">
+        <v>20.7</v>
+      </c>
+      <c r="D34" s="3">
+        <v>13</v>
+      </c>
+      <c r="E34" s="3">
+        <v>5</v>
+      </c>
+      <c r="F34" s="3">
+        <v>38.700000000000003</v>
+      </c>
+    </row>
+    <row r="35" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="B35">
+        <v>2024709316</v>
+      </c>
+      <c r="C35" s="3">
+        <v>21.5</v>
+      </c>
+      <c r="D35" s="3">
+        <v>14</v>
+      </c>
+      <c r="E35" s="3">
+        <v>5</v>
+      </c>
+      <c r="F35" s="3">
+        <v>40.5</v>
+      </c>
+    </row>
+    <row r="36" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="B36">
+        <v>2024709960</v>
+      </c>
+      <c r="C36" s="3">
+        <v>16.7</v>
+      </c>
+      <c r="D36" s="3">
+        <v>13</v>
+      </c>
+      <c r="E36" s="3">
+        <v>5</v>
+      </c>
+      <c r="F36" s="3">
+        <v>34.700000000000003</v>
+      </c>
+    </row>
+    <row r="37" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="B37">
+        <v>2024710020</v>
+      </c>
+      <c r="C37" s="3">
+        <v>15</v>
+      </c>
+      <c r="D37" s="3">
+        <v>14</v>
+      </c>
+      <c r="E37" s="3">
+        <v>5</v>
+      </c>
+      <c r="F37" s="3">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="38" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="B38">
+        <v>2024710039</v>
+      </c>
+      <c r="C38" s="3">
+        <v>21.2</v>
+      </c>
+      <c r="D38" s="3">
+        <v>15</v>
+      </c>
+      <c r="E38" s="3">
+        <v>5</v>
+      </c>
+      <c r="F38" s="3">
+        <v>41.2</v>
+      </c>
+    </row>
+    <row r="39" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="B39">
+        <v>2024711370</v>
+      </c>
+      <c r="C39" s="3">
+        <v>20.399999999999999</v>
+      </c>
+      <c r="D39" s="3">
+        <v>14</v>
+      </c>
+      <c r="E39" s="3">
+        <v>5</v>
+      </c>
+      <c r="F39" s="3">
+        <v>39.4</v>
+      </c>
+    </row>
+    <row r="40" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="B40">
+        <v>2024711396</v>
+      </c>
+      <c r="C40" s="3">
+        <v>12.9</v>
+      </c>
+      <c r="D40" s="3">
+        <v>7</v>
+      </c>
+      <c r="E40" s="3">
+        <v>5</v>
+      </c>
+      <c r="F40" s="3">
+        <v>24.9</v>
+      </c>
+    </row>
+    <row r="41" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="B41">
+        <v>2024711493</v>
+      </c>
+      <c r="C41" s="3">
+        <v>7</v>
+      </c>
+      <c r="D41" s="3">
+        <v>5</v>
+      </c>
+      <c r="E41" s="3">
+        <v>5</v>
+      </c>
+      <c r="F41" s="3">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="42" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="B42">
+        <v>2024711531</v>
+      </c>
+      <c r="C42" s="3">
+        <v>24</v>
+      </c>
+      <c r="D42" s="3">
+        <v>19</v>
+      </c>
+      <c r="E42" s="3">
+        <v>5</v>
+      </c>
+      <c r="F42" s="3">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="43" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="B43">
+        <v>2024711655</v>
+      </c>
+      <c r="C43" s="3">
+        <v>17.399999999999999</v>
+      </c>
+      <c r="D43" s="3">
+        <v>9</v>
+      </c>
+      <c r="E43" s="3">
+        <v>5</v>
+      </c>
+      <c r="F43" s="3">
+        <v>31.4</v>
+      </c>
+    </row>
+    <row r="44" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="B44">
+        <v>2024711680</v>
+      </c>
+      <c r="C44" s="3">
+        <v>0</v>
+      </c>
+      <c r="D44" s="3">
+        <v>0</v>
+      </c>
+      <c r="E44" s="3">
+        <v>0</v>
+      </c>
+      <c r="F44" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="45" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="B45">
+        <v>2024711698</v>
+      </c>
+      <c r="C45" s="3">
+        <v>18.2</v>
+      </c>
+      <c r="D45" s="3">
+        <v>13</v>
+      </c>
+      <c r="E45" s="3">
+        <v>5</v>
+      </c>
+      <c r="F45" s="3">
+        <v>36.200000000000003</v>
+      </c>
+    </row>
+    <row r="46" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="B46">
+        <v>2024712317</v>
+      </c>
+      <c r="C46" s="3">
+        <v>19.7</v>
+      </c>
+      <c r="D46" s="3">
+        <v>11</v>
+      </c>
+      <c r="E46" s="3">
+        <v>4</v>
+      </c>
+      <c r="F46" s="3">
+        <v>34.700000000000003</v>
+      </c>
+    </row>
+    <row r="47" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="B47">
+        <v>2024715936</v>
+      </c>
+      <c r="C47" s="3">
+        <v>25</v>
+      </c>
+      <c r="D47" s="3">
+        <v>15</v>
+      </c>
+      <c r="E47" s="3">
+        <v>5</v>
+      </c>
+      <c r="F47" s="3">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="48" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="B48">
+        <v>2024715944</v>
+      </c>
+      <c r="C48" s="3">
+        <v>17.2</v>
+      </c>
+      <c r="D48" s="3">
+        <v>10.5</v>
+      </c>
+      <c r="E48" s="3">
+        <v>5</v>
+      </c>
+      <c r="F48" s="3">
+        <v>32.700000000000003</v>
+      </c>
+    </row>
+    <row r="49" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="B49">
+        <v>2024715952</v>
+      </c>
+      <c r="C49" s="3">
+        <v>23.5</v>
+      </c>
+      <c r="D49" s="3">
+        <v>14</v>
+      </c>
+      <c r="E49" s="3">
+        <v>5</v>
+      </c>
+      <c r="F49" s="3">
+        <v>42.5</v>
+      </c>
+    </row>
+    <row r="50" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="B50">
+        <v>2024715979</v>
+      </c>
+      <c r="C50" s="3">
+        <v>20.2</v>
+      </c>
+      <c r="D50" s="3">
+        <v>13.5</v>
+      </c>
+      <c r="E50" s="3">
+        <v>5</v>
+      </c>
+      <c r="F50" s="3">
+        <v>38.700000000000003</v>
+      </c>
+    </row>
+    <row r="51" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="B51">
+        <v>2024716169</v>
+      </c>
+      <c r="C51" s="3">
+        <v>19.7</v>
+      </c>
+      <c r="D51" s="3">
+        <v>9</v>
+      </c>
+      <c r="E51" s="3">
+        <v>5</v>
+      </c>
+      <c r="F51" s="3">
+        <v>33.700000000000003</v>
+      </c>
+    </row>
+    <row r="52" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="B52">
+        <v>2024716606</v>
+      </c>
+      <c r="C52" s="3">
+        <v>25</v>
+      </c>
+      <c r="D52" s="3">
         <v>20</v>
       </c>
-    </row>
-    <row r="5" spans="3:12" x14ac:dyDescent="0.3">
-      <c r="C5" s="5">
-        <f>SUM(Tabela5[[#This Row],[P2 Q1]:[P2 Q5]])</f>
-        <v>19</v>
-      </c>
-    </row>
-    <row r="6" spans="3:12" x14ac:dyDescent="0.3">
-      <c r="C6" s="6">
-        <f>SUM(Tabela5[[#This Row],[P2 Q1]:[P2 Q5]])</f>
-        <v>19</v>
-      </c>
-    </row>
-    <row r="7" spans="3:12" x14ac:dyDescent="0.3">
-      <c r="C7" s="5">
-        <f>SUM(Tabela5[[#This Row],[P2 Q1]:[P2 Q5]])</f>
-        <v>18.5</v>
-      </c>
-      <c r="L7" s="3"/>
-    </row>
-    <row r="8" spans="3:12" x14ac:dyDescent="0.3">
-      <c r="C8" s="6">
-        <f>SUM(Tabela5[[#This Row],[P2 Q1]:[P2 Q5]])</f>
-        <v>17</v>
-      </c>
-      <c r="L8" s="5"/>
-    </row>
-    <row r="9" spans="3:12" x14ac:dyDescent="0.3">
-      <c r="C9" s="5">
-        <f>SUM(Tabela5[[#This Row],[P2 Q1]:[P2 Q5]])</f>
-        <v>15.5</v>
-      </c>
-      <c r="L9" s="6"/>
-    </row>
-    <row r="10" spans="3:12" x14ac:dyDescent="0.3">
-      <c r="C10" s="6">
-        <f>SUM(Tabela5[[#This Row],[P2 Q1]:[P2 Q5]])</f>
-        <v>15</v>
-      </c>
-      <c r="L10" s="5"/>
-    </row>
-    <row r="11" spans="3:12" x14ac:dyDescent="0.3">
-      <c r="C11" s="5">
-        <f>SUM(Tabela5[[#This Row],[P2 Q1]:[P2 Q5]])</f>
-        <v>15</v>
-      </c>
-      <c r="L11" s="6"/>
-    </row>
-    <row r="12" spans="3:12" x14ac:dyDescent="0.3">
-      <c r="C12" s="6">
-        <f>SUM(Tabela5[[#This Row],[P2 Q1]:[P2 Q5]])</f>
-        <v>15</v>
-      </c>
-      <c r="L12" s="5"/>
-    </row>
-    <row r="13" spans="3:12" x14ac:dyDescent="0.3">
-      <c r="C13" s="5">
-        <f>SUM(Tabela5[[#This Row],[P2 Q1]:[P2 Q5]])</f>
-        <v>15</v>
-      </c>
-      <c r="L13" s="6"/>
-    </row>
-    <row r="14" spans="3:12" x14ac:dyDescent="0.3">
-      <c r="C14" s="6">
-        <f>SUM(Tabela5[[#This Row],[P2 Q1]:[P2 Q5]])</f>
-        <v>14</v>
-      </c>
-      <c r="L14" s="5"/>
-    </row>
-    <row r="15" spans="3:12" x14ac:dyDescent="0.3">
-      <c r="C15" s="5">
-        <f>SUM(Tabela5[[#This Row],[P2 Q1]:[P2 Q5]])</f>
-        <v>14</v>
-      </c>
-      <c r="L15" s="6"/>
-    </row>
-    <row r="16" spans="3:12" x14ac:dyDescent="0.3">
-      <c r="C16" s="6">
-        <f>SUM(Tabela5[[#This Row],[P2 Q1]:[P2 Q5]])</f>
-        <v>14</v>
-      </c>
-      <c r="L16" s="5"/>
-    </row>
-    <row r="17" spans="3:12" x14ac:dyDescent="0.3">
-      <c r="C17" s="5">
-        <f>SUM(Tabela5[[#This Row],[P2 Q1]:[P2 Q5]])</f>
-        <v>13.5</v>
-      </c>
-      <c r="L17" s="6"/>
-    </row>
-    <row r="18" spans="3:12" x14ac:dyDescent="0.3">
-      <c r="C18" s="6">
-        <f>SUM(Tabela5[[#This Row],[P2 Q1]:[P2 Q5]])</f>
-        <v>13</v>
-      </c>
-      <c r="L18" s="5"/>
-    </row>
-    <row r="19" spans="3:12" x14ac:dyDescent="0.3">
-      <c r="C19" s="5">
-        <f>SUM(Tabela5[[#This Row],[P2 Q1]:[P2 Q5]])</f>
-        <v>13</v>
-      </c>
-      <c r="L19" s="6"/>
-    </row>
-    <row r="20" spans="3:12" x14ac:dyDescent="0.3">
-      <c r="C20" s="6">
-        <f>SUM(Tabela5[[#This Row],[P2 Q1]:[P2 Q5]])</f>
-        <v>13</v>
-      </c>
-      <c r="L20" s="5"/>
-    </row>
-    <row r="21" spans="3:12" x14ac:dyDescent="0.3">
-      <c r="C21" s="5">
-        <f>SUM(Tabela5[[#This Row],[P2 Q1]:[P2 Q5]])</f>
-        <v>12</v>
-      </c>
-      <c r="L21" s="6"/>
-    </row>
-    <row r="22" spans="3:12" x14ac:dyDescent="0.3">
-      <c r="C22" s="6">
-        <f>SUM(Tabela5[[#This Row],[P2 Q1]:[P2 Q5]])</f>
-        <v>12</v>
-      </c>
-      <c r="L22" s="5"/>
-    </row>
-    <row r="23" spans="3:12" x14ac:dyDescent="0.3">
-      <c r="C23" s="5">
-        <f>SUM(Tabela5[[#This Row],[P2 Q1]:[P2 Q5]])</f>
-        <v>12</v>
-      </c>
-      <c r="L23" s="6"/>
-    </row>
-    <row r="24" spans="3:12" x14ac:dyDescent="0.3">
-      <c r="C24" s="6">
-        <f>SUM(Tabela5[[#This Row],[P2 Q1]:[P2 Q5]])</f>
-        <v>12</v>
-      </c>
-      <c r="L24" s="5"/>
-    </row>
-    <row r="25" spans="3:12" x14ac:dyDescent="0.3">
-      <c r="C25" s="5">
-        <f>SUM(Tabela5[[#This Row],[P2 Q1]:[P2 Q5]])</f>
-        <v>12</v>
-      </c>
-      <c r="L25" s="6"/>
-    </row>
-    <row r="26" spans="3:12" x14ac:dyDescent="0.3">
-      <c r="C26" s="6">
-        <f>SUM(Tabela5[[#This Row],[P2 Q1]:[P2 Q5]])</f>
-        <v>11</v>
-      </c>
-      <c r="L26" s="5"/>
-    </row>
-    <row r="27" spans="3:12" x14ac:dyDescent="0.3">
-      <c r="C27" s="5">
-        <f>SUM(Tabela5[[#This Row],[P2 Q1]:[P2 Q5]])</f>
-        <v>11</v>
-      </c>
-      <c r="L27" s="6"/>
-    </row>
-    <row r="28" spans="3:12" x14ac:dyDescent="0.3">
-      <c r="C28" s="6">
-        <f>SUM(Tabela5[[#This Row],[P2 Q1]:[P2 Q5]])</f>
-        <v>11</v>
-      </c>
-      <c r="L28" s="5"/>
-    </row>
-    <row r="29" spans="3:12" x14ac:dyDescent="0.3">
-      <c r="C29" s="5">
-        <f>SUM(Tabela5[[#This Row],[P2 Q1]:[P2 Q5]])</f>
-        <v>11</v>
-      </c>
-      <c r="L29" s="6"/>
-    </row>
-    <row r="30" spans="3:12" x14ac:dyDescent="0.3">
-      <c r="C30" s="6">
-        <f>SUM(Tabela5[[#This Row],[P2 Q1]:[P2 Q5]])</f>
-        <v>11</v>
-      </c>
-      <c r="L30" s="5"/>
-    </row>
-    <row r="31" spans="3:12" x14ac:dyDescent="0.3">
-      <c r="C31" s="5">
-        <f>SUM(Tabela5[[#This Row],[P2 Q1]:[P2 Q5]])</f>
-        <v>10.5</v>
-      </c>
-      <c r="L31" s="6"/>
-    </row>
-    <row r="32" spans="3:12" x14ac:dyDescent="0.3">
-      <c r="C32" s="6">
-        <f>SUM(Tabela5[[#This Row],[P2 Q1]:[P2 Q5]])</f>
-        <v>10</v>
-      </c>
-      <c r="L32" s="5"/>
-    </row>
-    <row r="33" spans="3:12" x14ac:dyDescent="0.3">
-      <c r="C33" s="5">
-        <f>SUM(Tabela5[[#This Row],[P2 Q1]:[P2 Q5]])</f>
-        <v>10</v>
-      </c>
-      <c r="L33" s="6"/>
-    </row>
-    <row r="34" spans="3:12" x14ac:dyDescent="0.3">
-      <c r="C34" s="6">
-        <f>SUM(Tabela5[[#This Row],[P2 Q1]:[P2 Q5]])</f>
-        <v>9</v>
-      </c>
-      <c r="L34" s="5"/>
-    </row>
-    <row r="35" spans="3:12" x14ac:dyDescent="0.3">
-      <c r="C35" s="5">
-        <f>SUM(Tabela5[[#This Row],[P2 Q1]:[P2 Q5]])</f>
-        <v>9</v>
-      </c>
-      <c r="L35" s="6"/>
-    </row>
-    <row r="36" spans="3:12" x14ac:dyDescent="0.3">
-      <c r="C36" s="6">
-        <f>SUM(Tabela5[[#This Row],[P2 Q1]:[P2 Q5]])</f>
-        <v>9</v>
-      </c>
-      <c r="L36" s="5"/>
-    </row>
-    <row r="37" spans="3:12" x14ac:dyDescent="0.3">
-      <c r="C37" s="5">
-        <f>SUM(Tabela5[[#This Row],[P2 Q1]:[P2 Q5]])</f>
-        <v>9</v>
-      </c>
-      <c r="L37" s="6"/>
-    </row>
-    <row r="38" spans="3:12" x14ac:dyDescent="0.3">
-      <c r="C38" s="6">
-        <f>SUM(Tabela5[[#This Row],[P2 Q1]:[P2 Q5]])</f>
-        <v>8</v>
-      </c>
-      <c r="L38" s="5"/>
-    </row>
-    <row r="39" spans="3:12" x14ac:dyDescent="0.3">
-      <c r="C39" s="5">
-        <f>SUM(Tabela5[[#This Row],[P2 Q1]:[P2 Q5]])</f>
+      <c r="E52" s="3">
+        <v>5</v>
+      </c>
+      <c r="F52" s="3">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="53" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="B53">
+        <v>2024727012</v>
+      </c>
+      <c r="C53" s="3">
+        <v>12.1</v>
+      </c>
+      <c r="D53" s="3">
         <v>7.5</v>
       </c>
-      <c r="L39" s="6"/>
-    </row>
-    <row r="40" spans="3:12" x14ac:dyDescent="0.3">
-      <c r="C40" s="6">
-        <f>SUM(Tabela5[[#This Row],[P2 Q1]:[P2 Q5]])</f>
-        <v>7</v>
-      </c>
-      <c r="L40" s="5"/>
-    </row>
-    <row r="41" spans="3:12" x14ac:dyDescent="0.3">
-      <c r="C41" s="5">
-        <f>SUM(Tabela5[[#This Row],[P2 Q1]:[P2 Q5]])</f>
-        <v>5</v>
-      </c>
-      <c r="L41" s="6"/>
-    </row>
-    <row r="42" spans="3:12" x14ac:dyDescent="0.3">
-      <c r="C42" s="6">
-        <f>SUM(Tabela5[[#This Row],[P2 Q1]:[P2 Q5]])</f>
-        <v>4</v>
-      </c>
-      <c r="L42" s="5"/>
-    </row>
-    <row r="43" spans="3:12" x14ac:dyDescent="0.3">
-      <c r="C43" s="5">
-        <f>SUM(Tabela5[[#This Row],[P2 Q1]:[P2 Q5]])</f>
-        <v>3</v>
-      </c>
-      <c r="L43" s="6"/>
-    </row>
-    <row r="44" spans="3:12" x14ac:dyDescent="0.3">
-      <c r="C44" s="6">
-        <f>SUM(Tabela5[[#This Row],[P2 Q1]:[P2 Q5]])</f>
-        <v>2</v>
-      </c>
-      <c r="L44" s="5"/>
-    </row>
-    <row r="45" spans="3:12" x14ac:dyDescent="0.3">
-      <c r="C45" s="5">
-        <f>SUM(Tabela5[[#This Row],[P2 Q1]:[P2 Q5]])</f>
-        <v>2</v>
-      </c>
-      <c r="L45" s="6"/>
-    </row>
-    <row r="46" spans="3:12" x14ac:dyDescent="0.3">
-      <c r="L46" s="5"/>
-    </row>
-    <row r="47" spans="3:12" x14ac:dyDescent="0.3">
-      <c r="L47" s="6"/>
-    </row>
-    <row r="48" spans="3:12" x14ac:dyDescent="0.3">
-      <c r="L48" s="5"/>
-    </row>
-    <row r="49" spans="12:12" x14ac:dyDescent="0.3">
-      <c r="L49" s="6"/>
-    </row>
-    <row r="50" spans="12:12" x14ac:dyDescent="0.3">
-      <c r="L50" s="5"/>
+      <c r="E53" s="3">
+        <v>3</v>
+      </c>
+      <c r="F53" s="3">
+        <v>22.6</v>
+      </c>
     </row>
   </sheetData>
-  <conditionalFormatting sqref="L8:L50">
-    <cfRule type="colorScale" priority="2">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
-        <color rgb="FFF8696B"/>
-        <color rgb="FFFFEB84"/>
-        <color rgb="FF63BE7B"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C3:C45">
-    <cfRule type="colorScale" priority="1">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
-        <color rgb="FFF8696B"/>
-        <color rgb="FFFFEB84"/>
-        <color rgb="FF63BE7B"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
+  <autoFilter ref="B2:F2" xr:uid="{D53D9964-3B87-48FB-9482-EDEF1E3A404B}">
+    <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="B3:F53">
+      <sortCondition ref="B2"/>
+    </sortState>
+  </autoFilter>
   <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
 </worksheet>
 </file>
@@ -5066,7 +6473,7 @@
         <v>2.5</v>
       </c>
       <c r="I35" s="1">
-        <f t="shared" ref="I35:I66" si="2">SUM(D35:H35)</f>
+        <f t="shared" ref="I35:I53" si="2">SUM(D35:H35)</f>
         <v>14</v>
       </c>
     </row>
@@ -6695,7 +8102,7 @@
         <v>4</v>
       </c>
       <c r="I35" s="1">
-        <f t="shared" ref="I35:I66" si="2">SUM(D35:H35)</f>
+        <f t="shared" ref="I35:I53" si="2">SUM(D35:H35)</f>
         <v>14</v>
       </c>
     </row>

--- a/2024.2/Materiais enviados/Provas/Módulo 1/Notas.xlsx
+++ b/2024.2/Materiais enviados/Provas/Módulo 1/Notas.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="28129"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="28324"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="B:\GitHub\UFMG\DCC865-Projeto_e_Analise_de_Algoritmos\2024.2\Materiais enviados\Provas\Módulo 1\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="B:\GitHub\UFMG\Disciplinas\DCC865-Projeto_e_Analise_de_Algoritmos\2024.2\Materiais enviados\Provas\Módulo 1\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F45BA8A2-7EC3-45D7-BD05-A5A2F11DA95E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{11A488B7-E471-4651-962B-2AE417E7E3B4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Todas as notas" sheetId="3" r:id="rId1"/>
@@ -27,21 +27,12 @@
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
     </ext>
-    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
-      <xcalcf:calcFeatures>
-        <xcalcf:feature name="microsoft.com:RD"/>
-        <xcalcf:feature name="microsoft.com:Single"/>
-        <xcalcf:feature name="microsoft.com:FV"/>
-        <xcalcf:feature name="microsoft.com:CNMTM"/>
-        <xcalcf:feature name="microsoft.com:LET_WF"/>
-      </xcalcf:calcFeatures>
-    </ext>
   </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="207" uniqueCount="37">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="213" uniqueCount="43">
   <si>
     <t>Turma</t>
   </si>
@@ -153,6 +144,24 @@
   <si>
     <t>Mód 1 e 2 - Final</t>
   </si>
+  <si>
+    <t>TP2</t>
+  </si>
+  <si>
+    <t>Lista 1</t>
+  </si>
+  <si>
+    <t>P3</t>
+  </si>
+  <si>
+    <t>P4</t>
+  </si>
+  <si>
+    <t>Pontos extra</t>
+  </si>
+  <si>
+    <t>Total</t>
+  </si>
 </sst>
 </file>
 
@@ -227,7 +236,7 @@
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="33">
+  <dxfs count="39">
     <dxf>
       <font>
         <strike val="0"/>
@@ -260,44 +269,6 @@
     </dxf>
     <dxf>
       <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color auto="1"/>
-        <name val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </font>
-      <numFmt numFmtId="164" formatCode="0.0"/>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color auto="1"/>
-        <name val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </font>
-      <numFmt numFmtId="1" formatCode="0"/>
-    </dxf>
-    <dxf>
-      <font>
         <strike val="0"/>
         <outline val="0"/>
         <shadow val="0"/>
@@ -313,11 +284,7 @@
     </dxf>
     <dxf>
       <font>
-        <b val="0"/>
-        <i val="0"/>
         <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
         <outline val="0"/>
         <shadow val="0"/>
         <u val="none"/>
@@ -584,7 +551,139 @@
     </dxf>
     <dxf>
       <font>
+        <b val="0"/>
+        <i val="0"/>
         <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color auto="1"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+      <numFmt numFmtId="1" formatCode="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color auto="1"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+      <numFmt numFmtId="164" formatCode="0.0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color auto="1"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+      <numFmt numFmtId="164" formatCode="0.0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color auto="1"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+      <numFmt numFmtId="164" formatCode="0.0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color auto="1"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+      <numFmt numFmtId="164" formatCode="0.0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color auto="1"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+      <numFmt numFmtId="164" formatCode="0.0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color auto="1"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+      <numFmt numFmtId="164" formatCode="0.0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color auto="1"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+      <numFmt numFmtId="164" formatCode="0.0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
         <outline val="0"/>
         <shadow val="0"/>
         <u val="none"/>
@@ -701,35 +800,43 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="5" xr:uid="{D8F77952-2AC0-42C0-AC90-F82B3EC43569}" name="Tabela5" displayName="Tabela5" ref="A2:T53" totalsRowShown="0">
-  <autoFilter ref="A2:T53" xr:uid="{D8F77952-2AC0-42C0-AC90-F82B3EC43569}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="5" xr:uid="{D8F77952-2AC0-42C0-AC90-F82B3EC43569}" name="Tabela5" displayName="Tabela5" ref="A2:Z53" totalsRowShown="0">
+  <autoFilter ref="A2:Z53" xr:uid="{D8F77952-2AC0-42C0-AC90-F82B3EC43569}"/>
   <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A3:T53">
     <sortCondition descending="1" ref="T2:T53"/>
   </sortState>
-  <tableColumns count="20">
+  <tableColumns count="26">
     <tableColumn id="1" xr3:uid="{A53A2C59-CFCF-4DCE-A539-E5C7C52B4323}" name="Turma"/>
     <tableColumn id="2" xr3:uid="{D46261CA-D987-4B1E-AAA1-4814381AC974}" name="MATRICULA"/>
     <tableColumn id="3" xr3:uid="{EA298C66-D77E-4E0C-BDE1-C7E2FF592509}" name="Nome"/>
-    <tableColumn id="4" xr3:uid="{9A116FAF-6A84-48A6-B7CA-698B497F4531}" name="P1 Q1" dataDxfId="32"/>
-    <tableColumn id="5" xr3:uid="{D12FCC22-0C24-43C5-B6BA-8CEDD28B1DBC}" name="P1 Q2" dataDxfId="31"/>
-    <tableColumn id="6" xr3:uid="{DD5FB362-D52B-4E2A-BF0F-67536B79BC88}" name="P1 Q3" dataDxfId="30"/>
-    <tableColumn id="7" xr3:uid="{525F3116-E758-4D18-9405-8A2F3AE88A1D}" name="P1 Q4" dataDxfId="29"/>
-    <tableColumn id="8" xr3:uid="{8C433621-7006-41E0-AAE1-6AD4077F9D26}" name="P1 Q5" dataDxfId="28"/>
-    <tableColumn id="9" xr3:uid="{2A64D5F4-A002-4AC1-88C6-6836E53406AE}" name="Nota P1" dataDxfId="7"/>
-    <tableColumn id="20" xr3:uid="{C08BCA0A-0BF3-4774-8BB7-D32368E71ECA}" name="Nota P1 Final" dataDxfId="5"/>
-    <tableColumn id="10" xr3:uid="{72E5D83D-FB26-48ED-8B84-25716D854F13}" name="P2 Q1" dataDxfId="6"/>
-    <tableColumn id="11" xr3:uid="{AFFCAA7F-4266-4CC7-8025-96260539743C}" name="P2 Q2" dataDxfId="27"/>
-    <tableColumn id="12" xr3:uid="{3C8DD629-298E-40DC-930C-1E191B680BDE}" name="P2 Q3" dataDxfId="26"/>
-    <tableColumn id="13" xr3:uid="{01F5A46F-FD30-4721-B00D-3719108A04E3}" name="P2 Q4" dataDxfId="25"/>
-    <tableColumn id="14" xr3:uid="{4DE10E09-DF17-4838-AD03-D3C31A02A6CB}" name="P2 Q5" dataDxfId="24"/>
-    <tableColumn id="15" xr3:uid="{37D7A5B3-7131-4112-A4C2-BA2609570788}" name="Nota P2" dataDxfId="4"/>
-    <tableColumn id="21" xr3:uid="{2DE840FD-E1D0-4928-BE21-D28BCA208EB5}" name="Nota P2 Final" dataDxfId="2"/>
-    <tableColumn id="17" xr3:uid="{C84BCC16-65FC-4CD0-A142-C83C69170C97}" name="TP1" dataDxfId="3"/>
-    <tableColumn id="16" xr3:uid="{F3F2CD2E-A9C2-44E2-B2C9-4793C32B078F}" name="Módulo 1 e 2" dataDxfId="1">
+    <tableColumn id="4" xr3:uid="{9A116FAF-6A84-48A6-B7CA-698B497F4531}" name="P1 Q1" dataDxfId="38"/>
+    <tableColumn id="5" xr3:uid="{D12FCC22-0C24-43C5-B6BA-8CEDD28B1DBC}" name="P1 Q2" dataDxfId="37"/>
+    <tableColumn id="6" xr3:uid="{DD5FB362-D52B-4E2A-BF0F-67536B79BC88}" name="P1 Q3" dataDxfId="36"/>
+    <tableColumn id="7" xr3:uid="{525F3116-E758-4D18-9405-8A2F3AE88A1D}" name="P1 Q4" dataDxfId="35"/>
+    <tableColumn id="8" xr3:uid="{8C433621-7006-41E0-AAE1-6AD4077F9D26}" name="P1 Q5" dataDxfId="34"/>
+    <tableColumn id="9" xr3:uid="{2A64D5F4-A002-4AC1-88C6-6836E53406AE}" name="Nota P1" dataDxfId="33"/>
+    <tableColumn id="20" xr3:uid="{C08BCA0A-0BF3-4774-8BB7-D32368E71ECA}" name="Nota P1 Final" dataDxfId="32"/>
+    <tableColumn id="10" xr3:uid="{72E5D83D-FB26-48ED-8B84-25716D854F13}" name="P2 Q1" dataDxfId="31"/>
+    <tableColumn id="11" xr3:uid="{AFFCAA7F-4266-4CC7-8025-96260539743C}" name="P2 Q2" dataDxfId="30"/>
+    <tableColumn id="12" xr3:uid="{3C8DD629-298E-40DC-930C-1E191B680BDE}" name="P2 Q3" dataDxfId="29"/>
+    <tableColumn id="13" xr3:uid="{01F5A46F-FD30-4721-B00D-3719108A04E3}" name="P2 Q4" dataDxfId="28"/>
+    <tableColumn id="14" xr3:uid="{4DE10E09-DF17-4838-AD03-D3C31A02A6CB}" name="P2 Q5" dataDxfId="27"/>
+    <tableColumn id="15" xr3:uid="{37D7A5B3-7131-4112-A4C2-BA2609570788}" name="Nota P2" dataDxfId="26"/>
+    <tableColumn id="21" xr3:uid="{2DE840FD-E1D0-4928-BE21-D28BCA208EB5}" name="Nota P2 Final" dataDxfId="25"/>
+    <tableColumn id="17" xr3:uid="{C84BCC16-65FC-4CD0-A142-C83C69170C97}" name="TP1" dataDxfId="24"/>
+    <tableColumn id="16" xr3:uid="{F3F2CD2E-A9C2-44E2-B2C9-4793C32B078F}" name="Módulo 1 e 2" dataDxfId="23">
       <calculatedColumnFormula>SUM(Tabela5[[#This Row],[Nota P2]],Tabela5[[#This Row],[Nota P1]],Tabela5[[#This Row],[TP1]])</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="23" xr3:uid="{7901F6CF-6B59-478C-984E-58F7FB41B596}" name="Mód 1 e 2 - Final" dataDxfId="0">
+    <tableColumn id="23" xr3:uid="{7901F6CF-6B59-478C-984E-58F7FB41B596}" name="Mód 1 e 2 - Final" dataDxfId="22">
       <calculatedColumnFormula>SUM(Tabela5[[#This Row],[Nota P1 Final]],Tabela5[[#This Row],[Nota P2 Final]],Tabela5[[#This Row],[TP1]])</calculatedColumnFormula>
+    </tableColumn>
+    <tableColumn id="18" xr3:uid="{2BB8863D-70A9-449D-A39D-BD3F00934510}" name="TP2" dataDxfId="5"/>
+    <tableColumn id="19" xr3:uid="{B7279591-CB9C-4FE0-99B7-C40B13848475}" name="Lista 1" dataDxfId="4"/>
+    <tableColumn id="22" xr3:uid="{654759A5-38C7-4AFE-AF5F-746663F9E8E7}" name="P3" dataDxfId="3"/>
+    <tableColumn id="24" xr3:uid="{B11D91C3-F2D4-47C5-AB11-8FFCF956E48B}" name="P4" dataDxfId="2"/>
+    <tableColumn id="25" xr3:uid="{A860F069-DAFD-4BA6-866E-A3EFAE0E6D76}" name="Pontos extra" dataDxfId="1"/>
+    <tableColumn id="26" xr3:uid="{5B118970-1AC1-46B2-929C-44C3C883ABB6}" name="Total" dataDxfId="0">
+      <calculatedColumnFormula>SUM(Tabela5[[#This Row],[TP2]:[Pontos extra]],Tabela5[[#This Row],[Mód 1 e 2 - Final]])</calculatedColumnFormula>
     </tableColumn>
   </tableColumns>
   <tableStyleInfo name="TableStyleDark1" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
@@ -744,14 +851,14 @@
   </sortState>
   <tableColumns count="9">
     <tableColumn id="1" xr3:uid="{BFC0ED60-759B-4BF8-88EE-08E8F81479B6}" name="Turma"/>
-    <tableColumn id="2" xr3:uid="{C0AA615E-562F-485C-8FBD-DED54E1F7ADE}" name="MATRICULA" dataDxfId="23"/>
-    <tableColumn id="9" xr3:uid="{1D4B4CB9-7BB1-43B1-B1DB-D0E028E91578}" name="Nome" dataDxfId="22"/>
-    <tableColumn id="3" xr3:uid="{B811706B-CA27-4CD6-A11D-5EDC50854FF1}" name="Q1" dataDxfId="21"/>
-    <tableColumn id="4" xr3:uid="{9E75F866-5E88-4AB7-862B-E6421E8DA98F}" name="Q2" dataDxfId="20"/>
-    <tableColumn id="5" xr3:uid="{7BCD41E6-B749-403C-B599-9EECC1C8F34C}" name="Q3" dataDxfId="19"/>
-    <tableColumn id="6" xr3:uid="{8A0DD61F-3932-4A92-8E41-45AAAB6C361A}" name="Q4" dataDxfId="18"/>
-    <tableColumn id="7" xr3:uid="{305F59C9-21DF-4808-B78F-695D9697BD49}" name="Q5" dataDxfId="17"/>
-    <tableColumn id="8" xr3:uid="{59A12193-9B24-4649-A9C7-A347CE3F942F}" name="Nota" dataDxfId="16">
+    <tableColumn id="2" xr3:uid="{C0AA615E-562F-485C-8FBD-DED54E1F7ADE}" name="MATRICULA" dataDxfId="21"/>
+    <tableColumn id="9" xr3:uid="{1D4B4CB9-7BB1-43B1-B1DB-D0E028E91578}" name="Nome" dataDxfId="20"/>
+    <tableColumn id="3" xr3:uid="{B811706B-CA27-4CD6-A11D-5EDC50854FF1}" name="Q1" dataDxfId="19"/>
+    <tableColumn id="4" xr3:uid="{9E75F866-5E88-4AB7-862B-E6421E8DA98F}" name="Q2" dataDxfId="18"/>
+    <tableColumn id="5" xr3:uid="{7BCD41E6-B749-403C-B599-9EECC1C8F34C}" name="Q3" dataDxfId="17"/>
+    <tableColumn id="6" xr3:uid="{8A0DD61F-3932-4A92-8E41-45AAAB6C361A}" name="Q4" dataDxfId="16"/>
+    <tableColumn id="7" xr3:uid="{305F59C9-21DF-4808-B78F-695D9697BD49}" name="Q5" dataDxfId="15"/>
+    <tableColumn id="8" xr3:uid="{59A12193-9B24-4649-A9C7-A347CE3F942F}" name="Nota" dataDxfId="14">
       <calculatedColumnFormula>SUM(D3:H3)</calculatedColumnFormula>
     </tableColumn>
   </tableColumns>
@@ -767,14 +874,14 @@
   </sortState>
   <tableColumns count="9">
     <tableColumn id="1" xr3:uid="{9A597B2A-BCEE-4D3B-A0F0-8913F18EDBC4}" name="Turma"/>
-    <tableColumn id="2" xr3:uid="{B44EA045-0897-40BA-B5A8-7B35E81BA541}" name="MATRICULA" dataDxfId="15"/>
-    <tableColumn id="9" xr3:uid="{8ADF0CB9-B3EF-436C-9C96-DFA691839C79}" name="Nome" dataDxfId="14"/>
-    <tableColumn id="3" xr3:uid="{13E5564B-4516-426A-B08E-982059E2E5BC}" name="Q1" dataDxfId="13"/>
-    <tableColumn id="4" xr3:uid="{E60E864D-1AAC-45C0-A70B-13936B6F247F}" name="Q2" dataDxfId="12"/>
-    <tableColumn id="5" xr3:uid="{438DC79B-2286-42C6-8C30-1D0A25F9D8B5}" name="Q3" dataDxfId="11"/>
-    <tableColumn id="6" xr3:uid="{6423B7C0-A146-4ECC-BD49-E25FDE130238}" name="Q4" dataDxfId="10"/>
-    <tableColumn id="7" xr3:uid="{AD0E195E-E577-485E-9732-D5E7E6B29A64}" name="Q5" dataDxfId="9"/>
-    <tableColumn id="8" xr3:uid="{13DFAE64-2AD3-46AE-A775-18B3C9F736A1}" name="Nota" dataDxfId="8">
+    <tableColumn id="2" xr3:uid="{B44EA045-0897-40BA-B5A8-7B35E81BA541}" name="MATRICULA" dataDxfId="13"/>
+    <tableColumn id="9" xr3:uid="{8ADF0CB9-B3EF-436C-9C96-DFA691839C79}" name="Nome" dataDxfId="12"/>
+    <tableColumn id="3" xr3:uid="{13E5564B-4516-426A-B08E-982059E2E5BC}" name="Q1" dataDxfId="11"/>
+    <tableColumn id="4" xr3:uid="{E60E864D-1AAC-45C0-A70B-13936B6F247F}" name="Q2" dataDxfId="10"/>
+    <tableColumn id="5" xr3:uid="{438DC79B-2286-42C6-8C30-1D0A25F9D8B5}" name="Q3" dataDxfId="9"/>
+    <tableColumn id="6" xr3:uid="{6423B7C0-A146-4ECC-BD49-E25FDE130238}" name="Q4" dataDxfId="8"/>
+    <tableColumn id="7" xr3:uid="{AD0E195E-E577-485E-9732-D5E7E6B29A64}" name="Q5" dataDxfId="7"/>
+    <tableColumn id="8" xr3:uid="{13DFAE64-2AD3-46AE-A775-18B3C9F736A1}" name="Nota" dataDxfId="6">
       <calculatedColumnFormula>SUM(D3:H3)</calculatedColumnFormula>
     </tableColumn>
   </tableColumns>
@@ -1045,13 +1152,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{55D759BB-1155-4903-96BA-60B49B282B75}">
-  <dimension ref="A1:U53"/>
+  <dimension ref="A1:Z53"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A13" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="T1" sqref="A1:T53"/>
+    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="AB10" sqref="AB10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="0" defaultRowHeight="14.4" zeroHeight="1" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="8.88671875" defaultRowHeight="14.4" zeroHeight="1" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="11.6640625" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="18" bestFit="1" customWidth="1"/>
@@ -1066,10 +1173,13 @@
     <col min="17" max="18" width="13.5546875" customWidth="1"/>
     <col min="19" max="19" width="18.21875" bestFit="1" customWidth="1"/>
     <col min="20" max="20" width="8.88671875" customWidth="1"/>
-    <col min="22" max="16384" width="8.88671875" hidden="1"/>
+    <col min="21" max="21" width="9.33203125" bestFit="1" customWidth="1"/>
+    <col min="22" max="22" width="11.77734375" bestFit="1" customWidth="1"/>
+    <col min="23" max="24" width="7.88671875" bestFit="1" customWidth="1"/>
+    <col min="25" max="25" width="18.77734375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A1" s="4"/>
       <c r="B1" s="4"/>
       <c r="C1" s="4"/>
@@ -1135,8 +1245,32 @@
         <f>AVERAGE(Tabela5[Mód 1 e 2 - Final])</f>
         <v>29.556862745098059</v>
       </c>
-    </row>
-    <row r="2" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="U1" s="5">
+        <f>AVERAGE(Tabela5[[#All],[TP2]])</f>
+        <v>5</v>
+      </c>
+      <c r="V1" s="5">
+        <f>AVERAGE(Tabela5[[#All],[Lista 1]])</f>
+        <v>5</v>
+      </c>
+      <c r="W1" s="5">
+        <f>AVERAGE(Tabela5[[#All],[P3]])</f>
+        <v>7.87</v>
+      </c>
+      <c r="X1" s="5">
+        <f>AVERAGE(Tabela5[[#All],[P4]])</f>
+        <v>0</v>
+      </c>
+      <c r="Y1" s="5">
+        <f>AVERAGE(Tabela5[[#All],[Pontos extra]])</f>
+        <v>0</v>
+      </c>
+      <c r="Z1" s="5">
+        <f>AVERAGE(Tabela5[[#All],[Total]])</f>
+        <v>29.907254901960801</v>
+      </c>
+    </row>
+    <row r="2" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>0</v>
       </c>
@@ -1197,8 +1331,26 @@
       <c r="T2" t="s">
         <v>36</v>
       </c>
-    </row>
-    <row r="3" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="U2" t="s">
+        <v>37</v>
+      </c>
+      <c r="V2" t="s">
+        <v>38</v>
+      </c>
+      <c r="W2" t="s">
+        <v>39</v>
+      </c>
+      <c r="X2" t="s">
+        <v>40</v>
+      </c>
+      <c r="Y2" t="s">
+        <v>41</v>
+      </c>
+      <c r="Z2" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="3" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>1</v>
       </c>
@@ -1263,8 +1415,17 @@
         <f>SUM(Tabela5[[#This Row],[Nota P1 Final]],Tabela5[[#This Row],[Nota P2 Final]],Tabela5[[#This Row],[TP1]])</f>
         <v>50</v>
       </c>
-    </row>
-    <row r="4" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="U3" s="1"/>
+      <c r="V3" s="1"/>
+      <c r="W3" s="1"/>
+      <c r="X3" s="1"/>
+      <c r="Y3" s="1"/>
+      <c r="Z3" s="1">
+        <f>SUM(Tabela5[[#This Row],[TP2]:[Pontos extra]],Tabela5[[#This Row],[Mód 1 e 2 - Final]])</f>
+        <v>50</v>
+      </c>
+    </row>
+    <row r="4" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>1</v>
       </c>
@@ -1326,8 +1487,17 @@
         <f>SUM(Tabela5[[#This Row],[Nota P1 Final]],Tabela5[[#This Row],[Nota P2 Final]],Tabela5[[#This Row],[TP1]])</f>
         <v>48</v>
       </c>
-    </row>
-    <row r="5" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="U4" s="1"/>
+      <c r="V4" s="1"/>
+      <c r="W4" s="1"/>
+      <c r="X4" s="1"/>
+      <c r="Y4" s="1"/>
+      <c r="Z4" s="1">
+        <f>SUM(Tabela5[[#This Row],[TP2]:[Pontos extra]],Tabela5[[#This Row],[Mód 1 e 2 - Final]])</f>
+        <v>48</v>
+      </c>
+    </row>
+    <row r="5" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
         <v>9</v>
       </c>
@@ -1389,8 +1559,17 @@
         <f>SUM(Tabela5[[#This Row],[Nota P1 Final]],Tabela5[[#This Row],[Nota P2 Final]],Tabela5[[#This Row],[TP1]])</f>
         <v>47.2</v>
       </c>
-    </row>
-    <row r="6" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="U5" s="1"/>
+      <c r="V5" s="1"/>
+      <c r="W5" s="1"/>
+      <c r="X5" s="1"/>
+      <c r="Y5" s="1"/>
+      <c r="Z5" s="1">
+        <f>SUM(Tabela5[[#This Row],[TP2]:[Pontos extra]],Tabela5[[#This Row],[Mód 1 e 2 - Final]])</f>
+        <v>47.2</v>
+      </c>
+    </row>
+    <row r="6" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
         <v>9</v>
       </c>
@@ -1452,8 +1631,17 @@
         <f>SUM(Tabela5[[#This Row],[Nota P1 Final]],Tabela5[[#This Row],[Nota P2 Final]],Tabela5[[#This Row],[TP1]])</f>
         <v>45.2</v>
       </c>
-    </row>
-    <row r="7" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="U6" s="1"/>
+      <c r="V6" s="1"/>
+      <c r="W6" s="1"/>
+      <c r="X6" s="1"/>
+      <c r="Y6" s="1"/>
+      <c r="Z6" s="1">
+        <f>SUM(Tabela5[[#This Row],[TP2]:[Pontos extra]],Tabela5[[#This Row],[Mód 1 e 2 - Final]])</f>
+        <v>45.2</v>
+      </c>
+    </row>
+    <row r="7" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
         <v>9</v>
       </c>
@@ -1515,8 +1703,17 @@
         <f>SUM(Tabela5[[#This Row],[Nota P1 Final]],Tabela5[[#This Row],[Nota P2 Final]],Tabela5[[#This Row],[TP1]])</f>
         <v>45</v>
       </c>
-    </row>
-    <row r="8" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="U7" s="1"/>
+      <c r="V7" s="1"/>
+      <c r="W7" s="1"/>
+      <c r="X7" s="1"/>
+      <c r="Y7" s="1"/>
+      <c r="Z7" s="1">
+        <f>SUM(Tabela5[[#This Row],[TP2]:[Pontos extra]],Tabela5[[#This Row],[Mód 1 e 2 - Final]])</f>
+        <v>45</v>
+      </c>
+    </row>
+    <row r="8" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
         <v>9</v>
       </c>
@@ -1578,8 +1775,17 @@
         <f>SUM(Tabela5[[#This Row],[Nota P1 Final]],Tabela5[[#This Row],[Nota P2 Final]],Tabela5[[#This Row],[TP1]])</f>
         <v>44.7</v>
       </c>
-    </row>
-    <row r="9" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="U8" s="1"/>
+      <c r="V8" s="1"/>
+      <c r="W8" s="1"/>
+      <c r="X8" s="1"/>
+      <c r="Y8" s="1"/>
+      <c r="Z8" s="1">
+        <f>SUM(Tabela5[[#This Row],[TP2]:[Pontos extra]],Tabela5[[#This Row],[Mód 1 e 2 - Final]])</f>
+        <v>44.7</v>
+      </c>
+    </row>
+    <row r="9" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
         <v>9</v>
       </c>
@@ -1644,8 +1850,17 @@
         <f>SUM(Tabela5[[#This Row],[Nota P1 Final]],Tabela5[[#This Row],[Nota P2 Final]],Tabela5[[#This Row],[TP1]])</f>
         <v>44</v>
       </c>
-    </row>
-    <row r="10" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="U9" s="1"/>
+      <c r="V9" s="1"/>
+      <c r="W9" s="1"/>
+      <c r="X9" s="1"/>
+      <c r="Y9" s="1"/>
+      <c r="Z9" s="1">
+        <f>SUM(Tabela5[[#This Row],[TP2]:[Pontos extra]],Tabela5[[#This Row],[Mód 1 e 2 - Final]])</f>
+        <v>44</v>
+      </c>
+    </row>
+    <row r="10" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
         <v>9</v>
       </c>
@@ -1707,8 +1922,17 @@
         <f>SUM(Tabela5[[#This Row],[Nota P1 Final]],Tabela5[[#This Row],[Nota P2 Final]],Tabela5[[#This Row],[TP1]])</f>
         <v>42.5</v>
       </c>
-    </row>
-    <row r="11" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="U10" s="1"/>
+      <c r="V10" s="1"/>
+      <c r="W10" s="1"/>
+      <c r="X10" s="1"/>
+      <c r="Y10" s="1"/>
+      <c r="Z10" s="1">
+        <f>SUM(Tabela5[[#This Row],[TP2]:[Pontos extra]],Tabela5[[#This Row],[Mód 1 e 2 - Final]])</f>
+        <v>42.5</v>
+      </c>
+    </row>
+    <row r="11" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
         <v>9</v>
       </c>
@@ -1770,8 +1994,17 @@
         <f>SUM(Tabela5[[#This Row],[Nota P1 Final]],Tabela5[[#This Row],[Nota P2 Final]],Tabela5[[#This Row],[TP1]])</f>
         <v>41.7</v>
       </c>
-    </row>
-    <row r="12" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="U11" s="1"/>
+      <c r="V11" s="1"/>
+      <c r="W11" s="1"/>
+      <c r="X11" s="1"/>
+      <c r="Y11" s="1"/>
+      <c r="Z11" s="1">
+        <f>SUM(Tabela5[[#This Row],[TP2]:[Pontos extra]],Tabela5[[#This Row],[Mód 1 e 2 - Final]])</f>
+        <v>41.7</v>
+      </c>
+    </row>
+    <row r="12" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
         <v>9</v>
       </c>
@@ -1833,8 +2066,17 @@
         <f>SUM(Tabela5[[#This Row],[Nota P1 Final]],Tabela5[[#This Row],[Nota P2 Final]],Tabela5[[#This Row],[TP1]])</f>
         <v>41.2</v>
       </c>
-    </row>
-    <row r="13" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="U12" s="1"/>
+      <c r="V12" s="1"/>
+      <c r="W12" s="1"/>
+      <c r="X12" s="1"/>
+      <c r="Y12" s="1"/>
+      <c r="Z12" s="1">
+        <f>SUM(Tabela5[[#This Row],[TP2]:[Pontos extra]],Tabela5[[#This Row],[Mód 1 e 2 - Final]])</f>
+        <v>41.2</v>
+      </c>
+    </row>
+    <row r="13" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
         <v>9</v>
       </c>
@@ -1896,8 +2138,17 @@
         <f>SUM(Tabela5[[#This Row],[Nota P1 Final]],Tabela5[[#This Row],[Nota P2 Final]],Tabela5[[#This Row],[TP1]])</f>
         <v>40.5</v>
       </c>
-    </row>
-    <row r="14" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="U13" s="1"/>
+      <c r="V13" s="1"/>
+      <c r="W13" s="1"/>
+      <c r="X13" s="1"/>
+      <c r="Y13" s="1"/>
+      <c r="Z13" s="1">
+        <f>SUM(Tabela5[[#This Row],[TP2]:[Pontos extra]],Tabela5[[#This Row],[Mód 1 e 2 - Final]])</f>
+        <v>40.5</v>
+      </c>
+    </row>
+    <row r="14" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
         <v>1</v>
       </c>
@@ -1962,8 +2213,27 @@
         <f>SUM(Tabela5[[#This Row],[Nota P1 Final]],Tabela5[[#This Row],[Nota P2 Final]],Tabela5[[#This Row],[TP1]])</f>
         <v>39.4</v>
       </c>
-    </row>
-    <row r="15" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="U14" s="1">
+        <v>5</v>
+      </c>
+      <c r="V14" s="1">
+        <v>5</v>
+      </c>
+      <c r="W14" s="1">
+        <v>7.87</v>
+      </c>
+      <c r="X14" s="1">
+        <v>0</v>
+      </c>
+      <c r="Y14" s="1">
+        <v>0</v>
+      </c>
+      <c r="Z14" s="1">
+        <f>SUM(Tabela5[[#This Row],[TP2]:[Pontos extra]],Tabela5[[#This Row],[Mód 1 e 2 - Final]])</f>
+        <v>57.269999999999996</v>
+      </c>
+    </row>
+    <row r="15" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A15" t="s">
         <v>9</v>
       </c>
@@ -2025,8 +2295,17 @@
         <f>SUM(Tabela5[[#This Row],[Nota P1 Final]],Tabela5[[#This Row],[Nota P2 Final]],Tabela5[[#This Row],[TP1]])</f>
         <v>38.700000000000003</v>
       </c>
-    </row>
-    <row r="16" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="U15" s="1"/>
+      <c r="V15" s="1"/>
+      <c r="W15" s="1"/>
+      <c r="X15" s="1"/>
+      <c r="Y15" s="1"/>
+      <c r="Z15" s="1">
+        <f>SUM(Tabela5[[#This Row],[TP2]:[Pontos extra]],Tabela5[[#This Row],[Mód 1 e 2 - Final]])</f>
+        <v>38.700000000000003</v>
+      </c>
+    </row>
+    <row r="16" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
         <v>9</v>
       </c>
@@ -2088,8 +2367,17 @@
         <f>SUM(Tabela5[[#This Row],[Nota P1 Final]],Tabela5[[#This Row],[Nota P2 Final]],Tabela5[[#This Row],[TP1]])</f>
         <v>38.700000000000003</v>
       </c>
-    </row>
-    <row r="17" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="U16" s="1"/>
+      <c r="V16" s="1"/>
+      <c r="W16" s="1"/>
+      <c r="X16" s="1"/>
+      <c r="Y16" s="1"/>
+      <c r="Z16" s="1">
+        <f>SUM(Tabela5[[#This Row],[TP2]:[Pontos extra]],Tabela5[[#This Row],[Mód 1 e 2 - Final]])</f>
+        <v>38.700000000000003</v>
+      </c>
+    </row>
+    <row r="17" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A17" t="s">
         <v>9</v>
       </c>
@@ -2151,8 +2439,17 @@
         <f>SUM(Tabela5[[#This Row],[Nota P1 Final]],Tabela5[[#This Row],[Nota P2 Final]],Tabela5[[#This Row],[TP1]])</f>
         <v>37.799999999999997</v>
       </c>
-    </row>
-    <row r="18" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="U17" s="1"/>
+      <c r="V17" s="1"/>
+      <c r="W17" s="1"/>
+      <c r="X17" s="1"/>
+      <c r="Y17" s="1"/>
+      <c r="Z17" s="1">
+        <f>SUM(Tabela5[[#This Row],[TP2]:[Pontos extra]],Tabela5[[#This Row],[Mód 1 e 2 - Final]])</f>
+        <v>37.799999999999997</v>
+      </c>
+    </row>
+    <row r="18" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A18" t="s">
         <v>9</v>
       </c>
@@ -2214,8 +2511,17 @@
         <f>SUM(Tabela5[[#This Row],[Nota P1 Final]],Tabela5[[#This Row],[Nota P2 Final]],Tabela5[[#This Row],[TP1]])</f>
         <v>37.700000000000003</v>
       </c>
-    </row>
-    <row r="19" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="U18" s="1"/>
+      <c r="V18" s="1"/>
+      <c r="W18" s="1"/>
+      <c r="X18" s="1"/>
+      <c r="Y18" s="1"/>
+      <c r="Z18" s="1">
+        <f>SUM(Tabela5[[#This Row],[TP2]:[Pontos extra]],Tabela5[[#This Row],[Mód 1 e 2 - Final]])</f>
+        <v>37.700000000000003</v>
+      </c>
+    </row>
+    <row r="19" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A19" t="s">
         <v>9</v>
       </c>
@@ -2277,8 +2583,17 @@
         <f>SUM(Tabela5[[#This Row],[Nota P1 Final]],Tabela5[[#This Row],[Nota P2 Final]],Tabela5[[#This Row],[TP1]])</f>
         <v>37</v>
       </c>
-    </row>
-    <row r="20" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="U19" s="1"/>
+      <c r="V19" s="1"/>
+      <c r="W19" s="1"/>
+      <c r="X19" s="1"/>
+      <c r="Y19" s="1"/>
+      <c r="Z19" s="1">
+        <f>SUM(Tabela5[[#This Row],[TP2]:[Pontos extra]],Tabela5[[#This Row],[Mód 1 e 2 - Final]])</f>
+        <v>37</v>
+      </c>
+    </row>
+    <row r="20" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A20" t="s">
         <v>1</v>
       </c>
@@ -2340,8 +2655,17 @@
         <f>SUM(Tabela5[[#This Row],[Nota P1 Final]],Tabela5[[#This Row],[Nota P2 Final]],Tabela5[[#This Row],[TP1]])</f>
         <v>36.200000000000003</v>
       </c>
-    </row>
-    <row r="21" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="U20" s="1"/>
+      <c r="V20" s="1"/>
+      <c r="W20" s="1"/>
+      <c r="X20" s="1"/>
+      <c r="Y20" s="1"/>
+      <c r="Z20" s="1">
+        <f>SUM(Tabela5[[#This Row],[TP2]:[Pontos extra]],Tabela5[[#This Row],[Mód 1 e 2 - Final]])</f>
+        <v>36.200000000000003</v>
+      </c>
+    </row>
+    <row r="21" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A21" t="s">
         <v>9</v>
       </c>
@@ -2403,8 +2727,17 @@
         <f>SUM(Tabela5[[#This Row],[Nota P1 Final]],Tabela5[[#This Row],[Nota P2 Final]],Tabela5[[#This Row],[TP1]])</f>
         <v>35.9</v>
       </c>
-    </row>
-    <row r="22" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="U21" s="1"/>
+      <c r="V21" s="1"/>
+      <c r="W21" s="1"/>
+      <c r="X21" s="1"/>
+      <c r="Y21" s="1"/>
+      <c r="Z21" s="1">
+        <f>SUM(Tabela5[[#This Row],[TP2]:[Pontos extra]],Tabela5[[#This Row],[Mód 1 e 2 - Final]])</f>
+        <v>35.9</v>
+      </c>
+    </row>
+    <row r="22" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A22" t="s">
         <v>9</v>
       </c>
@@ -2466,8 +2799,17 @@
         <f>SUM(Tabela5[[#This Row],[Nota P1 Final]],Tabela5[[#This Row],[Nota P2 Final]],Tabela5[[#This Row],[TP1]])</f>
         <v>35.700000000000003</v>
       </c>
-    </row>
-    <row r="23" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="U22" s="1"/>
+      <c r="V22" s="1"/>
+      <c r="W22" s="1"/>
+      <c r="X22" s="1"/>
+      <c r="Y22" s="1"/>
+      <c r="Z22" s="1">
+        <f>SUM(Tabela5[[#This Row],[TP2]:[Pontos extra]],Tabela5[[#This Row],[Mód 1 e 2 - Final]])</f>
+        <v>35.700000000000003</v>
+      </c>
+    </row>
+    <row r="23" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A23" t="s">
         <v>9</v>
       </c>
@@ -2529,8 +2871,17 @@
         <f>SUM(Tabela5[[#This Row],[Nota P1 Final]],Tabela5[[#This Row],[Nota P2 Final]],Tabela5[[#This Row],[TP1]])</f>
         <v>34.700000000000003</v>
       </c>
-    </row>
-    <row r="24" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="U23" s="1"/>
+      <c r="V23" s="1"/>
+      <c r="W23" s="1"/>
+      <c r="X23" s="1"/>
+      <c r="Y23" s="1"/>
+      <c r="Z23" s="1">
+        <f>SUM(Tabela5[[#This Row],[TP2]:[Pontos extra]],Tabela5[[#This Row],[Mód 1 e 2 - Final]])</f>
+        <v>34.700000000000003</v>
+      </c>
+    </row>
+    <row r="24" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A24" t="s">
         <v>1</v>
       </c>
@@ -2592,8 +2943,17 @@
         <f>SUM(Tabela5[[#This Row],[Nota P1 Final]],Tabela5[[#This Row],[Nota P2 Final]],Tabela5[[#This Row],[TP1]])</f>
         <v>34.700000000000003</v>
       </c>
-    </row>
-    <row r="25" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="U24" s="1"/>
+      <c r="V24" s="1"/>
+      <c r="W24" s="1"/>
+      <c r="X24" s="1"/>
+      <c r="Y24" s="1"/>
+      <c r="Z24" s="1">
+        <f>SUM(Tabela5[[#This Row],[TP2]:[Pontos extra]],Tabela5[[#This Row],[Mód 1 e 2 - Final]])</f>
+        <v>34.700000000000003</v>
+      </c>
+    </row>
+    <row r="25" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A25" t="s">
         <v>9</v>
       </c>
@@ -2655,8 +3015,17 @@
         <f>SUM(Tabela5[[#This Row],[Nota P1 Final]],Tabela5[[#This Row],[Nota P2 Final]],Tabela5[[#This Row],[TP1]])</f>
         <v>34.5</v>
       </c>
-    </row>
-    <row r="26" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="U25" s="1"/>
+      <c r="V25" s="1"/>
+      <c r="W25" s="1"/>
+      <c r="X25" s="1"/>
+      <c r="Y25" s="1"/>
+      <c r="Z25" s="1">
+        <f>SUM(Tabela5[[#This Row],[TP2]:[Pontos extra]],Tabela5[[#This Row],[Mód 1 e 2 - Final]])</f>
+        <v>34.5</v>
+      </c>
+    </row>
+    <row r="26" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A26" t="s">
         <v>9</v>
       </c>
@@ -2718,8 +3087,17 @@
         <f>SUM(Tabela5[[#This Row],[Nota P1 Final]],Tabela5[[#This Row],[Nota P2 Final]],Tabela5[[#This Row],[TP1]])</f>
         <v>34.200000000000003</v>
       </c>
-    </row>
-    <row r="27" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="U26" s="1"/>
+      <c r="V26" s="1"/>
+      <c r="W26" s="1"/>
+      <c r="X26" s="1"/>
+      <c r="Y26" s="1"/>
+      <c r="Z26" s="1">
+        <f>SUM(Tabela5[[#This Row],[TP2]:[Pontos extra]],Tabela5[[#This Row],[Mód 1 e 2 - Final]])</f>
+        <v>34.200000000000003</v>
+      </c>
+    </row>
+    <row r="27" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A27" t="s">
         <v>9</v>
       </c>
@@ -2781,8 +3159,17 @@
         <f>SUM(Tabela5[[#This Row],[Nota P1 Final]],Tabela5[[#This Row],[Nota P2 Final]],Tabela5[[#This Row],[TP1]])</f>
         <v>34</v>
       </c>
-    </row>
-    <row r="28" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="U27" s="1"/>
+      <c r="V27" s="1"/>
+      <c r="W27" s="1"/>
+      <c r="X27" s="1"/>
+      <c r="Y27" s="1"/>
+      <c r="Z27" s="1">
+        <f>SUM(Tabela5[[#This Row],[TP2]:[Pontos extra]],Tabela5[[#This Row],[Mód 1 e 2 - Final]])</f>
+        <v>34</v>
+      </c>
+    </row>
+    <row r="28" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A28" t="s">
         <v>1</v>
       </c>
@@ -2844,8 +3231,17 @@
         <f>SUM(Tabela5[[#This Row],[Nota P1 Final]],Tabela5[[#This Row],[Nota P2 Final]],Tabela5[[#This Row],[TP1]])</f>
         <v>33.700000000000003</v>
       </c>
-    </row>
-    <row r="29" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="U28" s="1"/>
+      <c r="V28" s="1"/>
+      <c r="W28" s="1"/>
+      <c r="X28" s="1"/>
+      <c r="Y28" s="1"/>
+      <c r="Z28" s="1">
+        <f>SUM(Tabela5[[#This Row],[TP2]:[Pontos extra]],Tabela5[[#This Row],[Mód 1 e 2 - Final]])</f>
+        <v>33.700000000000003</v>
+      </c>
+    </row>
+    <row r="29" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A29" t="s">
         <v>9</v>
       </c>
@@ -2907,8 +3303,17 @@
         <f>SUM(Tabela5[[#This Row],[Nota P1 Final]],Tabela5[[#This Row],[Nota P2 Final]],Tabela5[[#This Row],[TP1]])</f>
         <v>33</v>
       </c>
-    </row>
-    <row r="30" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="U29" s="1"/>
+      <c r="V29" s="1"/>
+      <c r="W29" s="1"/>
+      <c r="X29" s="1"/>
+      <c r="Y29" s="1"/>
+      <c r="Z29" s="1">
+        <f>SUM(Tabela5[[#This Row],[TP2]:[Pontos extra]],Tabela5[[#This Row],[Mód 1 e 2 - Final]])</f>
+        <v>33</v>
+      </c>
+    </row>
+    <row r="30" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A30" t="s">
         <v>9</v>
       </c>
@@ -2970,8 +3375,17 @@
         <f>SUM(Tabela5[[#This Row],[Nota P1 Final]],Tabela5[[#This Row],[Nota P2 Final]],Tabela5[[#This Row],[TP1]])</f>
         <v>33</v>
       </c>
-    </row>
-    <row r="31" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="U30" s="1"/>
+      <c r="V30" s="1"/>
+      <c r="W30" s="1"/>
+      <c r="X30" s="1"/>
+      <c r="Y30" s="1"/>
+      <c r="Z30" s="1">
+        <f>SUM(Tabela5[[#This Row],[TP2]:[Pontos extra]],Tabela5[[#This Row],[Mód 1 e 2 - Final]])</f>
+        <v>33</v>
+      </c>
+    </row>
+    <row r="31" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A31" t="s">
         <v>9</v>
       </c>
@@ -3033,8 +3447,17 @@
         <f>SUM(Tabela5[[#This Row],[Nota P1 Final]],Tabela5[[#This Row],[Nota P2 Final]],Tabela5[[#This Row],[TP1]])</f>
         <v>32.700000000000003</v>
       </c>
-    </row>
-    <row r="32" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="U31" s="1"/>
+      <c r="V31" s="1"/>
+      <c r="W31" s="1"/>
+      <c r="X31" s="1"/>
+      <c r="Y31" s="1"/>
+      <c r="Z31" s="1">
+        <f>SUM(Tabela5[[#This Row],[TP2]:[Pontos extra]],Tabela5[[#This Row],[Mód 1 e 2 - Final]])</f>
+        <v>32.700000000000003</v>
+      </c>
+    </row>
+    <row r="32" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A32" t="s">
         <v>9</v>
       </c>
@@ -3096,8 +3519,17 @@
         <f>SUM(Tabela5[[#This Row],[Nota P1 Final]],Tabela5[[#This Row],[Nota P2 Final]],Tabela5[[#This Row],[TP1]])</f>
         <v>32.4</v>
       </c>
-    </row>
-    <row r="33" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="U32" s="1"/>
+      <c r="V32" s="1"/>
+      <c r="W32" s="1"/>
+      <c r="X32" s="1"/>
+      <c r="Y32" s="1"/>
+      <c r="Z32" s="1">
+        <f>SUM(Tabela5[[#This Row],[TP2]:[Pontos extra]],Tabela5[[#This Row],[Mód 1 e 2 - Final]])</f>
+        <v>32.4</v>
+      </c>
+    </row>
+    <row r="33" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A33" t="s">
         <v>1</v>
       </c>
@@ -3159,8 +3591,17 @@
         <f>SUM(Tabela5[[#This Row],[Nota P1 Final]],Tabela5[[#This Row],[Nota P2 Final]],Tabela5[[#This Row],[TP1]])</f>
         <v>31.4</v>
       </c>
-    </row>
-    <row r="34" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="U33" s="1"/>
+      <c r="V33" s="1"/>
+      <c r="W33" s="1"/>
+      <c r="X33" s="1"/>
+      <c r="Y33" s="1"/>
+      <c r="Z33" s="1">
+        <f>SUM(Tabela5[[#This Row],[TP2]:[Pontos extra]],Tabela5[[#This Row],[Mód 1 e 2 - Final]])</f>
+        <v>31.4</v>
+      </c>
+    </row>
+    <row r="34" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A34" t="s">
         <v>9</v>
       </c>
@@ -3222,8 +3663,17 @@
         <f>SUM(Tabela5[[#This Row],[Nota P1 Final]],Tabela5[[#This Row],[Nota P2 Final]],Tabela5[[#This Row],[TP1]])</f>
         <v>28.9</v>
       </c>
-    </row>
-    <row r="35" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="U34" s="1"/>
+      <c r="V34" s="1"/>
+      <c r="W34" s="1"/>
+      <c r="X34" s="1"/>
+      <c r="Y34" s="1"/>
+      <c r="Z34" s="1">
+        <f>SUM(Tabela5[[#This Row],[TP2]:[Pontos extra]],Tabela5[[#This Row],[Mód 1 e 2 - Final]])</f>
+        <v>28.9</v>
+      </c>
+    </row>
+    <row r="35" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A35" t="s">
         <v>9</v>
       </c>
@@ -3285,8 +3735,17 @@
         <f>SUM(Tabela5[[#This Row],[Nota P1 Final]],Tabela5[[#This Row],[Nota P2 Final]],Tabela5[[#This Row],[TP1]])</f>
         <v>28.5</v>
       </c>
-    </row>
-    <row r="36" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="U35" s="1"/>
+      <c r="V35" s="1"/>
+      <c r="W35" s="1"/>
+      <c r="X35" s="1"/>
+      <c r="Y35" s="1"/>
+      <c r="Z35" s="1">
+        <f>SUM(Tabela5[[#This Row],[TP2]:[Pontos extra]],Tabela5[[#This Row],[Mód 1 e 2 - Final]])</f>
+        <v>28.5</v>
+      </c>
+    </row>
+    <row r="36" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A36" t="s">
         <v>9</v>
       </c>
@@ -3348,8 +3807,17 @@
         <f>SUM(Tabela5[[#This Row],[Nota P1 Final]],Tabela5[[#This Row],[Nota P2 Final]],Tabela5[[#This Row],[TP1]])</f>
         <v>27.9</v>
       </c>
-    </row>
-    <row r="37" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="U36" s="1"/>
+      <c r="V36" s="1"/>
+      <c r="W36" s="1"/>
+      <c r="X36" s="1"/>
+      <c r="Y36" s="1"/>
+      <c r="Z36" s="1">
+        <f>SUM(Tabela5[[#This Row],[TP2]:[Pontos extra]],Tabela5[[#This Row],[Mód 1 e 2 - Final]])</f>
+        <v>27.9</v>
+      </c>
+    </row>
+    <row r="37" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A37" t="s">
         <v>1</v>
       </c>
@@ -3411,8 +3879,17 @@
         <f>SUM(Tabela5[[#This Row],[Nota P1 Final]],Tabela5[[#This Row],[Nota P2 Final]],Tabela5[[#This Row],[TP1]])</f>
         <v>24.9</v>
       </c>
-    </row>
-    <row r="38" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="U37" s="1"/>
+      <c r="V37" s="1"/>
+      <c r="W37" s="1"/>
+      <c r="X37" s="1"/>
+      <c r="Y37" s="1"/>
+      <c r="Z37" s="1">
+        <f>SUM(Tabela5[[#This Row],[TP2]:[Pontos extra]],Tabela5[[#This Row],[Mód 1 e 2 - Final]])</f>
+        <v>24.9</v>
+      </c>
+    </row>
+    <row r="38" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A38" t="s">
         <v>9</v>
       </c>
@@ -3474,8 +3951,17 @@
         <f>SUM(Tabela5[[#This Row],[Nota P1 Final]],Tabela5[[#This Row],[Nota P2 Final]],Tabela5[[#This Row],[TP1]])</f>
         <v>23.9</v>
       </c>
-    </row>
-    <row r="39" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="U38" s="1"/>
+      <c r="V38" s="1"/>
+      <c r="W38" s="1"/>
+      <c r="X38" s="1"/>
+      <c r="Y38" s="1"/>
+      <c r="Z38" s="1">
+        <f>SUM(Tabela5[[#This Row],[TP2]:[Pontos extra]],Tabela5[[#This Row],[Mód 1 e 2 - Final]])</f>
+        <v>23.9</v>
+      </c>
+    </row>
+    <row r="39" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A39" t="s">
         <v>1</v>
       </c>
@@ -3537,8 +4023,17 @@
         <f>SUM(Tabela5[[#This Row],[Nota P1 Final]],Tabela5[[#This Row],[Nota P2 Final]],Tabela5[[#This Row],[TP1]])</f>
         <v>22.6</v>
       </c>
-    </row>
-    <row r="40" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="U39" s="1"/>
+      <c r="V39" s="1"/>
+      <c r="W39" s="1"/>
+      <c r="X39" s="1"/>
+      <c r="Y39" s="1"/>
+      <c r="Z39" s="1">
+        <f>SUM(Tabela5[[#This Row],[TP2]:[Pontos extra]],Tabela5[[#This Row],[Mód 1 e 2 - Final]])</f>
+        <v>22.6</v>
+      </c>
+    </row>
+    <row r="40" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A40" t="s">
         <v>9</v>
       </c>
@@ -3600,8 +4095,17 @@
         <f>SUM(Tabela5[[#This Row],[Nota P1 Final]],Tabela5[[#This Row],[Nota P2 Final]],Tabela5[[#This Row],[TP1]])</f>
         <v>22.4</v>
       </c>
-    </row>
-    <row r="41" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="U40" s="1"/>
+      <c r="V40" s="1"/>
+      <c r="W40" s="1"/>
+      <c r="X40" s="1"/>
+      <c r="Y40" s="1"/>
+      <c r="Z40" s="1">
+        <f>SUM(Tabela5[[#This Row],[TP2]:[Pontos extra]],Tabela5[[#This Row],[Mód 1 e 2 - Final]])</f>
+        <v>22.4</v>
+      </c>
+    </row>
+    <row r="41" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A41" t="s">
         <v>9</v>
       </c>
@@ -3663,8 +4167,17 @@
         <f>SUM(Tabela5[[#This Row],[Nota P1 Final]],Tabela5[[#This Row],[Nota P2 Final]],Tabela5[[#This Row],[TP1]])</f>
         <v>21.5</v>
       </c>
-    </row>
-    <row r="42" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="U41" s="1"/>
+      <c r="V41" s="1"/>
+      <c r="W41" s="1"/>
+      <c r="X41" s="1"/>
+      <c r="Y41" s="1"/>
+      <c r="Z41" s="1">
+        <f>SUM(Tabela5[[#This Row],[TP2]:[Pontos extra]],Tabela5[[#This Row],[Mód 1 e 2 - Final]])</f>
+        <v>21.5</v>
+      </c>
+    </row>
+    <row r="42" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A42" t="s">
         <v>9</v>
       </c>
@@ -3726,8 +4239,17 @@
         <f>SUM(Tabela5[[#This Row],[Nota P1 Final]],Tabela5[[#This Row],[Nota P2 Final]],Tabela5[[#This Row],[TP1]])</f>
         <v>20.7</v>
       </c>
-    </row>
-    <row r="43" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="U42" s="1"/>
+      <c r="V42" s="1"/>
+      <c r="W42" s="1"/>
+      <c r="X42" s="1"/>
+      <c r="Y42" s="1"/>
+      <c r="Z42" s="1">
+        <f>SUM(Tabela5[[#This Row],[TP2]:[Pontos extra]],Tabela5[[#This Row],[Mód 1 e 2 - Final]])</f>
+        <v>20.7</v>
+      </c>
+    </row>
+    <row r="43" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A43" t="s">
         <v>9</v>
       </c>
@@ -3789,8 +4311,17 @@
         <f>SUM(Tabela5[[#This Row],[Nota P1 Final]],Tabela5[[#This Row],[Nota P2 Final]],Tabela5[[#This Row],[TP1]])</f>
         <v>19.7</v>
       </c>
-    </row>
-    <row r="44" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="U43" s="1"/>
+      <c r="V43" s="1"/>
+      <c r="W43" s="1"/>
+      <c r="X43" s="1"/>
+      <c r="Y43" s="1"/>
+      <c r="Z43" s="1">
+        <f>SUM(Tabela5[[#This Row],[TP2]:[Pontos extra]],Tabela5[[#This Row],[Mód 1 e 2 - Final]])</f>
+        <v>19.7</v>
+      </c>
+    </row>
+    <row r="44" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A44" t="s">
         <v>1</v>
       </c>
@@ -3852,8 +4383,17 @@
         <f>SUM(Tabela5[[#This Row],[Nota P1 Final]],Tabela5[[#This Row],[Nota P2 Final]],Tabela5[[#This Row],[TP1]])</f>
         <v>19</v>
       </c>
-    </row>
-    <row r="45" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="U44" s="1"/>
+      <c r="V44" s="1"/>
+      <c r="W44" s="1"/>
+      <c r="X44" s="1"/>
+      <c r="Y44" s="1"/>
+      <c r="Z44" s="1">
+        <f>SUM(Tabela5[[#This Row],[TP2]:[Pontos extra]],Tabela5[[#This Row],[Mód 1 e 2 - Final]])</f>
+        <v>19</v>
+      </c>
+    </row>
+    <row r="45" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A45" t="s">
         <v>1</v>
       </c>
@@ -3915,8 +4455,17 @@
         <f>SUM(Tabela5[[#This Row],[Nota P1 Final]],Tabela5[[#This Row],[Nota P2 Final]],Tabela5[[#This Row],[TP1]])</f>
         <v>17</v>
       </c>
-    </row>
-    <row r="46" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="U45" s="1"/>
+      <c r="V45" s="1"/>
+      <c r="W45" s="1"/>
+      <c r="X45" s="1"/>
+      <c r="Y45" s="1"/>
+      <c r="Z45" s="1">
+        <f>SUM(Tabela5[[#This Row],[TP2]:[Pontos extra]],Tabela5[[#This Row],[Mód 1 e 2 - Final]])</f>
+        <v>17</v>
+      </c>
+    </row>
+    <row r="46" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A46" t="s">
         <v>9</v>
       </c>
@@ -3978,8 +4527,17 @@
         <f>SUM(Tabela5[[#This Row],[Nota P1 Final]],Tabela5[[#This Row],[Nota P2 Final]],Tabela5[[#This Row],[TP1]])</f>
         <v>14</v>
       </c>
-    </row>
-    <row r="47" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="U46" s="1"/>
+      <c r="V46" s="1"/>
+      <c r="W46" s="1"/>
+      <c r="X46" s="1"/>
+      <c r="Y46" s="1"/>
+      <c r="Z46" s="1">
+        <f>SUM(Tabela5[[#This Row],[TP2]:[Pontos extra]],Tabela5[[#This Row],[Mód 1 e 2 - Final]])</f>
+        <v>14</v>
+      </c>
+    </row>
+    <row r="47" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A47" t="s">
         <v>9</v>
       </c>
@@ -4041,8 +4599,17 @@
         <f>SUM(Tabela5[[#This Row],[Nota P1 Final]],Tabela5[[#This Row],[Nota P2 Final]],Tabela5[[#This Row],[TP1]])</f>
         <v>12.5</v>
       </c>
-    </row>
-    <row r="48" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="U47" s="1"/>
+      <c r="V47" s="1"/>
+      <c r="W47" s="1"/>
+      <c r="X47" s="1"/>
+      <c r="Y47" s="1"/>
+      <c r="Z47" s="1">
+        <f>SUM(Tabela5[[#This Row],[TP2]:[Pontos extra]],Tabela5[[#This Row],[Mód 1 e 2 - Final]])</f>
+        <v>12.5</v>
+      </c>
+    </row>
+    <row r="48" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A48" t="s">
         <v>9</v>
       </c>
@@ -4104,8 +4671,17 @@
         <f>SUM(Tabela5[[#This Row],[Nota P1 Final]],Tabela5[[#This Row],[Nota P2 Final]],Tabela5[[#This Row],[TP1]])</f>
         <v>8.5</v>
       </c>
-    </row>
-    <row r="49" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="U48" s="1"/>
+      <c r="V48" s="1"/>
+      <c r="W48" s="1"/>
+      <c r="X48" s="1"/>
+      <c r="Y48" s="1"/>
+      <c r="Z48" s="1">
+        <f>SUM(Tabela5[[#This Row],[TP2]:[Pontos extra]],Tabela5[[#This Row],[Mód 1 e 2 - Final]])</f>
+        <v>8.5</v>
+      </c>
+    </row>
+    <row r="49" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A49" t="s">
         <v>9</v>
       </c>
@@ -4167,8 +4743,17 @@
         <f>SUM(Tabela5[[#This Row],[Nota P1 Final]],Tabela5[[#This Row],[Nota P2 Final]],Tabela5[[#This Row],[TP1]])</f>
         <v>0</v>
       </c>
-    </row>
-    <row r="50" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="U49" s="1"/>
+      <c r="V49" s="1"/>
+      <c r="W49" s="1"/>
+      <c r="X49" s="1"/>
+      <c r="Y49" s="1"/>
+      <c r="Z49" s="1">
+        <f>SUM(Tabela5[[#This Row],[TP2]:[Pontos extra]],Tabela5[[#This Row],[Mód 1 e 2 - Final]])</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="50" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A50" t="s">
         <v>9</v>
       </c>
@@ -4230,8 +4815,17 @@
         <f>SUM(Tabela5[[#This Row],[Nota P1 Final]],Tabela5[[#This Row],[Nota P2 Final]],Tabela5[[#This Row],[TP1]])</f>
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="U50" s="1"/>
+      <c r="V50" s="1"/>
+      <c r="W50" s="1"/>
+      <c r="X50" s="1"/>
+      <c r="Y50" s="1"/>
+      <c r="Z50" s="1">
+        <f>SUM(Tabela5[[#This Row],[TP2]:[Pontos extra]],Tabela5[[#This Row],[Mód 1 e 2 - Final]])</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A51" t="s">
         <v>9</v>
       </c>
@@ -4293,8 +4887,17 @@
         <f>SUM(Tabela5[[#This Row],[Nota P1 Final]],Tabela5[[#This Row],[Nota P2 Final]],Tabela5[[#This Row],[TP1]])</f>
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="U51" s="1"/>
+      <c r="V51" s="1"/>
+      <c r="W51" s="1"/>
+      <c r="X51" s="1"/>
+      <c r="Y51" s="1"/>
+      <c r="Z51" s="1">
+        <f>SUM(Tabela5[[#This Row],[TP2]:[Pontos extra]],Tabela5[[#This Row],[Mód 1 e 2 - Final]])</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A52" t="s">
         <v>9</v>
       </c>
@@ -4356,8 +4959,17 @@
         <f>SUM(Tabela5[[#This Row],[Nota P1 Final]],Tabela5[[#This Row],[Nota P2 Final]],Tabela5[[#This Row],[TP1]])</f>
         <v>0</v>
       </c>
-    </row>
-    <row r="53" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="U52" s="1"/>
+      <c r="V52" s="1"/>
+      <c r="W52" s="1"/>
+      <c r="X52" s="1"/>
+      <c r="Y52" s="1"/>
+      <c r="Z52" s="1">
+        <f>SUM(Tabela5[[#This Row],[TP2]:[Pontos extra]],Tabela5[[#This Row],[Mód 1 e 2 - Final]])</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="53" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A53" t="s">
         <v>1</v>
       </c>
@@ -4419,10 +5031,43 @@
         <f>SUM(Tabela5[[#This Row],[Nota P1 Final]],Tabela5[[#This Row],[Nota P2 Final]],Tabela5[[#This Row],[TP1]])</f>
         <v>0</v>
       </c>
+      <c r="U53" s="1"/>
+      <c r="V53" s="1"/>
+      <c r="W53" s="1"/>
+      <c r="X53" s="1"/>
+      <c r="Y53" s="1"/>
+      <c r="Z53" s="1">
+        <f>SUM(Tabela5[[#This Row],[TP2]:[Pontos extra]],Tabela5[[#This Row],[Mód 1 e 2 - Final]])</f>
+        <v>0</v>
+      </c>
     </row>
   </sheetData>
   <phoneticPr fontId="3" type="noConversion"/>
   <conditionalFormatting sqref="D1:H1">
+    <cfRule type="colorScale" priority="18">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D3:H53">
+    <cfRule type="colorScale" priority="16">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="I3:I53">
     <cfRule type="colorScale" priority="12">
       <colorScale>
         <cfvo type="min"/>
@@ -4434,7 +5079,67 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="D3:H53">
+  <conditionalFormatting sqref="J3:J53">
+    <cfRule type="colorScale" priority="9">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="K1:O1">
+    <cfRule type="colorScale" priority="17">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="K3:O53">
+    <cfRule type="colorScale" priority="15">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="P3:P53">
+    <cfRule type="colorScale" priority="13">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="Q3:Q53">
+    <cfRule type="colorScale" priority="8">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="R3:R53">
     <cfRule type="colorScale" priority="10">
       <colorScale>
         <cfvo type="min"/>
@@ -4446,7 +5151,31 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="I3:I53">
+  <conditionalFormatting sqref="S3:S53">
+    <cfRule type="colorScale" priority="11">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="T3:T53">
+    <cfRule type="colorScale" priority="7">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="U3:U53">
     <cfRule type="colorScale" priority="6">
       <colorScale>
         <cfvo type="min"/>
@@ -4458,43 +5187,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="K1:O1">
-    <cfRule type="colorScale" priority="11">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
-        <color rgb="FFF8696B"/>
-        <color rgb="FFFFEB84"/>
-        <color rgb="FF63BE7B"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="K3:O53">
-    <cfRule type="colorScale" priority="9">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
-        <color rgb="FFF8696B"/>
-        <color rgb="FFFFEB84"/>
-        <color rgb="FF63BE7B"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="P3:P53">
-    <cfRule type="colorScale" priority="7">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
-        <color rgb="FFF8696B"/>
-        <color rgb="FFFFEB84"/>
-        <color rgb="FF63BE7B"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="S3:S53">
+  <conditionalFormatting sqref="V3:V53">
     <cfRule type="colorScale" priority="5">
       <colorScale>
         <cfvo type="min"/>
@@ -4506,7 +5199,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="R3:R53">
+  <conditionalFormatting sqref="W3:W53">
     <cfRule type="colorScale" priority="4">
       <colorScale>
         <cfvo type="min"/>
@@ -4518,7 +5211,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="J3:J53">
+  <conditionalFormatting sqref="X3:X53">
     <cfRule type="colorScale" priority="3">
       <colorScale>
         <cfvo type="min"/>
@@ -4530,7 +5223,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="Q3:Q53">
+  <conditionalFormatting sqref="Y3:Y53">
     <cfRule type="colorScale" priority="2">
       <colorScale>
         <cfvo type="min"/>
@@ -4542,7 +5235,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="T3:T53">
+  <conditionalFormatting sqref="Z3:Z53">
     <cfRule type="colorScale" priority="1">
       <colorScale>
         <cfvo type="min"/>

--- a/2024.2/Materiais enviados/Provas/Módulo 1/Notas.xlsx
+++ b/2024.2/Materiais enviados/Provas/Módulo 1/Notas.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="B:\GitHub\UFMG\Disciplinas\DCC865-Projeto_e_Analise_de_Algoritmos\2024.2\Materiais enviados\Provas\Módulo 1\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{11A488B7-E471-4651-962B-2AE417E7E3B4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B54B3B5C-474C-48E2-8028-CAD85A8A2269}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Todas as notas" sheetId="3" r:id="rId1"/>
@@ -26,6 +26,15 @@
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
+    </ext>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+      </xcalcf:calcFeatures>
     </ext>
   </extLst>
 </workbook>
@@ -328,6 +337,12 @@
       <numFmt numFmtId="164" formatCode="0.0"/>
     </dxf>
     <dxf>
+      <numFmt numFmtId="30" formatCode="@"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="30" formatCode="@"/>
+    </dxf>
+    <dxf>
       <font>
         <strike val="0"/>
         <outline val="0"/>
@@ -512,12 +527,6 @@
         <scheme val="minor"/>
       </font>
       <numFmt numFmtId="164" formatCode="0.0"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="30" formatCode="@"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="30" formatCode="@"/>
     </dxf>
     <dxf>
       <font>
@@ -830,12 +839,12 @@
     <tableColumn id="23" xr3:uid="{7901F6CF-6B59-478C-984E-58F7FB41B596}" name="Mód 1 e 2 - Final" dataDxfId="22">
       <calculatedColumnFormula>SUM(Tabela5[[#This Row],[Nota P1 Final]],Tabela5[[#This Row],[Nota P2 Final]],Tabela5[[#This Row],[TP1]])</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="18" xr3:uid="{2BB8863D-70A9-449D-A39D-BD3F00934510}" name="TP2" dataDxfId="5"/>
-    <tableColumn id="19" xr3:uid="{B7279591-CB9C-4FE0-99B7-C40B13848475}" name="Lista 1" dataDxfId="4"/>
-    <tableColumn id="22" xr3:uid="{654759A5-38C7-4AFE-AF5F-746663F9E8E7}" name="P3" dataDxfId="3"/>
-    <tableColumn id="24" xr3:uid="{B11D91C3-F2D4-47C5-AB11-8FFCF956E48B}" name="P4" dataDxfId="2"/>
-    <tableColumn id="25" xr3:uid="{A860F069-DAFD-4BA6-866E-A3EFAE0E6D76}" name="Pontos extra" dataDxfId="1"/>
-    <tableColumn id="26" xr3:uid="{5B118970-1AC1-46B2-929C-44C3C883ABB6}" name="Total" dataDxfId="0">
+    <tableColumn id="18" xr3:uid="{2BB8863D-70A9-449D-A39D-BD3F00934510}" name="TP2" dataDxfId="21"/>
+    <tableColumn id="19" xr3:uid="{B7279591-CB9C-4FE0-99B7-C40B13848475}" name="Lista 1" dataDxfId="20"/>
+    <tableColumn id="22" xr3:uid="{654759A5-38C7-4AFE-AF5F-746663F9E8E7}" name="P3" dataDxfId="19"/>
+    <tableColumn id="24" xr3:uid="{B11D91C3-F2D4-47C5-AB11-8FFCF956E48B}" name="P4" dataDxfId="18"/>
+    <tableColumn id="25" xr3:uid="{A860F069-DAFD-4BA6-866E-A3EFAE0E6D76}" name="Pontos extra" dataDxfId="17"/>
+    <tableColumn id="26" xr3:uid="{5B118970-1AC1-46B2-929C-44C3C883ABB6}" name="Total" dataDxfId="16">
       <calculatedColumnFormula>SUM(Tabela5[[#This Row],[TP2]:[Pontos extra]],Tabela5[[#This Row],[Mód 1 e 2 - Final]])</calculatedColumnFormula>
     </tableColumn>
   </tableColumns>
@@ -851,14 +860,14 @@
   </sortState>
   <tableColumns count="9">
     <tableColumn id="1" xr3:uid="{BFC0ED60-759B-4BF8-88EE-08E8F81479B6}" name="Turma"/>
-    <tableColumn id="2" xr3:uid="{C0AA615E-562F-485C-8FBD-DED54E1F7ADE}" name="MATRICULA" dataDxfId="21"/>
-    <tableColumn id="9" xr3:uid="{1D4B4CB9-7BB1-43B1-B1DB-D0E028E91578}" name="Nome" dataDxfId="20"/>
-    <tableColumn id="3" xr3:uid="{B811706B-CA27-4CD6-A11D-5EDC50854FF1}" name="Q1" dataDxfId="19"/>
-    <tableColumn id="4" xr3:uid="{9E75F866-5E88-4AB7-862B-E6421E8DA98F}" name="Q2" dataDxfId="18"/>
-    <tableColumn id="5" xr3:uid="{7BCD41E6-B749-403C-B599-9EECC1C8F34C}" name="Q3" dataDxfId="17"/>
-    <tableColumn id="6" xr3:uid="{8A0DD61F-3932-4A92-8E41-45AAAB6C361A}" name="Q4" dataDxfId="16"/>
-    <tableColumn id="7" xr3:uid="{305F59C9-21DF-4808-B78F-695D9697BD49}" name="Q5" dataDxfId="15"/>
-    <tableColumn id="8" xr3:uid="{59A12193-9B24-4649-A9C7-A347CE3F942F}" name="Nota" dataDxfId="14">
+    <tableColumn id="2" xr3:uid="{C0AA615E-562F-485C-8FBD-DED54E1F7ADE}" name="MATRICULA" dataDxfId="15"/>
+    <tableColumn id="9" xr3:uid="{1D4B4CB9-7BB1-43B1-B1DB-D0E028E91578}" name="Nome" dataDxfId="14"/>
+    <tableColumn id="3" xr3:uid="{B811706B-CA27-4CD6-A11D-5EDC50854FF1}" name="Q1" dataDxfId="13"/>
+    <tableColumn id="4" xr3:uid="{9E75F866-5E88-4AB7-862B-E6421E8DA98F}" name="Q2" dataDxfId="12"/>
+    <tableColumn id="5" xr3:uid="{7BCD41E6-B749-403C-B599-9EECC1C8F34C}" name="Q3" dataDxfId="11"/>
+    <tableColumn id="6" xr3:uid="{8A0DD61F-3932-4A92-8E41-45AAAB6C361A}" name="Q4" dataDxfId="10"/>
+    <tableColumn id="7" xr3:uid="{305F59C9-21DF-4808-B78F-695D9697BD49}" name="Q5" dataDxfId="9"/>
+    <tableColumn id="8" xr3:uid="{59A12193-9B24-4649-A9C7-A347CE3F942F}" name="Nota" dataDxfId="8">
       <calculatedColumnFormula>SUM(D3:H3)</calculatedColumnFormula>
     </tableColumn>
   </tableColumns>
@@ -874,14 +883,14 @@
   </sortState>
   <tableColumns count="9">
     <tableColumn id="1" xr3:uid="{9A597B2A-BCEE-4D3B-A0F0-8913F18EDBC4}" name="Turma"/>
-    <tableColumn id="2" xr3:uid="{B44EA045-0897-40BA-B5A8-7B35E81BA541}" name="MATRICULA" dataDxfId="13"/>
-    <tableColumn id="9" xr3:uid="{8ADF0CB9-B3EF-436C-9C96-DFA691839C79}" name="Nome" dataDxfId="12"/>
-    <tableColumn id="3" xr3:uid="{13E5564B-4516-426A-B08E-982059E2E5BC}" name="Q1" dataDxfId="11"/>
-    <tableColumn id="4" xr3:uid="{E60E864D-1AAC-45C0-A70B-13936B6F247F}" name="Q2" dataDxfId="10"/>
-    <tableColumn id="5" xr3:uid="{438DC79B-2286-42C6-8C30-1D0A25F9D8B5}" name="Q3" dataDxfId="9"/>
-    <tableColumn id="6" xr3:uid="{6423B7C0-A146-4ECC-BD49-E25FDE130238}" name="Q4" dataDxfId="8"/>
-    <tableColumn id="7" xr3:uid="{AD0E195E-E577-485E-9732-D5E7E6B29A64}" name="Q5" dataDxfId="7"/>
-    <tableColumn id="8" xr3:uid="{13DFAE64-2AD3-46AE-A775-18B3C9F736A1}" name="Nota" dataDxfId="6">
+    <tableColumn id="2" xr3:uid="{B44EA045-0897-40BA-B5A8-7B35E81BA541}" name="MATRICULA" dataDxfId="7"/>
+    <tableColumn id="9" xr3:uid="{8ADF0CB9-B3EF-436C-9C96-DFA691839C79}" name="Nome" dataDxfId="6"/>
+    <tableColumn id="3" xr3:uid="{13E5564B-4516-426A-B08E-982059E2E5BC}" name="Q1" dataDxfId="5"/>
+    <tableColumn id="4" xr3:uid="{E60E864D-1AAC-45C0-A70B-13936B6F247F}" name="Q2" dataDxfId="4"/>
+    <tableColumn id="5" xr3:uid="{438DC79B-2286-42C6-8C30-1D0A25F9D8B5}" name="Q3" dataDxfId="3"/>
+    <tableColumn id="6" xr3:uid="{6423B7C0-A146-4ECC-BD49-E25FDE130238}" name="Q4" dataDxfId="2"/>
+    <tableColumn id="7" xr3:uid="{AD0E195E-E577-485E-9732-D5E7E6B29A64}" name="Q5" dataDxfId="1"/>
+    <tableColumn id="8" xr3:uid="{13DFAE64-2AD3-46AE-A775-18B3C9F736A1}" name="Nota" dataDxfId="0">
       <calculatedColumnFormula>SUM(D3:H3)</calculatedColumnFormula>
     </tableColumn>
   </tableColumns>
@@ -1154,8 +1163,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{55D759BB-1155-4903-96BA-60B49B282B75}">
   <dimension ref="A1:Z53"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="AB10" sqref="AB10"/>
+    <sheetView tabSelected="1" topLeftCell="C1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="Z14" sqref="Z14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.88671875" defaultRowHeight="14.4" zeroHeight="1" x14ac:dyDescent="0.3"/>
@@ -1263,11 +1272,11 @@
       </c>
       <c r="Y1" s="5">
         <f>AVERAGE(Tabela5[[#All],[Pontos extra]])</f>
-        <v>0</v>
+        <v>14.67</v>
       </c>
       <c r="Z1" s="5">
         <f>AVERAGE(Tabela5[[#All],[Total]])</f>
-        <v>29.907254901960801</v>
+        <v>30.194901960784332</v>
       </c>
     </row>
     <row r="2" spans="1:26" x14ac:dyDescent="0.3">
@@ -2226,11 +2235,11 @@
         <v>0</v>
       </c>
       <c r="Y14" s="1">
-        <v>0</v>
+        <v>14.67</v>
       </c>
       <c r="Z14" s="1">
         <f>SUM(Tabela5[[#This Row],[TP2]:[Pontos extra]],Tabela5[[#This Row],[Mód 1 e 2 - Final]])</f>
-        <v>57.269999999999996</v>
+        <v>71.94</v>
       </c>
     </row>
     <row r="15" spans="1:26" x14ac:dyDescent="0.3">
